--- a/suivis_connaissance.xlsx
+++ b/suivis_connaissance.xlsx
@@ -3212,7 +3212,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3240,7 +3240,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3268,7 +3268,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3296,7 +3296,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3324,7 +3324,7 @@
     <xdr:ext cx="2695575" cy="2695575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image11.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image10.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3448,7 +3448,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3476,7 +3476,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3504,7 +3504,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3532,7 +3532,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3560,7 +3560,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image8.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3656,7 +3656,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3684,7 +3684,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3712,7 +3712,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3740,7 +3740,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3768,7 +3768,7 @@
     <xdr:ext cx="1143000" cy="1143000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image4.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3892,7 +3892,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3920,7 +3920,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3948,7 +3948,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3976,7 +3976,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4004,7 +4004,7 @@
     <xdr:ext cx="1685925" cy="1181100"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image8.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image9.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4128,7 +4128,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4156,7 +4156,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4184,7 +4184,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4212,7 +4212,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4240,7 +4240,7 @@
     <xdr:ext cx="1628775" cy="1143000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image9.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4268,7 +4268,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image8.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4364,7 +4364,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4392,7 +4392,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4420,7 +4420,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4448,7 +4448,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4476,7 +4476,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image8.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4572,7 +4572,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4600,7 +4600,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4628,7 +4628,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4656,7 +4656,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4684,7 +4684,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image10.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image11.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>

--- a/suivis_connaissance.xlsx
+++ b/suivis_connaissance.xlsx
@@ -8,8 +8,7 @@
     <sheet name="becasse" sheetId="6" state="visible" r:id="rId3"/>
     <sheet name="loup" sheetId="7" state="visible" r:id="rId4"/>
     <sheet name="pmc" sheetId="8" state="visible" r:id="rId5"/>
-    <sheet name="chat" sheetId="9" state="visible" r:id="rId6"/>
-    <sheet name="castor" sheetId="10" state="visible" r:id="rId7"/>
+    <sheet name="castor" sheetId="10" state="visible" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
@@ -432,19 +431,19 @@
     <t>chat</t>
   </si>
   <si>
-    <t>oui</t>
+    <t>non</t>
   </si>
   <si>
     <t>castor</t>
+  </si>
+  <si>
+    <t>oui</t>
   </si>
   <si>
     <t>pmc</t>
   </si>
   <si>
     <t>ongules</t>
-  </si>
-  <si>
-    <t>non</t>
   </si>
   <si>
     <t>loup</t>
@@ -3212,7 +3211,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3268,7 +3267,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3296,7 +3295,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3324,7 +3323,7 @@
     <xdr:ext cx="2695575" cy="2695575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image10.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image11.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3448,7 +3447,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3504,7 +3503,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3532,7 +3531,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3560,7 +3559,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image8.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image4.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3656,7 +3655,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3712,7 +3711,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3740,7 +3739,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3768,7 +3767,7 @@
     <xdr:ext cx="1143000" cy="1143000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3796,7 +3795,7 @@
     <xdr:ext cx="2790825" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3892,7 +3891,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3948,7 +3947,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3976,7 +3975,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4004,7 +4003,7 @@
     <xdr:ext cx="1685925" cy="1181100"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image9.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image8.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4128,7 +4127,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4184,7 +4183,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4212,7 +4211,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4240,7 +4239,7 @@
     <xdr:ext cx="1628775" cy="1143000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image9.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4268,7 +4267,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image8.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image4.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4364,7 +4363,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4420,7 +4419,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4448,7 +4447,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4476,215 +4475,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image8.png" title="Image"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="333375" cy="2419350"/>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Shape 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5184075" y="2575088"/>
-          <a:ext cx="323850" cy="2409825"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst>
-            <a:gd fmla="val 50000" name="adj1"/>
-            <a:gd fmla="val 50000" name="adj2"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="99D7F7"/>
-        </a:solidFill>
-        <a:ln cap="flat" cmpd="sng" w="12700">
-          <a:solidFill>
-            <a:srgbClr val="99D7F7"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-          <a:headEnd len="sm" w="sm" type="none"/>
-          <a:tailEnd len="sm" w="sm" type="none"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr anchorCtr="0" anchor="ctr" bIns="45700" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="45700">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="ctr">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buSzPts val="1100"/>
-            <a:buFont typeface="Arial"/>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:t/>
-          </a:r>
-          <a:endParaRPr sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1276350" cy="609600"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="390525" cy="342900"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1171575</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="504825" cy="409575"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1257300" cy="609600"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>-200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2762250" cy="2400300"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image11.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image4.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -43181,7645 +42972,6 @@
       <c r="A1" s="23"/>
       <c r="B1" s="23"/>
       <c r="C1" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="27" t="str">
-        <f>C1</f>
-        <v>Suivi du Chat forestier</v>
-      </c>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.0" r="2">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="29"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="29"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.0" r="3">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="28"/>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="28"/>
-      <c r="AA3" s="28"/>
-      <c r="AB3" s="28"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28"/>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="28"/>
-      <c r="Z4" s="28"/>
-      <c r="AA4" s="28"/>
-      <c r="AB4" s="28"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="35"/>
-      <c r="S5" s="35"/>
-      <c r="T5" s="37"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="28"/>
-      <c r="Z5" s="28"/>
-      <c r="AA5" s="28"/>
-      <c r="AB5" s="28"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="34"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="39" t="s">
-        <v>240</v>
-      </c>
-      <c r="N6" s="40">
-        <v>1.0</v>
-      </c>
-      <c r="O6" s="26"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="T6" s="45"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="28"/>
-      <c r="AA6" s="28"/>
-      <c r="AB6" s="28"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q7" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="R7" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="S7" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="T7" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="U7" s="28"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="28"/>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="28"/>
-      <c r="AB7" s="28"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="35"/>
-      <c r="B8" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="124" t="s">
-        <v>241</v>
-      </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="28"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="28"/>
-      <c r="Z8" s="28"/>
-      <c r="AA8" s="28"/>
-      <c r="AB8" s="28"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="35"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="29"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="60" t="s">
-        <v>242</v>
-      </c>
-      <c r="T9" s="57"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="28"/>
-      <c r="AA9" s="28"/>
-      <c r="AB9" s="28"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="35"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="29"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="M10" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="N10" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="O10" s="18"/>
-      <c r="P10" s="63"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="28"/>
-      <c r="W10" s="28"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="28"/>
-      <c r="AA10" s="28"/>
-      <c r="AB10" s="28"/>
-    </row>
-    <row customHeight="1" ht="30.0" r="11">
-      <c r="A11" s="35"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="68" t="s">
-        <v>243</v>
-      </c>
-      <c r="M11" s="68" t="s">
-        <v>244</v>
-      </c>
-      <c r="N11" s="69" t="s">
-        <v>245</v>
-      </c>
-      <c r="O11" s="26"/>
-      <c r="P11" s="63"/>
-      <c r="T11" s="57"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28"/>
-      <c r="W11" s="28"/>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="28"/>
-      <c r="AA11" s="28"/>
-      <c r="AB11" s="28"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="35"/>
-      <c r="B12" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="71" t="s">
-        <v>246</v>
-      </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="72" t="s">
-        <v>62</v>
-      </c>
-      <c r="J12" s="73"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="74"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="63"/>
-      <c r="T12" s="57"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28"/>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="28"/>
-      <c r="Z12" s="28"/>
-      <c r="AA12" s="28"/>
-      <c r="AB12" s="28"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="35"/>
-      <c r="B13" s="75"/>
-      <c r="C13" s="29"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="76" t="s">
-        <v>247</v>
-      </c>
-      <c r="J13" s="77"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="74"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="63"/>
-      <c r="T13" s="57"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="28"/>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="28"/>
-      <c r="Z13" s="28"/>
-      <c r="AA13" s="28"/>
-      <c r="AB13" s="28"/>
-    </row>
-    <row customHeight="1" ht="30.0" r="14">
-      <c r="A14" s="35"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="29"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="78"/>
-      <c r="M14" s="78"/>
-      <c r="N14" s="79"/>
-      <c r="O14" s="80"/>
-      <c r="P14" s="79"/>
-      <c r="Q14" s="66"/>
-      <c r="R14" s="66"/>
-      <c r="S14" s="66"/>
-      <c r="T14" s="67"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="28"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="28"/>
-      <c r="AA14" s="28"/>
-      <c r="AB14" s="28"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="35"/>
-      <c r="B15" s="81"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="82" t="s">
-        <v>64</v>
-      </c>
-      <c r="M15" s="83"/>
-      <c r="N15" s="83"/>
-      <c r="O15" s="84"/>
-      <c r="P15" s="82" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q15" s="83"/>
-      <c r="R15" s="83"/>
-      <c r="S15" s="83"/>
-      <c r="T15" s="84"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="28"/>
-      <c r="W15" s="28"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="28"/>
-      <c r="Z15" s="28"/>
-      <c r="AA15" s="28"/>
-      <c r="AB15" s="28"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="35"/>
-      <c r="B16" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="71" t="s">
-        <v>248</v>
-      </c>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="69" t="s">
-        <v>249</v>
-      </c>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="77"/>
-      <c r="P16" s="69" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="77"/>
-      <c r="U16" s="28"/>
-      <c r="V16" s="28"/>
-      <c r="W16" s="28"/>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="28"/>
-      <c r="Z16" s="28"/>
-      <c r="AA16" s="28"/>
-      <c r="AB16" s="28"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="35"/>
-      <c r="B17" s="75"/>
-      <c r="C17" s="29"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="63"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="63"/>
-      <c r="T17" s="57"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="28"/>
-      <c r="W17" s="28"/>
-      <c r="X17" s="28"/>
-      <c r="Y17" s="28"/>
-      <c r="Z17" s="28"/>
-      <c r="AA17" s="28"/>
-      <c r="AB17" s="28"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="35"/>
-      <c r="B18" s="75"/>
-      <c r="C18" s="29"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="63"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="63"/>
-      <c r="T18" s="57"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="28"/>
-      <c r="AA18" s="28"/>
-      <c r="AB18" s="28"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="35"/>
-      <c r="B19" s="75"/>
-      <c r="C19" s="29"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="63"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="63"/>
-      <c r="T19" s="57"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="28"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="28"/>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="28"/>
-      <c r="AA19" s="28"/>
-      <c r="AB19" s="28"/>
-    </row>
-    <row customHeight="1" ht="30.0" r="20">
-      <c r="A20" s="35"/>
-      <c r="B20" s="81"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="63"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="63"/>
-      <c r="T20" s="57"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="28"/>
-      <c r="Z20" s="28"/>
-      <c r="AA20" s="28"/>
-      <c r="AB20" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="21">
-      <c r="A21" s="35"/>
-      <c r="B21" s="85" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="63"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="63"/>
-      <c r="T21" s="57"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="28"/>
-      <c r="W21" s="28"/>
-      <c r="X21" s="28"/>
-      <c r="Y21" s="28"/>
-      <c r="Z21" s="28"/>
-      <c r="AA21" s="28"/>
-      <c r="AB21" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="22">
-      <c r="A22" s="35"/>
-      <c r="B22" s="90" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="91" t="s">
-        <v>251</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="92"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="63"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="63"/>
-      <c r="T22" s="57"/>
-      <c r="U22" s="28"/>
-      <c r="V22" s="28"/>
-      <c r="W22" s="28"/>
-      <c r="X22" s="28"/>
-      <c r="Y22" s="28"/>
-      <c r="Z22" s="28"/>
-      <c r="AA22" s="28"/>
-      <c r="AB22" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="23">
-      <c r="A23" s="35"/>
-      <c r="B23" s="93"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="94" t="s">
-        <v>70</v>
-      </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="92"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="63"/>
-      <c r="O23" s="57"/>
-      <c r="P23" s="63"/>
-      <c r="T23" s="57"/>
-      <c r="U23" s="28"/>
-      <c r="V23" s="28"/>
-      <c r="W23" s="28"/>
-      <c r="X23" s="28"/>
-      <c r="Y23" s="28"/>
-      <c r="Z23" s="28"/>
-      <c r="AA23" s="28"/>
-      <c r="AB23" s="28"/>
-    </row>
-    <row customHeight="1" ht="30.0" r="24">
-      <c r="A24" s="35"/>
-      <c r="B24" s="63"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="95" t="s">
-        <v>252</v>
-      </c>
-      <c r="G24" s="25"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="63"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="63"/>
-      <c r="T24" s="57"/>
-      <c r="U24" s="28"/>
-      <c r="V24" s="28"/>
-      <c r="W24" s="28"/>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="28"/>
-      <c r="Z24" s="28"/>
-      <c r="AA24" s="28"/>
-      <c r="AB24" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="25">
-      <c r="A25" s="35"/>
-      <c r="B25" s="63"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="29"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="63"/>
-      <c r="O25" s="57"/>
-      <c r="P25" s="63"/>
-      <c r="T25" s="57"/>
-      <c r="U25" s="28"/>
-      <c r="V25" s="28"/>
-      <c r="W25" s="28"/>
-      <c r="X25" s="28"/>
-      <c r="Y25" s="28"/>
-      <c r="Z25" s="28"/>
-      <c r="AA25" s="28"/>
-      <c r="AB25" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="26">
-      <c r="A26" s="35"/>
-      <c r="B26" s="63"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="29"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="63"/>
-      <c r="O26" s="57"/>
-      <c r="P26" s="63"/>
-      <c r="T26" s="57"/>
-      <c r="U26" s="28"/>
-      <c r="V26" s="28"/>
-      <c r="W26" s="28"/>
-      <c r="X26" s="28"/>
-      <c r="Y26" s="28"/>
-      <c r="Z26" s="28"/>
-      <c r="AA26" s="28"/>
-      <c r="AB26" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="27">
-      <c r="A27" s="35"/>
-      <c r="B27" s="63"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="29"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="79"/>
-      <c r="M27" s="66"/>
-      <c r="N27" s="66"/>
-      <c r="O27" s="67"/>
-      <c r="P27" s="79"/>
-      <c r="Q27" s="66"/>
-      <c r="R27" s="66"/>
-      <c r="S27" s="66"/>
-      <c r="T27" s="67"/>
-      <c r="U27" s="28"/>
-      <c r="V27" s="28"/>
-      <c r="W27" s="28"/>
-      <c r="X27" s="28"/>
-      <c r="Y27" s="28"/>
-      <c r="Z27" s="28"/>
-      <c r="AA27" s="28"/>
-      <c r="AB27" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="28">
-      <c r="A28" s="35"/>
-      <c r="B28" s="63"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="29"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="82" t="s">
-        <v>71</v>
-      </c>
-      <c r="M28" s="83"/>
-      <c r="N28" s="83"/>
-      <c r="O28" s="84"/>
-      <c r="P28" s="82" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q28" s="83"/>
-      <c r="R28" s="83"/>
-      <c r="S28" s="83"/>
-      <c r="T28" s="84"/>
-      <c r="U28" s="28"/>
-      <c r="V28" s="28"/>
-      <c r="W28" s="28"/>
-      <c r="X28" s="28"/>
-      <c r="Y28" s="28"/>
-      <c r="Z28" s="28"/>
-      <c r="AA28" s="28"/>
-      <c r="AB28" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="29">
-      <c r="A29" s="35"/>
-      <c r="B29" s="63"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="29"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="79"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="96" t="s">
-        <v>253</v>
-      </c>
-      <c r="N29" s="25"/>
-      <c r="O29" s="77"/>
-      <c r="P29" s="138" t="str">
-        <f>=HYPERLINK("https://openobs.mnhn.fr/", "SINP national")</f>
-      </c>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="18"/>
-      <c r="S29" s="119" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="T29" s="92"/>
-      <c r="U29" s="28"/>
-      <c r="V29" s="28"/>
-      <c r="W29" s="28"/>
-      <c r="X29" s="28"/>
-      <c r="Y29" s="28"/>
-      <c r="Z29" s="28"/>
-      <c r="AA29" s="28"/>
-      <c r="AB29" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.0" r="30">
-      <c r="A30" s="35"/>
-      <c r="B30" s="63"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="29"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="J30" s="89"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="55"/>
-      <c r="M30" s="29"/>
-      <c r="O30" s="57"/>
-      <c r="P30" s="138" t="str">
-        <f>=HYPERLINK("https://geonature.arb-idf.fr/geonature/%23/synthese", "Géonat'IdF (CA: Etude Chat forestier) ")</f>
-      </c>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="18"/>
-      <c r="S30" s="119" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="T30" s="92"/>
-      <c r="U30" s="28"/>
-      <c r="V30" s="28"/>
-      <c r="W30" s="28"/>
-      <c r="X30" s="28"/>
-      <c r="Y30" s="28"/>
-      <c r="Z30" s="28"/>
-      <c r="AA30" s="28"/>
-      <c r="AB30" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="31">
-      <c r="A31" s="35"/>
-      <c r="B31" s="63"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="29"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="76" t="s">
-        <v>258</v>
-      </c>
-      <c r="J31" s="77"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="29"/>
-      <c r="O31" s="57"/>
-      <c r="P31" s="97"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="18"/>
-      <c r="S31" s="98"/>
-      <c r="T31" s="92"/>
-      <c r="U31" s="28"/>
-      <c r="V31" s="28"/>
-      <c r="W31" s="28"/>
-      <c r="X31" s="28"/>
-      <c r="Y31" s="28"/>
-      <c r="Z31" s="28"/>
-      <c r="AA31" s="28"/>
-      <c r="AB31" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="32">
-      <c r="A32" s="35"/>
-      <c r="B32" s="63"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="29"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="55"/>
-      <c r="M32" s="29"/>
-      <c r="O32" s="57"/>
-      <c r="P32" s="97"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="18"/>
-      <c r="S32" s="98"/>
-      <c r="T32" s="92"/>
-      <c r="U32" s="28"/>
-      <c r="V32" s="28"/>
-      <c r="W32" s="28"/>
-      <c r="X32" s="28"/>
-      <c r="Y32" s="28"/>
-      <c r="Z32" s="28"/>
-      <c r="AA32" s="28"/>
-      <c r="AB32" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="33">
-      <c r="A33" s="35"/>
-      <c r="B33" s="63"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="29"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="55"/>
-      <c r="M33" s="29"/>
-      <c r="O33" s="57"/>
-      <c r="P33" s="97"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="18"/>
-      <c r="S33" s="98"/>
-      <c r="T33" s="92"/>
-      <c r="U33" s="28"/>
-      <c r="V33" s="28"/>
-      <c r="W33" s="28"/>
-      <c r="X33" s="28"/>
-      <c r="Y33" s="28"/>
-      <c r="Z33" s="28"/>
-      <c r="AA33" s="28"/>
-      <c r="AB33" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="34">
-      <c r="A34" s="35"/>
-      <c r="B34" s="63"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="29"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="63"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="55"/>
-      <c r="M34" s="29"/>
-      <c r="O34" s="57"/>
-      <c r="P34" s="97"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="18"/>
-      <c r="S34" s="98"/>
-      <c r="T34" s="92"/>
-      <c r="U34" s="28"/>
-      <c r="V34" s="28"/>
-      <c r="W34" s="28"/>
-      <c r="X34" s="28"/>
-      <c r="Y34" s="28"/>
-      <c r="Z34" s="28"/>
-      <c r="AA34" s="28"/>
-      <c r="AB34" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="35">
-      <c r="A35" s="35"/>
-      <c r="B35" s="79"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="80"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="67"/>
-      <c r="I35" s="63"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="55"/>
-      <c r="M35" s="29"/>
-      <c r="O35" s="57"/>
-      <c r="P35" s="97"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="18"/>
-      <c r="S35" s="98"/>
-      <c r="T35" s="92"/>
-      <c r="U35" s="28"/>
-      <c r="V35" s="28"/>
-      <c r="W35" s="28"/>
-      <c r="X35" s="28"/>
-      <c r="Y35" s="28"/>
-      <c r="Z35" s="28"/>
-      <c r="AA35" s="28"/>
-      <c r="AB35" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="36">
-      <c r="A36" s="35"/>
-      <c r="B36" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" s="86"/>
-      <c r="D36" s="86"/>
-      <c r="E36" s="87"/>
-      <c r="F36" s="100"/>
-      <c r="G36" s="100"/>
-      <c r="H36" s="100"/>
-      <c r="I36" s="63"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="55"/>
-      <c r="M36" s="29"/>
-      <c r="O36" s="57"/>
-      <c r="P36" s="97"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="18"/>
-      <c r="S36" s="98"/>
-      <c r="T36" s="92"/>
-      <c r="U36" s="28"/>
-      <c r="V36" s="28"/>
-      <c r="W36" s="28"/>
-      <c r="X36" s="28"/>
-      <c r="Y36" s="28"/>
-      <c r="Z36" s="28"/>
-      <c r="AA36" s="28"/>
-      <c r="AB36" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="37">
-      <c r="A37" s="35"/>
-      <c r="B37" s="75"/>
-      <c r="C37" s="101" t="s">
-        <v>77</v>
-      </c>
-      <c r="D37" s="101" t="s">
-        <v>78</v>
-      </c>
-      <c r="E37" s="101" t="s">
-        <v>79</v>
-      </c>
-      <c r="F37" s="101" t="s">
-        <v>80</v>
-      </c>
-      <c r="G37" s="101" t="s">
-        <v>79</v>
-      </c>
-      <c r="H37" s="101" t="s">
-        <v>77</v>
-      </c>
-      <c r="I37" s="63"/>
-      <c r="J37" s="57"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="55"/>
-      <c r="M37" s="29"/>
-      <c r="O37" s="57"/>
-      <c r="P37" s="97"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="18"/>
-      <c r="S37" s="98"/>
-      <c r="T37" s="92"/>
-      <c r="U37" s="28"/>
-      <c r="V37" s="28"/>
-      <c r="W37" s="28"/>
-      <c r="X37" s="28"/>
-      <c r="Y37" s="28"/>
-      <c r="Z37" s="28"/>
-      <c r="AA37" s="28"/>
-      <c r="AB37" s="28"/>
-    </row>
-    <row customHeight="1" ht="12.75" r="38">
-      <c r="A38" s="35"/>
-      <c r="B38" s="102"/>
-      <c r="C38" s="103" t="s">
-        <v>82</v>
-      </c>
-      <c r="D38" s="103" t="s">
-        <v>82</v>
-      </c>
-      <c r="E38" s="103" t="s">
-        <v>82</v>
-      </c>
-      <c r="F38" s="103"/>
-      <c r="G38" s="103"/>
-      <c r="H38" s="103"/>
-      <c r="I38" s="63"/>
-      <c r="J38" s="57"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="55"/>
-      <c r="M38" s="29"/>
-      <c r="O38" s="57"/>
-      <c r="P38" s="97"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="98"/>
-      <c r="T38" s="92"/>
-      <c r="U38" s="28"/>
-      <c r="V38" s="28"/>
-      <c r="W38" s="28"/>
-      <c r="X38" s="28"/>
-      <c r="Y38" s="28"/>
-      <c r="Z38" s="28"/>
-      <c r="AA38" s="28"/>
-      <c r="AB38" s="28"/>
-    </row>
-    <row customHeight="1" ht="12.75" r="39">
-      <c r="A39" s="35"/>
-      <c r="B39" s="102"/>
-      <c r="C39" s="104"/>
-      <c r="D39" s="104"/>
-      <c r="E39" s="104"/>
-      <c r="F39" s="104"/>
-      <c r="G39" s="104"/>
-      <c r="H39" s="104"/>
-      <c r="I39" s="63"/>
-      <c r="J39" s="57"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="55"/>
-      <c r="M39" s="29"/>
-      <c r="O39" s="57"/>
-      <c r="P39" s="97"/>
-      <c r="Q39" s="8"/>
-      <c r="R39" s="18"/>
-      <c r="S39" s="98"/>
-      <c r="T39" s="92"/>
-      <c r="U39" s="28"/>
-      <c r="V39" s="28"/>
-      <c r="W39" s="28"/>
-      <c r="X39" s="28"/>
-      <c r="Y39" s="28"/>
-      <c r="Z39" s="28"/>
-      <c r="AA39" s="28"/>
-      <c r="AB39" s="28"/>
-    </row>
-    <row customHeight="1" ht="12.75" r="40">
-      <c r="A40" s="35"/>
-      <c r="B40" s="102"/>
-      <c r="C40" s="104"/>
-      <c r="D40" s="104"/>
-      <c r="E40" s="104"/>
-      <c r="F40" s="104"/>
-      <c r="G40" s="104"/>
-      <c r="H40" s="104"/>
-      <c r="I40" s="63"/>
-      <c r="J40" s="57"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="55"/>
-      <c r="M40" s="29"/>
-      <c r="O40" s="57"/>
-      <c r="P40" s="97"/>
-      <c r="Q40" s="8"/>
-      <c r="R40" s="18"/>
-      <c r="S40" s="98"/>
-      <c r="T40" s="92"/>
-      <c r="U40" s="28"/>
-      <c r="V40" s="28"/>
-      <c r="W40" s="28"/>
-      <c r="X40" s="28"/>
-      <c r="Y40" s="28"/>
-      <c r="Z40" s="28"/>
-      <c r="AA40" s="28"/>
-      <c r="AB40" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="41">
-      <c r="A41" s="35"/>
-      <c r="B41" s="75"/>
-      <c r="C41" s="101" t="s">
-        <v>77</v>
-      </c>
-      <c r="D41" s="101" t="s">
-        <v>80</v>
-      </c>
-      <c r="E41" s="101" t="s">
-        <v>85</v>
-      </c>
-      <c r="F41" s="101" t="s">
-        <v>86</v>
-      </c>
-      <c r="G41" s="101" t="s">
-        <v>87</v>
-      </c>
-      <c r="H41" s="101" t="s">
-        <v>88</v>
-      </c>
-      <c r="I41" s="63"/>
-      <c r="J41" s="57"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="55"/>
-      <c r="M41" s="29"/>
-      <c r="O41" s="57"/>
-      <c r="P41" s="97"/>
-      <c r="Q41" s="8"/>
-      <c r="R41" s="18"/>
-      <c r="S41" s="98"/>
-      <c r="T41" s="92"/>
-      <c r="U41" s="28"/>
-      <c r="V41" s="28"/>
-      <c r="W41" s="28"/>
-      <c r="X41" s="28"/>
-      <c r="Y41" s="28"/>
-      <c r="Z41" s="28"/>
-      <c r="AA41" s="28"/>
-      <c r="AB41" s="28"/>
-    </row>
-    <row customHeight="1" ht="12.75" r="42">
-      <c r="A42" s="35"/>
-      <c r="B42" s="102"/>
-      <c r="C42" s="103"/>
-      <c r="D42" s="103"/>
-      <c r="E42" s="103"/>
-      <c r="F42" s="103"/>
-      <c r="G42" s="103"/>
-      <c r="H42" s="103" t="s">
-        <v>82</v>
-      </c>
-      <c r="I42" s="63"/>
-      <c r="J42" s="57"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="55"/>
-      <c r="M42" s="31"/>
-      <c r="N42" s="32"/>
-      <c r="O42" s="105"/>
-      <c r="P42" s="106"/>
-      <c r="Q42" s="107"/>
-      <c r="R42" s="108"/>
-      <c r="S42" s="109"/>
-      <c r="T42" s="110"/>
-      <c r="U42" s="28"/>
-      <c r="V42" s="28"/>
-      <c r="W42" s="28"/>
-      <c r="X42" s="28"/>
-      <c r="Y42" s="28"/>
-      <c r="Z42" s="28"/>
-      <c r="AA42" s="28"/>
-      <c r="AB42" s="28"/>
-    </row>
-    <row customHeight="1" ht="12.75" r="43">
-      <c r="A43" s="35"/>
-      <c r="B43" s="102"/>
-      <c r="C43" s="103"/>
-      <c r="D43" s="103"/>
-      <c r="E43" s="103"/>
-      <c r="F43" s="103"/>
-      <c r="G43" s="103"/>
-      <c r="H43" s="103"/>
-      <c r="I43" s="63"/>
-      <c r="J43" s="57"/>
-      <c r="K43" s="35"/>
-      <c r="L43" s="82" t="s">
-        <v>89</v>
-      </c>
-      <c r="M43" s="83"/>
-      <c r="N43" s="83"/>
-      <c r="O43" s="83"/>
-      <c r="P43" s="35"/>
-      <c r="Q43" s="35"/>
-      <c r="R43" s="35"/>
-      <c r="S43" s="35"/>
-      <c r="T43" s="58"/>
-      <c r="U43" s="28"/>
-      <c r="V43" s="28"/>
-      <c r="W43" s="28"/>
-      <c r="X43" s="28"/>
-      <c r="Y43" s="28"/>
-      <c r="Z43" s="28"/>
-      <c r="AA43" s="28"/>
-      <c r="AB43" s="28"/>
-    </row>
-    <row customHeight="1" ht="12.75" r="44">
-      <c r="A44" s="35"/>
-      <c r="B44" s="102"/>
-      <c r="C44" s="104"/>
-      <c r="D44" s="104"/>
-      <c r="E44" s="104"/>
-      <c r="F44" s="104"/>
-      <c r="G44" s="104"/>
-      <c r="H44" s="104"/>
-      <c r="I44" s="63"/>
-      <c r="J44" s="57"/>
-      <c r="K44" s="35"/>
-      <c r="L44" s="69" t="s">
-        <v>184</v>
-      </c>
-      <c r="M44" s="25"/>
-      <c r="N44" s="25"/>
-      <c r="O44" s="25"/>
-      <c r="P44" s="25"/>
-      <c r="Q44" s="25"/>
-      <c r="R44" s="25"/>
-      <c r="S44" s="25"/>
-      <c r="T44" s="77"/>
-      <c r="U44" s="28"/>
-      <c r="V44" s="28"/>
-      <c r="W44" s="28"/>
-      <c r="X44" s="28"/>
-      <c r="Y44" s="28"/>
-      <c r="Z44" s="28"/>
-      <c r="AA44" s="28"/>
-      <c r="AB44" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="45">
-      <c r="A45" s="35"/>
-      <c r="B45" s="111"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="77"/>
-      <c r="I45" s="63"/>
-      <c r="J45" s="57"/>
-      <c r="K45" s="35"/>
-      <c r="L45" s="63"/>
-      <c r="T45" s="57"/>
-      <c r="U45" s="28"/>
-      <c r="V45" s="28"/>
-      <c r="W45" s="28"/>
-      <c r="X45" s="28"/>
-      <c r="Y45" s="28"/>
-      <c r="Z45" s="28"/>
-      <c r="AA45" s="28"/>
-      <c r="AB45" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="46">
-      <c r="A46" s="35"/>
-      <c r="B46" s="79"/>
-      <c r="C46" s="66"/>
-      <c r="D46" s="66"/>
-      <c r="E46" s="66"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="66"/>
-      <c r="H46" s="67"/>
-      <c r="I46" s="79"/>
-      <c r="J46" s="67"/>
-      <c r="K46" s="35"/>
-      <c r="L46" s="112"/>
-      <c r="M46" s="32"/>
-      <c r="N46" s="32"/>
-      <c r="O46" s="32"/>
-      <c r="P46" s="32"/>
-      <c r="Q46" s="32"/>
-      <c r="R46" s="32"/>
-      <c r="S46" s="32"/>
-      <c r="T46" s="105"/>
-      <c r="U46" s="28"/>
-      <c r="V46" s="28"/>
-      <c r="W46" s="28"/>
-      <c r="X46" s="28"/>
-      <c r="Y46" s="28"/>
-      <c r="Z46" s="28"/>
-      <c r="AA46" s="28"/>
-      <c r="AB46" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="47">
-      <c r="A47" s="113" t="s">
-        <v>90</v>
-      </c>
-      <c r="B47" s="23"/>
-      <c r="C47" s="136" t="str">
-        <f>=HYPERLINK("https://professionnels.ofb.fr/fr/doc-fiches-especes/chat-forestier-felis-silvestris-silvestris", "Fiche espèce")</f>
-      </c>
-      <c r="D47" s="86"/>
-      <c r="E47" s="86"/>
-      <c r="F47" s="87"/>
-      <c r="G47" s="121" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H47" s="86"/>
-      <c r="I47" s="86"/>
-      <c r="J47" s="87"/>
-      <c r="K47" s="115" t="s">
-        <v>90</v>
-      </c>
-      <c r="L47" s="18"/>
-      <c r="M47" s="137" t="str">
-        <f>=HYPERLINK("https://ged.ofb.fr/share/page/site/etude-chat-forestier-idf/dashboard", "SiteAlfresco de l'étude IdF")</f>
-      </c>
-      <c r="N47" s="8"/>
-      <c r="O47" s="18"/>
-      <c r="P47" s="122" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q47" s="8"/>
-      <c r="R47" s="8"/>
-      <c r="S47" s="8"/>
-      <c r="T47" s="18"/>
-      <c r="U47" s="28"/>
-      <c r="V47" s="28"/>
-      <c r="W47" s="28"/>
-      <c r="X47" s="28"/>
-      <c r="Y47" s="28"/>
-      <c r="Z47" s="28"/>
-      <c r="AA47" s="28"/>
-      <c r="AB47" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="48">
-      <c r="A48" s="23"/>
-      <c r="B48" s="23"/>
-      <c r="C48" s="137" t="str">
-        <f>=HYPERLINK("https://oai-gem.ofb.fr/exl-php/document-affiche/ofb_recherche_oai/OUVRE_DOC/49974?fic=doc00073302.pdf", "Livret de présentation de l'étude IdF")</f>
-      </c>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="122" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="23"/>
-      <c r="M48" s="137" t="str">
-        <f>=HYPERLINK("https://ged.ofb.fr/share/s/sY4zG36QS1aDJ34fKNlrhw", "Protocole")</f>
-      </c>
-      <c r="N48" s="8"/>
-      <c r="O48" s="18"/>
-      <c r="P48" s="122" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q48" s="8"/>
-      <c r="R48" s="8"/>
-      <c r="S48" s="8"/>
-      <c r="T48" s="18"/>
-      <c r="U48" s="28"/>
-      <c r="V48" s="28"/>
-      <c r="W48" s="28"/>
-      <c r="X48" s="28"/>
-      <c r="Y48" s="28"/>
-      <c r="Z48" s="28"/>
-      <c r="AA48" s="28"/>
-      <c r="AB48" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="49">
-      <c r="A49" s="123">
-        <v>45743.0</v>
-      </c>
-      <c r="B49" s="18"/>
-      <c r="C49" s="137" t="str">
-        <f>=HYPERLINK("https://www.youtube.com/watch?v=UopppCJfUHA", "Vidéo MNHN")</f>
-      </c>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="122" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="23"/>
-      <c r="M49" s="137" t="str">
-        <f>=HYPERLINK("\\SVFCVIN1\DRIDF\05_CONNAISSANCE\PMC\Chat_Forestier%20", "Serveur DR")</f>
-      </c>
-      <c r="N49" s="8"/>
-      <c r="O49" s="18"/>
-      <c r="P49" s="116" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q49" s="8"/>
-      <c r="R49" s="8"/>
-      <c r="S49" s="8"/>
-      <c r="T49" s="18"/>
-      <c r="U49" s="28"/>
-      <c r="V49" s="28"/>
-      <c r="W49" s="28"/>
-      <c r="X49" s="28"/>
-      <c r="Y49" s="28"/>
-      <c r="Z49" s="28"/>
-      <c r="AA49" s="28"/>
-      <c r="AB49" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="50">
-      <c r="A50" s="28"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="28"/>
-      <c r="K50" s="28"/>
-      <c r="L50" s="28"/>
-      <c r="M50" s="28"/>
-      <c r="N50" s="28"/>
-      <c r="O50" s="28"/>
-      <c r="P50" s="28"/>
-      <c r="Q50" s="28"/>
-      <c r="R50" s="28"/>
-      <c r="S50" s="28"/>
-      <c r="T50" s="28"/>
-      <c r="U50" s="28"/>
-      <c r="V50" s="28"/>
-      <c r="W50" s="28"/>
-      <c r="X50" s="28"/>
-      <c r="Y50" s="28"/>
-      <c r="Z50" s="28"/>
-      <c r="AA50" s="28"/>
-      <c r="AB50" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="51">
-      <c r="A51" s="28"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="28"/>
-      <c r="K51" s="28"/>
-      <c r="L51" s="28"/>
-      <c r="M51" s="28"/>
-      <c r="N51" s="28"/>
-      <c r="O51" s="28"/>
-      <c r="P51" s="28"/>
-      <c r="Q51" s="28"/>
-      <c r="R51" s="28"/>
-      <c r="S51" s="28"/>
-      <c r="T51" s="28"/>
-      <c r="U51" s="28"/>
-      <c r="V51" s="28"/>
-      <c r="W51" s="28"/>
-      <c r="X51" s="28"/>
-      <c r="Y51" s="28"/>
-      <c r="Z51" s="28"/>
-      <c r="AA51" s="28"/>
-      <c r="AB51" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="52">
-      <c r="A52" s="28"/>
-      <c r="B52" s="28"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="28"/>
-      <c r="K52" s="28"/>
-      <c r="L52" s="28"/>
-      <c r="M52" s="28"/>
-      <c r="N52" s="28"/>
-      <c r="O52" s="28"/>
-      <c r="P52" s="28"/>
-      <c r="Q52" s="28"/>
-      <c r="R52" s="28"/>
-      <c r="S52" s="28"/>
-      <c r="T52" s="28"/>
-      <c r="U52" s="28"/>
-      <c r="V52" s="28"/>
-      <c r="W52" s="28"/>
-      <c r="X52" s="28"/>
-      <c r="Y52" s="28"/>
-      <c r="Z52" s="28"/>
-      <c r="AA52" s="28"/>
-      <c r="AB52" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="53">
-      <c r="A53" s="28"/>
-      <c r="B53" s="28"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="28"/>
-      <c r="K53" s="28"/>
-      <c r="L53" s="28"/>
-      <c r="M53" s="28"/>
-      <c r="N53" s="28"/>
-      <c r="O53" s="28"/>
-      <c r="P53" s="28"/>
-      <c r="Q53" s="28"/>
-      <c r="R53" s="28"/>
-      <c r="S53" s="28"/>
-      <c r="T53" s="28"/>
-      <c r="U53" s="28"/>
-      <c r="V53" s="28"/>
-      <c r="W53" s="28"/>
-      <c r="X53" s="28"/>
-      <c r="Y53" s="28"/>
-      <c r="Z53" s="28"/>
-      <c r="AA53" s="28"/>
-      <c r="AB53" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="54">
-      <c r="A54" s="28"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="28"/>
-      <c r="L54" s="28"/>
-      <c r="M54" s="28"/>
-      <c r="N54" s="28"/>
-      <c r="O54" s="28"/>
-      <c r="P54" s="28"/>
-      <c r="Q54" s="28"/>
-      <c r="R54" s="28"/>
-      <c r="S54" s="28"/>
-      <c r="T54" s="28"/>
-      <c r="U54" s="28"/>
-      <c r="V54" s="28"/>
-      <c r="W54" s="28"/>
-      <c r="X54" s="28"/>
-      <c r="Y54" s="28"/>
-      <c r="Z54" s="28"/>
-      <c r="AA54" s="28"/>
-      <c r="AB54" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="55">
-      <c r="A55" s="28"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="28"/>
-      <c r="K55" s="28"/>
-      <c r="L55" s="28"/>
-      <c r="M55" s="28"/>
-      <c r="N55" s="28"/>
-      <c r="O55" s="28"/>
-      <c r="P55" s="28"/>
-      <c r="Q55" s="28"/>
-      <c r="R55" s="28"/>
-      <c r="S55" s="28"/>
-      <c r="T55" s="28"/>
-      <c r="U55" s="28"/>
-      <c r="V55" s="28"/>
-      <c r="W55" s="28"/>
-      <c r="X55" s="28"/>
-      <c r="Y55" s="28"/>
-      <c r="Z55" s="28"/>
-      <c r="AA55" s="28"/>
-      <c r="AB55" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="56">
-      <c r="A56" s="28"/>
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
-      <c r="J56" s="28"/>
-      <c r="K56" s="28"/>
-      <c r="L56" s="28"/>
-      <c r="M56" s="28"/>
-      <c r="N56" s="28"/>
-      <c r="O56" s="28"/>
-      <c r="P56" s="28"/>
-      <c r="Q56" s="28"/>
-      <c r="R56" s="28"/>
-      <c r="S56" s="28"/>
-      <c r="T56" s="28"/>
-      <c r="U56" s="28"/>
-      <c r="V56" s="28"/>
-      <c r="W56" s="28"/>
-      <c r="X56" s="28"/>
-      <c r="Y56" s="28"/>
-      <c r="Z56" s="28"/>
-      <c r="AA56" s="28"/>
-      <c r="AB56" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="57">
-      <c r="A57" s="28"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="28"/>
-      <c r="J57" s="28"/>
-      <c r="K57" s="28"/>
-      <c r="L57" s="28"/>
-      <c r="M57" s="28"/>
-      <c r="N57" s="28"/>
-      <c r="O57" s="28"/>
-      <c r="P57" s="28"/>
-      <c r="Q57" s="28"/>
-      <c r="R57" s="28"/>
-      <c r="S57" s="28"/>
-      <c r="T57" s="28"/>
-      <c r="U57" s="28"/>
-      <c r="V57" s="28"/>
-      <c r="W57" s="28"/>
-      <c r="X57" s="28"/>
-      <c r="Y57" s="28"/>
-      <c r="Z57" s="28"/>
-      <c r="AA57" s="28"/>
-      <c r="AB57" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="58">
-      <c r="A58" s="28"/>
-      <c r="B58" s="28"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="28"/>
-      <c r="J58" s="28"/>
-      <c r="K58" s="28"/>
-      <c r="L58" s="28"/>
-      <c r="M58" s="28"/>
-      <c r="N58" s="28"/>
-      <c r="O58" s="28"/>
-      <c r="P58" s="28"/>
-      <c r="Q58" s="28"/>
-      <c r="R58" s="28"/>
-      <c r="S58" s="28"/>
-      <c r="T58" s="28"/>
-      <c r="U58" s="28"/>
-      <c r="V58" s="28"/>
-      <c r="W58" s="28"/>
-      <c r="X58" s="28"/>
-      <c r="Y58" s="28"/>
-      <c r="Z58" s="28"/>
-      <c r="AA58" s="28"/>
-      <c r="AB58" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="59">
-      <c r="A59" s="28"/>
-      <c r="B59" s="28"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="28"/>
-      <c r="K59" s="28"/>
-      <c r="L59" s="28"/>
-      <c r="M59" s="28"/>
-      <c r="N59" s="28"/>
-      <c r="O59" s="28"/>
-      <c r="P59" s="28"/>
-      <c r="Q59" s="28"/>
-      <c r="R59" s="28"/>
-      <c r="S59" s="28"/>
-      <c r="T59" s="28"/>
-      <c r="U59" s="28"/>
-      <c r="V59" s="28"/>
-      <c r="W59" s="28"/>
-      <c r="X59" s="28"/>
-      <c r="Y59" s="28"/>
-      <c r="Z59" s="28"/>
-      <c r="AA59" s="28"/>
-      <c r="AB59" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="60">
-      <c r="A60" s="28"/>
-      <c r="B60" s="28"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="28"/>
-      <c r="J60" s="28"/>
-      <c r="K60" s="28"/>
-      <c r="L60" s="28"/>
-      <c r="M60" s="28"/>
-      <c r="N60" s="28"/>
-      <c r="O60" s="28"/>
-      <c r="P60" s="28"/>
-      <c r="Q60" s="28"/>
-      <c r="R60" s="28"/>
-      <c r="S60" s="28"/>
-      <c r="T60" s="28"/>
-      <c r="U60" s="28"/>
-      <c r="V60" s="28"/>
-      <c r="W60" s="28"/>
-      <c r="X60" s="28"/>
-      <c r="Y60" s="28"/>
-      <c r="Z60" s="28"/>
-      <c r="AA60" s="28"/>
-      <c r="AB60" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61">
-      <c r="A61" s="28"/>
-      <c r="B61" s="28"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="28"/>
-      <c r="J61" s="28"/>
-      <c r="K61" s="28"/>
-      <c r="L61" s="28"/>
-      <c r="M61" s="28"/>
-      <c r="N61" s="28"/>
-      <c r="O61" s="28"/>
-      <c r="P61" s="28"/>
-      <c r="Q61" s="28"/>
-      <c r="R61" s="28"/>
-      <c r="S61" s="28"/>
-      <c r="T61" s="28"/>
-      <c r="U61" s="28"/>
-      <c r="V61" s="28"/>
-      <c r="W61" s="28"/>
-      <c r="X61" s="28"/>
-      <c r="Y61" s="28"/>
-      <c r="Z61" s="28"/>
-      <c r="AA61" s="28"/>
-      <c r="AB61" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="62">
-      <c r="A62" s="28"/>
-      <c r="B62" s="28"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="28"/>
-      <c r="K62" s="28"/>
-      <c r="L62" s="28"/>
-      <c r="M62" s="28"/>
-      <c r="N62" s="28"/>
-      <c r="O62" s="28"/>
-      <c r="P62" s="28"/>
-      <c r="Q62" s="28"/>
-      <c r="R62" s="28"/>
-      <c r="S62" s="28"/>
-      <c r="T62" s="28"/>
-      <c r="U62" s="28"/>
-      <c r="V62" s="28"/>
-      <c r="W62" s="28"/>
-      <c r="X62" s="28"/>
-      <c r="Y62" s="28"/>
-      <c r="Z62" s="28"/>
-      <c r="AA62" s="28"/>
-      <c r="AB62" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="63">
-      <c r="A63" s="28"/>
-      <c r="B63" s="28"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="28"/>
-      <c r="I63" s="28"/>
-      <c r="J63" s="28"/>
-      <c r="K63" s="28"/>
-      <c r="L63" s="28"/>
-      <c r="M63" s="28"/>
-      <c r="N63" s="28"/>
-      <c r="O63" s="28"/>
-      <c r="P63" s="28"/>
-      <c r="Q63" s="28"/>
-      <c r="R63" s="28"/>
-      <c r="S63" s="28"/>
-      <c r="T63" s="28"/>
-      <c r="U63" s="28"/>
-      <c r="V63" s="28"/>
-      <c r="W63" s="28"/>
-      <c r="X63" s="28"/>
-      <c r="Y63" s="28"/>
-      <c r="Z63" s="28"/>
-      <c r="AA63" s="28"/>
-      <c r="AB63" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="64">
-      <c r="A64" s="28"/>
-      <c r="B64" s="28"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="28"/>
-      <c r="H64" s="28"/>
-      <c r="I64" s="28"/>
-      <c r="J64" s="28"/>
-      <c r="K64" s="28"/>
-      <c r="L64" s="28"/>
-      <c r="M64" s="28"/>
-      <c r="N64" s="28"/>
-      <c r="O64" s="28"/>
-      <c r="P64" s="28"/>
-      <c r="Q64" s="28"/>
-      <c r="R64" s="28"/>
-      <c r="S64" s="28"/>
-      <c r="T64" s="28"/>
-      <c r="U64" s="28"/>
-      <c r="V64" s="28"/>
-      <c r="W64" s="28"/>
-      <c r="X64" s="28"/>
-      <c r="Y64" s="28"/>
-      <c r="Z64" s="28"/>
-      <c r="AA64" s="28"/>
-      <c r="AB64" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="65">
-      <c r="A65" s="28"/>
-      <c r="B65" s="28"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="28"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="28"/>
-      <c r="J65" s="28"/>
-      <c r="K65" s="28"/>
-      <c r="L65" s="28"/>
-      <c r="M65" s="28"/>
-      <c r="N65" s="28"/>
-      <c r="O65" s="28"/>
-      <c r="P65" s="28"/>
-      <c r="Q65" s="28"/>
-      <c r="R65" s="28"/>
-      <c r="S65" s="28"/>
-      <c r="T65" s="28"/>
-      <c r="U65" s="28"/>
-      <c r="V65" s="28"/>
-      <c r="W65" s="28"/>
-      <c r="X65" s="28"/>
-      <c r="Y65" s="28"/>
-      <c r="Z65" s="28"/>
-      <c r="AA65" s="28"/>
-      <c r="AB65" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="66">
-      <c r="A66" s="28"/>
-      <c r="B66" s="28"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="28"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="28"/>
-      <c r="J66" s="28"/>
-      <c r="K66" s="28"/>
-      <c r="L66" s="28"/>
-      <c r="M66" s="28"/>
-      <c r="N66" s="28"/>
-      <c r="O66" s="28"/>
-      <c r="P66" s="28"/>
-      <c r="Q66" s="28"/>
-      <c r="R66" s="28"/>
-      <c r="S66" s="28"/>
-      <c r="T66" s="28"/>
-      <c r="U66" s="28"/>
-      <c r="V66" s="28"/>
-      <c r="W66" s="28"/>
-      <c r="X66" s="28"/>
-      <c r="Y66" s="28"/>
-      <c r="Z66" s="28"/>
-      <c r="AA66" s="28"/>
-      <c r="AB66" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="67">
-      <c r="A67" s="28"/>
-      <c r="B67" s="28"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="28"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="28"/>
-      <c r="J67" s="28"/>
-      <c r="K67" s="28"/>
-      <c r="L67" s="28"/>
-      <c r="M67" s="28"/>
-      <c r="N67" s="28"/>
-      <c r="O67" s="28"/>
-      <c r="P67" s="28"/>
-      <c r="Q67" s="28"/>
-      <c r="R67" s="28"/>
-      <c r="S67" s="28"/>
-      <c r="T67" s="28"/>
-      <c r="U67" s="28"/>
-      <c r="V67" s="28"/>
-      <c r="W67" s="28"/>
-      <c r="X67" s="28"/>
-      <c r="Y67" s="28"/>
-      <c r="Z67" s="28"/>
-      <c r="AA67" s="28"/>
-      <c r="AB67" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="68">
-      <c r="A68" s="28"/>
-      <c r="B68" s="28"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="28"/>
-      <c r="K68" s="28"/>
-      <c r="L68" s="28"/>
-      <c r="M68" s="28"/>
-      <c r="N68" s="28"/>
-      <c r="O68" s="28"/>
-      <c r="P68" s="28"/>
-      <c r="Q68" s="28"/>
-      <c r="R68" s="28"/>
-      <c r="S68" s="28"/>
-      <c r="T68" s="28"/>
-      <c r="U68" s="28"/>
-      <c r="V68" s="28"/>
-      <c r="W68" s="28"/>
-      <c r="X68" s="28"/>
-      <c r="Y68" s="28"/>
-      <c r="Z68" s="28"/>
-      <c r="AA68" s="28"/>
-      <c r="AB68" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="69">
-      <c r="A69" s="28"/>
-      <c r="B69" s="28"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="28"/>
-      <c r="E69" s="28"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="28"/>
-      <c r="J69" s="28"/>
-      <c r="K69" s="28"/>
-      <c r="L69" s="28"/>
-      <c r="M69" s="28"/>
-      <c r="N69" s="28"/>
-      <c r="O69" s="28"/>
-      <c r="P69" s="28"/>
-      <c r="Q69" s="28"/>
-      <c r="R69" s="28"/>
-      <c r="S69" s="28"/>
-      <c r="T69" s="28"/>
-      <c r="U69" s="28"/>
-      <c r="V69" s="28"/>
-      <c r="W69" s="28"/>
-      <c r="X69" s="28"/>
-      <c r="Y69" s="28"/>
-      <c r="Z69" s="28"/>
-      <c r="AA69" s="28"/>
-      <c r="AB69" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="70">
-      <c r="A70" s="28"/>
-      <c r="B70" s="28"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="28"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="28"/>
-      <c r="I70" s="28"/>
-      <c r="J70" s="28"/>
-      <c r="K70" s="28"/>
-      <c r="L70" s="28"/>
-      <c r="M70" s="28"/>
-      <c r="N70" s="28"/>
-      <c r="O70" s="28"/>
-      <c r="P70" s="28"/>
-      <c r="Q70" s="28"/>
-      <c r="R70" s="28"/>
-      <c r="S70" s="28"/>
-      <c r="T70" s="28"/>
-      <c r="U70" s="28"/>
-      <c r="V70" s="28"/>
-      <c r="W70" s="28"/>
-      <c r="X70" s="28"/>
-      <c r="Y70" s="28"/>
-      <c r="Z70" s="28"/>
-      <c r="AA70" s="28"/>
-      <c r="AB70" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="71">
-      <c r="A71" s="28"/>
-      <c r="B71" s="28"/>
-      <c r="C71" s="28"/>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="28"/>
-      <c r="K71" s="28"/>
-      <c r="L71" s="28"/>
-      <c r="M71" s="28"/>
-      <c r="N71" s="28"/>
-      <c r="O71" s="28"/>
-      <c r="P71" s="28"/>
-      <c r="Q71" s="28"/>
-      <c r="R71" s="28"/>
-      <c r="S71" s="28"/>
-      <c r="T71" s="28"/>
-      <c r="U71" s="28"/>
-      <c r="V71" s="28"/>
-      <c r="W71" s="28"/>
-      <c r="X71" s="28"/>
-      <c r="Y71" s="28"/>
-      <c r="Z71" s="28"/>
-      <c r="AA71" s="28"/>
-      <c r="AB71" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="72">
-      <c r="A72" s="28"/>
-      <c r="B72" s="28"/>
-      <c r="C72" s="28"/>
-      <c r="D72" s="28"/>
-      <c r="E72" s="28"/>
-      <c r="F72" s="28"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="28"/>
-      <c r="I72" s="28"/>
-      <c r="J72" s="28"/>
-      <c r="K72" s="28"/>
-      <c r="L72" s="28"/>
-      <c r="M72" s="28"/>
-      <c r="N72" s="28"/>
-      <c r="O72" s="28"/>
-      <c r="P72" s="28"/>
-      <c r="Q72" s="28"/>
-      <c r="R72" s="28"/>
-      <c r="S72" s="28"/>
-      <c r="T72" s="28"/>
-      <c r="U72" s="28"/>
-      <c r="V72" s="28"/>
-      <c r="W72" s="28"/>
-      <c r="X72" s="28"/>
-      <c r="Y72" s="28"/>
-      <c r="Z72" s="28"/>
-      <c r="AA72" s="28"/>
-      <c r="AB72" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="73">
-      <c r="A73" s="28"/>
-      <c r="B73" s="28"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="28"/>
-      <c r="E73" s="28"/>
-      <c r="F73" s="28"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="28"/>
-      <c r="I73" s="28"/>
-      <c r="J73" s="28"/>
-      <c r="K73" s="28"/>
-      <c r="L73" s="28"/>
-      <c r="M73" s="28"/>
-      <c r="N73" s="28"/>
-      <c r="O73" s="28"/>
-      <c r="P73" s="28"/>
-      <c r="Q73" s="28"/>
-      <c r="R73" s="28"/>
-      <c r="S73" s="28"/>
-      <c r="T73" s="28"/>
-      <c r="U73" s="28"/>
-      <c r="V73" s="28"/>
-      <c r="W73" s="28"/>
-      <c r="X73" s="28"/>
-      <c r="Y73" s="28"/>
-      <c r="Z73" s="28"/>
-      <c r="AA73" s="28"/>
-      <c r="AB73" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="74">
-      <c r="A74" s="28"/>
-      <c r="B74" s="28"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="28"/>
-      <c r="E74" s="28"/>
-      <c r="F74" s="28"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="28"/>
-      <c r="J74" s="28"/>
-      <c r="K74" s="28"/>
-      <c r="L74" s="28"/>
-      <c r="M74" s="28"/>
-      <c r="N74" s="28"/>
-      <c r="O74" s="28"/>
-      <c r="P74" s="28"/>
-      <c r="Q74" s="28"/>
-      <c r="R74" s="28"/>
-      <c r="S74" s="28"/>
-      <c r="T74" s="28"/>
-      <c r="U74" s="28"/>
-      <c r="V74" s="28"/>
-      <c r="W74" s="28"/>
-      <c r="X74" s="28"/>
-      <c r="Y74" s="28"/>
-      <c r="Z74" s="28"/>
-      <c r="AA74" s="28"/>
-      <c r="AB74" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="75">
-      <c r="A75" s="28"/>
-      <c r="B75" s="28"/>
-      <c r="C75" s="28"/>
-      <c r="D75" s="28"/>
-      <c r="E75" s="28"/>
-      <c r="F75" s="28"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="28"/>
-      <c r="I75" s="28"/>
-      <c r="J75" s="28"/>
-      <c r="K75" s="28"/>
-      <c r="L75" s="28"/>
-      <c r="M75" s="28"/>
-      <c r="N75" s="28"/>
-      <c r="O75" s="28"/>
-      <c r="P75" s="28"/>
-      <c r="Q75" s="28"/>
-      <c r="R75" s="28"/>
-      <c r="S75" s="28"/>
-      <c r="T75" s="28"/>
-      <c r="U75" s="28"/>
-      <c r="V75" s="28"/>
-      <c r="W75" s="28"/>
-      <c r="X75" s="28"/>
-      <c r="Y75" s="28"/>
-      <c r="Z75" s="28"/>
-      <c r="AA75" s="28"/>
-      <c r="AB75" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="76">
-      <c r="A76" s="28"/>
-      <c r="B76" s="28"/>
-      <c r="C76" s="28"/>
-      <c r="D76" s="28"/>
-      <c r="E76" s="28"/>
-      <c r="F76" s="28"/>
-      <c r="G76" s="28"/>
-      <c r="H76" s="28"/>
-      <c r="I76" s="28"/>
-      <c r="J76" s="28"/>
-      <c r="K76" s="28"/>
-      <c r="L76" s="28"/>
-      <c r="M76" s="28"/>
-      <c r="N76" s="28"/>
-      <c r="O76" s="28"/>
-      <c r="P76" s="28"/>
-      <c r="Q76" s="28"/>
-      <c r="R76" s="28"/>
-      <c r="S76" s="28"/>
-      <c r="T76" s="28"/>
-      <c r="U76" s="28"/>
-      <c r="V76" s="28"/>
-      <c r="W76" s="28"/>
-      <c r="X76" s="28"/>
-      <c r="Y76" s="28"/>
-      <c r="Z76" s="28"/>
-      <c r="AA76" s="28"/>
-      <c r="AB76" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="77">
-      <c r="A77" s="28"/>
-      <c r="B77" s="28"/>
-      <c r="C77" s="28"/>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
-      <c r="J77" s="28"/>
-      <c r="K77" s="28"/>
-      <c r="L77" s="28"/>
-      <c r="M77" s="28"/>
-      <c r="N77" s="28"/>
-      <c r="O77" s="28"/>
-      <c r="P77" s="28"/>
-      <c r="Q77" s="28"/>
-      <c r="R77" s="28"/>
-      <c r="S77" s="28"/>
-      <c r="T77" s="28"/>
-      <c r="U77" s="28"/>
-      <c r="V77" s="28"/>
-      <c r="W77" s="28"/>
-      <c r="X77" s="28"/>
-      <c r="Y77" s="28"/>
-      <c r="Z77" s="28"/>
-      <c r="AA77" s="28"/>
-      <c r="AB77" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="78">
-      <c r="A78" s="28"/>
-      <c r="B78" s="28"/>
-      <c r="C78" s="28"/>
-      <c r="D78" s="28"/>
-      <c r="E78" s="28"/>
-      <c r="F78" s="28"/>
-      <c r="G78" s="28"/>
-      <c r="H78" s="28"/>
-      <c r="I78" s="28"/>
-      <c r="J78" s="28"/>
-      <c r="K78" s="28"/>
-      <c r="L78" s="28"/>
-      <c r="M78" s="28"/>
-      <c r="N78" s="28"/>
-      <c r="O78" s="28"/>
-      <c r="P78" s="28"/>
-      <c r="Q78" s="28"/>
-      <c r="R78" s="28"/>
-      <c r="S78" s="28"/>
-      <c r="T78" s="28"/>
-      <c r="U78" s="28"/>
-      <c r="V78" s="28"/>
-      <c r="W78" s="28"/>
-      <c r="X78" s="28"/>
-      <c r="Y78" s="28"/>
-      <c r="Z78" s="28"/>
-      <c r="AA78" s="28"/>
-      <c r="AB78" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="79">
-      <c r="A79" s="28"/>
-      <c r="B79" s="28"/>
-      <c r="C79" s="28"/>
-      <c r="D79" s="28"/>
-      <c r="E79" s="28"/>
-      <c r="F79" s="28"/>
-      <c r="G79" s="28"/>
-      <c r="H79" s="28"/>
-      <c r="I79" s="28"/>
-      <c r="J79" s="28"/>
-      <c r="K79" s="28"/>
-      <c r="L79" s="28"/>
-      <c r="M79" s="28"/>
-      <c r="N79" s="28"/>
-      <c r="O79" s="28"/>
-      <c r="P79" s="28"/>
-      <c r="Q79" s="28"/>
-      <c r="R79" s="28"/>
-      <c r="S79" s="28"/>
-      <c r="T79" s="28"/>
-      <c r="U79" s="28"/>
-      <c r="V79" s="28"/>
-      <c r="W79" s="28"/>
-      <c r="X79" s="28"/>
-      <c r="Y79" s="28"/>
-      <c r="Z79" s="28"/>
-      <c r="AA79" s="28"/>
-      <c r="AB79" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="80">
-      <c r="A80" s="28"/>
-      <c r="B80" s="28"/>
-      <c r="C80" s="28"/>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="28"/>
-      <c r="J80" s="28"/>
-      <c r="K80" s="28"/>
-      <c r="L80" s="28"/>
-      <c r="M80" s="28"/>
-      <c r="N80" s="28"/>
-      <c r="O80" s="28"/>
-      <c r="P80" s="28"/>
-      <c r="Q80" s="28"/>
-      <c r="R80" s="28"/>
-      <c r="S80" s="28"/>
-      <c r="T80" s="28"/>
-      <c r="U80" s="28"/>
-      <c r="V80" s="28"/>
-      <c r="W80" s="28"/>
-      <c r="X80" s="28"/>
-      <c r="Y80" s="28"/>
-      <c r="Z80" s="28"/>
-      <c r="AA80" s="28"/>
-      <c r="AB80" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="81">
-      <c r="A81" s="28"/>
-      <c r="B81" s="28"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="28"/>
-      <c r="E81" s="28"/>
-      <c r="F81" s="28"/>
-      <c r="G81" s="28"/>
-      <c r="H81" s="28"/>
-      <c r="I81" s="28"/>
-      <c r="J81" s="28"/>
-      <c r="K81" s="28"/>
-      <c r="L81" s="28"/>
-      <c r="M81" s="28"/>
-      <c r="N81" s="28"/>
-      <c r="O81" s="28"/>
-      <c r="P81" s="28"/>
-      <c r="Q81" s="28"/>
-      <c r="R81" s="28"/>
-      <c r="S81" s="28"/>
-      <c r="T81" s="28"/>
-      <c r="U81" s="28"/>
-      <c r="V81" s="28"/>
-      <c r="W81" s="28"/>
-      <c r="X81" s="28"/>
-      <c r="Y81" s="28"/>
-      <c r="Z81" s="28"/>
-      <c r="AA81" s="28"/>
-      <c r="AB81" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="82">
-      <c r="A82" s="28"/>
-      <c r="B82" s="28"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="28"/>
-      <c r="E82" s="28"/>
-      <c r="F82" s="28"/>
-      <c r="G82" s="28"/>
-      <c r="H82" s="28"/>
-      <c r="I82" s="28"/>
-      <c r="J82" s="28"/>
-      <c r="K82" s="28"/>
-      <c r="L82" s="28"/>
-      <c r="M82" s="28"/>
-      <c r="N82" s="28"/>
-      <c r="O82" s="28"/>
-      <c r="P82" s="28"/>
-      <c r="Q82" s="28"/>
-      <c r="R82" s="28"/>
-      <c r="S82" s="28"/>
-      <c r="T82" s="28"/>
-      <c r="U82" s="28"/>
-      <c r="V82" s="28"/>
-      <c r="W82" s="28"/>
-      <c r="X82" s="28"/>
-      <c r="Y82" s="28"/>
-      <c r="Z82" s="28"/>
-      <c r="AA82" s="28"/>
-      <c r="AB82" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="83">
-      <c r="A83" s="28"/>
-      <c r="B83" s="28"/>
-      <c r="C83" s="28"/>
-      <c r="D83" s="28"/>
-      <c r="E83" s="28"/>
-      <c r="F83" s="28"/>
-      <c r="G83" s="28"/>
-      <c r="H83" s="28"/>
-      <c r="I83" s="28"/>
-      <c r="J83" s="28"/>
-      <c r="K83" s="28"/>
-      <c r="L83" s="28"/>
-      <c r="M83" s="28"/>
-      <c r="N83" s="28"/>
-      <c r="O83" s="28"/>
-      <c r="P83" s="28"/>
-      <c r="Q83" s="28"/>
-      <c r="R83" s="28"/>
-      <c r="S83" s="28"/>
-      <c r="T83" s="28"/>
-      <c r="U83" s="28"/>
-      <c r="V83" s="28"/>
-      <c r="W83" s="28"/>
-      <c r="X83" s="28"/>
-      <c r="Y83" s="28"/>
-      <c r="Z83" s="28"/>
-      <c r="AA83" s="28"/>
-      <c r="AB83" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="84">
-      <c r="A84" s="28"/>
-      <c r="B84" s="28"/>
-      <c r="C84" s="28"/>
-      <c r="D84" s="28"/>
-      <c r="E84" s="28"/>
-      <c r="F84" s="28"/>
-      <c r="G84" s="28"/>
-      <c r="H84" s="28"/>
-      <c r="I84" s="28"/>
-      <c r="J84" s="28"/>
-      <c r="K84" s="28"/>
-      <c r="L84" s="28"/>
-      <c r="M84" s="28"/>
-      <c r="N84" s="28"/>
-      <c r="O84" s="28"/>
-      <c r="P84" s="28"/>
-      <c r="Q84" s="28"/>
-      <c r="R84" s="28"/>
-      <c r="S84" s="28"/>
-      <c r="T84" s="28"/>
-      <c r="U84" s="28"/>
-      <c r="V84" s="28"/>
-      <c r="W84" s="28"/>
-      <c r="X84" s="28"/>
-      <c r="Y84" s="28"/>
-      <c r="Z84" s="28"/>
-      <c r="AA84" s="28"/>
-      <c r="AB84" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="85">
-      <c r="A85" s="28"/>
-      <c r="B85" s="28"/>
-      <c r="C85" s="28"/>
-      <c r="D85" s="28"/>
-      <c r="E85" s="28"/>
-      <c r="F85" s="28"/>
-      <c r="G85" s="28"/>
-      <c r="H85" s="28"/>
-      <c r="I85" s="28"/>
-      <c r="J85" s="28"/>
-      <c r="K85" s="28"/>
-      <c r="L85" s="28"/>
-      <c r="M85" s="28"/>
-      <c r="N85" s="28"/>
-      <c r="O85" s="28"/>
-      <c r="P85" s="28"/>
-      <c r="Q85" s="28"/>
-      <c r="R85" s="28"/>
-      <c r="S85" s="28"/>
-      <c r="T85" s="28"/>
-      <c r="U85" s="28"/>
-      <c r="V85" s="28"/>
-      <c r="W85" s="28"/>
-      <c r="X85" s="28"/>
-      <c r="Y85" s="28"/>
-      <c r="Z85" s="28"/>
-      <c r="AA85" s="28"/>
-      <c r="AB85" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="86">
-      <c r="A86" s="28"/>
-      <c r="B86" s="28"/>
-      <c r="C86" s="28"/>
-      <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="28"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="28"/>
-      <c r="I86" s="28"/>
-      <c r="J86" s="28"/>
-      <c r="K86" s="28"/>
-      <c r="L86" s="28"/>
-      <c r="M86" s="28"/>
-      <c r="N86" s="28"/>
-      <c r="O86" s="28"/>
-      <c r="P86" s="28"/>
-      <c r="Q86" s="28"/>
-      <c r="R86" s="28"/>
-      <c r="S86" s="28"/>
-      <c r="T86" s="28"/>
-      <c r="U86" s="28"/>
-      <c r="V86" s="28"/>
-      <c r="W86" s="28"/>
-      <c r="X86" s="28"/>
-      <c r="Y86" s="28"/>
-      <c r="Z86" s="28"/>
-      <c r="AA86" s="28"/>
-      <c r="AB86" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="87">
-      <c r="A87" s="28"/>
-      <c r="B87" s="28"/>
-      <c r="C87" s="28"/>
-      <c r="D87" s="28"/>
-      <c r="E87" s="28"/>
-      <c r="F87" s="28"/>
-      <c r="G87" s="28"/>
-      <c r="H87" s="28"/>
-      <c r="I87" s="28"/>
-      <c r="J87" s="28"/>
-      <c r="K87" s="28"/>
-      <c r="L87" s="28"/>
-      <c r="M87" s="28"/>
-      <c r="N87" s="28"/>
-      <c r="O87" s="28"/>
-      <c r="P87" s="28"/>
-      <c r="Q87" s="28"/>
-      <c r="R87" s="28"/>
-      <c r="S87" s="28"/>
-      <c r="T87" s="28"/>
-      <c r="U87" s="28"/>
-      <c r="V87" s="28"/>
-      <c r="W87" s="28"/>
-      <c r="X87" s="28"/>
-      <c r="Y87" s="28"/>
-      <c r="Z87" s="28"/>
-      <c r="AA87" s="28"/>
-      <c r="AB87" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="88">
-      <c r="A88" s="28"/>
-      <c r="B88" s="28"/>
-      <c r="C88" s="28"/>
-      <c r="D88" s="28"/>
-      <c r="E88" s="28"/>
-      <c r="F88" s="28"/>
-      <c r="G88" s="28"/>
-      <c r="H88" s="28"/>
-      <c r="I88" s="28"/>
-      <c r="J88" s="28"/>
-      <c r="K88" s="28"/>
-      <c r="L88" s="28"/>
-      <c r="M88" s="28"/>
-      <c r="N88" s="28"/>
-      <c r="O88" s="28"/>
-      <c r="P88" s="28"/>
-      <c r="Q88" s="28"/>
-      <c r="R88" s="28"/>
-      <c r="S88" s="28"/>
-      <c r="T88" s="28"/>
-      <c r="U88" s="28"/>
-      <c r="V88" s="28"/>
-      <c r="W88" s="28"/>
-      <c r="X88" s="28"/>
-      <c r="Y88" s="28"/>
-      <c r="Z88" s="28"/>
-      <c r="AA88" s="28"/>
-      <c r="AB88" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="89">
-      <c r="A89" s="28"/>
-      <c r="B89" s="28"/>
-      <c r="C89" s="28"/>
-      <c r="D89" s="28"/>
-      <c r="E89" s="28"/>
-      <c r="F89" s="28"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="28"/>
-      <c r="I89" s="28"/>
-      <c r="J89" s="28"/>
-      <c r="K89" s="28"/>
-      <c r="L89" s="28"/>
-      <c r="M89" s="28"/>
-      <c r="N89" s="28"/>
-      <c r="O89" s="28"/>
-      <c r="P89" s="28"/>
-      <c r="Q89" s="28"/>
-      <c r="R89" s="28"/>
-      <c r="S89" s="28"/>
-      <c r="T89" s="28"/>
-      <c r="U89" s="28"/>
-      <c r="V89" s="28"/>
-      <c r="W89" s="28"/>
-      <c r="X89" s="28"/>
-      <c r="Y89" s="28"/>
-      <c r="Z89" s="28"/>
-      <c r="AA89" s="28"/>
-      <c r="AB89" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="90">
-      <c r="A90" s="28"/>
-      <c r="B90" s="28"/>
-      <c r="C90" s="28"/>
-      <c r="D90" s="28"/>
-      <c r="E90" s="28"/>
-      <c r="F90" s="28"/>
-      <c r="G90" s="28"/>
-      <c r="H90" s="28"/>
-      <c r="I90" s="28"/>
-      <c r="J90" s="28"/>
-      <c r="K90" s="28"/>
-      <c r="L90" s="28"/>
-      <c r="M90" s="28"/>
-      <c r="N90" s="28"/>
-      <c r="O90" s="28"/>
-      <c r="P90" s="28"/>
-      <c r="Q90" s="28"/>
-      <c r="R90" s="28"/>
-      <c r="S90" s="28"/>
-      <c r="T90" s="28"/>
-      <c r="U90" s="28"/>
-      <c r="V90" s="28"/>
-      <c r="W90" s="28"/>
-      <c r="X90" s="28"/>
-      <c r="Y90" s="28"/>
-      <c r="Z90" s="28"/>
-      <c r="AA90" s="28"/>
-      <c r="AB90" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="91">
-      <c r="A91" s="28"/>
-      <c r="B91" s="28"/>
-      <c r="C91" s="28"/>
-      <c r="D91" s="28"/>
-      <c r="E91" s="28"/>
-      <c r="F91" s="28"/>
-      <c r="G91" s="28"/>
-      <c r="H91" s="28"/>
-      <c r="I91" s="28"/>
-      <c r="J91" s="28"/>
-      <c r="K91" s="28"/>
-      <c r="L91" s="28"/>
-      <c r="M91" s="28"/>
-      <c r="N91" s="28"/>
-      <c r="O91" s="28"/>
-      <c r="P91" s="28"/>
-      <c r="Q91" s="28"/>
-      <c r="R91" s="28"/>
-      <c r="S91" s="28"/>
-      <c r="T91" s="28"/>
-      <c r="U91" s="28"/>
-      <c r="V91" s="28"/>
-      <c r="W91" s="28"/>
-      <c r="X91" s="28"/>
-      <c r="Y91" s="28"/>
-      <c r="Z91" s="28"/>
-      <c r="AA91" s="28"/>
-      <c r="AB91" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="92">
-      <c r="A92" s="28"/>
-      <c r="B92" s="28"/>
-      <c r="C92" s="28"/>
-      <c r="D92" s="28"/>
-      <c r="E92" s="28"/>
-      <c r="F92" s="28"/>
-      <c r="G92" s="28"/>
-      <c r="H92" s="28"/>
-      <c r="I92" s="28"/>
-      <c r="J92" s="28"/>
-      <c r="K92" s="28"/>
-      <c r="L92" s="28"/>
-      <c r="M92" s="28"/>
-      <c r="N92" s="28"/>
-      <c r="O92" s="28"/>
-      <c r="P92" s="28"/>
-      <c r="Q92" s="28"/>
-      <c r="R92" s="28"/>
-      <c r="S92" s="28"/>
-      <c r="T92" s="28"/>
-      <c r="U92" s="28"/>
-      <c r="V92" s="28"/>
-      <c r="W92" s="28"/>
-      <c r="X92" s="28"/>
-      <c r="Y92" s="28"/>
-      <c r="Z92" s="28"/>
-      <c r="AA92" s="28"/>
-      <c r="AB92" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="93">
-      <c r="A93" s="28"/>
-      <c r="B93" s="28"/>
-      <c r="C93" s="28"/>
-      <c r="D93" s="28"/>
-      <c r="E93" s="28"/>
-      <c r="F93" s="28"/>
-      <c r="G93" s="28"/>
-      <c r="H93" s="28"/>
-      <c r="I93" s="28"/>
-      <c r="J93" s="28"/>
-      <c r="K93" s="28"/>
-      <c r="L93" s="28"/>
-      <c r="M93" s="28"/>
-      <c r="N93" s="28"/>
-      <c r="O93" s="28"/>
-      <c r="P93" s="28"/>
-      <c r="Q93" s="28"/>
-      <c r="R93" s="28"/>
-      <c r="S93" s="28"/>
-      <c r="T93" s="28"/>
-      <c r="U93" s="28"/>
-      <c r="V93" s="28"/>
-      <c r="W93" s="28"/>
-      <c r="X93" s="28"/>
-      <c r="Y93" s="28"/>
-      <c r="Z93" s="28"/>
-      <c r="AA93" s="28"/>
-      <c r="AB93" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="94">
-      <c r="A94" s="28"/>
-      <c r="B94" s="28"/>
-      <c r="C94" s="28"/>
-      <c r="D94" s="28"/>
-      <c r="E94" s="28"/>
-      <c r="F94" s="28"/>
-      <c r="G94" s="28"/>
-      <c r="H94" s="28"/>
-      <c r="I94" s="28"/>
-      <c r="J94" s="28"/>
-      <c r="K94" s="28"/>
-      <c r="L94" s="28"/>
-      <c r="M94" s="28"/>
-      <c r="N94" s="28"/>
-      <c r="O94" s="28"/>
-      <c r="P94" s="28"/>
-      <c r="Q94" s="28"/>
-      <c r="R94" s="28"/>
-      <c r="S94" s="28"/>
-      <c r="T94" s="28"/>
-      <c r="U94" s="28"/>
-      <c r="V94" s="28"/>
-      <c r="W94" s="28"/>
-      <c r="X94" s="28"/>
-      <c r="Y94" s="28"/>
-      <c r="Z94" s="28"/>
-      <c r="AA94" s="28"/>
-      <c r="AB94" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="95">
-      <c r="A95" s="28"/>
-      <c r="B95" s="28"/>
-      <c r="C95" s="28"/>
-      <c r="D95" s="28"/>
-      <c r="E95" s="28"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="28"/>
-      <c r="I95" s="28"/>
-      <c r="J95" s="28"/>
-      <c r="K95" s="28"/>
-      <c r="L95" s="28"/>
-      <c r="M95" s="28"/>
-      <c r="N95" s="28"/>
-      <c r="O95" s="28"/>
-      <c r="P95" s="28"/>
-      <c r="Q95" s="28"/>
-      <c r="R95" s="28"/>
-      <c r="S95" s="28"/>
-      <c r="T95" s="28"/>
-      <c r="U95" s="28"/>
-      <c r="V95" s="28"/>
-      <c r="W95" s="28"/>
-      <c r="X95" s="28"/>
-      <c r="Y95" s="28"/>
-      <c r="Z95" s="28"/>
-      <c r="AA95" s="28"/>
-      <c r="AB95" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="96">
-      <c r="A96" s="28"/>
-      <c r="B96" s="28"/>
-      <c r="C96" s="28"/>
-      <c r="D96" s="28"/>
-      <c r="E96" s="28"/>
-      <c r="F96" s="28"/>
-      <c r="G96" s="28"/>
-      <c r="H96" s="28"/>
-      <c r="I96" s="28"/>
-      <c r="J96" s="28"/>
-      <c r="K96" s="28"/>
-      <c r="L96" s="28"/>
-      <c r="M96" s="28"/>
-      <c r="N96" s="28"/>
-      <c r="O96" s="28"/>
-      <c r="P96" s="28"/>
-      <c r="Q96" s="28"/>
-      <c r="R96" s="28"/>
-      <c r="S96" s="28"/>
-      <c r="T96" s="28"/>
-      <c r="U96" s="28"/>
-      <c r="V96" s="28"/>
-      <c r="W96" s="28"/>
-      <c r="X96" s="28"/>
-      <c r="Y96" s="28"/>
-      <c r="Z96" s="28"/>
-      <c r="AA96" s="28"/>
-      <c r="AB96" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="97">
-      <c r="A97" s="28"/>
-      <c r="B97" s="28"/>
-      <c r="C97" s="28"/>
-      <c r="D97" s="28"/>
-      <c r="E97" s="28"/>
-      <c r="F97" s="28"/>
-      <c r="G97" s="28"/>
-      <c r="H97" s="28"/>
-      <c r="I97" s="28"/>
-      <c r="J97" s="28"/>
-      <c r="K97" s="28"/>
-      <c r="L97" s="28"/>
-      <c r="M97" s="28"/>
-      <c r="N97" s="28"/>
-      <c r="O97" s="28"/>
-      <c r="P97" s="28"/>
-      <c r="Q97" s="28"/>
-      <c r="R97" s="28"/>
-      <c r="S97" s="28"/>
-      <c r="T97" s="28"/>
-      <c r="U97" s="28"/>
-      <c r="V97" s="28"/>
-      <c r="W97" s="28"/>
-      <c r="X97" s="28"/>
-      <c r="Y97" s="28"/>
-      <c r="Z97" s="28"/>
-      <c r="AA97" s="28"/>
-      <c r="AB97" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="98">
-      <c r="A98" s="28"/>
-      <c r="B98" s="28"/>
-      <c r="C98" s="28"/>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28"/>
-      <c r="F98" s="28"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="28"/>
-      <c r="I98" s="28"/>
-      <c r="J98" s="28"/>
-      <c r="K98" s="28"/>
-      <c r="L98" s="28"/>
-      <c r="M98" s="28"/>
-      <c r="N98" s="28"/>
-      <c r="O98" s="28"/>
-      <c r="P98" s="28"/>
-      <c r="Q98" s="28"/>
-      <c r="R98" s="28"/>
-      <c r="S98" s="28"/>
-      <c r="T98" s="28"/>
-      <c r="U98" s="28"/>
-      <c r="V98" s="28"/>
-      <c r="W98" s="28"/>
-      <c r="X98" s="28"/>
-      <c r="Y98" s="28"/>
-      <c r="Z98" s="28"/>
-      <c r="AA98" s="28"/>
-      <c r="AB98" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="99">
-      <c r="A99" s="28"/>
-      <c r="B99" s="28"/>
-      <c r="C99" s="28"/>
-      <c r="D99" s="28"/>
-      <c r="E99" s="28"/>
-      <c r="F99" s="28"/>
-      <c r="G99" s="28"/>
-      <c r="H99" s="28"/>
-      <c r="I99" s="28"/>
-      <c r="J99" s="28"/>
-      <c r="K99" s="28"/>
-      <c r="L99" s="28"/>
-      <c r="M99" s="28"/>
-      <c r="N99" s="28"/>
-      <c r="O99" s="28"/>
-      <c r="P99" s="28"/>
-      <c r="Q99" s="28"/>
-      <c r="R99" s="28"/>
-      <c r="S99" s="28"/>
-      <c r="T99" s="28"/>
-      <c r="U99" s="28"/>
-      <c r="V99" s="28"/>
-      <c r="W99" s="28"/>
-      <c r="X99" s="28"/>
-      <c r="Y99" s="28"/>
-      <c r="Z99" s="28"/>
-      <c r="AA99" s="28"/>
-      <c r="AB99" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="100">
-      <c r="A100" s="28"/>
-      <c r="B100" s="28"/>
-      <c r="C100" s="28"/>
-      <c r="D100" s="28"/>
-      <c r="E100" s="28"/>
-      <c r="F100" s="28"/>
-      <c r="G100" s="28"/>
-      <c r="H100" s="28"/>
-      <c r="I100" s="28"/>
-      <c r="J100" s="28"/>
-      <c r="K100" s="28"/>
-      <c r="L100" s="28"/>
-      <c r="M100" s="28"/>
-      <c r="N100" s="28"/>
-      <c r="O100" s="28"/>
-      <c r="P100" s="28"/>
-      <c r="Q100" s="28"/>
-      <c r="R100" s="28"/>
-      <c r="S100" s="28"/>
-      <c r="T100" s="28"/>
-      <c r="U100" s="28"/>
-      <c r="V100" s="28"/>
-      <c r="W100" s="28"/>
-      <c r="X100" s="28"/>
-      <c r="Y100" s="28"/>
-      <c r="Z100" s="28"/>
-      <c r="AA100" s="28"/>
-      <c r="AB100" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="101">
-      <c r="A101" s="28"/>
-      <c r="B101" s="28"/>
-      <c r="C101" s="28"/>
-      <c r="D101" s="28"/>
-      <c r="E101" s="28"/>
-      <c r="F101" s="28"/>
-      <c r="G101" s="28"/>
-      <c r="H101" s="28"/>
-      <c r="I101" s="28"/>
-      <c r="J101" s="28"/>
-      <c r="K101" s="28"/>
-      <c r="L101" s="28"/>
-      <c r="M101" s="28"/>
-      <c r="N101" s="28"/>
-      <c r="O101" s="28"/>
-      <c r="P101" s="28"/>
-      <c r="Q101" s="28"/>
-      <c r="R101" s="28"/>
-      <c r="S101" s="28"/>
-      <c r="T101" s="28"/>
-      <c r="U101" s="28"/>
-      <c r="V101" s="28"/>
-      <c r="W101" s="28"/>
-      <c r="X101" s="28"/>
-      <c r="Y101" s="28"/>
-      <c r="Z101" s="28"/>
-      <c r="AA101" s="28"/>
-      <c r="AB101" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="102">
-      <c r="A102" s="28"/>
-      <c r="B102" s="28"/>
-      <c r="C102" s="28"/>
-      <c r="D102" s="28"/>
-      <c r="E102" s="28"/>
-      <c r="F102" s="28"/>
-      <c r="G102" s="28"/>
-      <c r="H102" s="28"/>
-      <c r="I102" s="28"/>
-      <c r="J102" s="28"/>
-      <c r="K102" s="28"/>
-      <c r="L102" s="28"/>
-      <c r="M102" s="28"/>
-      <c r="N102" s="28"/>
-      <c r="O102" s="28"/>
-      <c r="P102" s="28"/>
-      <c r="Q102" s="28"/>
-      <c r="R102" s="28"/>
-      <c r="S102" s="28"/>
-      <c r="T102" s="28"/>
-      <c r="U102" s="28"/>
-      <c r="V102" s="28"/>
-      <c r="W102" s="28"/>
-      <c r="X102" s="28"/>
-      <c r="Y102" s="28"/>
-      <c r="Z102" s="28"/>
-      <c r="AA102" s="28"/>
-      <c r="AB102" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="103">
-      <c r="A103" s="28"/>
-      <c r="B103" s="28"/>
-      <c r="C103" s="28"/>
-      <c r="D103" s="28"/>
-      <c r="E103" s="28"/>
-      <c r="F103" s="28"/>
-      <c r="G103" s="28"/>
-      <c r="H103" s="28"/>
-      <c r="I103" s="28"/>
-      <c r="J103" s="28"/>
-      <c r="K103" s="28"/>
-      <c r="L103" s="28"/>
-      <c r="M103" s="28"/>
-      <c r="N103" s="28"/>
-      <c r="O103" s="28"/>
-      <c r="P103" s="28"/>
-      <c r="Q103" s="28"/>
-      <c r="R103" s="28"/>
-      <c r="S103" s="28"/>
-      <c r="T103" s="28"/>
-      <c r="U103" s="28"/>
-      <c r="V103" s="28"/>
-      <c r="W103" s="28"/>
-      <c r="X103" s="28"/>
-      <c r="Y103" s="28"/>
-      <c r="Z103" s="28"/>
-      <c r="AA103" s="28"/>
-      <c r="AB103" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="104">
-      <c r="A104" s="28"/>
-      <c r="B104" s="28"/>
-      <c r="C104" s="28"/>
-      <c r="D104" s="28"/>
-      <c r="E104" s="28"/>
-      <c r="F104" s="28"/>
-      <c r="G104" s="28"/>
-      <c r="H104" s="28"/>
-      <c r="I104" s="28"/>
-      <c r="J104" s="28"/>
-      <c r="K104" s="28"/>
-      <c r="L104" s="28"/>
-      <c r="M104" s="28"/>
-      <c r="N104" s="28"/>
-      <c r="O104" s="28"/>
-      <c r="P104" s="28"/>
-      <c r="Q104" s="28"/>
-      <c r="R104" s="28"/>
-      <c r="S104" s="28"/>
-      <c r="T104" s="28"/>
-      <c r="U104" s="28"/>
-      <c r="V104" s="28"/>
-      <c r="W104" s="28"/>
-      <c r="X104" s="28"/>
-      <c r="Y104" s="28"/>
-      <c r="Z104" s="28"/>
-      <c r="AA104" s="28"/>
-      <c r="AB104" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="105">
-      <c r="A105" s="28"/>
-      <c r="B105" s="28"/>
-      <c r="C105" s="28"/>
-      <c r="D105" s="28"/>
-      <c r="E105" s="28"/>
-      <c r="F105" s="28"/>
-      <c r="G105" s="28"/>
-      <c r="H105" s="28"/>
-      <c r="I105" s="28"/>
-      <c r="J105" s="28"/>
-      <c r="K105" s="28"/>
-      <c r="L105" s="28"/>
-      <c r="M105" s="28"/>
-      <c r="N105" s="28"/>
-      <c r="O105" s="28"/>
-      <c r="P105" s="28"/>
-      <c r="Q105" s="28"/>
-      <c r="R105" s="28"/>
-      <c r="S105" s="28"/>
-      <c r="T105" s="28"/>
-      <c r="U105" s="28"/>
-      <c r="V105" s="28"/>
-      <c r="W105" s="28"/>
-      <c r="X105" s="28"/>
-      <c r="Y105" s="28"/>
-      <c r="Z105" s="28"/>
-      <c r="AA105" s="28"/>
-      <c r="AB105" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="106">
-      <c r="A106" s="28"/>
-      <c r="B106" s="28"/>
-      <c r="C106" s="28"/>
-      <c r="D106" s="28"/>
-      <c r="E106" s="28"/>
-      <c r="F106" s="28"/>
-      <c r="G106" s="28"/>
-      <c r="H106" s="28"/>
-      <c r="I106" s="28"/>
-      <c r="J106" s="28"/>
-      <c r="K106" s="28"/>
-      <c r="L106" s="28"/>
-      <c r="M106" s="28"/>
-      <c r="N106" s="28"/>
-      <c r="O106" s="28"/>
-      <c r="P106" s="28"/>
-      <c r="Q106" s="28"/>
-      <c r="R106" s="28"/>
-      <c r="S106" s="28"/>
-      <c r="T106" s="28"/>
-      <c r="U106" s="28"/>
-      <c r="V106" s="28"/>
-      <c r="W106" s="28"/>
-      <c r="X106" s="28"/>
-      <c r="Y106" s="28"/>
-      <c r="Z106" s="28"/>
-      <c r="AA106" s="28"/>
-      <c r="AB106" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="107">
-      <c r="A107" s="28"/>
-      <c r="B107" s="28"/>
-      <c r="C107" s="28"/>
-      <c r="D107" s="28"/>
-      <c r="E107" s="28"/>
-      <c r="F107" s="28"/>
-      <c r="G107" s="28"/>
-      <c r="H107" s="28"/>
-      <c r="I107" s="28"/>
-      <c r="J107" s="28"/>
-      <c r="K107" s="28"/>
-      <c r="L107" s="28"/>
-      <c r="M107" s="28"/>
-      <c r="N107" s="28"/>
-      <c r="O107" s="28"/>
-      <c r="P107" s="28"/>
-      <c r="Q107" s="28"/>
-      <c r="R107" s="28"/>
-      <c r="S107" s="28"/>
-      <c r="T107" s="28"/>
-      <c r="U107" s="28"/>
-      <c r="V107" s="28"/>
-      <c r="W107" s="28"/>
-      <c r="X107" s="28"/>
-      <c r="Y107" s="28"/>
-      <c r="Z107" s="28"/>
-      <c r="AA107" s="28"/>
-      <c r="AB107" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="108">
-      <c r="A108" s="28"/>
-      <c r="B108" s="28"/>
-      <c r="C108" s="28"/>
-      <c r="D108" s="28"/>
-      <c r="E108" s="28"/>
-      <c r="F108" s="28"/>
-      <c r="G108" s="28"/>
-      <c r="H108" s="28"/>
-      <c r="I108" s="28"/>
-      <c r="J108" s="28"/>
-      <c r="K108" s="28"/>
-      <c r="L108" s="28"/>
-      <c r="M108" s="28"/>
-      <c r="N108" s="28"/>
-      <c r="O108" s="28"/>
-      <c r="P108" s="28"/>
-      <c r="Q108" s="28"/>
-      <c r="R108" s="28"/>
-      <c r="S108" s="28"/>
-      <c r="T108" s="28"/>
-      <c r="U108" s="28"/>
-      <c r="V108" s="28"/>
-      <c r="W108" s="28"/>
-      <c r="X108" s="28"/>
-      <c r="Y108" s="28"/>
-      <c r="Z108" s="28"/>
-      <c r="AA108" s="28"/>
-      <c r="AB108" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="109">
-      <c r="A109" s="28"/>
-      <c r="B109" s="28"/>
-      <c r="C109" s="28"/>
-      <c r="D109" s="28"/>
-      <c r="E109" s="28"/>
-      <c r="F109" s="28"/>
-      <c r="G109" s="28"/>
-      <c r="H109" s="28"/>
-      <c r="I109" s="28"/>
-      <c r="J109" s="28"/>
-      <c r="K109" s="28"/>
-      <c r="L109" s="28"/>
-      <c r="M109" s="28"/>
-      <c r="N109" s="28"/>
-      <c r="O109" s="28"/>
-      <c r="P109" s="28"/>
-      <c r="Q109" s="28"/>
-      <c r="R109" s="28"/>
-      <c r="S109" s="28"/>
-      <c r="T109" s="28"/>
-      <c r="U109" s="28"/>
-      <c r="V109" s="28"/>
-      <c r="W109" s="28"/>
-      <c r="X109" s="28"/>
-      <c r="Y109" s="28"/>
-      <c r="Z109" s="28"/>
-      <c r="AA109" s="28"/>
-      <c r="AB109" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="110">
-      <c r="A110" s="28"/>
-      <c r="B110" s="28"/>
-      <c r="C110" s="28"/>
-      <c r="D110" s="28"/>
-      <c r="E110" s="28"/>
-      <c r="F110" s="28"/>
-      <c r="G110" s="28"/>
-      <c r="H110" s="28"/>
-      <c r="I110" s="28"/>
-      <c r="J110" s="28"/>
-      <c r="K110" s="28"/>
-      <c r="L110" s="28"/>
-      <c r="M110" s="28"/>
-      <c r="N110" s="28"/>
-      <c r="O110" s="28"/>
-      <c r="P110" s="28"/>
-      <c r="Q110" s="28"/>
-      <c r="R110" s="28"/>
-      <c r="S110" s="28"/>
-      <c r="T110" s="28"/>
-      <c r="U110" s="28"/>
-      <c r="V110" s="28"/>
-      <c r="W110" s="28"/>
-      <c r="X110" s="28"/>
-      <c r="Y110" s="28"/>
-      <c r="Z110" s="28"/>
-      <c r="AA110" s="28"/>
-      <c r="AB110" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="111">
-      <c r="A111" s="28"/>
-      <c r="B111" s="28"/>
-      <c r="C111" s="28"/>
-      <c r="D111" s="28"/>
-      <c r="E111" s="28"/>
-      <c r="F111" s="28"/>
-      <c r="G111" s="28"/>
-      <c r="H111" s="28"/>
-      <c r="I111" s="28"/>
-      <c r="J111" s="28"/>
-      <c r="K111" s="28"/>
-      <c r="L111" s="28"/>
-      <c r="M111" s="28"/>
-      <c r="N111" s="28"/>
-      <c r="O111" s="28"/>
-      <c r="P111" s="28"/>
-      <c r="Q111" s="28"/>
-      <c r="R111" s="28"/>
-      <c r="S111" s="28"/>
-      <c r="T111" s="28"/>
-      <c r="U111" s="28"/>
-      <c r="V111" s="28"/>
-      <c r="W111" s="28"/>
-      <c r="X111" s="28"/>
-      <c r="Y111" s="28"/>
-      <c r="Z111" s="28"/>
-      <c r="AA111" s="28"/>
-      <c r="AB111" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="112">
-      <c r="A112" s="28"/>
-      <c r="B112" s="28"/>
-      <c r="C112" s="28"/>
-      <c r="D112" s="28"/>
-      <c r="E112" s="28"/>
-      <c r="F112" s="28"/>
-      <c r="G112" s="28"/>
-      <c r="H112" s="28"/>
-      <c r="I112" s="28"/>
-      <c r="J112" s="28"/>
-      <c r="K112" s="28"/>
-      <c r="L112" s="28"/>
-      <c r="M112" s="28"/>
-      <c r="N112" s="28"/>
-      <c r="O112" s="28"/>
-      <c r="P112" s="28"/>
-      <c r="Q112" s="28"/>
-      <c r="R112" s="28"/>
-      <c r="S112" s="28"/>
-      <c r="T112" s="28"/>
-      <c r="U112" s="28"/>
-      <c r="V112" s="28"/>
-      <c r="W112" s="28"/>
-      <c r="X112" s="28"/>
-      <c r="Y112" s="28"/>
-      <c r="Z112" s="28"/>
-      <c r="AA112" s="28"/>
-      <c r="AB112" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="113">
-      <c r="A113" s="28"/>
-      <c r="B113" s="28"/>
-      <c r="C113" s="28"/>
-      <c r="D113" s="28"/>
-      <c r="E113" s="28"/>
-      <c r="F113" s="28"/>
-      <c r="G113" s="28"/>
-      <c r="H113" s="28"/>
-      <c r="I113" s="28"/>
-      <c r="J113" s="28"/>
-      <c r="K113" s="28"/>
-      <c r="L113" s="28"/>
-      <c r="M113" s="28"/>
-      <c r="N113" s="28"/>
-      <c r="O113" s="28"/>
-      <c r="P113" s="28"/>
-      <c r="Q113" s="28"/>
-      <c r="R113" s="28"/>
-      <c r="S113" s="28"/>
-      <c r="T113" s="28"/>
-      <c r="U113" s="28"/>
-      <c r="V113" s="28"/>
-      <c r="W113" s="28"/>
-      <c r="X113" s="28"/>
-      <c r="Y113" s="28"/>
-      <c r="Z113" s="28"/>
-      <c r="AA113" s="28"/>
-      <c r="AB113" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="114">
-      <c r="A114" s="28"/>
-      <c r="B114" s="28"/>
-      <c r="C114" s="28"/>
-      <c r="D114" s="28"/>
-      <c r="E114" s="28"/>
-      <c r="F114" s="28"/>
-      <c r="G114" s="28"/>
-      <c r="H114" s="28"/>
-      <c r="I114" s="28"/>
-      <c r="J114" s="28"/>
-      <c r="K114" s="28"/>
-      <c r="L114" s="28"/>
-      <c r="M114" s="28"/>
-      <c r="N114" s="28"/>
-      <c r="O114" s="28"/>
-      <c r="P114" s="28"/>
-      <c r="Q114" s="28"/>
-      <c r="R114" s="28"/>
-      <c r="S114" s="28"/>
-      <c r="T114" s="28"/>
-      <c r="U114" s="28"/>
-      <c r="V114" s="28"/>
-      <c r="W114" s="28"/>
-      <c r="X114" s="28"/>
-      <c r="Y114" s="28"/>
-      <c r="Z114" s="28"/>
-      <c r="AA114" s="28"/>
-      <c r="AB114" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="115">
-      <c r="A115" s="28"/>
-      <c r="B115" s="28"/>
-      <c r="C115" s="28"/>
-      <c r="D115" s="28"/>
-      <c r="E115" s="28"/>
-      <c r="F115" s="28"/>
-      <c r="G115" s="28"/>
-      <c r="H115" s="28"/>
-      <c r="I115" s="28"/>
-      <c r="J115" s="28"/>
-      <c r="K115" s="28"/>
-      <c r="L115" s="28"/>
-      <c r="M115" s="28"/>
-      <c r="N115" s="28"/>
-      <c r="O115" s="28"/>
-      <c r="P115" s="28"/>
-      <c r="Q115" s="28"/>
-      <c r="R115" s="28"/>
-      <c r="S115" s="28"/>
-      <c r="T115" s="28"/>
-      <c r="U115" s="28"/>
-      <c r="V115" s="28"/>
-      <c r="W115" s="28"/>
-      <c r="X115" s="28"/>
-      <c r="Y115" s="28"/>
-      <c r="Z115" s="28"/>
-      <c r="AA115" s="28"/>
-      <c r="AB115" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="116">
-      <c r="A116" s="28"/>
-      <c r="B116" s="28"/>
-      <c r="C116" s="28"/>
-      <c r="D116" s="28"/>
-      <c r="E116" s="28"/>
-      <c r="F116" s="28"/>
-      <c r="G116" s="28"/>
-      <c r="H116" s="28"/>
-      <c r="I116" s="28"/>
-      <c r="J116" s="28"/>
-      <c r="K116" s="28"/>
-      <c r="L116" s="28"/>
-      <c r="M116" s="28"/>
-      <c r="N116" s="28"/>
-      <c r="O116" s="28"/>
-      <c r="P116" s="28"/>
-      <c r="Q116" s="28"/>
-      <c r="R116" s="28"/>
-      <c r="S116" s="28"/>
-      <c r="T116" s="28"/>
-      <c r="U116" s="28"/>
-      <c r="V116" s="28"/>
-      <c r="W116" s="28"/>
-      <c r="X116" s="28"/>
-      <c r="Y116" s="28"/>
-      <c r="Z116" s="28"/>
-      <c r="AA116" s="28"/>
-      <c r="AB116" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="117">
-      <c r="A117" s="28"/>
-      <c r="B117" s="28"/>
-      <c r="C117" s="28"/>
-      <c r="D117" s="28"/>
-      <c r="E117" s="28"/>
-      <c r="F117" s="28"/>
-      <c r="G117" s="28"/>
-      <c r="H117" s="28"/>
-      <c r="I117" s="28"/>
-      <c r="J117" s="28"/>
-      <c r="K117" s="28"/>
-      <c r="L117" s="28"/>
-      <c r="M117" s="28"/>
-      <c r="N117" s="28"/>
-      <c r="O117" s="28"/>
-      <c r="P117" s="28"/>
-      <c r="Q117" s="28"/>
-      <c r="R117" s="28"/>
-      <c r="S117" s="28"/>
-      <c r="T117" s="28"/>
-      <c r="U117" s="28"/>
-      <c r="V117" s="28"/>
-      <c r="W117" s="28"/>
-      <c r="X117" s="28"/>
-      <c r="Y117" s="28"/>
-      <c r="Z117" s="28"/>
-      <c r="AA117" s="28"/>
-      <c r="AB117" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="118">
-      <c r="A118" s="28"/>
-      <c r="B118" s="28"/>
-      <c r="C118" s="28"/>
-      <c r="D118" s="28"/>
-      <c r="E118" s="28"/>
-      <c r="F118" s="28"/>
-      <c r="G118" s="28"/>
-      <c r="H118" s="28"/>
-      <c r="I118" s="28"/>
-      <c r="J118" s="28"/>
-      <c r="K118" s="28"/>
-      <c r="L118" s="28"/>
-      <c r="M118" s="28"/>
-      <c r="N118" s="28"/>
-      <c r="O118" s="28"/>
-      <c r="P118" s="28"/>
-      <c r="Q118" s="28"/>
-      <c r="R118" s="28"/>
-      <c r="S118" s="28"/>
-      <c r="T118" s="28"/>
-      <c r="U118" s="28"/>
-      <c r="V118" s="28"/>
-      <c r="W118" s="28"/>
-      <c r="X118" s="28"/>
-      <c r="Y118" s="28"/>
-      <c r="Z118" s="28"/>
-      <c r="AA118" s="28"/>
-      <c r="AB118" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="119">
-      <c r="A119" s="28"/>
-      <c r="B119" s="28"/>
-      <c r="C119" s="28"/>
-      <c r="D119" s="28"/>
-      <c r="E119" s="28"/>
-      <c r="F119" s="28"/>
-      <c r="G119" s="28"/>
-      <c r="H119" s="28"/>
-      <c r="I119" s="28"/>
-      <c r="J119" s="28"/>
-      <c r="K119" s="28"/>
-      <c r="L119" s="28"/>
-      <c r="M119" s="28"/>
-      <c r="N119" s="28"/>
-      <c r="O119" s="28"/>
-      <c r="P119" s="28"/>
-      <c r="Q119" s="28"/>
-      <c r="R119" s="28"/>
-      <c r="S119" s="28"/>
-      <c r="T119" s="28"/>
-      <c r="U119" s="28"/>
-      <c r="V119" s="28"/>
-      <c r="W119" s="28"/>
-      <c r="X119" s="28"/>
-      <c r="Y119" s="28"/>
-      <c r="Z119" s="28"/>
-      <c r="AA119" s="28"/>
-      <c r="AB119" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="120">
-      <c r="A120" s="28"/>
-      <c r="B120" s="28"/>
-      <c r="C120" s="28"/>
-      <c r="D120" s="28"/>
-      <c r="E120" s="28"/>
-      <c r="F120" s="28"/>
-      <c r="G120" s="28"/>
-      <c r="H120" s="28"/>
-      <c r="I120" s="28"/>
-      <c r="J120" s="28"/>
-      <c r="K120" s="28"/>
-      <c r="L120" s="28"/>
-      <c r="M120" s="28"/>
-      <c r="N120" s="28"/>
-      <c r="O120" s="28"/>
-      <c r="P120" s="28"/>
-      <c r="Q120" s="28"/>
-      <c r="R120" s="28"/>
-      <c r="S120" s="28"/>
-      <c r="T120" s="28"/>
-      <c r="U120" s="28"/>
-      <c r="V120" s="28"/>
-      <c r="W120" s="28"/>
-      <c r="X120" s="28"/>
-      <c r="Y120" s="28"/>
-      <c r="Z120" s="28"/>
-      <c r="AA120" s="28"/>
-      <c r="AB120" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="121">
-      <c r="A121" s="28"/>
-      <c r="B121" s="28"/>
-      <c r="C121" s="28"/>
-      <c r="D121" s="28"/>
-      <c r="E121" s="28"/>
-      <c r="F121" s="28"/>
-      <c r="G121" s="28"/>
-      <c r="H121" s="28"/>
-      <c r="I121" s="28"/>
-      <c r="J121" s="28"/>
-      <c r="K121" s="28"/>
-      <c r="L121" s="28"/>
-      <c r="M121" s="28"/>
-      <c r="N121" s="28"/>
-      <c r="O121" s="28"/>
-      <c r="P121" s="28"/>
-      <c r="Q121" s="28"/>
-      <c r="R121" s="28"/>
-      <c r="S121" s="28"/>
-      <c r="T121" s="28"/>
-      <c r="U121" s="28"/>
-      <c r="V121" s="28"/>
-      <c r="W121" s="28"/>
-      <c r="X121" s="28"/>
-      <c r="Y121" s="28"/>
-      <c r="Z121" s="28"/>
-      <c r="AA121" s="28"/>
-      <c r="AB121" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="122">
-      <c r="A122" s="28"/>
-      <c r="B122" s="28"/>
-      <c r="C122" s="28"/>
-      <c r="D122" s="28"/>
-      <c r="E122" s="28"/>
-      <c r="F122" s="28"/>
-      <c r="G122" s="28"/>
-      <c r="H122" s="28"/>
-      <c r="I122" s="28"/>
-      <c r="J122" s="28"/>
-      <c r="K122" s="28"/>
-      <c r="L122" s="28"/>
-      <c r="M122" s="28"/>
-      <c r="N122" s="28"/>
-      <c r="O122" s="28"/>
-      <c r="P122" s="28"/>
-      <c r="Q122" s="28"/>
-      <c r="R122" s="28"/>
-      <c r="S122" s="28"/>
-      <c r="T122" s="28"/>
-      <c r="U122" s="28"/>
-      <c r="V122" s="28"/>
-      <c r="W122" s="28"/>
-      <c r="X122" s="28"/>
-      <c r="Y122" s="28"/>
-      <c r="Z122" s="28"/>
-      <c r="AA122" s="28"/>
-      <c r="AB122" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="123">
-      <c r="A123" s="28"/>
-      <c r="B123" s="28"/>
-      <c r="C123" s="28"/>
-      <c r="D123" s="28"/>
-      <c r="E123" s="28"/>
-      <c r="F123" s="28"/>
-      <c r="G123" s="28"/>
-      <c r="H123" s="28"/>
-      <c r="I123" s="28"/>
-      <c r="J123" s="28"/>
-      <c r="K123" s="28"/>
-      <c r="L123" s="28"/>
-      <c r="M123" s="28"/>
-      <c r="N123" s="28"/>
-      <c r="O123" s="28"/>
-      <c r="P123" s="28"/>
-      <c r="Q123" s="28"/>
-      <c r="R123" s="28"/>
-      <c r="S123" s="28"/>
-      <c r="T123" s="28"/>
-      <c r="U123" s="28"/>
-      <c r="V123" s="28"/>
-      <c r="W123" s="28"/>
-      <c r="X123" s="28"/>
-      <c r="Y123" s="28"/>
-      <c r="Z123" s="28"/>
-      <c r="AA123" s="28"/>
-      <c r="AB123" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="124">
-      <c r="A124" s="28"/>
-      <c r="B124" s="28"/>
-      <c r="C124" s="28"/>
-      <c r="D124" s="28"/>
-      <c r="E124" s="28"/>
-      <c r="F124" s="28"/>
-      <c r="G124" s="28"/>
-      <c r="H124" s="28"/>
-      <c r="I124" s="28"/>
-      <c r="J124" s="28"/>
-      <c r="K124" s="28"/>
-      <c r="L124" s="28"/>
-      <c r="M124" s="28"/>
-      <c r="N124" s="28"/>
-      <c r="O124" s="28"/>
-      <c r="P124" s="28"/>
-      <c r="Q124" s="28"/>
-      <c r="R124" s="28"/>
-      <c r="S124" s="28"/>
-      <c r="T124" s="28"/>
-      <c r="U124" s="28"/>
-      <c r="V124" s="28"/>
-      <c r="W124" s="28"/>
-      <c r="X124" s="28"/>
-      <c r="Y124" s="28"/>
-      <c r="Z124" s="28"/>
-      <c r="AA124" s="28"/>
-      <c r="AB124" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="125">
-      <c r="A125" s="28"/>
-      <c r="B125" s="28"/>
-      <c r="C125" s="28"/>
-      <c r="D125" s="28"/>
-      <c r="E125" s="28"/>
-      <c r="F125" s="28"/>
-      <c r="G125" s="28"/>
-      <c r="H125" s="28"/>
-      <c r="I125" s="28"/>
-      <c r="J125" s="28"/>
-      <c r="K125" s="28"/>
-      <c r="L125" s="28"/>
-      <c r="M125" s="28"/>
-      <c r="N125" s="28"/>
-      <c r="O125" s="28"/>
-      <c r="P125" s="28"/>
-      <c r="Q125" s="28"/>
-      <c r="R125" s="28"/>
-      <c r="S125" s="28"/>
-      <c r="T125" s="28"/>
-      <c r="U125" s="28"/>
-      <c r="V125" s="28"/>
-      <c r="W125" s="28"/>
-      <c r="X125" s="28"/>
-      <c r="Y125" s="28"/>
-      <c r="Z125" s="28"/>
-      <c r="AA125" s="28"/>
-      <c r="AB125" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="126">
-      <c r="A126" s="28"/>
-      <c r="B126" s="28"/>
-      <c r="C126" s="28"/>
-      <c r="D126" s="28"/>
-      <c r="E126" s="28"/>
-      <c r="F126" s="28"/>
-      <c r="G126" s="28"/>
-      <c r="H126" s="28"/>
-      <c r="I126" s="28"/>
-      <c r="J126" s="28"/>
-      <c r="K126" s="28"/>
-      <c r="L126" s="28"/>
-      <c r="M126" s="28"/>
-      <c r="N126" s="28"/>
-      <c r="O126" s="28"/>
-      <c r="P126" s="28"/>
-      <c r="Q126" s="28"/>
-      <c r="R126" s="28"/>
-      <c r="S126" s="28"/>
-      <c r="T126" s="28"/>
-      <c r="U126" s="28"/>
-      <c r="V126" s="28"/>
-      <c r="W126" s="28"/>
-      <c r="X126" s="28"/>
-      <c r="Y126" s="28"/>
-      <c r="Z126" s="28"/>
-      <c r="AA126" s="28"/>
-      <c r="AB126" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="127">
-      <c r="A127" s="28"/>
-      <c r="B127" s="28"/>
-      <c r="C127" s="28"/>
-      <c r="D127" s="28"/>
-      <c r="E127" s="28"/>
-      <c r="F127" s="28"/>
-      <c r="G127" s="28"/>
-      <c r="H127" s="28"/>
-      <c r="I127" s="28"/>
-      <c r="J127" s="28"/>
-      <c r="K127" s="28"/>
-      <c r="L127" s="28"/>
-      <c r="M127" s="28"/>
-      <c r="N127" s="28"/>
-      <c r="O127" s="28"/>
-      <c r="P127" s="28"/>
-      <c r="Q127" s="28"/>
-      <c r="R127" s="28"/>
-      <c r="S127" s="28"/>
-      <c r="T127" s="28"/>
-      <c r="U127" s="28"/>
-      <c r="V127" s="28"/>
-      <c r="W127" s="28"/>
-      <c r="X127" s="28"/>
-      <c r="Y127" s="28"/>
-      <c r="Z127" s="28"/>
-      <c r="AA127" s="28"/>
-      <c r="AB127" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="128">
-      <c r="A128" s="28"/>
-      <c r="B128" s="28"/>
-      <c r="C128" s="28"/>
-      <c r="D128" s="28"/>
-      <c r="E128" s="28"/>
-      <c r="F128" s="28"/>
-      <c r="G128" s="28"/>
-      <c r="H128" s="28"/>
-      <c r="I128" s="28"/>
-      <c r="J128" s="28"/>
-      <c r="K128" s="28"/>
-      <c r="L128" s="28"/>
-      <c r="M128" s="28"/>
-      <c r="N128" s="28"/>
-      <c r="O128" s="28"/>
-      <c r="P128" s="28"/>
-      <c r="Q128" s="28"/>
-      <c r="R128" s="28"/>
-      <c r="S128" s="28"/>
-      <c r="T128" s="28"/>
-      <c r="U128" s="28"/>
-      <c r="V128" s="28"/>
-      <c r="W128" s="28"/>
-      <c r="X128" s="28"/>
-      <c r="Y128" s="28"/>
-      <c r="Z128" s="28"/>
-      <c r="AA128" s="28"/>
-      <c r="AB128" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="129">
-      <c r="A129" s="28"/>
-      <c r="B129" s="28"/>
-      <c r="C129" s="28"/>
-      <c r="D129" s="28"/>
-      <c r="E129" s="28"/>
-      <c r="F129" s="28"/>
-      <c r="G129" s="28"/>
-      <c r="H129" s="28"/>
-      <c r="I129" s="28"/>
-      <c r="J129" s="28"/>
-      <c r="K129" s="28"/>
-      <c r="L129" s="28"/>
-      <c r="M129" s="28"/>
-      <c r="N129" s="28"/>
-      <c r="O129" s="28"/>
-      <c r="P129" s="28"/>
-      <c r="Q129" s="28"/>
-      <c r="R129" s="28"/>
-      <c r="S129" s="28"/>
-      <c r="T129" s="28"/>
-      <c r="U129" s="28"/>
-      <c r="V129" s="28"/>
-      <c r="W129" s="28"/>
-      <c r="X129" s="28"/>
-      <c r="Y129" s="28"/>
-      <c r="Z129" s="28"/>
-      <c r="AA129" s="28"/>
-      <c r="AB129" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="130">
-      <c r="A130" s="28"/>
-      <c r="B130" s="28"/>
-      <c r="C130" s="28"/>
-      <c r="D130" s="28"/>
-      <c r="E130" s="28"/>
-      <c r="F130" s="28"/>
-      <c r="G130" s="28"/>
-      <c r="H130" s="28"/>
-      <c r="I130" s="28"/>
-      <c r="J130" s="28"/>
-      <c r="K130" s="28"/>
-      <c r="L130" s="28"/>
-      <c r="M130" s="28"/>
-      <c r="N130" s="28"/>
-      <c r="O130" s="28"/>
-      <c r="P130" s="28"/>
-      <c r="Q130" s="28"/>
-      <c r="R130" s="28"/>
-      <c r="S130" s="28"/>
-      <c r="T130" s="28"/>
-      <c r="U130" s="28"/>
-      <c r="V130" s="28"/>
-      <c r="W130" s="28"/>
-      <c r="X130" s="28"/>
-      <c r="Y130" s="28"/>
-      <c r="Z130" s="28"/>
-      <c r="AA130" s="28"/>
-      <c r="AB130" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="131">
-      <c r="A131" s="28"/>
-      <c r="B131" s="28"/>
-      <c r="C131" s="28"/>
-      <c r="D131" s="28"/>
-      <c r="E131" s="28"/>
-      <c r="F131" s="28"/>
-      <c r="G131" s="28"/>
-      <c r="H131" s="28"/>
-      <c r="I131" s="28"/>
-      <c r="J131" s="28"/>
-      <c r="K131" s="28"/>
-      <c r="L131" s="28"/>
-      <c r="M131" s="28"/>
-      <c r="N131" s="28"/>
-      <c r="O131" s="28"/>
-      <c r="P131" s="28"/>
-      <c r="Q131" s="28"/>
-      <c r="R131" s="28"/>
-      <c r="S131" s="28"/>
-      <c r="T131" s="28"/>
-      <c r="U131" s="28"/>
-      <c r="V131" s="28"/>
-      <c r="W131" s="28"/>
-      <c r="X131" s="28"/>
-      <c r="Y131" s="28"/>
-      <c r="Z131" s="28"/>
-      <c r="AA131" s="28"/>
-      <c r="AB131" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="132">
-      <c r="A132" s="28"/>
-      <c r="B132" s="28"/>
-      <c r="C132" s="28"/>
-      <c r="D132" s="28"/>
-      <c r="E132" s="28"/>
-      <c r="F132" s="28"/>
-      <c r="G132" s="28"/>
-      <c r="H132" s="28"/>
-      <c r="I132" s="28"/>
-      <c r="J132" s="28"/>
-      <c r="K132" s="28"/>
-      <c r="L132" s="28"/>
-      <c r="M132" s="28"/>
-      <c r="N132" s="28"/>
-      <c r="O132" s="28"/>
-      <c r="P132" s="28"/>
-      <c r="Q132" s="28"/>
-      <c r="R132" s="28"/>
-      <c r="S132" s="28"/>
-      <c r="T132" s="28"/>
-      <c r="U132" s="28"/>
-      <c r="V132" s="28"/>
-      <c r="W132" s="28"/>
-      <c r="X132" s="28"/>
-      <c r="Y132" s="28"/>
-      <c r="Z132" s="28"/>
-      <c r="AA132" s="28"/>
-      <c r="AB132" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="133">
-      <c r="A133" s="28"/>
-      <c r="B133" s="28"/>
-      <c r="C133" s="28"/>
-      <c r="D133" s="28"/>
-      <c r="E133" s="28"/>
-      <c r="F133" s="28"/>
-      <c r="G133" s="28"/>
-      <c r="H133" s="28"/>
-      <c r="I133" s="28"/>
-      <c r="J133" s="28"/>
-      <c r="K133" s="28"/>
-      <c r="L133" s="28"/>
-      <c r="M133" s="28"/>
-      <c r="N133" s="28"/>
-      <c r="O133" s="28"/>
-      <c r="P133" s="28"/>
-      <c r="Q133" s="28"/>
-      <c r="R133" s="28"/>
-      <c r="S133" s="28"/>
-      <c r="T133" s="28"/>
-      <c r="U133" s="28"/>
-      <c r="V133" s="28"/>
-      <c r="W133" s="28"/>
-      <c r="X133" s="28"/>
-      <c r="Y133" s="28"/>
-      <c r="Z133" s="28"/>
-      <c r="AA133" s="28"/>
-      <c r="AB133" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="134">
-      <c r="A134" s="28"/>
-      <c r="B134" s="28"/>
-      <c r="C134" s="28"/>
-      <c r="D134" s="28"/>
-      <c r="E134" s="28"/>
-      <c r="F134" s="28"/>
-      <c r="G134" s="28"/>
-      <c r="H134" s="28"/>
-      <c r="I134" s="28"/>
-      <c r="J134" s="28"/>
-      <c r="K134" s="28"/>
-      <c r="L134" s="28"/>
-      <c r="M134" s="28"/>
-      <c r="N134" s="28"/>
-      <c r="O134" s="28"/>
-      <c r="P134" s="28"/>
-      <c r="Q134" s="28"/>
-      <c r="R134" s="28"/>
-      <c r="S134" s="28"/>
-      <c r="T134" s="28"/>
-      <c r="U134" s="28"/>
-      <c r="V134" s="28"/>
-      <c r="W134" s="28"/>
-      <c r="X134" s="28"/>
-      <c r="Y134" s="28"/>
-      <c r="Z134" s="28"/>
-      <c r="AA134" s="28"/>
-      <c r="AB134" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="135">
-      <c r="A135" s="28"/>
-      <c r="B135" s="28"/>
-      <c r="C135" s="28"/>
-      <c r="D135" s="28"/>
-      <c r="E135" s="28"/>
-      <c r="F135" s="28"/>
-      <c r="G135" s="28"/>
-      <c r="H135" s="28"/>
-      <c r="I135" s="28"/>
-      <c r="J135" s="28"/>
-      <c r="K135" s="28"/>
-      <c r="L135" s="28"/>
-      <c r="M135" s="28"/>
-      <c r="N135" s="28"/>
-      <c r="O135" s="28"/>
-      <c r="P135" s="28"/>
-      <c r="Q135" s="28"/>
-      <c r="R135" s="28"/>
-      <c r="S135" s="28"/>
-      <c r="T135" s="28"/>
-      <c r="U135" s="28"/>
-      <c r="V135" s="28"/>
-      <c r="W135" s="28"/>
-      <c r="X135" s="28"/>
-      <c r="Y135" s="28"/>
-      <c r="Z135" s="28"/>
-      <c r="AA135" s="28"/>
-      <c r="AB135" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="136">
-      <c r="A136" s="28"/>
-      <c r="B136" s="28"/>
-      <c r="C136" s="28"/>
-      <c r="D136" s="28"/>
-      <c r="E136" s="28"/>
-      <c r="F136" s="28"/>
-      <c r="G136" s="28"/>
-      <c r="H136" s="28"/>
-      <c r="I136" s="28"/>
-      <c r="J136" s="28"/>
-      <c r="K136" s="28"/>
-      <c r="L136" s="28"/>
-      <c r="M136" s="28"/>
-      <c r="N136" s="28"/>
-      <c r="O136" s="28"/>
-      <c r="P136" s="28"/>
-      <c r="Q136" s="28"/>
-      <c r="R136" s="28"/>
-      <c r="S136" s="28"/>
-      <c r="T136" s="28"/>
-      <c r="U136" s="28"/>
-      <c r="V136" s="28"/>
-      <c r="W136" s="28"/>
-      <c r="X136" s="28"/>
-      <c r="Y136" s="28"/>
-      <c r="Z136" s="28"/>
-      <c r="AA136" s="28"/>
-      <c r="AB136" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="137">
-      <c r="A137" s="28"/>
-      <c r="B137" s="28"/>
-      <c r="C137" s="28"/>
-      <c r="D137" s="28"/>
-      <c r="E137" s="28"/>
-      <c r="F137" s="28"/>
-      <c r="G137" s="28"/>
-      <c r="H137" s="28"/>
-      <c r="I137" s="28"/>
-      <c r="J137" s="28"/>
-      <c r="K137" s="28"/>
-      <c r="L137" s="28"/>
-      <c r="M137" s="28"/>
-      <c r="N137" s="28"/>
-      <c r="O137" s="28"/>
-      <c r="P137" s="28"/>
-      <c r="Q137" s="28"/>
-      <c r="R137" s="28"/>
-      <c r="S137" s="28"/>
-      <c r="T137" s="28"/>
-      <c r="U137" s="28"/>
-      <c r="V137" s="28"/>
-      <c r="W137" s="28"/>
-      <c r="X137" s="28"/>
-      <c r="Y137" s="28"/>
-      <c r="Z137" s="28"/>
-      <c r="AA137" s="28"/>
-      <c r="AB137" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="138">
-      <c r="A138" s="28"/>
-      <c r="B138" s="28"/>
-      <c r="C138" s="28"/>
-      <c r="D138" s="28"/>
-      <c r="E138" s="28"/>
-      <c r="F138" s="28"/>
-      <c r="G138" s="28"/>
-      <c r="H138" s="28"/>
-      <c r="I138" s="28"/>
-      <c r="J138" s="28"/>
-      <c r="K138" s="28"/>
-      <c r="L138" s="28"/>
-      <c r="M138" s="28"/>
-      <c r="N138" s="28"/>
-      <c r="O138" s="28"/>
-      <c r="P138" s="28"/>
-      <c r="Q138" s="28"/>
-      <c r="R138" s="28"/>
-      <c r="S138" s="28"/>
-      <c r="T138" s="28"/>
-      <c r="U138" s="28"/>
-      <c r="V138" s="28"/>
-      <c r="W138" s="28"/>
-      <c r="X138" s="28"/>
-      <c r="Y138" s="28"/>
-      <c r="Z138" s="28"/>
-      <c r="AA138" s="28"/>
-      <c r="AB138" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="139">
-      <c r="A139" s="28"/>
-      <c r="B139" s="28"/>
-      <c r="C139" s="28"/>
-      <c r="D139" s="28"/>
-      <c r="E139" s="28"/>
-      <c r="F139" s="28"/>
-      <c r="G139" s="28"/>
-      <c r="H139" s="28"/>
-      <c r="I139" s="28"/>
-      <c r="J139" s="28"/>
-      <c r="K139" s="28"/>
-      <c r="L139" s="28"/>
-      <c r="M139" s="28"/>
-      <c r="N139" s="28"/>
-      <c r="O139" s="28"/>
-      <c r="P139" s="28"/>
-      <c r="Q139" s="28"/>
-      <c r="R139" s="28"/>
-      <c r="S139" s="28"/>
-      <c r="T139" s="28"/>
-      <c r="U139" s="28"/>
-      <c r="V139" s="28"/>
-      <c r="W139" s="28"/>
-      <c r="X139" s="28"/>
-      <c r="Y139" s="28"/>
-      <c r="Z139" s="28"/>
-      <c r="AA139" s="28"/>
-      <c r="AB139" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="140">
-      <c r="A140" s="28"/>
-      <c r="B140" s="28"/>
-      <c r="C140" s="28"/>
-      <c r="D140" s="28"/>
-      <c r="E140" s="28"/>
-      <c r="F140" s="28"/>
-      <c r="G140" s="28"/>
-      <c r="H140" s="28"/>
-      <c r="I140" s="28"/>
-      <c r="J140" s="28"/>
-      <c r="K140" s="28"/>
-      <c r="L140" s="28"/>
-      <c r="M140" s="28"/>
-      <c r="N140" s="28"/>
-      <c r="O140" s="28"/>
-      <c r="P140" s="28"/>
-      <c r="Q140" s="28"/>
-      <c r="R140" s="28"/>
-      <c r="S140" s="28"/>
-      <c r="T140" s="28"/>
-      <c r="U140" s="28"/>
-      <c r="V140" s="28"/>
-      <c r="W140" s="28"/>
-      <c r="X140" s="28"/>
-      <c r="Y140" s="28"/>
-      <c r="Z140" s="28"/>
-      <c r="AA140" s="28"/>
-      <c r="AB140" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="141">
-      <c r="A141" s="28"/>
-      <c r="B141" s="28"/>
-      <c r="C141" s="28"/>
-      <c r="D141" s="28"/>
-      <c r="E141" s="28"/>
-      <c r="F141" s="28"/>
-      <c r="G141" s="28"/>
-      <c r="H141" s="28"/>
-      <c r="I141" s="28"/>
-      <c r="J141" s="28"/>
-      <c r="K141" s="28"/>
-      <c r="L141" s="28"/>
-      <c r="M141" s="28"/>
-      <c r="N141" s="28"/>
-      <c r="O141" s="28"/>
-      <c r="P141" s="28"/>
-      <c r="Q141" s="28"/>
-      <c r="R141" s="28"/>
-      <c r="S141" s="28"/>
-      <c r="T141" s="28"/>
-      <c r="U141" s="28"/>
-      <c r="V141" s="28"/>
-      <c r="W141" s="28"/>
-      <c r="X141" s="28"/>
-      <c r="Y141" s="28"/>
-      <c r="Z141" s="28"/>
-      <c r="AA141" s="28"/>
-      <c r="AB141" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="142">
-      <c r="A142" s="28"/>
-      <c r="B142" s="28"/>
-      <c r="C142" s="28"/>
-      <c r="D142" s="28"/>
-      <c r="E142" s="28"/>
-      <c r="F142" s="28"/>
-      <c r="G142" s="28"/>
-      <c r="H142" s="28"/>
-      <c r="I142" s="28"/>
-      <c r="J142" s="28"/>
-      <c r="K142" s="28"/>
-      <c r="L142" s="28"/>
-      <c r="M142" s="28"/>
-      <c r="N142" s="28"/>
-      <c r="O142" s="28"/>
-      <c r="P142" s="28"/>
-      <c r="Q142" s="28"/>
-      <c r="R142" s="28"/>
-      <c r="S142" s="28"/>
-      <c r="T142" s="28"/>
-      <c r="U142" s="28"/>
-      <c r="V142" s="28"/>
-      <c r="W142" s="28"/>
-      <c r="X142" s="28"/>
-      <c r="Y142" s="28"/>
-      <c r="Z142" s="28"/>
-      <c r="AA142" s="28"/>
-      <c r="AB142" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="143">
-      <c r="A143" s="28"/>
-      <c r="B143" s="28"/>
-      <c r="C143" s="28"/>
-      <c r="D143" s="28"/>
-      <c r="E143" s="28"/>
-      <c r="F143" s="28"/>
-      <c r="G143" s="28"/>
-      <c r="H143" s="28"/>
-      <c r="I143" s="28"/>
-      <c r="J143" s="28"/>
-      <c r="K143" s="28"/>
-      <c r="L143" s="28"/>
-      <c r="M143" s="28"/>
-      <c r="N143" s="28"/>
-      <c r="O143" s="28"/>
-      <c r="P143" s="28"/>
-      <c r="Q143" s="28"/>
-      <c r="R143" s="28"/>
-      <c r="S143" s="28"/>
-      <c r="T143" s="28"/>
-      <c r="U143" s="28"/>
-      <c r="V143" s="28"/>
-      <c r="W143" s="28"/>
-      <c r="X143" s="28"/>
-      <c r="Y143" s="28"/>
-      <c r="Z143" s="28"/>
-      <c r="AA143" s="28"/>
-      <c r="AB143" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="144">
-      <c r="A144" s="28"/>
-      <c r="B144" s="28"/>
-      <c r="C144" s="28"/>
-      <c r="D144" s="28"/>
-      <c r="E144" s="28"/>
-      <c r="F144" s="28"/>
-      <c r="G144" s="28"/>
-      <c r="H144" s="28"/>
-      <c r="I144" s="28"/>
-      <c r="J144" s="28"/>
-      <c r="K144" s="28"/>
-      <c r="L144" s="28"/>
-      <c r="M144" s="28"/>
-      <c r="N144" s="28"/>
-      <c r="O144" s="28"/>
-      <c r="P144" s="28"/>
-      <c r="Q144" s="28"/>
-      <c r="R144" s="28"/>
-      <c r="S144" s="28"/>
-      <c r="T144" s="28"/>
-      <c r="U144" s="28"/>
-      <c r="V144" s="28"/>
-      <c r="W144" s="28"/>
-      <c r="X144" s="28"/>
-      <c r="Y144" s="28"/>
-      <c r="Z144" s="28"/>
-      <c r="AA144" s="28"/>
-      <c r="AB144" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="145">
-      <c r="A145" s="28"/>
-      <c r="B145" s="28"/>
-      <c r="C145" s="28"/>
-      <c r="D145" s="28"/>
-      <c r="E145" s="28"/>
-      <c r="F145" s="28"/>
-      <c r="G145" s="28"/>
-      <c r="H145" s="28"/>
-      <c r="I145" s="28"/>
-      <c r="J145" s="28"/>
-      <c r="K145" s="28"/>
-      <c r="L145" s="28"/>
-      <c r="M145" s="28"/>
-      <c r="N145" s="28"/>
-      <c r="O145" s="28"/>
-      <c r="P145" s="28"/>
-      <c r="Q145" s="28"/>
-      <c r="R145" s="28"/>
-      <c r="S145" s="28"/>
-      <c r="T145" s="28"/>
-      <c r="U145" s="28"/>
-      <c r="V145" s="28"/>
-      <c r="W145" s="28"/>
-      <c r="X145" s="28"/>
-      <c r="Y145" s="28"/>
-      <c r="Z145" s="28"/>
-      <c r="AA145" s="28"/>
-      <c r="AB145" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="146">
-      <c r="A146" s="28"/>
-      <c r="B146" s="28"/>
-      <c r="C146" s="28"/>
-      <c r="D146" s="28"/>
-      <c r="E146" s="28"/>
-      <c r="F146" s="28"/>
-      <c r="G146" s="28"/>
-      <c r="H146" s="28"/>
-      <c r="I146" s="28"/>
-      <c r="J146" s="28"/>
-      <c r="K146" s="28"/>
-      <c r="L146" s="28"/>
-      <c r="M146" s="28"/>
-      <c r="N146" s="28"/>
-      <c r="O146" s="28"/>
-      <c r="P146" s="28"/>
-      <c r="Q146" s="28"/>
-      <c r="R146" s="28"/>
-      <c r="S146" s="28"/>
-      <c r="T146" s="28"/>
-      <c r="U146" s="28"/>
-      <c r="V146" s="28"/>
-      <c r="W146" s="28"/>
-      <c r="X146" s="28"/>
-      <c r="Y146" s="28"/>
-      <c r="Z146" s="28"/>
-      <c r="AA146" s="28"/>
-      <c r="AB146" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="147">
-      <c r="A147" s="28"/>
-      <c r="B147" s="28"/>
-      <c r="C147" s="28"/>
-      <c r="D147" s="28"/>
-      <c r="E147" s="28"/>
-      <c r="F147" s="28"/>
-      <c r="G147" s="28"/>
-      <c r="H147" s="28"/>
-      <c r="I147" s="28"/>
-      <c r="J147" s="28"/>
-      <c r="K147" s="28"/>
-      <c r="L147" s="28"/>
-      <c r="M147" s="28"/>
-      <c r="N147" s="28"/>
-      <c r="O147" s="28"/>
-      <c r="P147" s="28"/>
-      <c r="Q147" s="28"/>
-      <c r="R147" s="28"/>
-      <c r="S147" s="28"/>
-      <c r="T147" s="28"/>
-      <c r="U147" s="28"/>
-      <c r="V147" s="28"/>
-      <c r="W147" s="28"/>
-      <c r="X147" s="28"/>
-      <c r="Y147" s="28"/>
-      <c r="Z147" s="28"/>
-      <c r="AA147" s="28"/>
-      <c r="AB147" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="148">
-      <c r="A148" s="28"/>
-      <c r="B148" s="28"/>
-      <c r="C148" s="28"/>
-      <c r="D148" s="28"/>
-      <c r="E148" s="28"/>
-      <c r="F148" s="28"/>
-      <c r="G148" s="28"/>
-      <c r="H148" s="28"/>
-      <c r="I148" s="28"/>
-      <c r="J148" s="28"/>
-      <c r="K148" s="28"/>
-      <c r="L148" s="28"/>
-      <c r="M148" s="28"/>
-      <c r="N148" s="28"/>
-      <c r="O148" s="28"/>
-      <c r="P148" s="28"/>
-      <c r="Q148" s="28"/>
-      <c r="R148" s="28"/>
-      <c r="S148" s="28"/>
-      <c r="T148" s="28"/>
-      <c r="U148" s="28"/>
-      <c r="V148" s="28"/>
-      <c r="W148" s="28"/>
-      <c r="X148" s="28"/>
-      <c r="Y148" s="28"/>
-      <c r="Z148" s="28"/>
-      <c r="AA148" s="28"/>
-      <c r="AB148" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="149">
-      <c r="A149" s="28"/>
-      <c r="B149" s="28"/>
-      <c r="C149" s="28"/>
-      <c r="D149" s="28"/>
-      <c r="E149" s="28"/>
-      <c r="F149" s="28"/>
-      <c r="G149" s="28"/>
-      <c r="H149" s="28"/>
-      <c r="I149" s="28"/>
-      <c r="J149" s="28"/>
-      <c r="K149" s="28"/>
-      <c r="L149" s="28"/>
-      <c r="M149" s="28"/>
-      <c r="N149" s="28"/>
-      <c r="O149" s="28"/>
-      <c r="P149" s="28"/>
-      <c r="Q149" s="28"/>
-      <c r="R149" s="28"/>
-      <c r="S149" s="28"/>
-      <c r="T149" s="28"/>
-      <c r="U149" s="28"/>
-      <c r="V149" s="28"/>
-      <c r="W149" s="28"/>
-      <c r="X149" s="28"/>
-      <c r="Y149" s="28"/>
-      <c r="Z149" s="28"/>
-      <c r="AA149" s="28"/>
-      <c r="AB149" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="150">
-      <c r="A150" s="28"/>
-      <c r="B150" s="28"/>
-      <c r="C150" s="28"/>
-      <c r="D150" s="28"/>
-      <c r="E150" s="28"/>
-      <c r="F150" s="28"/>
-      <c r="G150" s="28"/>
-      <c r="H150" s="28"/>
-      <c r="I150" s="28"/>
-      <c r="J150" s="28"/>
-      <c r="K150" s="28"/>
-      <c r="L150" s="28"/>
-      <c r="M150" s="28"/>
-      <c r="N150" s="28"/>
-      <c r="O150" s="28"/>
-      <c r="P150" s="28"/>
-      <c r="Q150" s="28"/>
-      <c r="R150" s="28"/>
-      <c r="S150" s="28"/>
-      <c r="T150" s="28"/>
-      <c r="U150" s="28"/>
-      <c r="V150" s="28"/>
-      <c r="W150" s="28"/>
-      <c r="X150" s="28"/>
-      <c r="Y150" s="28"/>
-      <c r="Z150" s="28"/>
-      <c r="AA150" s="28"/>
-      <c r="AB150" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="151">
-      <c r="A151" s="28"/>
-      <c r="B151" s="28"/>
-      <c r="C151" s="28"/>
-      <c r="D151" s="28"/>
-      <c r="E151" s="28"/>
-      <c r="F151" s="28"/>
-      <c r="G151" s="28"/>
-      <c r="H151" s="28"/>
-      <c r="I151" s="28"/>
-      <c r="J151" s="28"/>
-      <c r="K151" s="28"/>
-      <c r="L151" s="28"/>
-      <c r="M151" s="28"/>
-      <c r="N151" s="28"/>
-      <c r="O151" s="28"/>
-      <c r="P151" s="28"/>
-      <c r="Q151" s="28"/>
-      <c r="R151" s="28"/>
-      <c r="S151" s="28"/>
-      <c r="T151" s="28"/>
-      <c r="U151" s="28"/>
-      <c r="V151" s="28"/>
-      <c r="W151" s="28"/>
-      <c r="X151" s="28"/>
-      <c r="Y151" s="28"/>
-      <c r="Z151" s="28"/>
-      <c r="AA151" s="28"/>
-      <c r="AB151" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="152">
-      <c r="A152" s="28"/>
-      <c r="B152" s="28"/>
-      <c r="C152" s="28"/>
-      <c r="D152" s="28"/>
-      <c r="E152" s="28"/>
-      <c r="F152" s="28"/>
-      <c r="G152" s="28"/>
-      <c r="H152" s="28"/>
-      <c r="I152" s="28"/>
-      <c r="J152" s="28"/>
-      <c r="K152" s="28"/>
-      <c r="L152" s="28"/>
-      <c r="M152" s="28"/>
-      <c r="N152" s="28"/>
-      <c r="O152" s="28"/>
-      <c r="P152" s="28"/>
-      <c r="Q152" s="28"/>
-      <c r="R152" s="28"/>
-      <c r="S152" s="28"/>
-      <c r="T152" s="28"/>
-      <c r="U152" s="28"/>
-      <c r="V152" s="28"/>
-      <c r="W152" s="28"/>
-      <c r="X152" s="28"/>
-      <c r="Y152" s="28"/>
-      <c r="Z152" s="28"/>
-      <c r="AA152" s="28"/>
-      <c r="AB152" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="153">
-      <c r="A153" s="28"/>
-      <c r="B153" s="28"/>
-      <c r="C153" s="28"/>
-      <c r="D153" s="28"/>
-      <c r="E153" s="28"/>
-      <c r="F153" s="28"/>
-      <c r="G153" s="28"/>
-      <c r="H153" s="28"/>
-      <c r="I153" s="28"/>
-      <c r="J153" s="28"/>
-      <c r="K153" s="28"/>
-      <c r="L153" s="28"/>
-      <c r="M153" s="28"/>
-      <c r="N153" s="28"/>
-      <c r="O153" s="28"/>
-      <c r="P153" s="28"/>
-      <c r="Q153" s="28"/>
-      <c r="R153" s="28"/>
-      <c r="S153" s="28"/>
-      <c r="T153" s="28"/>
-      <c r="U153" s="28"/>
-      <c r="V153" s="28"/>
-      <c r="W153" s="28"/>
-      <c r="X153" s="28"/>
-      <c r="Y153" s="28"/>
-      <c r="Z153" s="28"/>
-      <c r="AA153" s="28"/>
-      <c r="AB153" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="154">
-      <c r="A154" s="28"/>
-      <c r="B154" s="28"/>
-      <c r="C154" s="28"/>
-      <c r="D154" s="28"/>
-      <c r="E154" s="28"/>
-      <c r="F154" s="28"/>
-      <c r="G154" s="28"/>
-      <c r="H154" s="28"/>
-      <c r="I154" s="28"/>
-      <c r="J154" s="28"/>
-      <c r="K154" s="28"/>
-      <c r="L154" s="28"/>
-      <c r="M154" s="28"/>
-      <c r="N154" s="28"/>
-      <c r="O154" s="28"/>
-      <c r="P154" s="28"/>
-      <c r="Q154" s="28"/>
-      <c r="R154" s="28"/>
-      <c r="S154" s="28"/>
-      <c r="T154" s="28"/>
-      <c r="U154" s="28"/>
-      <c r="V154" s="28"/>
-      <c r="W154" s="28"/>
-      <c r="X154" s="28"/>
-      <c r="Y154" s="28"/>
-      <c r="Z154" s="28"/>
-      <c r="AA154" s="28"/>
-      <c r="AB154" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="155">
-      <c r="A155" s="28"/>
-      <c r="B155" s="28"/>
-      <c r="C155" s="28"/>
-      <c r="D155" s="28"/>
-      <c r="E155" s="28"/>
-      <c r="F155" s="28"/>
-      <c r="G155" s="28"/>
-      <c r="H155" s="28"/>
-      <c r="I155" s="28"/>
-      <c r="J155" s="28"/>
-      <c r="K155" s="28"/>
-      <c r="L155" s="28"/>
-      <c r="M155" s="28"/>
-      <c r="N155" s="28"/>
-      <c r="O155" s="28"/>
-      <c r="P155" s="28"/>
-      <c r="Q155" s="28"/>
-      <c r="R155" s="28"/>
-      <c r="S155" s="28"/>
-      <c r="T155" s="28"/>
-      <c r="U155" s="28"/>
-      <c r="V155" s="28"/>
-      <c r="W155" s="28"/>
-      <c r="X155" s="28"/>
-      <c r="Y155" s="28"/>
-      <c r="Z155" s="28"/>
-      <c r="AA155" s="28"/>
-      <c r="AB155" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="156">
-      <c r="A156" s="28"/>
-      <c r="B156" s="28"/>
-      <c r="C156" s="28"/>
-      <c r="D156" s="28"/>
-      <c r="E156" s="28"/>
-      <c r="F156" s="28"/>
-      <c r="G156" s="28"/>
-      <c r="H156" s="28"/>
-      <c r="I156" s="28"/>
-      <c r="J156" s="28"/>
-      <c r="K156" s="28"/>
-      <c r="L156" s="28"/>
-      <c r="M156" s="28"/>
-      <c r="N156" s="28"/>
-      <c r="O156" s="28"/>
-      <c r="P156" s="28"/>
-      <c r="Q156" s="28"/>
-      <c r="R156" s="28"/>
-      <c r="S156" s="28"/>
-      <c r="T156" s="28"/>
-      <c r="U156" s="28"/>
-      <c r="V156" s="28"/>
-      <c r="W156" s="28"/>
-      <c r="X156" s="28"/>
-      <c r="Y156" s="28"/>
-      <c r="Z156" s="28"/>
-      <c r="AA156" s="28"/>
-      <c r="AB156" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="157">
-      <c r="A157" s="28"/>
-      <c r="B157" s="28"/>
-      <c r="C157" s="28"/>
-      <c r="D157" s="28"/>
-      <c r="E157" s="28"/>
-      <c r="F157" s="28"/>
-      <c r="G157" s="28"/>
-      <c r="H157" s="28"/>
-      <c r="I157" s="28"/>
-      <c r="J157" s="28"/>
-      <c r="K157" s="28"/>
-      <c r="L157" s="28"/>
-      <c r="M157" s="28"/>
-      <c r="N157" s="28"/>
-      <c r="O157" s="28"/>
-      <c r="P157" s="28"/>
-      <c r="Q157" s="28"/>
-      <c r="R157" s="28"/>
-      <c r="S157" s="28"/>
-      <c r="T157" s="28"/>
-      <c r="U157" s="28"/>
-      <c r="V157" s="28"/>
-      <c r="W157" s="28"/>
-      <c r="X157" s="28"/>
-      <c r="Y157" s="28"/>
-      <c r="Z157" s="28"/>
-      <c r="AA157" s="28"/>
-      <c r="AB157" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="158">
-      <c r="A158" s="28"/>
-      <c r="B158" s="28"/>
-      <c r="C158" s="28"/>
-      <c r="D158" s="28"/>
-      <c r="E158" s="28"/>
-      <c r="F158" s="28"/>
-      <c r="G158" s="28"/>
-      <c r="H158" s="28"/>
-      <c r="I158" s="28"/>
-      <c r="J158" s="28"/>
-      <c r="K158" s="28"/>
-      <c r="L158" s="28"/>
-      <c r="M158" s="28"/>
-      <c r="N158" s="28"/>
-      <c r="O158" s="28"/>
-      <c r="P158" s="28"/>
-      <c r="Q158" s="28"/>
-      <c r="R158" s="28"/>
-      <c r="S158" s="28"/>
-      <c r="T158" s="28"/>
-      <c r="U158" s="28"/>
-      <c r="V158" s="28"/>
-      <c r="W158" s="28"/>
-      <c r="X158" s="28"/>
-      <c r="Y158" s="28"/>
-      <c r="Z158" s="28"/>
-      <c r="AA158" s="28"/>
-      <c r="AB158" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="159">
-      <c r="A159" s="28"/>
-      <c r="B159" s="28"/>
-      <c r="C159" s="28"/>
-      <c r="D159" s="28"/>
-      <c r="E159" s="28"/>
-      <c r="F159" s="28"/>
-      <c r="G159" s="28"/>
-      <c r="H159" s="28"/>
-      <c r="I159" s="28"/>
-      <c r="J159" s="28"/>
-      <c r="K159" s="28"/>
-      <c r="L159" s="28"/>
-      <c r="M159" s="28"/>
-      <c r="N159" s="28"/>
-      <c r="O159" s="28"/>
-      <c r="P159" s="28"/>
-      <c r="Q159" s="28"/>
-      <c r="R159" s="28"/>
-      <c r="S159" s="28"/>
-      <c r="T159" s="28"/>
-      <c r="U159" s="28"/>
-      <c r="V159" s="28"/>
-      <c r="W159" s="28"/>
-      <c r="X159" s="28"/>
-      <c r="Y159" s="28"/>
-      <c r="Z159" s="28"/>
-      <c r="AA159" s="28"/>
-      <c r="AB159" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="160">
-      <c r="A160" s="28"/>
-      <c r="B160" s="28"/>
-      <c r="C160" s="28"/>
-      <c r="D160" s="28"/>
-      <c r="E160" s="28"/>
-      <c r="F160" s="28"/>
-      <c r="G160" s="28"/>
-      <c r="H160" s="28"/>
-      <c r="I160" s="28"/>
-      <c r="J160" s="28"/>
-      <c r="K160" s="28"/>
-      <c r="L160" s="28"/>
-      <c r="M160" s="28"/>
-      <c r="N160" s="28"/>
-      <c r="O160" s="28"/>
-      <c r="P160" s="28"/>
-      <c r="Q160" s="28"/>
-      <c r="R160" s="28"/>
-      <c r="S160" s="28"/>
-      <c r="T160" s="28"/>
-      <c r="U160" s="28"/>
-      <c r="V160" s="28"/>
-      <c r="W160" s="28"/>
-      <c r="X160" s="28"/>
-      <c r="Y160" s="28"/>
-      <c r="Z160" s="28"/>
-      <c r="AA160" s="28"/>
-      <c r="AB160" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="161">
-      <c r="A161" s="28"/>
-      <c r="B161" s="28"/>
-      <c r="C161" s="28"/>
-      <c r="D161" s="28"/>
-      <c r="E161" s="28"/>
-      <c r="F161" s="28"/>
-      <c r="G161" s="28"/>
-      <c r="H161" s="28"/>
-      <c r="I161" s="28"/>
-      <c r="J161" s="28"/>
-      <c r="K161" s="28"/>
-      <c r="L161" s="28"/>
-      <c r="M161" s="28"/>
-      <c r="N161" s="28"/>
-      <c r="O161" s="28"/>
-      <c r="P161" s="28"/>
-      <c r="Q161" s="28"/>
-      <c r="R161" s="28"/>
-      <c r="S161" s="28"/>
-      <c r="T161" s="28"/>
-      <c r="U161" s="28"/>
-      <c r="V161" s="28"/>
-      <c r="W161" s="28"/>
-      <c r="X161" s="28"/>
-      <c r="Y161" s="28"/>
-      <c r="Z161" s="28"/>
-      <c r="AA161" s="28"/>
-      <c r="AB161" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="162">
-      <c r="A162" s="28"/>
-      <c r="B162" s="28"/>
-      <c r="C162" s="28"/>
-      <c r="D162" s="28"/>
-      <c r="E162" s="28"/>
-      <c r="F162" s="28"/>
-      <c r="G162" s="28"/>
-      <c r="H162" s="28"/>
-      <c r="I162" s="28"/>
-      <c r="J162" s="28"/>
-      <c r="K162" s="28"/>
-      <c r="L162" s="28"/>
-      <c r="M162" s="28"/>
-      <c r="N162" s="28"/>
-      <c r="O162" s="28"/>
-      <c r="P162" s="28"/>
-      <c r="Q162" s="28"/>
-      <c r="R162" s="28"/>
-      <c r="S162" s="28"/>
-      <c r="T162" s="28"/>
-      <c r="U162" s="28"/>
-      <c r="V162" s="28"/>
-      <c r="W162" s="28"/>
-      <c r="X162" s="28"/>
-      <c r="Y162" s="28"/>
-      <c r="Z162" s="28"/>
-      <c r="AA162" s="28"/>
-      <c r="AB162" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="163">
-      <c r="A163" s="28"/>
-      <c r="B163" s="28"/>
-      <c r="C163" s="28"/>
-      <c r="D163" s="28"/>
-      <c r="E163" s="28"/>
-      <c r="F163" s="28"/>
-      <c r="G163" s="28"/>
-      <c r="H163" s="28"/>
-      <c r="I163" s="28"/>
-      <c r="J163" s="28"/>
-      <c r="K163" s="28"/>
-      <c r="L163" s="28"/>
-      <c r="M163" s="28"/>
-      <c r="N163" s="28"/>
-      <c r="O163" s="28"/>
-      <c r="P163" s="28"/>
-      <c r="Q163" s="28"/>
-      <c r="R163" s="28"/>
-      <c r="S163" s="28"/>
-      <c r="T163" s="28"/>
-      <c r="U163" s="28"/>
-      <c r="V163" s="28"/>
-      <c r="W163" s="28"/>
-      <c r="X163" s="28"/>
-      <c r="Y163" s="28"/>
-      <c r="Z163" s="28"/>
-      <c r="AA163" s="28"/>
-      <c r="AB163" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="164">
-      <c r="A164" s="28"/>
-      <c r="B164" s="28"/>
-      <c r="C164" s="28"/>
-      <c r="D164" s="28"/>
-      <c r="E164" s="28"/>
-      <c r="F164" s="28"/>
-      <c r="G164" s="28"/>
-      <c r="H164" s="28"/>
-      <c r="I164" s="28"/>
-      <c r="J164" s="28"/>
-      <c r="K164" s="28"/>
-      <c r="L164" s="28"/>
-      <c r="M164" s="28"/>
-      <c r="N164" s="28"/>
-      <c r="O164" s="28"/>
-      <c r="P164" s="28"/>
-      <c r="Q164" s="28"/>
-      <c r="R164" s="28"/>
-      <c r="S164" s="28"/>
-      <c r="T164" s="28"/>
-      <c r="U164" s="28"/>
-      <c r="V164" s="28"/>
-      <c r="W164" s="28"/>
-      <c r="X164" s="28"/>
-      <c r="Y164" s="28"/>
-      <c r="Z164" s="28"/>
-      <c r="AA164" s="28"/>
-      <c r="AB164" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="165">
-      <c r="A165" s="28"/>
-      <c r="B165" s="28"/>
-      <c r="C165" s="28"/>
-      <c r="D165" s="28"/>
-      <c r="E165" s="28"/>
-      <c r="F165" s="28"/>
-      <c r="G165" s="28"/>
-      <c r="H165" s="28"/>
-      <c r="I165" s="28"/>
-      <c r="J165" s="28"/>
-      <c r="K165" s="28"/>
-      <c r="L165" s="28"/>
-      <c r="M165" s="28"/>
-      <c r="N165" s="28"/>
-      <c r="O165" s="28"/>
-      <c r="P165" s="28"/>
-      <c r="Q165" s="28"/>
-      <c r="R165" s="28"/>
-      <c r="S165" s="28"/>
-      <c r="T165" s="28"/>
-      <c r="U165" s="28"/>
-      <c r="V165" s="28"/>
-      <c r="W165" s="28"/>
-      <c r="X165" s="28"/>
-      <c r="Y165" s="28"/>
-      <c r="Z165" s="28"/>
-      <c r="AA165" s="28"/>
-      <c r="AB165" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="166">
-      <c r="A166" s="28"/>
-      <c r="B166" s="28"/>
-      <c r="C166" s="28"/>
-      <c r="D166" s="28"/>
-      <c r="E166" s="28"/>
-      <c r="F166" s="28"/>
-      <c r="G166" s="28"/>
-      <c r="H166" s="28"/>
-      <c r="I166" s="28"/>
-      <c r="J166" s="28"/>
-      <c r="K166" s="28"/>
-      <c r="L166" s="28"/>
-      <c r="M166" s="28"/>
-      <c r="N166" s="28"/>
-      <c r="O166" s="28"/>
-      <c r="P166" s="28"/>
-      <c r="Q166" s="28"/>
-      <c r="R166" s="28"/>
-      <c r="S166" s="28"/>
-      <c r="T166" s="28"/>
-      <c r="U166" s="28"/>
-      <c r="V166" s="28"/>
-      <c r="W166" s="28"/>
-      <c r="X166" s="28"/>
-      <c r="Y166" s="28"/>
-      <c r="Z166" s="28"/>
-      <c r="AA166" s="28"/>
-      <c r="AB166" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="167">
-      <c r="A167" s="28"/>
-      <c r="B167" s="28"/>
-      <c r="C167" s="28"/>
-      <c r="D167" s="28"/>
-      <c r="E167" s="28"/>
-      <c r="F167" s="28"/>
-      <c r="G167" s="28"/>
-      <c r="H167" s="28"/>
-      <c r="I167" s="28"/>
-      <c r="J167" s="28"/>
-      <c r="K167" s="28"/>
-      <c r="L167" s="28"/>
-      <c r="M167" s="28"/>
-      <c r="N167" s="28"/>
-      <c r="O167" s="28"/>
-      <c r="P167" s="28"/>
-      <c r="Q167" s="28"/>
-      <c r="R167" s="28"/>
-      <c r="S167" s="28"/>
-      <c r="T167" s="28"/>
-      <c r="U167" s="28"/>
-      <c r="V167" s="28"/>
-      <c r="W167" s="28"/>
-      <c r="X167" s="28"/>
-      <c r="Y167" s="28"/>
-      <c r="Z167" s="28"/>
-      <c r="AA167" s="28"/>
-      <c r="AB167" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="168">
-      <c r="A168" s="28"/>
-      <c r="B168" s="28"/>
-      <c r="C168" s="28"/>
-      <c r="D168" s="28"/>
-      <c r="E168" s="28"/>
-      <c r="F168" s="28"/>
-      <c r="G168" s="28"/>
-      <c r="H168" s="28"/>
-      <c r="I168" s="28"/>
-      <c r="J168" s="28"/>
-      <c r="K168" s="28"/>
-      <c r="L168" s="28"/>
-      <c r="M168" s="28"/>
-      <c r="N168" s="28"/>
-      <c r="O168" s="28"/>
-      <c r="P168" s="28"/>
-      <c r="Q168" s="28"/>
-      <c r="R168" s="28"/>
-      <c r="S168" s="28"/>
-      <c r="T168" s="28"/>
-      <c r="U168" s="28"/>
-      <c r="V168" s="28"/>
-      <c r="W168" s="28"/>
-      <c r="X168" s="28"/>
-      <c r="Y168" s="28"/>
-      <c r="Z168" s="28"/>
-      <c r="AA168" s="28"/>
-      <c r="AB168" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="169">
-      <c r="A169" s="28"/>
-      <c r="B169" s="28"/>
-      <c r="C169" s="28"/>
-      <c r="D169" s="28"/>
-      <c r="E169" s="28"/>
-      <c r="F169" s="28"/>
-      <c r="G169" s="28"/>
-      <c r="H169" s="28"/>
-      <c r="I169" s="28"/>
-      <c r="J169" s="28"/>
-      <c r="K169" s="28"/>
-      <c r="L169" s="28"/>
-      <c r="M169" s="28"/>
-      <c r="N169" s="28"/>
-      <c r="O169" s="28"/>
-      <c r="P169" s="28"/>
-      <c r="Q169" s="28"/>
-      <c r="R169" s="28"/>
-      <c r="S169" s="28"/>
-      <c r="T169" s="28"/>
-      <c r="U169" s="28"/>
-      <c r="V169" s="28"/>
-      <c r="W169" s="28"/>
-      <c r="X169" s="28"/>
-      <c r="Y169" s="28"/>
-      <c r="Z169" s="28"/>
-      <c r="AA169" s="28"/>
-      <c r="AB169" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="170">
-      <c r="A170" s="28"/>
-      <c r="B170" s="28"/>
-      <c r="C170" s="28"/>
-      <c r="D170" s="28"/>
-      <c r="E170" s="28"/>
-      <c r="F170" s="28"/>
-      <c r="G170" s="28"/>
-      <c r="H170" s="28"/>
-      <c r="I170" s="28"/>
-      <c r="J170" s="28"/>
-      <c r="K170" s="28"/>
-      <c r="L170" s="28"/>
-      <c r="M170" s="28"/>
-      <c r="N170" s="28"/>
-      <c r="O170" s="28"/>
-      <c r="P170" s="28"/>
-      <c r="Q170" s="28"/>
-      <c r="R170" s="28"/>
-      <c r="S170" s="28"/>
-      <c r="T170" s="28"/>
-      <c r="U170" s="28"/>
-      <c r="V170" s="28"/>
-      <c r="W170" s="28"/>
-      <c r="X170" s="28"/>
-      <c r="Y170" s="28"/>
-      <c r="Z170" s="28"/>
-      <c r="AA170" s="28"/>
-      <c r="AB170" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="171">
-      <c r="A171" s="28"/>
-      <c r="B171" s="28"/>
-      <c r="C171" s="28"/>
-      <c r="D171" s="28"/>
-      <c r="E171" s="28"/>
-      <c r="F171" s="28"/>
-      <c r="G171" s="28"/>
-      <c r="H171" s="28"/>
-      <c r="I171" s="28"/>
-      <c r="J171" s="28"/>
-      <c r="K171" s="28"/>
-      <c r="L171" s="28"/>
-      <c r="M171" s="28"/>
-      <c r="N171" s="28"/>
-      <c r="O171" s="28"/>
-      <c r="P171" s="28"/>
-      <c r="Q171" s="28"/>
-      <c r="R171" s="28"/>
-      <c r="S171" s="28"/>
-      <c r="T171" s="28"/>
-      <c r="U171" s="28"/>
-      <c r="V171" s="28"/>
-      <c r="W171" s="28"/>
-      <c r="X171" s="28"/>
-      <c r="Y171" s="28"/>
-      <c r="Z171" s="28"/>
-      <c r="AA171" s="28"/>
-      <c r="AB171" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="172">
-      <c r="A172" s="28"/>
-      <c r="B172" s="28"/>
-      <c r="C172" s="28"/>
-      <c r="D172" s="28"/>
-      <c r="E172" s="28"/>
-      <c r="F172" s="28"/>
-      <c r="G172" s="28"/>
-      <c r="H172" s="28"/>
-      <c r="I172" s="28"/>
-      <c r="J172" s="28"/>
-      <c r="K172" s="28"/>
-      <c r="L172" s="28"/>
-      <c r="M172" s="28"/>
-      <c r="N172" s="28"/>
-      <c r="O172" s="28"/>
-      <c r="P172" s="28"/>
-      <c r="Q172" s="28"/>
-      <c r="R172" s="28"/>
-      <c r="S172" s="28"/>
-      <c r="T172" s="28"/>
-      <c r="U172" s="28"/>
-      <c r="V172" s="28"/>
-      <c r="W172" s="28"/>
-      <c r="X172" s="28"/>
-      <c r="Y172" s="28"/>
-      <c r="Z172" s="28"/>
-      <c r="AA172" s="28"/>
-      <c r="AB172" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="173">
-      <c r="A173" s="28"/>
-      <c r="B173" s="28"/>
-      <c r="C173" s="28"/>
-      <c r="D173" s="28"/>
-      <c r="E173" s="28"/>
-      <c r="F173" s="28"/>
-      <c r="G173" s="28"/>
-      <c r="H173" s="28"/>
-      <c r="I173" s="28"/>
-      <c r="J173" s="28"/>
-      <c r="K173" s="28"/>
-      <c r="L173" s="28"/>
-      <c r="M173" s="28"/>
-      <c r="N173" s="28"/>
-      <c r="O173" s="28"/>
-      <c r="P173" s="28"/>
-      <c r="Q173" s="28"/>
-      <c r="R173" s="28"/>
-      <c r="S173" s="28"/>
-      <c r="T173" s="28"/>
-      <c r="U173" s="28"/>
-      <c r="V173" s="28"/>
-      <c r="W173" s="28"/>
-      <c r="X173" s="28"/>
-      <c r="Y173" s="28"/>
-      <c r="Z173" s="28"/>
-      <c r="AA173" s="28"/>
-      <c r="AB173" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="174">
-      <c r="A174" s="28"/>
-      <c r="B174" s="28"/>
-      <c r="C174" s="28"/>
-      <c r="D174" s="28"/>
-      <c r="E174" s="28"/>
-      <c r="F174" s="28"/>
-      <c r="G174" s="28"/>
-      <c r="H174" s="28"/>
-      <c r="I174" s="28"/>
-      <c r="J174" s="28"/>
-      <c r="K174" s="28"/>
-      <c r="L174" s="28"/>
-      <c r="M174" s="28"/>
-      <c r="N174" s="28"/>
-      <c r="O174" s="28"/>
-      <c r="P174" s="28"/>
-      <c r="Q174" s="28"/>
-      <c r="R174" s="28"/>
-      <c r="S174" s="28"/>
-      <c r="T174" s="28"/>
-      <c r="U174" s="28"/>
-      <c r="V174" s="28"/>
-      <c r="W174" s="28"/>
-      <c r="X174" s="28"/>
-      <c r="Y174" s="28"/>
-      <c r="Z174" s="28"/>
-      <c r="AA174" s="28"/>
-      <c r="AB174" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="175">
-      <c r="A175" s="28"/>
-      <c r="B175" s="28"/>
-      <c r="C175" s="28"/>
-      <c r="D175" s="28"/>
-      <c r="E175" s="28"/>
-      <c r="F175" s="28"/>
-      <c r="G175" s="28"/>
-      <c r="H175" s="28"/>
-      <c r="I175" s="28"/>
-      <c r="J175" s="28"/>
-      <c r="K175" s="28"/>
-      <c r="L175" s="28"/>
-      <c r="M175" s="28"/>
-      <c r="N175" s="28"/>
-      <c r="O175" s="28"/>
-      <c r="P175" s="28"/>
-      <c r="Q175" s="28"/>
-      <c r="R175" s="28"/>
-      <c r="S175" s="28"/>
-      <c r="T175" s="28"/>
-      <c r="U175" s="28"/>
-      <c r="V175" s="28"/>
-      <c r="W175" s="28"/>
-      <c r="X175" s="28"/>
-      <c r="Y175" s="28"/>
-      <c r="Z175" s="28"/>
-      <c r="AA175" s="28"/>
-      <c r="AB175" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="176">
-      <c r="A176" s="28"/>
-      <c r="B176" s="28"/>
-      <c r="C176" s="28"/>
-      <c r="D176" s="28"/>
-      <c r="E176" s="28"/>
-      <c r="F176" s="28"/>
-      <c r="G176" s="28"/>
-      <c r="H176" s="28"/>
-      <c r="I176" s="28"/>
-      <c r="J176" s="28"/>
-      <c r="K176" s="28"/>
-      <c r="L176" s="28"/>
-      <c r="M176" s="28"/>
-      <c r="N176" s="28"/>
-      <c r="O176" s="28"/>
-      <c r="P176" s="28"/>
-      <c r="Q176" s="28"/>
-      <c r="R176" s="28"/>
-      <c r="S176" s="28"/>
-      <c r="T176" s="28"/>
-      <c r="U176" s="28"/>
-      <c r="V176" s="28"/>
-      <c r="W176" s="28"/>
-      <c r="X176" s="28"/>
-      <c r="Y176" s="28"/>
-      <c r="Z176" s="28"/>
-      <c r="AA176" s="28"/>
-      <c r="AB176" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="177">
-      <c r="A177" s="28"/>
-      <c r="B177" s="28"/>
-      <c r="C177" s="28"/>
-      <c r="D177" s="28"/>
-      <c r="E177" s="28"/>
-      <c r="F177" s="28"/>
-      <c r="G177" s="28"/>
-      <c r="H177" s="28"/>
-      <c r="I177" s="28"/>
-      <c r="J177" s="28"/>
-      <c r="K177" s="28"/>
-      <c r="L177" s="28"/>
-      <c r="M177" s="28"/>
-      <c r="N177" s="28"/>
-      <c r="O177" s="28"/>
-      <c r="P177" s="28"/>
-      <c r="Q177" s="28"/>
-      <c r="R177" s="28"/>
-      <c r="S177" s="28"/>
-      <c r="T177" s="28"/>
-      <c r="U177" s="28"/>
-      <c r="V177" s="28"/>
-      <c r="W177" s="28"/>
-      <c r="X177" s="28"/>
-      <c r="Y177" s="28"/>
-      <c r="Z177" s="28"/>
-      <c r="AA177" s="28"/>
-      <c r="AB177" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="178">
-      <c r="A178" s="28"/>
-      <c r="B178" s="28"/>
-      <c r="C178" s="28"/>
-      <c r="D178" s="28"/>
-      <c r="E178" s="28"/>
-      <c r="F178" s="28"/>
-      <c r="G178" s="28"/>
-      <c r="H178" s="28"/>
-      <c r="I178" s="28"/>
-      <c r="J178" s="28"/>
-      <c r="K178" s="28"/>
-      <c r="L178" s="28"/>
-      <c r="M178" s="28"/>
-      <c r="N178" s="28"/>
-      <c r="O178" s="28"/>
-      <c r="P178" s="28"/>
-      <c r="Q178" s="28"/>
-      <c r="R178" s="28"/>
-      <c r="S178" s="28"/>
-      <c r="T178" s="28"/>
-      <c r="U178" s="28"/>
-      <c r="V178" s="28"/>
-      <c r="W178" s="28"/>
-      <c r="X178" s="28"/>
-      <c r="Y178" s="28"/>
-      <c r="Z178" s="28"/>
-      <c r="AA178" s="28"/>
-      <c r="AB178" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="179">
-      <c r="A179" s="28"/>
-      <c r="B179" s="28"/>
-      <c r="C179" s="28"/>
-      <c r="D179" s="28"/>
-      <c r="E179" s="28"/>
-      <c r="F179" s="28"/>
-      <c r="G179" s="28"/>
-      <c r="H179" s="28"/>
-      <c r="I179" s="28"/>
-      <c r="J179" s="28"/>
-      <c r="K179" s="28"/>
-      <c r="L179" s="28"/>
-      <c r="M179" s="28"/>
-      <c r="N179" s="28"/>
-      <c r="O179" s="28"/>
-      <c r="P179" s="28"/>
-      <c r="Q179" s="28"/>
-      <c r="R179" s="28"/>
-      <c r="S179" s="28"/>
-      <c r="T179" s="28"/>
-      <c r="U179" s="28"/>
-      <c r="V179" s="28"/>
-      <c r="W179" s="28"/>
-      <c r="X179" s="28"/>
-      <c r="Y179" s="28"/>
-      <c r="Z179" s="28"/>
-      <c r="AA179" s="28"/>
-      <c r="AB179" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="180">
-      <c r="A180" s="28"/>
-      <c r="B180" s="28"/>
-      <c r="C180" s="28"/>
-      <c r="D180" s="28"/>
-      <c r="E180" s="28"/>
-      <c r="F180" s="28"/>
-      <c r="G180" s="28"/>
-      <c r="H180" s="28"/>
-      <c r="I180" s="28"/>
-      <c r="J180" s="28"/>
-      <c r="K180" s="28"/>
-      <c r="L180" s="28"/>
-      <c r="M180" s="28"/>
-      <c r="N180" s="28"/>
-      <c r="O180" s="28"/>
-      <c r="P180" s="28"/>
-      <c r="Q180" s="28"/>
-      <c r="R180" s="28"/>
-      <c r="S180" s="28"/>
-      <c r="T180" s="28"/>
-      <c r="U180" s="28"/>
-      <c r="V180" s="28"/>
-      <c r="W180" s="28"/>
-      <c r="X180" s="28"/>
-      <c r="Y180" s="28"/>
-      <c r="Z180" s="28"/>
-      <c r="AA180" s="28"/>
-      <c r="AB180" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="181">
-      <c r="A181" s="28"/>
-      <c r="B181" s="28"/>
-      <c r="C181" s="28"/>
-      <c r="D181" s="28"/>
-      <c r="E181" s="28"/>
-      <c r="F181" s="28"/>
-      <c r="G181" s="28"/>
-      <c r="H181" s="28"/>
-      <c r="I181" s="28"/>
-      <c r="J181" s="28"/>
-      <c r="K181" s="28"/>
-      <c r="L181" s="28"/>
-      <c r="M181" s="28"/>
-      <c r="N181" s="28"/>
-      <c r="O181" s="28"/>
-      <c r="P181" s="28"/>
-      <c r="Q181" s="28"/>
-      <c r="R181" s="28"/>
-      <c r="S181" s="28"/>
-      <c r="T181" s="28"/>
-      <c r="U181" s="28"/>
-      <c r="V181" s="28"/>
-      <c r="W181" s="28"/>
-      <c r="X181" s="28"/>
-      <c r="Y181" s="28"/>
-      <c r="Z181" s="28"/>
-      <c r="AA181" s="28"/>
-      <c r="AB181" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="182">
-      <c r="A182" s="28"/>
-      <c r="B182" s="28"/>
-      <c r="C182" s="28"/>
-      <c r="D182" s="28"/>
-      <c r="E182" s="28"/>
-      <c r="F182" s="28"/>
-      <c r="G182" s="28"/>
-      <c r="H182" s="28"/>
-      <c r="I182" s="28"/>
-      <c r="J182" s="28"/>
-      <c r="K182" s="28"/>
-      <c r="L182" s="28"/>
-      <c r="M182" s="28"/>
-      <c r="N182" s="28"/>
-      <c r="O182" s="28"/>
-      <c r="P182" s="28"/>
-      <c r="Q182" s="28"/>
-      <c r="R182" s="28"/>
-      <c r="S182" s="28"/>
-      <c r="T182" s="28"/>
-      <c r="U182" s="28"/>
-      <c r="V182" s="28"/>
-      <c r="W182" s="28"/>
-      <c r="X182" s="28"/>
-      <c r="Y182" s="28"/>
-      <c r="Z182" s="28"/>
-      <c r="AA182" s="28"/>
-      <c r="AB182" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="183">
-      <c r="A183" s="28"/>
-      <c r="B183" s="28"/>
-      <c r="C183" s="28"/>
-      <c r="D183" s="28"/>
-      <c r="E183" s="28"/>
-      <c r="F183" s="28"/>
-      <c r="G183" s="28"/>
-      <c r="H183" s="28"/>
-      <c r="I183" s="28"/>
-      <c r="J183" s="28"/>
-      <c r="K183" s="28"/>
-      <c r="L183" s="28"/>
-      <c r="M183" s="28"/>
-      <c r="N183" s="28"/>
-      <c r="O183" s="28"/>
-      <c r="P183" s="28"/>
-      <c r="Q183" s="28"/>
-      <c r="R183" s="28"/>
-      <c r="S183" s="28"/>
-      <c r="T183" s="28"/>
-      <c r="U183" s="28"/>
-      <c r="V183" s="28"/>
-      <c r="W183" s="28"/>
-      <c r="X183" s="28"/>
-      <c r="Y183" s="28"/>
-      <c r="Z183" s="28"/>
-      <c r="AA183" s="28"/>
-      <c r="AB183" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="184">
-      <c r="A184" s="28"/>
-      <c r="B184" s="28"/>
-      <c r="C184" s="28"/>
-      <c r="D184" s="28"/>
-      <c r="E184" s="28"/>
-      <c r="F184" s="28"/>
-      <c r="G184" s="28"/>
-      <c r="H184" s="28"/>
-      <c r="I184" s="28"/>
-      <c r="J184" s="28"/>
-      <c r="K184" s="28"/>
-      <c r="L184" s="28"/>
-      <c r="M184" s="28"/>
-      <c r="N184" s="28"/>
-      <c r="O184" s="28"/>
-      <c r="P184" s="28"/>
-      <c r="Q184" s="28"/>
-      <c r="R184" s="28"/>
-      <c r="S184" s="28"/>
-      <c r="T184" s="28"/>
-      <c r="U184" s="28"/>
-      <c r="V184" s="28"/>
-      <c r="W184" s="28"/>
-      <c r="X184" s="28"/>
-      <c r="Y184" s="28"/>
-      <c r="Z184" s="28"/>
-      <c r="AA184" s="28"/>
-      <c r="AB184" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="185">
-      <c r="A185" s="28"/>
-      <c r="B185" s="28"/>
-      <c r="C185" s="28"/>
-      <c r="D185" s="28"/>
-      <c r="E185" s="28"/>
-      <c r="F185" s="28"/>
-      <c r="G185" s="28"/>
-      <c r="H185" s="28"/>
-      <c r="I185" s="28"/>
-      <c r="J185" s="28"/>
-      <c r="K185" s="28"/>
-      <c r="L185" s="28"/>
-      <c r="M185" s="28"/>
-      <c r="N185" s="28"/>
-      <c r="O185" s="28"/>
-      <c r="P185" s="28"/>
-      <c r="Q185" s="28"/>
-      <c r="R185" s="28"/>
-      <c r="S185" s="28"/>
-      <c r="T185" s="28"/>
-      <c r="U185" s="28"/>
-      <c r="V185" s="28"/>
-      <c r="W185" s="28"/>
-      <c r="X185" s="28"/>
-      <c r="Y185" s="28"/>
-      <c r="Z185" s="28"/>
-      <c r="AA185" s="28"/>
-      <c r="AB185" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="186">
-      <c r="A186" s="28"/>
-      <c r="B186" s="28"/>
-      <c r="C186" s="28"/>
-      <c r="D186" s="28"/>
-      <c r="E186" s="28"/>
-      <c r="F186" s="28"/>
-      <c r="G186" s="28"/>
-      <c r="H186" s="28"/>
-      <c r="I186" s="28"/>
-      <c r="J186" s="28"/>
-      <c r="K186" s="28"/>
-      <c r="L186" s="28"/>
-      <c r="M186" s="28"/>
-      <c r="N186" s="28"/>
-      <c r="O186" s="28"/>
-      <c r="P186" s="28"/>
-      <c r="Q186" s="28"/>
-      <c r="R186" s="28"/>
-      <c r="S186" s="28"/>
-      <c r="T186" s="28"/>
-      <c r="U186" s="28"/>
-      <c r="V186" s="28"/>
-      <c r="W186" s="28"/>
-      <c r="X186" s="28"/>
-      <c r="Y186" s="28"/>
-      <c r="Z186" s="28"/>
-      <c r="AA186" s="28"/>
-      <c r="AB186" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="187">
-      <c r="A187" s="28"/>
-      <c r="B187" s="28"/>
-      <c r="C187" s="28"/>
-      <c r="D187" s="28"/>
-      <c r="E187" s="28"/>
-      <c r="F187" s="28"/>
-      <c r="G187" s="28"/>
-      <c r="H187" s="28"/>
-      <c r="I187" s="28"/>
-      <c r="J187" s="28"/>
-      <c r="K187" s="28"/>
-      <c r="L187" s="28"/>
-      <c r="M187" s="28"/>
-      <c r="N187" s="28"/>
-      <c r="O187" s="28"/>
-      <c r="P187" s="28"/>
-      <c r="Q187" s="28"/>
-      <c r="R187" s="28"/>
-      <c r="S187" s="28"/>
-      <c r="T187" s="28"/>
-      <c r="U187" s="28"/>
-      <c r="V187" s="28"/>
-      <c r="W187" s="28"/>
-      <c r="X187" s="28"/>
-      <c r="Y187" s="28"/>
-      <c r="Z187" s="28"/>
-      <c r="AA187" s="28"/>
-      <c r="AB187" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="188">
-      <c r="A188" s="28"/>
-      <c r="B188" s="28"/>
-      <c r="C188" s="28"/>
-      <c r="D188" s="28"/>
-      <c r="E188" s="28"/>
-      <c r="F188" s="28"/>
-      <c r="G188" s="28"/>
-      <c r="H188" s="28"/>
-      <c r="I188" s="28"/>
-      <c r="J188" s="28"/>
-      <c r="K188" s="28"/>
-      <c r="L188" s="28"/>
-      <c r="M188" s="28"/>
-      <c r="N188" s="28"/>
-      <c r="O188" s="28"/>
-      <c r="P188" s="28"/>
-      <c r="Q188" s="28"/>
-      <c r="R188" s="28"/>
-      <c r="S188" s="28"/>
-      <c r="T188" s="28"/>
-      <c r="U188" s="28"/>
-      <c r="V188" s="28"/>
-      <c r="W188" s="28"/>
-      <c r="X188" s="28"/>
-      <c r="Y188" s="28"/>
-      <c r="Z188" s="28"/>
-      <c r="AA188" s="28"/>
-      <c r="AB188" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="189">
-      <c r="A189" s="28"/>
-      <c r="B189" s="28"/>
-      <c r="C189" s="28"/>
-      <c r="D189" s="28"/>
-      <c r="E189" s="28"/>
-      <c r="F189" s="28"/>
-      <c r="G189" s="28"/>
-      <c r="H189" s="28"/>
-      <c r="I189" s="28"/>
-      <c r="J189" s="28"/>
-      <c r="K189" s="28"/>
-      <c r="L189" s="28"/>
-      <c r="M189" s="28"/>
-      <c r="N189" s="28"/>
-      <c r="O189" s="28"/>
-      <c r="P189" s="28"/>
-      <c r="Q189" s="28"/>
-      <c r="R189" s="28"/>
-      <c r="S189" s="28"/>
-      <c r="T189" s="28"/>
-      <c r="U189" s="28"/>
-      <c r="V189" s="28"/>
-      <c r="W189" s="28"/>
-      <c r="X189" s="28"/>
-      <c r="Y189" s="28"/>
-      <c r="Z189" s="28"/>
-      <c r="AA189" s="28"/>
-      <c r="AB189" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="190">
-      <c r="A190" s="28"/>
-      <c r="B190" s="28"/>
-      <c r="C190" s="28"/>
-      <c r="D190" s="28"/>
-      <c r="E190" s="28"/>
-      <c r="F190" s="28"/>
-      <c r="G190" s="28"/>
-      <c r="H190" s="28"/>
-      <c r="I190" s="28"/>
-      <c r="J190" s="28"/>
-      <c r="K190" s="28"/>
-      <c r="L190" s="28"/>
-      <c r="M190" s="28"/>
-      <c r="N190" s="28"/>
-      <c r="O190" s="28"/>
-      <c r="P190" s="28"/>
-      <c r="Q190" s="28"/>
-      <c r="R190" s="28"/>
-      <c r="S190" s="28"/>
-      <c r="T190" s="28"/>
-      <c r="U190" s="28"/>
-      <c r="V190" s="28"/>
-      <c r="W190" s="28"/>
-      <c r="X190" s="28"/>
-      <c r="Y190" s="28"/>
-      <c r="Z190" s="28"/>
-      <c r="AA190" s="28"/>
-      <c r="AB190" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="191">
-      <c r="A191" s="28"/>
-      <c r="B191" s="28"/>
-      <c r="C191" s="28"/>
-      <c r="D191" s="28"/>
-      <c r="E191" s="28"/>
-      <c r="F191" s="28"/>
-      <c r="G191" s="28"/>
-      <c r="H191" s="28"/>
-      <c r="I191" s="28"/>
-      <c r="J191" s="28"/>
-      <c r="K191" s="28"/>
-      <c r="L191" s="28"/>
-      <c r="M191" s="28"/>
-      <c r="N191" s="28"/>
-      <c r="O191" s="28"/>
-      <c r="P191" s="28"/>
-      <c r="Q191" s="28"/>
-      <c r="R191" s="28"/>
-      <c r="S191" s="28"/>
-      <c r="T191" s="28"/>
-      <c r="U191" s="28"/>
-      <c r="V191" s="28"/>
-      <c r="W191" s="28"/>
-      <c r="X191" s="28"/>
-      <c r="Y191" s="28"/>
-      <c r="Z191" s="28"/>
-      <c r="AA191" s="28"/>
-      <c r="AB191" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="192">
-      <c r="A192" s="28"/>
-      <c r="B192" s="28"/>
-      <c r="C192" s="28"/>
-      <c r="D192" s="28"/>
-      <c r="E192" s="28"/>
-      <c r="F192" s="28"/>
-      <c r="G192" s="28"/>
-      <c r="H192" s="28"/>
-      <c r="I192" s="28"/>
-      <c r="J192" s="28"/>
-      <c r="K192" s="28"/>
-      <c r="L192" s="28"/>
-      <c r="M192" s="28"/>
-      <c r="N192" s="28"/>
-      <c r="O192" s="28"/>
-      <c r="P192" s="28"/>
-      <c r="Q192" s="28"/>
-      <c r="R192" s="28"/>
-      <c r="S192" s="28"/>
-      <c r="T192" s="28"/>
-      <c r="U192" s="28"/>
-      <c r="V192" s="28"/>
-      <c r="W192" s="28"/>
-      <c r="X192" s="28"/>
-      <c r="Y192" s="28"/>
-      <c r="Z192" s="28"/>
-      <c r="AA192" s="28"/>
-      <c r="AB192" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="193">
-      <c r="A193" s="28"/>
-      <c r="B193" s="28"/>
-      <c r="C193" s="28"/>
-      <c r="D193" s="28"/>
-      <c r="E193" s="28"/>
-      <c r="F193" s="28"/>
-      <c r="G193" s="28"/>
-      <c r="H193" s="28"/>
-      <c r="I193" s="28"/>
-      <c r="J193" s="28"/>
-      <c r="K193" s="28"/>
-      <c r="L193" s="28"/>
-      <c r="M193" s="28"/>
-      <c r="N193" s="28"/>
-      <c r="O193" s="28"/>
-      <c r="P193" s="28"/>
-      <c r="Q193" s="28"/>
-      <c r="R193" s="28"/>
-      <c r="S193" s="28"/>
-      <c r="T193" s="28"/>
-      <c r="U193" s="28"/>
-      <c r="V193" s="28"/>
-      <c r="W193" s="28"/>
-      <c r="X193" s="28"/>
-      <c r="Y193" s="28"/>
-      <c r="Z193" s="28"/>
-      <c r="AA193" s="28"/>
-      <c r="AB193" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="194">
-      <c r="A194" s="28"/>
-      <c r="B194" s="28"/>
-      <c r="C194" s="28"/>
-      <c r="D194" s="28"/>
-      <c r="E194" s="28"/>
-      <c r="F194" s="28"/>
-      <c r="G194" s="28"/>
-      <c r="H194" s="28"/>
-      <c r="I194" s="28"/>
-      <c r="J194" s="28"/>
-      <c r="K194" s="28"/>
-      <c r="L194" s="28"/>
-      <c r="M194" s="28"/>
-      <c r="N194" s="28"/>
-      <c r="O194" s="28"/>
-      <c r="P194" s="28"/>
-      <c r="Q194" s="28"/>
-      <c r="R194" s="28"/>
-      <c r="S194" s="28"/>
-      <c r="T194" s="28"/>
-      <c r="U194" s="28"/>
-      <c r="V194" s="28"/>
-      <c r="W194" s="28"/>
-      <c r="X194" s="28"/>
-      <c r="Y194" s="28"/>
-      <c r="Z194" s="28"/>
-      <c r="AA194" s="28"/>
-      <c r="AB194" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="195">
-      <c r="A195" s="28"/>
-      <c r="B195" s="28"/>
-      <c r="C195" s="28"/>
-      <c r="D195" s="28"/>
-      <c r="E195" s="28"/>
-      <c r="F195" s="28"/>
-      <c r="G195" s="28"/>
-      <c r="H195" s="28"/>
-      <c r="I195" s="28"/>
-      <c r="J195" s="28"/>
-      <c r="K195" s="28"/>
-      <c r="L195" s="28"/>
-      <c r="M195" s="28"/>
-      <c r="N195" s="28"/>
-      <c r="O195" s="28"/>
-      <c r="P195" s="28"/>
-      <c r="Q195" s="28"/>
-      <c r="R195" s="28"/>
-      <c r="S195" s="28"/>
-      <c r="T195" s="28"/>
-      <c r="U195" s="28"/>
-      <c r="V195" s="28"/>
-      <c r="W195" s="28"/>
-      <c r="X195" s="28"/>
-      <c r="Y195" s="28"/>
-      <c r="Z195" s="28"/>
-      <c r="AA195" s="28"/>
-      <c r="AB195" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="196">
-      <c r="A196" s="28"/>
-      <c r="B196" s="28"/>
-      <c r="C196" s="28"/>
-      <c r="D196" s="28"/>
-      <c r="E196" s="28"/>
-      <c r="F196" s="28"/>
-      <c r="G196" s="28"/>
-      <c r="H196" s="28"/>
-      <c r="I196" s="28"/>
-      <c r="J196" s="28"/>
-      <c r="K196" s="28"/>
-      <c r="L196" s="28"/>
-      <c r="M196" s="28"/>
-      <c r="N196" s="28"/>
-      <c r="O196" s="28"/>
-      <c r="P196" s="28"/>
-      <c r="Q196" s="28"/>
-      <c r="R196" s="28"/>
-      <c r="S196" s="28"/>
-      <c r="T196" s="28"/>
-      <c r="U196" s="28"/>
-      <c r="V196" s="28"/>
-      <c r="W196" s="28"/>
-      <c r="X196" s="28"/>
-      <c r="Y196" s="28"/>
-      <c r="Z196" s="28"/>
-      <c r="AA196" s="28"/>
-      <c r="AB196" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="197">
-      <c r="A197" s="28"/>
-      <c r="B197" s="28"/>
-      <c r="C197" s="28"/>
-      <c r="D197" s="28"/>
-      <c r="E197" s="28"/>
-      <c r="F197" s="28"/>
-      <c r="G197" s="28"/>
-      <c r="H197" s="28"/>
-      <c r="I197" s="28"/>
-      <c r="J197" s="28"/>
-      <c r="K197" s="28"/>
-      <c r="L197" s="28"/>
-      <c r="M197" s="28"/>
-      <c r="N197" s="28"/>
-      <c r="O197" s="28"/>
-      <c r="P197" s="28"/>
-      <c r="Q197" s="28"/>
-      <c r="R197" s="28"/>
-      <c r="S197" s="28"/>
-      <c r="T197" s="28"/>
-      <c r="U197" s="28"/>
-      <c r="V197" s="28"/>
-      <c r="W197" s="28"/>
-      <c r="X197" s="28"/>
-      <c r="Y197" s="28"/>
-      <c r="Z197" s="28"/>
-      <c r="AA197" s="28"/>
-      <c r="AB197" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="198">
-      <c r="A198" s="28"/>
-      <c r="B198" s="28"/>
-      <c r="C198" s="28"/>
-      <c r="D198" s="28"/>
-      <c r="E198" s="28"/>
-      <c r="F198" s="28"/>
-      <c r="G198" s="28"/>
-      <c r="H198" s="28"/>
-      <c r="I198" s="28"/>
-      <c r="J198" s="28"/>
-      <c r="K198" s="28"/>
-      <c r="L198" s="28"/>
-      <c r="M198" s="28"/>
-      <c r="N198" s="28"/>
-      <c r="O198" s="28"/>
-      <c r="P198" s="28"/>
-      <c r="Q198" s="28"/>
-      <c r="R198" s="28"/>
-      <c r="S198" s="28"/>
-      <c r="T198" s="28"/>
-      <c r="U198" s="28"/>
-      <c r="V198" s="28"/>
-      <c r="W198" s="28"/>
-      <c r="X198" s="28"/>
-      <c r="Y198" s="28"/>
-      <c r="Z198" s="28"/>
-      <c r="AA198" s="28"/>
-      <c r="AB198" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="199">
-      <c r="A199" s="28"/>
-      <c r="B199" s="28"/>
-      <c r="C199" s="28"/>
-      <c r="D199" s="28"/>
-      <c r="E199" s="28"/>
-      <c r="F199" s="28"/>
-      <c r="G199" s="28"/>
-      <c r="H199" s="28"/>
-      <c r="I199" s="28"/>
-      <c r="J199" s="28"/>
-      <c r="K199" s="28"/>
-      <c r="L199" s="28"/>
-      <c r="M199" s="28"/>
-      <c r="N199" s="28"/>
-      <c r="O199" s="28"/>
-      <c r="P199" s="28"/>
-      <c r="Q199" s="28"/>
-      <c r="R199" s="28"/>
-      <c r="S199" s="28"/>
-      <c r="T199" s="28"/>
-      <c r="U199" s="28"/>
-      <c r="V199" s="28"/>
-      <c r="W199" s="28"/>
-      <c r="X199" s="28"/>
-      <c r="Y199" s="28"/>
-      <c r="Z199" s="28"/>
-      <c r="AA199" s="28"/>
-      <c r="AB199" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="200">
-      <c r="A200" s="28"/>
-      <c r="B200" s="28"/>
-      <c r="C200" s="28"/>
-      <c r="D200" s="28"/>
-      <c r="E200" s="28"/>
-      <c r="F200" s="28"/>
-      <c r="G200" s="28"/>
-      <c r="H200" s="28"/>
-      <c r="I200" s="28"/>
-      <c r="J200" s="28"/>
-      <c r="K200" s="28"/>
-      <c r="L200" s="28"/>
-      <c r="M200" s="28"/>
-      <c r="N200" s="28"/>
-      <c r="O200" s="28"/>
-      <c r="P200" s="28"/>
-      <c r="Q200" s="28"/>
-      <c r="R200" s="28"/>
-      <c r="S200" s="28"/>
-      <c r="T200" s="28"/>
-      <c r="U200" s="28"/>
-      <c r="V200" s="28"/>
-      <c r="W200" s="28"/>
-      <c r="X200" s="28"/>
-      <c r="Y200" s="28"/>
-      <c r="Z200" s="28"/>
-      <c r="AA200" s="28"/>
-      <c r="AB200" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="201">
-      <c r="A201" s="28"/>
-      <c r="B201" s="28"/>
-      <c r="C201" s="28"/>
-      <c r="D201" s="28"/>
-      <c r="E201" s="28"/>
-      <c r="F201" s="28"/>
-      <c r="G201" s="28"/>
-      <c r="H201" s="28"/>
-      <c r="I201" s="28"/>
-      <c r="J201" s="28"/>
-      <c r="K201" s="28"/>
-      <c r="L201" s="28"/>
-      <c r="M201" s="28"/>
-      <c r="N201" s="28"/>
-      <c r="O201" s="28"/>
-      <c r="P201" s="28"/>
-      <c r="Q201" s="28"/>
-      <c r="R201" s="28"/>
-      <c r="S201" s="28"/>
-      <c r="T201" s="28"/>
-      <c r="U201" s="28"/>
-      <c r="V201" s="28"/>
-      <c r="W201" s="28"/>
-      <c r="X201" s="28"/>
-      <c r="Y201" s="28"/>
-      <c r="Z201" s="28"/>
-      <c r="AA201" s="28"/>
-      <c r="AB201" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="202">
-      <c r="A202" s="28"/>
-      <c r="B202" s="28"/>
-      <c r="C202" s="28"/>
-      <c r="D202" s="28"/>
-      <c r="E202" s="28"/>
-      <c r="F202" s="28"/>
-      <c r="G202" s="28"/>
-      <c r="H202" s="28"/>
-      <c r="I202" s="28"/>
-      <c r="J202" s="28"/>
-      <c r="K202" s="28"/>
-      <c r="L202" s="28"/>
-      <c r="M202" s="28"/>
-      <c r="N202" s="28"/>
-      <c r="O202" s="28"/>
-      <c r="P202" s="28"/>
-      <c r="Q202" s="28"/>
-      <c r="R202" s="28"/>
-      <c r="S202" s="28"/>
-      <c r="T202" s="28"/>
-      <c r="U202" s="28"/>
-      <c r="V202" s="28"/>
-      <c r="W202" s="28"/>
-      <c r="X202" s="28"/>
-      <c r="Y202" s="28"/>
-      <c r="Z202" s="28"/>
-      <c r="AA202" s="28"/>
-      <c r="AB202" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="203">
-      <c r="A203" s="28"/>
-      <c r="B203" s="28"/>
-      <c r="C203" s="28"/>
-      <c r="D203" s="28"/>
-      <c r="E203" s="28"/>
-      <c r="F203" s="28"/>
-      <c r="G203" s="28"/>
-      <c r="H203" s="28"/>
-      <c r="I203" s="28"/>
-      <c r="J203" s="28"/>
-      <c r="K203" s="28"/>
-      <c r="L203" s="28"/>
-      <c r="M203" s="28"/>
-      <c r="N203" s="28"/>
-      <c r="O203" s="28"/>
-      <c r="P203" s="28"/>
-      <c r="Q203" s="28"/>
-      <c r="R203" s="28"/>
-      <c r="S203" s="28"/>
-      <c r="T203" s="28"/>
-      <c r="U203" s="28"/>
-      <c r="V203" s="28"/>
-      <c r="W203" s="28"/>
-      <c r="X203" s="28"/>
-      <c r="Y203" s="28"/>
-      <c r="Z203" s="28"/>
-      <c r="AA203" s="28"/>
-      <c r="AB203" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="204">
-      <c r="A204" s="28"/>
-      <c r="B204" s="28"/>
-      <c r="C204" s="28"/>
-      <c r="D204" s="28"/>
-      <c r="E204" s="28"/>
-      <c r="F204" s="28"/>
-      <c r="G204" s="28"/>
-      <c r="H204" s="28"/>
-      <c r="I204" s="28"/>
-      <c r="J204" s="28"/>
-      <c r="K204" s="28"/>
-      <c r="L204" s="28"/>
-      <c r="M204" s="28"/>
-      <c r="N204" s="28"/>
-      <c r="O204" s="28"/>
-      <c r="P204" s="28"/>
-      <c r="Q204" s="28"/>
-      <c r="R204" s="28"/>
-      <c r="S204" s="28"/>
-      <c r="T204" s="28"/>
-      <c r="U204" s="28"/>
-      <c r="V204" s="28"/>
-      <c r="W204" s="28"/>
-      <c r="X204" s="28"/>
-      <c r="Y204" s="28"/>
-      <c r="Z204" s="28"/>
-      <c r="AA204" s="28"/>
-      <c r="AB204" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="205">
-      <c r="A205" s="28"/>
-      <c r="B205" s="28"/>
-      <c r="C205" s="28"/>
-      <c r="D205" s="28"/>
-      <c r="E205" s="28"/>
-      <c r="F205" s="28"/>
-      <c r="G205" s="28"/>
-      <c r="H205" s="28"/>
-      <c r="I205" s="28"/>
-      <c r="J205" s="28"/>
-      <c r="K205" s="28"/>
-      <c r="L205" s="28"/>
-      <c r="M205" s="28"/>
-      <c r="N205" s="28"/>
-      <c r="O205" s="28"/>
-      <c r="P205" s="28"/>
-      <c r="Q205" s="28"/>
-      <c r="R205" s="28"/>
-      <c r="S205" s="28"/>
-      <c r="T205" s="28"/>
-      <c r="U205" s="28"/>
-      <c r="V205" s="28"/>
-      <c r="W205" s="28"/>
-      <c r="X205" s="28"/>
-      <c r="Y205" s="28"/>
-      <c r="Z205" s="28"/>
-      <c r="AA205" s="28"/>
-      <c r="AB205" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="206">
-      <c r="A206" s="28"/>
-      <c r="B206" s="28"/>
-      <c r="C206" s="28"/>
-      <c r="D206" s="28"/>
-      <c r="E206" s="28"/>
-      <c r="F206" s="28"/>
-      <c r="G206" s="28"/>
-      <c r="H206" s="28"/>
-      <c r="I206" s="28"/>
-      <c r="J206" s="28"/>
-      <c r="K206" s="28"/>
-      <c r="L206" s="28"/>
-      <c r="M206" s="28"/>
-      <c r="N206" s="28"/>
-      <c r="O206" s="28"/>
-      <c r="P206" s="28"/>
-      <c r="Q206" s="28"/>
-      <c r="R206" s="28"/>
-      <c r="S206" s="28"/>
-      <c r="T206" s="28"/>
-      <c r="U206" s="28"/>
-      <c r="V206" s="28"/>
-      <c r="W206" s="28"/>
-      <c r="X206" s="28"/>
-      <c r="Y206" s="28"/>
-      <c r="Z206" s="28"/>
-      <c r="AA206" s="28"/>
-      <c r="AB206" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="207">
-      <c r="A207" s="28"/>
-      <c r="B207" s="28"/>
-      <c r="C207" s="28"/>
-      <c r="D207" s="28"/>
-      <c r="E207" s="28"/>
-      <c r="F207" s="28"/>
-      <c r="G207" s="28"/>
-      <c r="H207" s="28"/>
-      <c r="I207" s="28"/>
-      <c r="J207" s="28"/>
-      <c r="K207" s="28"/>
-      <c r="L207" s="28"/>
-      <c r="M207" s="28"/>
-      <c r="N207" s="28"/>
-      <c r="O207" s="28"/>
-      <c r="P207" s="28"/>
-      <c r="Q207" s="28"/>
-      <c r="R207" s="28"/>
-      <c r="S207" s="28"/>
-      <c r="T207" s="28"/>
-      <c r="U207" s="28"/>
-      <c r="V207" s="28"/>
-      <c r="W207" s="28"/>
-      <c r="X207" s="28"/>
-      <c r="Y207" s="28"/>
-      <c r="Z207" s="28"/>
-      <c r="AA207" s="28"/>
-      <c r="AB207" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="208">
-      <c r="A208" s="28"/>
-      <c r="B208" s="28"/>
-      <c r="C208" s="28"/>
-      <c r="D208" s="28"/>
-      <c r="E208" s="28"/>
-      <c r="F208" s="28"/>
-      <c r="G208" s="28"/>
-      <c r="H208" s="28"/>
-      <c r="I208" s="28"/>
-      <c r="J208" s="28"/>
-      <c r="K208" s="28"/>
-      <c r="L208" s="28"/>
-      <c r="M208" s="28"/>
-      <c r="N208" s="28"/>
-      <c r="O208" s="28"/>
-      <c r="P208" s="28"/>
-      <c r="Q208" s="28"/>
-      <c r="R208" s="28"/>
-      <c r="S208" s="28"/>
-      <c r="T208" s="28"/>
-      <c r="U208" s="28"/>
-      <c r="V208" s="28"/>
-      <c r="W208" s="28"/>
-      <c r="X208" s="28"/>
-      <c r="Y208" s="28"/>
-      <c r="Z208" s="28"/>
-      <c r="AA208" s="28"/>
-      <c r="AB208" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="209">
-      <c r="A209" s="28"/>
-      <c r="B209" s="28"/>
-      <c r="C209" s="28"/>
-      <c r="D209" s="28"/>
-      <c r="E209" s="28"/>
-      <c r="F209" s="28"/>
-      <c r="G209" s="28"/>
-      <c r="H209" s="28"/>
-      <c r="I209" s="28"/>
-      <c r="J209" s="28"/>
-      <c r="K209" s="28"/>
-      <c r="L209" s="28"/>
-      <c r="M209" s="28"/>
-      <c r="N209" s="28"/>
-      <c r="O209" s="28"/>
-      <c r="P209" s="28"/>
-      <c r="Q209" s="28"/>
-      <c r="R209" s="28"/>
-      <c r="S209" s="28"/>
-      <c r="T209" s="28"/>
-      <c r="U209" s="28"/>
-      <c r="V209" s="28"/>
-      <c r="W209" s="28"/>
-      <c r="X209" s="28"/>
-      <c r="Y209" s="28"/>
-      <c r="Z209" s="28"/>
-      <c r="AA209" s="28"/>
-      <c r="AB209" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="210">
-      <c r="A210" s="28"/>
-      <c r="B210" s="28"/>
-      <c r="C210" s="28"/>
-      <c r="D210" s="28"/>
-      <c r="E210" s="28"/>
-      <c r="F210" s="28"/>
-      <c r="G210" s="28"/>
-      <c r="H210" s="28"/>
-      <c r="I210" s="28"/>
-      <c r="J210" s="28"/>
-      <c r="K210" s="28"/>
-      <c r="L210" s="28"/>
-      <c r="M210" s="28"/>
-      <c r="N210" s="28"/>
-      <c r="O210" s="28"/>
-      <c r="P210" s="28"/>
-      <c r="Q210" s="28"/>
-      <c r="R210" s="28"/>
-      <c r="S210" s="28"/>
-      <c r="T210" s="28"/>
-      <c r="U210" s="28"/>
-      <c r="V210" s="28"/>
-      <c r="W210" s="28"/>
-      <c r="X210" s="28"/>
-      <c r="Y210" s="28"/>
-      <c r="Z210" s="28"/>
-      <c r="AA210" s="28"/>
-      <c r="AB210" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="211">
-      <c r="A211" s="28"/>
-      <c r="B211" s="28"/>
-      <c r="C211" s="28"/>
-      <c r="D211" s="28"/>
-      <c r="E211" s="28"/>
-      <c r="F211" s="28"/>
-      <c r="G211" s="28"/>
-      <c r="H211" s="28"/>
-      <c r="I211" s="28"/>
-      <c r="J211" s="28"/>
-      <c r="K211" s="28"/>
-      <c r="L211" s="28"/>
-      <c r="M211" s="28"/>
-      <c r="N211" s="28"/>
-      <c r="O211" s="28"/>
-      <c r="P211" s="28"/>
-      <c r="Q211" s="28"/>
-      <c r="R211" s="28"/>
-      <c r="S211" s="28"/>
-      <c r="T211" s="28"/>
-      <c r="U211" s="28"/>
-      <c r="V211" s="28"/>
-      <c r="W211" s="28"/>
-      <c r="X211" s="28"/>
-      <c r="Y211" s="28"/>
-      <c r="Z211" s="28"/>
-      <c r="AA211" s="28"/>
-      <c r="AB211" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="212">
-      <c r="A212" s="28"/>
-      <c r="B212" s="28"/>
-      <c r="C212" s="28"/>
-      <c r="D212" s="28"/>
-      <c r="E212" s="28"/>
-      <c r="F212" s="28"/>
-      <c r="G212" s="28"/>
-      <c r="H212" s="28"/>
-      <c r="I212" s="28"/>
-      <c r="J212" s="28"/>
-      <c r="K212" s="28"/>
-      <c r="L212" s="28"/>
-      <c r="M212" s="28"/>
-      <c r="N212" s="28"/>
-      <c r="O212" s="28"/>
-      <c r="P212" s="28"/>
-      <c r="Q212" s="28"/>
-      <c r="R212" s="28"/>
-      <c r="S212" s="28"/>
-      <c r="T212" s="28"/>
-      <c r="U212" s="28"/>
-      <c r="V212" s="28"/>
-      <c r="W212" s="28"/>
-      <c r="X212" s="28"/>
-      <c r="Y212" s="28"/>
-      <c r="Z212" s="28"/>
-      <c r="AA212" s="28"/>
-      <c r="AB212" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="213">
-      <c r="A213" s="28"/>
-      <c r="B213" s="28"/>
-      <c r="C213" s="28"/>
-      <c r="D213" s="28"/>
-      <c r="E213" s="28"/>
-      <c r="F213" s="28"/>
-      <c r="G213" s="28"/>
-      <c r="H213" s="28"/>
-      <c r="I213" s="28"/>
-      <c r="J213" s="28"/>
-      <c r="K213" s="28"/>
-      <c r="L213" s="28"/>
-      <c r="M213" s="28"/>
-      <c r="N213" s="28"/>
-      <c r="O213" s="28"/>
-      <c r="P213" s="28"/>
-      <c r="Q213" s="28"/>
-      <c r="R213" s="28"/>
-      <c r="S213" s="28"/>
-      <c r="T213" s="28"/>
-      <c r="U213" s="28"/>
-      <c r="V213" s="28"/>
-      <c r="W213" s="28"/>
-      <c r="X213" s="28"/>
-      <c r="Y213" s="28"/>
-      <c r="Z213" s="28"/>
-      <c r="AA213" s="28"/>
-      <c r="AB213" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="214">
-      <c r="A214" s="28"/>
-      <c r="B214" s="28"/>
-      <c r="C214" s="28"/>
-      <c r="D214" s="28"/>
-      <c r="E214" s="28"/>
-      <c r="F214" s="28"/>
-      <c r="G214" s="28"/>
-      <c r="H214" s="28"/>
-      <c r="I214" s="28"/>
-      <c r="J214" s="28"/>
-      <c r="K214" s="28"/>
-      <c r="L214" s="28"/>
-      <c r="M214" s="28"/>
-      <c r="N214" s="28"/>
-      <c r="O214" s="28"/>
-      <c r="P214" s="28"/>
-      <c r="Q214" s="28"/>
-      <c r="R214" s="28"/>
-      <c r="S214" s="28"/>
-      <c r="T214" s="28"/>
-      <c r="U214" s="28"/>
-      <c r="V214" s="28"/>
-      <c r="W214" s="28"/>
-      <c r="X214" s="28"/>
-      <c r="Y214" s="28"/>
-      <c r="Z214" s="28"/>
-      <c r="AA214" s="28"/>
-      <c r="AB214" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="215">
-      <c r="A215" s="28"/>
-      <c r="B215" s="28"/>
-      <c r="C215" s="28"/>
-      <c r="D215" s="28"/>
-      <c r="E215" s="28"/>
-      <c r="F215" s="28"/>
-      <c r="G215" s="28"/>
-      <c r="H215" s="28"/>
-      <c r="I215" s="28"/>
-      <c r="J215" s="28"/>
-      <c r="K215" s="28"/>
-      <c r="L215" s="28"/>
-      <c r="M215" s="28"/>
-      <c r="N215" s="28"/>
-      <c r="O215" s="28"/>
-      <c r="P215" s="28"/>
-      <c r="Q215" s="28"/>
-      <c r="R215" s="28"/>
-      <c r="S215" s="28"/>
-      <c r="T215" s="28"/>
-      <c r="U215" s="28"/>
-      <c r="V215" s="28"/>
-      <c r="W215" s="28"/>
-      <c r="X215" s="28"/>
-      <c r="Y215" s="28"/>
-      <c r="Z215" s="28"/>
-      <c r="AA215" s="28"/>
-      <c r="AB215" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="216">
-      <c r="A216" s="28"/>
-      <c r="B216" s="28"/>
-      <c r="C216" s="28"/>
-      <c r="D216" s="28"/>
-      <c r="E216" s="28"/>
-      <c r="F216" s="28"/>
-      <c r="G216" s="28"/>
-      <c r="H216" s="28"/>
-      <c r="I216" s="28"/>
-      <c r="J216" s="28"/>
-      <c r="K216" s="28"/>
-      <c r="L216" s="28"/>
-      <c r="M216" s="28"/>
-      <c r="N216" s="28"/>
-      <c r="O216" s="28"/>
-      <c r="P216" s="28"/>
-      <c r="Q216" s="28"/>
-      <c r="R216" s="28"/>
-      <c r="S216" s="28"/>
-      <c r="T216" s="28"/>
-      <c r="U216" s="28"/>
-      <c r="V216" s="28"/>
-      <c r="W216" s="28"/>
-      <c r="X216" s="28"/>
-      <c r="Y216" s="28"/>
-      <c r="Z216" s="28"/>
-      <c r="AA216" s="28"/>
-      <c r="AB216" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="217">
-      <c r="A217" s="28"/>
-      <c r="B217" s="28"/>
-      <c r="C217" s="28"/>
-      <c r="D217" s="28"/>
-      <c r="E217" s="28"/>
-      <c r="F217" s="28"/>
-      <c r="G217" s="28"/>
-      <c r="H217" s="28"/>
-      <c r="I217" s="28"/>
-      <c r="J217" s="28"/>
-      <c r="K217" s="28"/>
-      <c r="L217" s="28"/>
-      <c r="M217" s="28"/>
-      <c r="N217" s="28"/>
-      <c r="O217" s="28"/>
-      <c r="P217" s="28"/>
-      <c r="Q217" s="28"/>
-      <c r="R217" s="28"/>
-      <c r="S217" s="28"/>
-      <c r="T217" s="28"/>
-      <c r="U217" s="28"/>
-      <c r="V217" s="28"/>
-      <c r="W217" s="28"/>
-      <c r="X217" s="28"/>
-      <c r="Y217" s="28"/>
-      <c r="Z217" s="28"/>
-      <c r="AA217" s="28"/>
-      <c r="AB217" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="218">
-      <c r="A218" s="28"/>
-      <c r="B218" s="28"/>
-      <c r="C218" s="28"/>
-      <c r="D218" s="28"/>
-      <c r="E218" s="28"/>
-      <c r="F218" s="28"/>
-      <c r="G218" s="28"/>
-      <c r="H218" s="28"/>
-      <c r="I218" s="28"/>
-      <c r="J218" s="28"/>
-      <c r="K218" s="28"/>
-      <c r="L218" s="28"/>
-      <c r="M218" s="28"/>
-      <c r="N218" s="28"/>
-      <c r="O218" s="28"/>
-      <c r="P218" s="28"/>
-      <c r="Q218" s="28"/>
-      <c r="R218" s="28"/>
-      <c r="S218" s="28"/>
-      <c r="T218" s="28"/>
-      <c r="U218" s="28"/>
-      <c r="V218" s="28"/>
-      <c r="W218" s="28"/>
-      <c r="X218" s="28"/>
-      <c r="Y218" s="28"/>
-      <c r="Z218" s="28"/>
-      <c r="AA218" s="28"/>
-      <c r="AB218" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="219">
-      <c r="A219" s="28"/>
-      <c r="B219" s="28"/>
-      <c r="C219" s="28"/>
-      <c r="D219" s="28"/>
-      <c r="E219" s="28"/>
-      <c r="F219" s="28"/>
-      <c r="G219" s="28"/>
-      <c r="H219" s="28"/>
-      <c r="I219" s="28"/>
-      <c r="J219" s="28"/>
-      <c r="K219" s="28"/>
-      <c r="L219" s="28"/>
-      <c r="M219" s="28"/>
-      <c r="N219" s="28"/>
-      <c r="O219" s="28"/>
-      <c r="P219" s="28"/>
-      <c r="Q219" s="28"/>
-      <c r="R219" s="28"/>
-      <c r="S219" s="28"/>
-      <c r="T219" s="28"/>
-      <c r="U219" s="28"/>
-      <c r="V219" s="28"/>
-      <c r="W219" s="28"/>
-      <c r="X219" s="28"/>
-      <c r="Y219" s="28"/>
-      <c r="Z219" s="28"/>
-      <c r="AA219" s="28"/>
-      <c r="AB219" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="220">
-      <c r="A220" s="28"/>
-      <c r="B220" s="28"/>
-      <c r="C220" s="28"/>
-      <c r="D220" s="28"/>
-      <c r="E220" s="28"/>
-      <c r="F220" s="28"/>
-      <c r="G220" s="28"/>
-      <c r="H220" s="28"/>
-      <c r="I220" s="28"/>
-      <c r="J220" s="28"/>
-      <c r="K220" s="28"/>
-      <c r="L220" s="28"/>
-      <c r="M220" s="28"/>
-      <c r="N220" s="28"/>
-      <c r="O220" s="28"/>
-      <c r="P220" s="28"/>
-      <c r="Q220" s="28"/>
-      <c r="R220" s="28"/>
-      <c r="S220" s="28"/>
-      <c r="T220" s="28"/>
-      <c r="U220" s="28"/>
-      <c r="V220" s="28"/>
-      <c r="W220" s="28"/>
-      <c r="X220" s="28"/>
-      <c r="Y220" s="28"/>
-      <c r="Z220" s="28"/>
-      <c r="AA220" s="28"/>
-      <c r="AB220" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="221">
-      <c r="A221" s="28"/>
-      <c r="B221" s="28"/>
-      <c r="C221" s="28"/>
-      <c r="D221" s="28"/>
-      <c r="E221" s="28"/>
-      <c r="F221" s="28"/>
-      <c r="G221" s="28"/>
-      <c r="H221" s="28"/>
-      <c r="I221" s="28"/>
-      <c r="J221" s="28"/>
-      <c r="K221" s="28"/>
-      <c r="L221" s="28"/>
-      <c r="M221" s="28"/>
-      <c r="N221" s="28"/>
-      <c r="O221" s="28"/>
-      <c r="P221" s="28"/>
-      <c r="Q221" s="28"/>
-      <c r="R221" s="28"/>
-      <c r="S221" s="28"/>
-      <c r="T221" s="28"/>
-      <c r="U221" s="28"/>
-      <c r="V221" s="28"/>
-      <c r="W221" s="28"/>
-      <c r="X221" s="28"/>
-      <c r="Y221" s="28"/>
-      <c r="Z221" s="28"/>
-      <c r="AA221" s="28"/>
-      <c r="AB221" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="222">
-      <c r="A222" s="28"/>
-      <c r="B222" s="28"/>
-      <c r="C222" s="28"/>
-      <c r="D222" s="28"/>
-      <c r="E222" s="28"/>
-      <c r="F222" s="28"/>
-      <c r="G222" s="28"/>
-      <c r="H222" s="28"/>
-      <c r="I222" s="28"/>
-      <c r="J222" s="28"/>
-      <c r="K222" s="28"/>
-      <c r="L222" s="28"/>
-      <c r="M222" s="28"/>
-      <c r="N222" s="28"/>
-      <c r="O222" s="28"/>
-      <c r="P222" s="28"/>
-      <c r="Q222" s="28"/>
-      <c r="R222" s="28"/>
-      <c r="S222" s="28"/>
-      <c r="T222" s="28"/>
-      <c r="U222" s="28"/>
-      <c r="V222" s="28"/>
-      <c r="W222" s="28"/>
-      <c r="X222" s="28"/>
-      <c r="Y222" s="28"/>
-      <c r="Z222" s="28"/>
-      <c r="AA222" s="28"/>
-      <c r="AB222" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="223">
-      <c r="A223" s="28"/>
-      <c r="B223" s="28"/>
-      <c r="C223" s="28"/>
-      <c r="D223" s="28"/>
-      <c r="E223" s="28"/>
-      <c r="F223" s="28"/>
-      <c r="G223" s="28"/>
-      <c r="H223" s="28"/>
-      <c r="I223" s="28"/>
-      <c r="J223" s="28"/>
-      <c r="K223" s="28"/>
-      <c r="L223" s="28"/>
-      <c r="M223" s="28"/>
-      <c r="N223" s="28"/>
-      <c r="O223" s="28"/>
-      <c r="P223" s="28"/>
-      <c r="Q223" s="28"/>
-      <c r="R223" s="28"/>
-      <c r="S223" s="28"/>
-      <c r="T223" s="28"/>
-      <c r="U223" s="28"/>
-      <c r="V223" s="28"/>
-      <c r="W223" s="28"/>
-      <c r="X223" s="28"/>
-      <c r="Y223" s="28"/>
-      <c r="Z223" s="28"/>
-      <c r="AA223" s="28"/>
-      <c r="AB223" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="224">
-      <c r="A224" s="28"/>
-      <c r="B224" s="28"/>
-      <c r="C224" s="28"/>
-      <c r="D224" s="28"/>
-      <c r="E224" s="28"/>
-      <c r="F224" s="28"/>
-      <c r="G224" s="28"/>
-      <c r="H224" s="28"/>
-      <c r="I224" s="28"/>
-      <c r="J224" s="28"/>
-      <c r="K224" s="28"/>
-      <c r="L224" s="28"/>
-      <c r="M224" s="28"/>
-      <c r="N224" s="28"/>
-      <c r="O224" s="28"/>
-      <c r="P224" s="28"/>
-      <c r="Q224" s="28"/>
-      <c r="R224" s="28"/>
-      <c r="S224" s="28"/>
-      <c r="T224" s="28"/>
-      <c r="U224" s="28"/>
-      <c r="V224" s="28"/>
-      <c r="W224" s="28"/>
-      <c r="X224" s="28"/>
-      <c r="Y224" s="28"/>
-      <c r="Z224" s="28"/>
-      <c r="AA224" s="28"/>
-      <c r="AB224" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="225">
-      <c r="A225" s="28"/>
-      <c r="B225" s="28"/>
-      <c r="C225" s="28"/>
-      <c r="D225" s="28"/>
-      <c r="E225" s="28"/>
-      <c r="F225" s="28"/>
-      <c r="G225" s="28"/>
-      <c r="H225" s="28"/>
-      <c r="I225" s="28"/>
-      <c r="J225" s="28"/>
-      <c r="K225" s="28"/>
-      <c r="L225" s="28"/>
-      <c r="M225" s="28"/>
-      <c r="N225" s="28"/>
-      <c r="O225" s="28"/>
-      <c r="P225" s="28"/>
-      <c r="Q225" s="28"/>
-      <c r="R225" s="28"/>
-      <c r="S225" s="28"/>
-      <c r="T225" s="28"/>
-      <c r="U225" s="28"/>
-      <c r="V225" s="28"/>
-      <c r="W225" s="28"/>
-      <c r="X225" s="28"/>
-      <c r="Y225" s="28"/>
-      <c r="Z225" s="28"/>
-      <c r="AA225" s="28"/>
-      <c r="AB225" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="226">
-      <c r="A226" s="28"/>
-      <c r="B226" s="28"/>
-      <c r="C226" s="28"/>
-      <c r="D226" s="28"/>
-      <c r="E226" s="28"/>
-      <c r="F226" s="28"/>
-      <c r="G226" s="28"/>
-      <c r="H226" s="28"/>
-      <c r="I226" s="28"/>
-      <c r="J226" s="28"/>
-      <c r="K226" s="28"/>
-      <c r="L226" s="28"/>
-      <c r="M226" s="28"/>
-      <c r="N226" s="28"/>
-      <c r="O226" s="28"/>
-      <c r="P226" s="28"/>
-      <c r="Q226" s="28"/>
-      <c r="R226" s="28"/>
-      <c r="S226" s="28"/>
-      <c r="T226" s="28"/>
-      <c r="U226" s="28"/>
-      <c r="V226" s="28"/>
-      <c r="W226" s="28"/>
-      <c r="X226" s="28"/>
-      <c r="Y226" s="28"/>
-      <c r="Z226" s="28"/>
-      <c r="AA226" s="28"/>
-      <c r="AB226" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="227">
-      <c r="A227" s="28"/>
-      <c r="B227" s="28"/>
-      <c r="C227" s="28"/>
-      <c r="D227" s="28"/>
-      <c r="E227" s="28"/>
-      <c r="F227" s="28"/>
-      <c r="G227" s="28"/>
-      <c r="H227" s="28"/>
-      <c r="I227" s="28"/>
-      <c r="J227" s="28"/>
-      <c r="K227" s="28"/>
-      <c r="L227" s="28"/>
-      <c r="M227" s="28"/>
-      <c r="N227" s="28"/>
-      <c r="O227" s="28"/>
-      <c r="P227" s="28"/>
-      <c r="Q227" s="28"/>
-      <c r="R227" s="28"/>
-      <c r="S227" s="28"/>
-      <c r="T227" s="28"/>
-      <c r="U227" s="28"/>
-      <c r="V227" s="28"/>
-      <c r="W227" s="28"/>
-      <c r="X227" s="28"/>
-      <c r="Y227" s="28"/>
-      <c r="Z227" s="28"/>
-      <c r="AA227" s="28"/>
-      <c r="AB227" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="228">
-      <c r="A228" s="28"/>
-      <c r="B228" s="28"/>
-      <c r="C228" s="28"/>
-      <c r="D228" s="28"/>
-      <c r="E228" s="28"/>
-      <c r="F228" s="28"/>
-      <c r="G228" s="28"/>
-      <c r="H228" s="28"/>
-      <c r="I228" s="28"/>
-      <c r="J228" s="28"/>
-      <c r="K228" s="28"/>
-      <c r="L228" s="28"/>
-      <c r="M228" s="28"/>
-      <c r="N228" s="28"/>
-      <c r="O228" s="28"/>
-      <c r="P228" s="28"/>
-      <c r="Q228" s="28"/>
-      <c r="R228" s="28"/>
-      <c r="S228" s="28"/>
-      <c r="T228" s="28"/>
-      <c r="U228" s="28"/>
-      <c r="V228" s="28"/>
-      <c r="W228" s="28"/>
-      <c r="X228" s="28"/>
-      <c r="Y228" s="28"/>
-      <c r="Z228" s="28"/>
-      <c r="AA228" s="28"/>
-      <c r="AB228" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="229">
-      <c r="A229" s="28"/>
-      <c r="B229" s="28"/>
-      <c r="C229" s="28"/>
-      <c r="D229" s="28"/>
-      <c r="E229" s="28"/>
-      <c r="F229" s="28"/>
-      <c r="G229" s="28"/>
-      <c r="H229" s="28"/>
-      <c r="I229" s="28"/>
-      <c r="J229" s="28"/>
-      <c r="K229" s="28"/>
-      <c r="L229" s="28"/>
-      <c r="M229" s="28"/>
-      <c r="N229" s="28"/>
-      <c r="O229" s="28"/>
-      <c r="P229" s="28"/>
-      <c r="Q229" s="28"/>
-      <c r="R229" s="28"/>
-      <c r="S229" s="28"/>
-      <c r="T229" s="28"/>
-      <c r="U229" s="28"/>
-      <c r="V229" s="28"/>
-      <c r="W229" s="28"/>
-      <c r="X229" s="28"/>
-      <c r="Y229" s="28"/>
-      <c r="Z229" s="28"/>
-      <c r="AA229" s="28"/>
-      <c r="AB229" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="230">
-      <c r="A230" s="28"/>
-      <c r="B230" s="28"/>
-      <c r="C230" s="28"/>
-      <c r="D230" s="28"/>
-      <c r="E230" s="28"/>
-      <c r="F230" s="28"/>
-      <c r="G230" s="28"/>
-      <c r="H230" s="28"/>
-      <c r="I230" s="28"/>
-      <c r="J230" s="28"/>
-      <c r="K230" s="28"/>
-      <c r="L230" s="28"/>
-      <c r="M230" s="28"/>
-      <c r="N230" s="28"/>
-      <c r="O230" s="28"/>
-      <c r="P230" s="28"/>
-      <c r="Q230" s="28"/>
-      <c r="R230" s="28"/>
-      <c r="S230" s="28"/>
-      <c r="T230" s="28"/>
-      <c r="U230" s="28"/>
-      <c r="V230" s="28"/>
-      <c r="W230" s="28"/>
-      <c r="X230" s="28"/>
-      <c r="Y230" s="28"/>
-      <c r="Z230" s="28"/>
-      <c r="AA230" s="28"/>
-      <c r="AB230" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="231">
-      <c r="A231" s="28"/>
-      <c r="B231" s="28"/>
-      <c r="C231" s="28"/>
-      <c r="D231" s="28"/>
-      <c r="E231" s="28"/>
-      <c r="F231" s="28"/>
-      <c r="G231" s="28"/>
-      <c r="H231" s="28"/>
-      <c r="I231" s="28"/>
-      <c r="J231" s="28"/>
-      <c r="K231" s="28"/>
-      <c r="L231" s="28"/>
-      <c r="M231" s="28"/>
-      <c r="N231" s="28"/>
-      <c r="O231" s="28"/>
-      <c r="P231" s="28"/>
-      <c r="Q231" s="28"/>
-      <c r="R231" s="28"/>
-      <c r="S231" s="28"/>
-      <c r="T231" s="28"/>
-      <c r="U231" s="28"/>
-      <c r="V231" s="28"/>
-      <c r="W231" s="28"/>
-      <c r="X231" s="28"/>
-      <c r="Y231" s="28"/>
-      <c r="Z231" s="28"/>
-      <c r="AA231" s="28"/>
-      <c r="AB231" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="232">
-      <c r="A232" s="28"/>
-      <c r="B232" s="28"/>
-      <c r="C232" s="28"/>
-      <c r="D232" s="28"/>
-      <c r="E232" s="28"/>
-      <c r="F232" s="28"/>
-      <c r="G232" s="28"/>
-      <c r="H232" s="28"/>
-      <c r="I232" s="28"/>
-      <c r="J232" s="28"/>
-      <c r="K232" s="28"/>
-      <c r="L232" s="28"/>
-      <c r="M232" s="28"/>
-      <c r="N232" s="28"/>
-      <c r="O232" s="28"/>
-      <c r="P232" s="28"/>
-      <c r="Q232" s="28"/>
-      <c r="R232" s="28"/>
-      <c r="S232" s="28"/>
-      <c r="T232" s="28"/>
-      <c r="U232" s="28"/>
-      <c r="V232" s="28"/>
-      <c r="W232" s="28"/>
-      <c r="X232" s="28"/>
-      <c r="Y232" s="28"/>
-      <c r="Z232" s="28"/>
-      <c r="AA232" s="28"/>
-      <c r="AB232" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="233">
-      <c r="A233" s="28"/>
-      <c r="B233" s="28"/>
-      <c r="C233" s="28"/>
-      <c r="D233" s="28"/>
-      <c r="E233" s="28"/>
-      <c r="F233" s="28"/>
-      <c r="G233" s="28"/>
-      <c r="H233" s="28"/>
-      <c r="I233" s="28"/>
-      <c r="J233" s="28"/>
-      <c r="K233" s="28"/>
-      <c r="L233" s="28"/>
-      <c r="M233" s="28"/>
-      <c r="N233" s="28"/>
-      <c r="O233" s="28"/>
-      <c r="P233" s="28"/>
-      <c r="Q233" s="28"/>
-      <c r="R233" s="28"/>
-      <c r="S233" s="28"/>
-      <c r="T233" s="28"/>
-      <c r="U233" s="28"/>
-      <c r="V233" s="28"/>
-      <c r="W233" s="28"/>
-      <c r="X233" s="28"/>
-      <c r="Y233" s="28"/>
-      <c r="Z233" s="28"/>
-      <c r="AA233" s="28"/>
-      <c r="AB233" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="234">
-      <c r="A234" s="28"/>
-      <c r="B234" s="28"/>
-      <c r="C234" s="28"/>
-      <c r="D234" s="28"/>
-      <c r="E234" s="28"/>
-      <c r="F234" s="28"/>
-      <c r="G234" s="28"/>
-      <c r="H234" s="28"/>
-      <c r="I234" s="28"/>
-      <c r="J234" s="28"/>
-      <c r="K234" s="28"/>
-      <c r="L234" s="28"/>
-      <c r="M234" s="28"/>
-      <c r="N234" s="28"/>
-      <c r="O234" s="28"/>
-      <c r="P234" s="28"/>
-      <c r="Q234" s="28"/>
-      <c r="R234" s="28"/>
-      <c r="S234" s="28"/>
-      <c r="T234" s="28"/>
-      <c r="U234" s="28"/>
-      <c r="V234" s="28"/>
-      <c r="W234" s="28"/>
-      <c r="X234" s="28"/>
-      <c r="Y234" s="28"/>
-      <c r="Z234" s="28"/>
-      <c r="AA234" s="28"/>
-      <c r="AB234" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="235">
-      <c r="A235" s="28"/>
-      <c r="B235" s="28"/>
-      <c r="C235" s="28"/>
-      <c r="D235" s="28"/>
-      <c r="E235" s="28"/>
-      <c r="F235" s="28"/>
-      <c r="G235" s="28"/>
-      <c r="H235" s="28"/>
-      <c r="I235" s="28"/>
-      <c r="J235" s="28"/>
-      <c r="K235" s="28"/>
-      <c r="L235" s="28"/>
-      <c r="M235" s="28"/>
-      <c r="N235" s="28"/>
-      <c r="O235" s="28"/>
-      <c r="P235" s="28"/>
-      <c r="Q235" s="28"/>
-      <c r="R235" s="28"/>
-      <c r="S235" s="28"/>
-      <c r="T235" s="28"/>
-      <c r="U235" s="28"/>
-      <c r="V235" s="28"/>
-      <c r="W235" s="28"/>
-      <c r="X235" s="28"/>
-      <c r="Y235" s="28"/>
-      <c r="Z235" s="28"/>
-      <c r="AA235" s="28"/>
-      <c r="AB235" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="236">
-      <c r="A236" s="28"/>
-      <c r="B236" s="28"/>
-      <c r="C236" s="28"/>
-      <c r="D236" s="28"/>
-      <c r="E236" s="28"/>
-      <c r="F236" s="28"/>
-      <c r="G236" s="28"/>
-      <c r="H236" s="28"/>
-      <c r="I236" s="28"/>
-      <c r="J236" s="28"/>
-      <c r="K236" s="28"/>
-      <c r="L236" s="28"/>
-      <c r="M236" s="28"/>
-      <c r="N236" s="28"/>
-      <c r="O236" s="28"/>
-      <c r="P236" s="28"/>
-      <c r="Q236" s="28"/>
-      <c r="R236" s="28"/>
-      <c r="S236" s="28"/>
-      <c r="T236" s="28"/>
-      <c r="U236" s="28"/>
-      <c r="V236" s="28"/>
-      <c r="W236" s="28"/>
-      <c r="X236" s="28"/>
-      <c r="Y236" s="28"/>
-      <c r="Z236" s="28"/>
-      <c r="AA236" s="28"/>
-      <c r="AB236" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="237">
-      <c r="A237" s="28"/>
-      <c r="B237" s="28"/>
-      <c r="C237" s="28"/>
-      <c r="D237" s="28"/>
-      <c r="E237" s="28"/>
-      <c r="F237" s="28"/>
-      <c r="G237" s="28"/>
-      <c r="H237" s="28"/>
-      <c r="I237" s="28"/>
-      <c r="J237" s="28"/>
-      <c r="K237" s="28"/>
-      <c r="L237" s="28"/>
-      <c r="M237" s="28"/>
-      <c r="N237" s="28"/>
-      <c r="O237" s="28"/>
-      <c r="P237" s="28"/>
-      <c r="Q237" s="28"/>
-      <c r="R237" s="28"/>
-      <c r="S237" s="28"/>
-      <c r="T237" s="28"/>
-      <c r="U237" s="28"/>
-      <c r="V237" s="28"/>
-      <c r="W237" s="28"/>
-      <c r="X237" s="28"/>
-      <c r="Y237" s="28"/>
-      <c r="Z237" s="28"/>
-      <c r="AA237" s="28"/>
-      <c r="AB237" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="238">
-      <c r="A238" s="28"/>
-      <c r="B238" s="28"/>
-      <c r="C238" s="28"/>
-      <c r="D238" s="28"/>
-      <c r="E238" s="28"/>
-      <c r="F238" s="28"/>
-      <c r="G238" s="28"/>
-      <c r="H238" s="28"/>
-      <c r="I238" s="28"/>
-      <c r="J238" s="28"/>
-      <c r="K238" s="28"/>
-      <c r="L238" s="28"/>
-      <c r="M238" s="28"/>
-      <c r="N238" s="28"/>
-      <c r="O238" s="28"/>
-      <c r="P238" s="28"/>
-      <c r="Q238" s="28"/>
-      <c r="R238" s="28"/>
-      <c r="S238" s="28"/>
-      <c r="T238" s="28"/>
-      <c r="U238" s="28"/>
-      <c r="V238" s="28"/>
-      <c r="W238" s="28"/>
-      <c r="X238" s="28"/>
-      <c r="Y238" s="28"/>
-      <c r="Z238" s="28"/>
-      <c r="AA238" s="28"/>
-      <c r="AB238" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="239">
-      <c r="A239" s="28"/>
-      <c r="B239" s="28"/>
-      <c r="C239" s="28"/>
-      <c r="D239" s="28"/>
-      <c r="E239" s="28"/>
-      <c r="F239" s="28"/>
-      <c r="G239" s="28"/>
-      <c r="H239" s="28"/>
-      <c r="I239" s="28"/>
-      <c r="J239" s="28"/>
-      <c r="K239" s="28"/>
-      <c r="L239" s="28"/>
-      <c r="M239" s="28"/>
-      <c r="N239" s="28"/>
-      <c r="O239" s="28"/>
-      <c r="P239" s="28"/>
-      <c r="Q239" s="28"/>
-      <c r="R239" s="28"/>
-      <c r="S239" s="28"/>
-      <c r="T239" s="28"/>
-      <c r="U239" s="28"/>
-      <c r="V239" s="28"/>
-      <c r="W239" s="28"/>
-      <c r="X239" s="28"/>
-      <c r="Y239" s="28"/>
-      <c r="Z239" s="28"/>
-      <c r="AA239" s="28"/>
-      <c r="AB239" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="240">
-      <c r="A240" s="28"/>
-      <c r="B240" s="28"/>
-      <c r="C240" s="28"/>
-      <c r="D240" s="28"/>
-      <c r="E240" s="28"/>
-      <c r="F240" s="28"/>
-      <c r="G240" s="28"/>
-      <c r="H240" s="28"/>
-      <c r="I240" s="28"/>
-      <c r="J240" s="28"/>
-      <c r="K240" s="28"/>
-      <c r="L240" s="28"/>
-      <c r="M240" s="28"/>
-      <c r="N240" s="28"/>
-      <c r="O240" s="28"/>
-      <c r="P240" s="28"/>
-      <c r="Q240" s="28"/>
-      <c r="R240" s="28"/>
-      <c r="S240" s="28"/>
-      <c r="T240" s="28"/>
-      <c r="U240" s="28"/>
-      <c r="V240" s="28"/>
-      <c r="W240" s="28"/>
-      <c r="X240" s="28"/>
-      <c r="Y240" s="28"/>
-      <c r="Z240" s="28"/>
-      <c r="AA240" s="28"/>
-      <c r="AB240" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="241">
-      <c r="A241" s="28"/>
-      <c r="B241" s="28"/>
-      <c r="C241" s="28"/>
-      <c r="D241" s="28"/>
-      <c r="E241" s="28"/>
-      <c r="F241" s="28"/>
-      <c r="G241" s="28"/>
-      <c r="H241" s="28"/>
-      <c r="I241" s="28"/>
-      <c r="J241" s="28"/>
-      <c r="K241" s="28"/>
-      <c r="L241" s="28"/>
-      <c r="M241" s="28"/>
-      <c r="N241" s="28"/>
-      <c r="O241" s="28"/>
-      <c r="P241" s="28"/>
-      <c r="Q241" s="28"/>
-      <c r="R241" s="28"/>
-      <c r="S241" s="28"/>
-      <c r="T241" s="28"/>
-      <c r="U241" s="28"/>
-      <c r="V241" s="28"/>
-      <c r="W241" s="28"/>
-      <c r="X241" s="28"/>
-      <c r="Y241" s="28"/>
-      <c r="Z241" s="28"/>
-      <c r="AA241" s="28"/>
-      <c r="AB241" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="242">
-      <c r="A242" s="28"/>
-      <c r="B242" s="28"/>
-      <c r="C242" s="28"/>
-      <c r="D242" s="28"/>
-      <c r="E242" s="28"/>
-      <c r="F242" s="28"/>
-      <c r="G242" s="28"/>
-      <c r="H242" s="28"/>
-      <c r="I242" s="28"/>
-      <c r="J242" s="28"/>
-      <c r="K242" s="28"/>
-      <c r="L242" s="28"/>
-      <c r="M242" s="28"/>
-      <c r="N242" s="28"/>
-      <c r="O242" s="28"/>
-      <c r="P242" s="28"/>
-      <c r="Q242" s="28"/>
-      <c r="R242" s="28"/>
-      <c r="S242" s="28"/>
-      <c r="T242" s="28"/>
-      <c r="U242" s="28"/>
-      <c r="V242" s="28"/>
-      <c r="W242" s="28"/>
-      <c r="X242" s="28"/>
-      <c r="Y242" s="28"/>
-      <c r="Z242" s="28"/>
-      <c r="AA242" s="28"/>
-      <c r="AB242" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="243">
-      <c r="A243" s="28"/>
-      <c r="B243" s="28"/>
-      <c r="C243" s="28"/>
-      <c r="D243" s="28"/>
-      <c r="E243" s="28"/>
-      <c r="F243" s="28"/>
-      <c r="G243" s="28"/>
-      <c r="H243" s="28"/>
-      <c r="I243" s="28"/>
-      <c r="J243" s="28"/>
-      <c r="K243" s="28"/>
-      <c r="L243" s="28"/>
-      <c r="M243" s="28"/>
-      <c r="N243" s="28"/>
-      <c r="O243" s="28"/>
-      <c r="P243" s="28"/>
-      <c r="Q243" s="28"/>
-      <c r="R243" s="28"/>
-      <c r="S243" s="28"/>
-      <c r="T243" s="28"/>
-      <c r="U243" s="28"/>
-      <c r="V243" s="28"/>
-      <c r="W243" s="28"/>
-      <c r="X243" s="28"/>
-      <c r="Y243" s="28"/>
-      <c r="Z243" s="28"/>
-      <c r="AA243" s="28"/>
-      <c r="AB243" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="244">
-      <c r="A244" s="28"/>
-      <c r="B244" s="28"/>
-      <c r="C244" s="28"/>
-      <c r="D244" s="28"/>
-      <c r="E244" s="28"/>
-      <c r="F244" s="28"/>
-      <c r="G244" s="28"/>
-      <c r="H244" s="28"/>
-      <c r="I244" s="28"/>
-      <c r="J244" s="28"/>
-      <c r="K244" s="28"/>
-      <c r="L244" s="28"/>
-      <c r="M244" s="28"/>
-      <c r="N244" s="28"/>
-      <c r="O244" s="28"/>
-      <c r="P244" s="28"/>
-      <c r="Q244" s="28"/>
-      <c r="R244" s="28"/>
-      <c r="S244" s="28"/>
-      <c r="T244" s="28"/>
-      <c r="U244" s="28"/>
-      <c r="V244" s="28"/>
-      <c r="W244" s="28"/>
-      <c r="X244" s="28"/>
-      <c r="Y244" s="28"/>
-      <c r="Z244" s="28"/>
-      <c r="AA244" s="28"/>
-      <c r="AB244" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="245">
-      <c r="A245" s="28"/>
-      <c r="B245" s="28"/>
-      <c r="C245" s="28"/>
-      <c r="D245" s="28"/>
-      <c r="E245" s="28"/>
-      <c r="F245" s="28"/>
-      <c r="G245" s="28"/>
-      <c r="H245" s="28"/>
-      <c r="I245" s="28"/>
-      <c r="J245" s="28"/>
-      <c r="K245" s="28"/>
-      <c r="L245" s="28"/>
-      <c r="M245" s="28"/>
-      <c r="N245" s="28"/>
-      <c r="O245" s="28"/>
-      <c r="P245" s="28"/>
-      <c r="Q245" s="28"/>
-      <c r="R245" s="28"/>
-      <c r="S245" s="28"/>
-      <c r="T245" s="28"/>
-      <c r="U245" s="28"/>
-      <c r="V245" s="28"/>
-      <c r="W245" s="28"/>
-      <c r="X245" s="28"/>
-      <c r="Y245" s="28"/>
-      <c r="Z245" s="28"/>
-      <c r="AA245" s="28"/>
-      <c r="AB245" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="246">
-      <c r="A246" s="28"/>
-      <c r="B246" s="28"/>
-      <c r="C246" s="28"/>
-      <c r="D246" s="28"/>
-      <c r="E246" s="28"/>
-      <c r="F246" s="28"/>
-      <c r="G246" s="28"/>
-      <c r="H246" s="28"/>
-      <c r="I246" s="28"/>
-      <c r="J246" s="28"/>
-      <c r="K246" s="28"/>
-      <c r="L246" s="28"/>
-      <c r="M246" s="28"/>
-      <c r="N246" s="28"/>
-      <c r="O246" s="28"/>
-      <c r="P246" s="28"/>
-      <c r="Q246" s="28"/>
-      <c r="R246" s="28"/>
-      <c r="S246" s="28"/>
-      <c r="T246" s="28"/>
-      <c r="U246" s="28"/>
-      <c r="V246" s="28"/>
-      <c r="W246" s="28"/>
-      <c r="X246" s="28"/>
-      <c r="Y246" s="28"/>
-      <c r="Z246" s="28"/>
-      <c r="AA246" s="28"/>
-      <c r="AB246" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="247">
-      <c r="A247" s="28"/>
-      <c r="B247" s="28"/>
-      <c r="C247" s="28"/>
-      <c r="D247" s="28"/>
-      <c r="E247" s="28"/>
-      <c r="F247" s="28"/>
-      <c r="G247" s="28"/>
-      <c r="H247" s="28"/>
-      <c r="I247" s="28"/>
-      <c r="J247" s="28"/>
-      <c r="K247" s="28"/>
-      <c r="L247" s="28"/>
-      <c r="M247" s="28"/>
-      <c r="N247" s="28"/>
-      <c r="O247" s="28"/>
-      <c r="P247" s="28"/>
-      <c r="Q247" s="28"/>
-      <c r="R247" s="28"/>
-      <c r="S247" s="28"/>
-      <c r="T247" s="28"/>
-      <c r="U247" s="28"/>
-      <c r="V247" s="28"/>
-      <c r="W247" s="28"/>
-      <c r="X247" s="28"/>
-      <c r="Y247" s="28"/>
-      <c r="Z247" s="28"/>
-      <c r="AA247" s="28"/>
-      <c r="AB247" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="248">
-      <c r="A248" s="28"/>
-      <c r="B248" s="28"/>
-      <c r="C248" s="28"/>
-      <c r="D248" s="28"/>
-      <c r="E248" s="28"/>
-      <c r="F248" s="28"/>
-      <c r="G248" s="28"/>
-      <c r="H248" s="28"/>
-      <c r="I248" s="28"/>
-      <c r="J248" s="28"/>
-      <c r="K248" s="28"/>
-      <c r="L248" s="28"/>
-      <c r="M248" s="28"/>
-      <c r="N248" s="28"/>
-      <c r="O248" s="28"/>
-      <c r="P248" s="28"/>
-      <c r="Q248" s="28"/>
-      <c r="R248" s="28"/>
-      <c r="S248" s="28"/>
-      <c r="T248" s="28"/>
-      <c r="U248" s="28"/>
-      <c r="V248" s="28"/>
-      <c r="W248" s="28"/>
-      <c r="X248" s="28"/>
-      <c r="Y248" s="28"/>
-      <c r="Z248" s="28"/>
-      <c r="AA248" s="28"/>
-      <c r="AB248" s="28"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="249">
-      <c r="A249" s="28"/>
-      <c r="B249" s="28"/>
-      <c r="C249" s="28"/>
-      <c r="D249" s="28"/>
-      <c r="E249" s="28"/>
-      <c r="F249" s="28"/>
-      <c r="G249" s="28"/>
-      <c r="H249" s="28"/>
-      <c r="I249" s="28"/>
-      <c r="J249" s="28"/>
-      <c r="K249" s="28"/>
-      <c r="L249" s="28"/>
-      <c r="M249" s="28"/>
-      <c r="N249" s="28"/>
-      <c r="O249" s="28"/>
-      <c r="P249" s="28"/>
-      <c r="Q249" s="28"/>
-      <c r="R249" s="28"/>
-      <c r="S249" s="28"/>
-      <c r="T249" s="28"/>
-      <c r="U249" s="28"/>
-      <c r="V249" s="28"/>
-      <c r="W249" s="28"/>
-      <c r="X249" s="28"/>
-      <c r="Y249" s="28"/>
-      <c r="Z249" s="28"/>
-      <c r="AA249" s="28"/>
-      <c r="AB249" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="L44:T46"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="B45:H46"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="C1:I3"/>
-    <mergeCell ref="M1:S3"/>
-    <mergeCell ref="I6:J11"/>
-    <mergeCell ref="N6:O7"/>
-    <mergeCell ref="P9:T14"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O14"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="L11:L14"/>
-    <mergeCell ref="M11:M14"/>
-    <mergeCell ref="I13:J29"/>
-    <mergeCell ref="L16:O27"/>
-    <mergeCell ref="M29:O42"/>
-    <mergeCell ref="I31:J46"/>
-    <mergeCell ref="B23:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="P16:T27"/>
-    <mergeCell ref="C8:H11"/>
-    <mergeCell ref="C12:H15"/>
-    <mergeCell ref="C16:H20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H35"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="M47:T47"/>
-    <mergeCell ref="M48:T48"/>
-    <mergeCell ref="M49:T49"/>
-    <mergeCell ref="P29:T29"/>
-    <mergeCell ref="P30:T30"/>
-    <mergeCell ref="P31:T31"/>
-    <mergeCell ref="P32:T32"/>
-    <mergeCell ref="P33:T33"/>
-    <mergeCell ref="P34:T34"/>
-    <mergeCell ref="P35:T35"/>
-    <mergeCell ref="P36:T36"/>
-    <mergeCell ref="P37:T37"/>
-    <mergeCell ref="P38:T38"/>
-    <mergeCell ref="P39:T39"/>
-    <mergeCell ref="P40:T40"/>
-    <mergeCell ref="P41:T41"/>
-    <mergeCell ref="P42:T42"/>
-  </mergeCells>
-  <conditionalFormatting sqref="Q6">
-    <cfRule type="containsBlanks" dxfId="5" priority="1">
-      <formula>LEN(TRIM(Q6))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R6">
-    <cfRule type="containsBlanks" dxfId="6" priority="2">
-      <formula>LEN(TRIM(R6))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S6">
-    <cfRule type="containsBlanks" dxfId="7" priority="3">
-      <formula>LEN(TRIM(S6))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T6">
-    <cfRule type="containsBlanks" dxfId="8" priority="4">
-      <formula>LEN(TRIM(T6))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P6">
-    <cfRule type="containsBlanks" dxfId="9" priority="5">
-      <formula>LEN(TRIM(P6))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38:H40 C42:H44">
-    <cfRule type="notContainsBlanks" dxfId="10" priority="6">
-      <formula>LEN(TRIM(C38))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P7">
-    <cfRule type="expression" dxfId="11" priority="7">
-      <formula>ISBLANK(P6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q7">
-    <cfRule type="expression" dxfId="12" priority="8">
-      <formula>ISBLANK(Q6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R7">
-    <cfRule type="expression" dxfId="12" priority="9">
-      <formula>ISBLANK(R6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S7">
-    <cfRule type="expression" dxfId="12" priority="10">
-      <formula>ISBLANK(S6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T7">
-    <cfRule type="expression" dxfId="12" priority="11">
-      <formula>ISBLANK(T6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="S29" r:id="rId1h"/>
-    <hyperlink ref="S30" r:id="rId2h" location="/synthese"/>
-    <hyperlink ref="G47" r:id="rId3h"/>
-    <hyperlink ref="P47" r:id="rId4h"/>
-    <hyperlink ref="G48" r:id="rId5h"/>
-    <hyperlink ref="P48" r:id="rId6h"/>
-    <hyperlink ref="G49" r:id="rId7h"/>
-  </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.07874015748031496" footer="0.0" header="0.0" left="0.07874015748031496" right="0.07874015748031496" top="0.07874015748031496"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId8"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="2.71"/>
-    <col customWidth="1" min="2" max="2" width="13.29"/>
-    <col customWidth="1" min="3" max="8" width="9.71"/>
-    <col customWidth="1" min="9" max="9" width="12.71"/>
-    <col customWidth="1" min="10" max="10" width="13.0"/>
-    <col customWidth="1" min="11" max="11" width="2.71"/>
-    <col customWidth="1" min="12" max="13" width="20.71"/>
-    <col customWidth="1" min="14" max="15" width="10.71"/>
-    <col customWidth="1" min="16" max="20" width="7.0"/>
-    <col customWidth="1" min="21" max="28" width="10.71"/>
-  </cols>
-  <sheetData>
-    <row customHeight="1" ht="15.0" r="1">
-      <c r="A1" s="23"/>
-      <c r="B1" s="23"/>
-      <c r="C1" s="24" t="s">
         <v>268</v>
       </c>
       <c r="D1" s="25"/>

--- a/suivis_connaissance.xlsx
+++ b/suivis_connaissance.xlsx
@@ -3211,7 +3211,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3239,7 +3239,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3267,7 +3267,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3295,7 +3295,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3447,7 +3447,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3475,7 +3475,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3503,7 +3503,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3531,7 +3531,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3655,7 +3655,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3683,7 +3683,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3711,7 +3711,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3739,7 +3739,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3891,7 +3891,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3919,7 +3919,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3947,7 +3947,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3975,7 +3975,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4127,7 +4127,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4155,7 +4155,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4183,7 +4183,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4211,7 +4211,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4363,7 +4363,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4391,7 +4391,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4419,7 +4419,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4447,7 +4447,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>

--- a/suivis_connaissance.xlsx
+++ b/suivis_connaissance.xlsx
@@ -8,7 +8,8 @@
     <sheet name="becasse" sheetId="6" state="visible" r:id="rId3"/>
     <sheet name="loup" sheetId="7" state="visible" r:id="rId4"/>
     <sheet name="pmc" sheetId="8" state="visible" r:id="rId5"/>
-    <sheet name="castor" sheetId="10" state="visible" r:id="rId6"/>
+    <sheet name="chat" sheetId="9" state="visible" r:id="rId6"/>
+    <sheet name="castor" sheetId="10" state="visible" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
@@ -431,19 +432,19 @@
     <t>chat</t>
   </si>
   <si>
-    <t>non</t>
+    <t>oui</t>
   </si>
   <si>
     <t>castor</t>
-  </si>
-  <si>
-    <t>oui</t>
   </si>
   <si>
     <t>pmc</t>
   </si>
   <si>
     <t>ongules</t>
+  </si>
+  <si>
+    <t>non</t>
   </si>
   <si>
     <t>loup</t>
@@ -3211,7 +3212,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3239,7 +3240,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3267,7 +3268,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3295,7 +3296,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3323,7 +3324,7 @@
     <xdr:ext cx="2695575" cy="2695575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image11.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image12.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3351,7 +3352,7 @@
     <xdr:ext cx="1676400" cy="1038225"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image12.jpg" title="Image"/>
+        <xdr:cNvPr id="0" name="image11.jpg" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3447,7 +3448,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3475,7 +3476,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3503,7 +3504,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3531,7 +3532,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3655,7 +3656,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3683,7 +3684,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3711,7 +3712,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3739,7 +3740,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3767,7 +3768,7 @@
     <xdr:ext cx="1143000" cy="1143000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3795,7 +3796,7 @@
     <xdr:ext cx="2790825" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3891,7 +3892,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3919,7 +3920,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3947,7 +3948,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3975,7 +3976,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4003,7 +4004,7 @@
     <xdr:ext cx="1685925" cy="1181100"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image8.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image9.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4127,7 +4128,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4155,7 +4156,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4183,7 +4184,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4211,7 +4212,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4239,7 +4240,7 @@
     <xdr:ext cx="1628775" cy="1143000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image9.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image8.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4363,7 +4364,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4391,7 +4392,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4419,7 +4420,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4447,7 +4448,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4476,6 +4477,214 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="0" name="image4.png" title="Image"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="333375" cy="2419350"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Shape 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5184075" y="2575088"/>
+          <a:ext cx="323850" cy="2409825"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst>
+            <a:gd fmla="val 50000" name="adj1"/>
+            <a:gd fmla="val 50000" name="adj2"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="99D7F7"/>
+        </a:solidFill>
+        <a:ln cap="flat" cmpd="sng" w="12700">
+          <a:solidFill>
+            <a:srgbClr val="99D7F7"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+          <a:headEnd len="sm" w="sm" type="none"/>
+          <a:tailEnd len="sm" w="sm" type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr anchorCtr="0" anchor="ctr" bIns="45700" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="45700">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="ctr">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Arial"/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:t/>
+          </a:r>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1276350" cy="609600"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="390525" cy="342900"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="504825" cy="409575"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1257300" cy="609600"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>-200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2762250" cy="2400300"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image10.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -42972,6 +43181,7645 @@
       <c r="A1" s="23"/>
       <c r="B1" s="23"/>
       <c r="C1" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="27" t="str">
+        <f>C1</f>
+        <v>Suivi du Chat forestier</v>
+      </c>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.0" r="2">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="29"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="29"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.0" r="3">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="28"/>
+      <c r="AA3" s="28"/>
+      <c r="AB3" s="28"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="28"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="28"/>
+      <c r="Y5" s="28"/>
+      <c r="Z5" s="28"/>
+      <c r="AA5" s="28"/>
+      <c r="AB5" s="28"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="39" t="s">
+        <v>240</v>
+      </c>
+      <c r="N6" s="40">
+        <v>1.0</v>
+      </c>
+      <c r="O6" s="26"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="T6" s="45"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6" s="28"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q7" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="R7" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="S7" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="T7" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="28"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="28"/>
+      <c r="AB7" s="28"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="35"/>
+      <c r="B8" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="124" t="s">
+        <v>241</v>
+      </c>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="28"/>
+      <c r="Z8" s="28"/>
+      <c r="AA8" s="28"/>
+      <c r="AB8" s="28"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="35"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="29"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="60" t="s">
+        <v>242</v>
+      </c>
+      <c r="T9" s="57"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="28"/>
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="28"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="35"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="29"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="M10" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="N10" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="O10" s="18"/>
+      <c r="P10" s="63"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="28"/>
+      <c r="AA10" s="28"/>
+      <c r="AB10" s="28"/>
+    </row>
+    <row customHeight="1" ht="30.0" r="11">
+      <c r="A11" s="35"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="68" t="s">
+        <v>243</v>
+      </c>
+      <c r="M11" s="68" t="s">
+        <v>244</v>
+      </c>
+      <c r="N11" s="69" t="s">
+        <v>245</v>
+      </c>
+      <c r="O11" s="26"/>
+      <c r="P11" s="63"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="28"/>
+      <c r="AA11" s="28"/>
+      <c r="AB11" s="28"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="35"/>
+      <c r="B12" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="71" t="s">
+        <v>246</v>
+      </c>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="73"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="63"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="28"/>
+      <c r="AA12" s="28"/>
+      <c r="AB12" s="28"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="35"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="29"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="76" t="s">
+        <v>247</v>
+      </c>
+      <c r="J13" s="77"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="63"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="28"/>
+      <c r="AA13" s="28"/>
+      <c r="AB13" s="28"/>
+    </row>
+    <row customHeight="1" ht="30.0" r="14">
+      <c r="A14" s="35"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="29"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="78"/>
+      <c r="N14" s="79"/>
+      <c r="O14" s="80"/>
+      <c r="P14" s="79"/>
+      <c r="Q14" s="66"/>
+      <c r="R14" s="66"/>
+      <c r="S14" s="66"/>
+      <c r="T14" s="67"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="28"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="35"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="M15" s="83"/>
+      <c r="N15" s="83"/>
+      <c r="O15" s="84"/>
+      <c r="P15" s="82" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q15" s="83"/>
+      <c r="R15" s="83"/>
+      <c r="S15" s="83"/>
+      <c r="T15" s="84"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="28"/>
+      <c r="AB15" s="28"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="35"/>
+      <c r="B16" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="71" t="s">
+        <v>248</v>
+      </c>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="69" t="s">
+        <v>249</v>
+      </c>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="77"/>
+      <c r="P16" s="69" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="77"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="28"/>
+      <c r="AA16" s="28"/>
+      <c r="AB16" s="28"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="35"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="29"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="63"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="63"/>
+      <c r="T17" s="57"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="28"/>
+      <c r="Y17" s="28"/>
+      <c r="Z17" s="28"/>
+      <c r="AA17" s="28"/>
+      <c r="AB17" s="28"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="35"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="29"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="63"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="63"/>
+      <c r="T18" s="57"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="28"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="28"/>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="28"/>
+      <c r="AA18" s="28"/>
+      <c r="AB18" s="28"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="35"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="29"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="63"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="63"/>
+      <c r="T19" s="57"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="28"/>
+      <c r="AA19" s="28"/>
+      <c r="AB19" s="28"/>
+    </row>
+    <row customHeight="1" ht="30.0" r="20">
+      <c r="A20" s="35"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="63"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="63"/>
+      <c r="T20" s="57"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="28"/>
+      <c r="X20" s="28"/>
+      <c r="Y20" s="28"/>
+      <c r="Z20" s="28"/>
+      <c r="AA20" s="28"/>
+      <c r="AB20" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="21">
+      <c r="A21" s="35"/>
+      <c r="B21" s="85" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="63"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="63"/>
+      <c r="T21" s="57"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="28"/>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="28"/>
+      <c r="AA21" s="28"/>
+      <c r="AB21" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="22">
+      <c r="A22" s="35"/>
+      <c r="B22" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="91" t="s">
+        <v>251</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="63"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="63"/>
+      <c r="T22" s="57"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="28"/>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="28"/>
+      <c r="AA22" s="28"/>
+      <c r="AB22" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="23">
+      <c r="A23" s="35"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="94" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="8"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="63"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="63"/>
+      <c r="T23" s="57"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="28"/>
+      <c r="W23" s="28"/>
+      <c r="X23" s="28"/>
+      <c r="Y23" s="28"/>
+      <c r="Z23" s="28"/>
+      <c r="AA23" s="28"/>
+      <c r="AB23" s="28"/>
+    </row>
+    <row customHeight="1" ht="30.0" r="24">
+      <c r="A24" s="35"/>
+      <c r="B24" s="63"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="95" t="s">
+        <v>252</v>
+      </c>
+      <c r="G24" s="25"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="63"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="63"/>
+      <c r="T24" s="57"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="28"/>
+      <c r="W24" s="28"/>
+      <c r="X24" s="28"/>
+      <c r="Y24" s="28"/>
+      <c r="Z24" s="28"/>
+      <c r="AA24" s="28"/>
+      <c r="AB24" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="25">
+      <c r="A25" s="35"/>
+      <c r="B25" s="63"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="29"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="63"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="63"/>
+      <c r="T25" s="57"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="28"/>
+      <c r="X25" s="28"/>
+      <c r="Y25" s="28"/>
+      <c r="Z25" s="28"/>
+      <c r="AA25" s="28"/>
+      <c r="AB25" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="26">
+      <c r="A26" s="35"/>
+      <c r="B26" s="63"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="29"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="63"/>
+      <c r="O26" s="57"/>
+      <c r="P26" s="63"/>
+      <c r="T26" s="57"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="28"/>
+      <c r="W26" s="28"/>
+      <c r="X26" s="28"/>
+      <c r="Y26" s="28"/>
+      <c r="Z26" s="28"/>
+      <c r="AA26" s="28"/>
+      <c r="AB26" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="27">
+      <c r="A27" s="35"/>
+      <c r="B27" s="63"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="29"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="79"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="66"/>
+      <c r="O27" s="67"/>
+      <c r="P27" s="79"/>
+      <c r="Q27" s="66"/>
+      <c r="R27" s="66"/>
+      <c r="S27" s="66"/>
+      <c r="T27" s="67"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="28"/>
+      <c r="Y27" s="28"/>
+      <c r="Z27" s="28"/>
+      <c r="AA27" s="28"/>
+      <c r="AB27" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="28">
+      <c r="A28" s="35"/>
+      <c r="B28" s="63"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="29"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="82" t="s">
+        <v>71</v>
+      </c>
+      <c r="M28" s="83"/>
+      <c r="N28" s="83"/>
+      <c r="O28" s="84"/>
+      <c r="P28" s="82" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q28" s="83"/>
+      <c r="R28" s="83"/>
+      <c r="S28" s="83"/>
+      <c r="T28" s="84"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="28"/>
+      <c r="W28" s="28"/>
+      <c r="X28" s="28"/>
+      <c r="Y28" s="28"/>
+      <c r="Z28" s="28"/>
+      <c r="AA28" s="28"/>
+      <c r="AB28" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="29">
+      <c r="A29" s="35"/>
+      <c r="B29" s="63"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="29"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="96" t="s">
+        <v>253</v>
+      </c>
+      <c r="N29" s="25"/>
+      <c r="O29" s="77"/>
+      <c r="P29" s="138" t="str">
+        <f>=HYPERLINK("https://openobs.mnhn.fr/", "SINP national")</f>
+      </c>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="119" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T29" s="92"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="28"/>
+      <c r="W29" s="28"/>
+      <c r="X29" s="28"/>
+      <c r="Y29" s="28"/>
+      <c r="Z29" s="28"/>
+      <c r="AA29" s="28"/>
+      <c r="AB29" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.0" r="30">
+      <c r="A30" s="35"/>
+      <c r="B30" s="63"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="29"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="J30" s="89"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="29"/>
+      <c r="O30" s="57"/>
+      <c r="P30" s="138" t="str">
+        <f>=HYPERLINK("https://geonature.arb-idf.fr/geonature/%23/synthese", "Géonat'IdF (CA: Etude Chat forestier) ")</f>
+      </c>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="119" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T30" s="92"/>
+      <c r="U30" s="28"/>
+      <c r="V30" s="28"/>
+      <c r="W30" s="28"/>
+      <c r="X30" s="28"/>
+      <c r="Y30" s="28"/>
+      <c r="Z30" s="28"/>
+      <c r="AA30" s="28"/>
+      <c r="AB30" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="31">
+      <c r="A31" s="35"/>
+      <c r="B31" s="63"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="29"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="76" t="s">
+        <v>258</v>
+      </c>
+      <c r="J31" s="77"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="29"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="97"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="98"/>
+      <c r="T31" s="92"/>
+      <c r="U31" s="28"/>
+      <c r="V31" s="28"/>
+      <c r="W31" s="28"/>
+      <c r="X31" s="28"/>
+      <c r="Y31" s="28"/>
+      <c r="Z31" s="28"/>
+      <c r="AA31" s="28"/>
+      <c r="AB31" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="32">
+      <c r="A32" s="35"/>
+      <c r="B32" s="63"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="29"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="29"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="97"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="98"/>
+      <c r="T32" s="92"/>
+      <c r="U32" s="28"/>
+      <c r="V32" s="28"/>
+      <c r="W32" s="28"/>
+      <c r="X32" s="28"/>
+      <c r="Y32" s="28"/>
+      <c r="Z32" s="28"/>
+      <c r="AA32" s="28"/>
+      <c r="AB32" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="33">
+      <c r="A33" s="35"/>
+      <c r="B33" s="63"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="29"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="29"/>
+      <c r="O33" s="57"/>
+      <c r="P33" s="97"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="98"/>
+      <c r="T33" s="92"/>
+      <c r="U33" s="28"/>
+      <c r="V33" s="28"/>
+      <c r="W33" s="28"/>
+      <c r="X33" s="28"/>
+      <c r="Y33" s="28"/>
+      <c r="Z33" s="28"/>
+      <c r="AA33" s="28"/>
+      <c r="AB33" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="34">
+      <c r="A34" s="35"/>
+      <c r="B34" s="63"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="29"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="55"/>
+      <c r="M34" s="29"/>
+      <c r="O34" s="57"/>
+      <c r="P34" s="97"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="98"/>
+      <c r="T34" s="92"/>
+      <c r="U34" s="28"/>
+      <c r="V34" s="28"/>
+      <c r="W34" s="28"/>
+      <c r="X34" s="28"/>
+      <c r="Y34" s="28"/>
+      <c r="Z34" s="28"/>
+      <c r="AA34" s="28"/>
+      <c r="AB34" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="35">
+      <c r="A35" s="35"/>
+      <c r="B35" s="79"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="55"/>
+      <c r="M35" s="29"/>
+      <c r="O35" s="57"/>
+      <c r="P35" s="97"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="98"/>
+      <c r="T35" s="92"/>
+      <c r="U35" s="28"/>
+      <c r="V35" s="28"/>
+      <c r="W35" s="28"/>
+      <c r="X35" s="28"/>
+      <c r="Y35" s="28"/>
+      <c r="Z35" s="28"/>
+      <c r="AA35" s="28"/>
+      <c r="AB35" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="36">
+      <c r="A36" s="35"/>
+      <c r="B36" s="85" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="86"/>
+      <c r="D36" s="86"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="100"/>
+      <c r="G36" s="100"/>
+      <c r="H36" s="100"/>
+      <c r="I36" s="63"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="29"/>
+      <c r="O36" s="57"/>
+      <c r="P36" s="97"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="18"/>
+      <c r="S36" s="98"/>
+      <c r="T36" s="92"/>
+      <c r="U36" s="28"/>
+      <c r="V36" s="28"/>
+      <c r="W36" s="28"/>
+      <c r="X36" s="28"/>
+      <c r="Y36" s="28"/>
+      <c r="Z36" s="28"/>
+      <c r="AA36" s="28"/>
+      <c r="AB36" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="37">
+      <c r="A37" s="35"/>
+      <c r="B37" s="75"/>
+      <c r="C37" s="101" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="101" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" s="101" t="s">
+        <v>79</v>
+      </c>
+      <c r="F37" s="101" t="s">
+        <v>80</v>
+      </c>
+      <c r="G37" s="101" t="s">
+        <v>79</v>
+      </c>
+      <c r="H37" s="101" t="s">
+        <v>77</v>
+      </c>
+      <c r="I37" s="63"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="55"/>
+      <c r="M37" s="29"/>
+      <c r="O37" s="57"/>
+      <c r="P37" s="97"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="18"/>
+      <c r="S37" s="98"/>
+      <c r="T37" s="92"/>
+      <c r="U37" s="28"/>
+      <c r="V37" s="28"/>
+      <c r="W37" s="28"/>
+      <c r="X37" s="28"/>
+      <c r="Y37" s="28"/>
+      <c r="Z37" s="28"/>
+      <c r="AA37" s="28"/>
+      <c r="AB37" s="28"/>
+    </row>
+    <row customHeight="1" ht="12.75" r="38">
+      <c r="A38" s="35"/>
+      <c r="B38" s="102"/>
+      <c r="C38" s="103" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="103" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" s="103" t="s">
+        <v>82</v>
+      </c>
+      <c r="F38" s="103"/>
+      <c r="G38" s="103"/>
+      <c r="H38" s="103"/>
+      <c r="I38" s="63"/>
+      <c r="J38" s="57"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="55"/>
+      <c r="M38" s="29"/>
+      <c r="O38" s="57"/>
+      <c r="P38" s="97"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="18"/>
+      <c r="S38" s="98"/>
+      <c r="T38" s="92"/>
+      <c r="U38" s="28"/>
+      <c r="V38" s="28"/>
+      <c r="W38" s="28"/>
+      <c r="X38" s="28"/>
+      <c r="Y38" s="28"/>
+      <c r="Z38" s="28"/>
+      <c r="AA38" s="28"/>
+      <c r="AB38" s="28"/>
+    </row>
+    <row customHeight="1" ht="12.75" r="39">
+      <c r="A39" s="35"/>
+      <c r="B39" s="102"/>
+      <c r="C39" s="104"/>
+      <c r="D39" s="104"/>
+      <c r="E39" s="104"/>
+      <c r="F39" s="104"/>
+      <c r="G39" s="104"/>
+      <c r="H39" s="104"/>
+      <c r="I39" s="63"/>
+      <c r="J39" s="57"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="55"/>
+      <c r="M39" s="29"/>
+      <c r="O39" s="57"/>
+      <c r="P39" s="97"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="98"/>
+      <c r="T39" s="92"/>
+      <c r="U39" s="28"/>
+      <c r="V39" s="28"/>
+      <c r="W39" s="28"/>
+      <c r="X39" s="28"/>
+      <c r="Y39" s="28"/>
+      <c r="Z39" s="28"/>
+      <c r="AA39" s="28"/>
+      <c r="AB39" s="28"/>
+    </row>
+    <row customHeight="1" ht="12.75" r="40">
+      <c r="A40" s="35"/>
+      <c r="B40" s="102"/>
+      <c r="C40" s="104"/>
+      <c r="D40" s="104"/>
+      <c r="E40" s="104"/>
+      <c r="F40" s="104"/>
+      <c r="G40" s="104"/>
+      <c r="H40" s="104"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="57"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="55"/>
+      <c r="M40" s="29"/>
+      <c r="O40" s="57"/>
+      <c r="P40" s="97"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="18"/>
+      <c r="S40" s="98"/>
+      <c r="T40" s="92"/>
+      <c r="U40" s="28"/>
+      <c r="V40" s="28"/>
+      <c r="W40" s="28"/>
+      <c r="X40" s="28"/>
+      <c r="Y40" s="28"/>
+      <c r="Z40" s="28"/>
+      <c r="AA40" s="28"/>
+      <c r="AB40" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="41">
+      <c r="A41" s="35"/>
+      <c r="B41" s="75"/>
+      <c r="C41" s="101" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" s="101" t="s">
+        <v>80</v>
+      </c>
+      <c r="E41" s="101" t="s">
+        <v>85</v>
+      </c>
+      <c r="F41" s="101" t="s">
+        <v>86</v>
+      </c>
+      <c r="G41" s="101" t="s">
+        <v>87</v>
+      </c>
+      <c r="H41" s="101" t="s">
+        <v>88</v>
+      </c>
+      <c r="I41" s="63"/>
+      <c r="J41" s="57"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="55"/>
+      <c r="M41" s="29"/>
+      <c r="O41" s="57"/>
+      <c r="P41" s="97"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="18"/>
+      <c r="S41" s="98"/>
+      <c r="T41" s="92"/>
+      <c r="U41" s="28"/>
+      <c r="V41" s="28"/>
+      <c r="W41" s="28"/>
+      <c r="X41" s="28"/>
+      <c r="Y41" s="28"/>
+      <c r="Z41" s="28"/>
+      <c r="AA41" s="28"/>
+      <c r="AB41" s="28"/>
+    </row>
+    <row customHeight="1" ht="12.75" r="42">
+      <c r="A42" s="35"/>
+      <c r="B42" s="102"/>
+      <c r="C42" s="103"/>
+      <c r="D42" s="103"/>
+      <c r="E42" s="103"/>
+      <c r="F42" s="103"/>
+      <c r="G42" s="103"/>
+      <c r="H42" s="103" t="s">
+        <v>82</v>
+      </c>
+      <c r="I42" s="63"/>
+      <c r="J42" s="57"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="55"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="32"/>
+      <c r="O42" s="105"/>
+      <c r="P42" s="106"/>
+      <c r="Q42" s="107"/>
+      <c r="R42" s="108"/>
+      <c r="S42" s="109"/>
+      <c r="T42" s="110"/>
+      <c r="U42" s="28"/>
+      <c r="V42" s="28"/>
+      <c r="W42" s="28"/>
+      <c r="X42" s="28"/>
+      <c r="Y42" s="28"/>
+      <c r="Z42" s="28"/>
+      <c r="AA42" s="28"/>
+      <c r="AB42" s="28"/>
+    </row>
+    <row customHeight="1" ht="12.75" r="43">
+      <c r="A43" s="35"/>
+      <c r="B43" s="102"/>
+      <c r="C43" s="103"/>
+      <c r="D43" s="103"/>
+      <c r="E43" s="103"/>
+      <c r="F43" s="103"/>
+      <c r="G43" s="103"/>
+      <c r="H43" s="103"/>
+      <c r="I43" s="63"/>
+      <c r="J43" s="57"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="M43" s="83"/>
+      <c r="N43" s="83"/>
+      <c r="O43" s="83"/>
+      <c r="P43" s="35"/>
+      <c r="Q43" s="35"/>
+      <c r="R43" s="35"/>
+      <c r="S43" s="35"/>
+      <c r="T43" s="58"/>
+      <c r="U43" s="28"/>
+      <c r="V43" s="28"/>
+      <c r="W43" s="28"/>
+      <c r="X43" s="28"/>
+      <c r="Y43" s="28"/>
+      <c r="Z43" s="28"/>
+      <c r="AA43" s="28"/>
+      <c r="AB43" s="28"/>
+    </row>
+    <row customHeight="1" ht="12.75" r="44">
+      <c r="A44" s="35"/>
+      <c r="B44" s="102"/>
+      <c r="C44" s="104"/>
+      <c r="D44" s="104"/>
+      <c r="E44" s="104"/>
+      <c r="F44" s="104"/>
+      <c r="G44" s="104"/>
+      <c r="H44" s="104"/>
+      <c r="I44" s="63"/>
+      <c r="J44" s="57"/>
+      <c r="K44" s="35"/>
+      <c r="L44" s="69" t="s">
+        <v>184</v>
+      </c>
+      <c r="M44" s="25"/>
+      <c r="N44" s="25"/>
+      <c r="O44" s="25"/>
+      <c r="P44" s="25"/>
+      <c r="Q44" s="25"/>
+      <c r="R44" s="25"/>
+      <c r="S44" s="25"/>
+      <c r="T44" s="77"/>
+      <c r="U44" s="28"/>
+      <c r="V44" s="28"/>
+      <c r="W44" s="28"/>
+      <c r="X44" s="28"/>
+      <c r="Y44" s="28"/>
+      <c r="Z44" s="28"/>
+      <c r="AA44" s="28"/>
+      <c r="AB44" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="45">
+      <c r="A45" s="35"/>
+      <c r="B45" s="111"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="77"/>
+      <c r="I45" s="63"/>
+      <c r="J45" s="57"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="63"/>
+      <c r="T45" s="57"/>
+      <c r="U45" s="28"/>
+      <c r="V45" s="28"/>
+      <c r="W45" s="28"/>
+      <c r="X45" s="28"/>
+      <c r="Y45" s="28"/>
+      <c r="Z45" s="28"/>
+      <c r="AA45" s="28"/>
+      <c r="AB45" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="46">
+      <c r="A46" s="35"/>
+      <c r="B46" s="79"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="66"/>
+      <c r="H46" s="67"/>
+      <c r="I46" s="79"/>
+      <c r="J46" s="67"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="112"/>
+      <c r="M46" s="32"/>
+      <c r="N46" s="32"/>
+      <c r="O46" s="32"/>
+      <c r="P46" s="32"/>
+      <c r="Q46" s="32"/>
+      <c r="R46" s="32"/>
+      <c r="S46" s="32"/>
+      <c r="T46" s="105"/>
+      <c r="U46" s="28"/>
+      <c r="V46" s="28"/>
+      <c r="W46" s="28"/>
+      <c r="X46" s="28"/>
+      <c r="Y46" s="28"/>
+      <c r="Z46" s="28"/>
+      <c r="AA46" s="28"/>
+      <c r="AB46" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="47">
+      <c r="A47" s="113" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" s="23"/>
+      <c r="C47" s="136" t="str">
+        <f>=HYPERLINK("https://professionnels.ofb.fr/fr/doc-fiches-especes/chat-forestier-felis-silvestris-silvestris", "Fiche espèce")</f>
+      </c>
+      <c r="D47" s="86"/>
+      <c r="E47" s="86"/>
+      <c r="F47" s="87"/>
+      <c r="G47" s="121" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H47" s="86"/>
+      <c r="I47" s="86"/>
+      <c r="J47" s="87"/>
+      <c r="K47" s="115" t="s">
+        <v>90</v>
+      </c>
+      <c r="L47" s="18"/>
+      <c r="M47" s="137" t="str">
+        <f>=HYPERLINK("https://ged.ofb.fr/share/page/site/etude-chat-forestier-idf/dashboard", "SiteAlfresco de l'étude IdF")</f>
+      </c>
+      <c r="N47" s="8"/>
+      <c r="O47" s="18"/>
+      <c r="P47" s="122" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="8"/>
+      <c r="T47" s="18"/>
+      <c r="U47" s="28"/>
+      <c r="V47" s="28"/>
+      <c r="W47" s="28"/>
+      <c r="X47" s="28"/>
+      <c r="Y47" s="28"/>
+      <c r="Z47" s="28"/>
+      <c r="AA47" s="28"/>
+      <c r="AB47" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="48">
+      <c r="A48" s="23"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="137" t="str">
+        <f>=HYPERLINK("https://oai-gem.ofb.fr/exl-php/document-affiche/ofb_recherche_oai/OUVRE_DOC/49974?fic=doc00073302.pdf", "Livret de présentation de l'étude IdF")</f>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="122" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="23"/>
+      <c r="M48" s="137" t="str">
+        <f>=HYPERLINK("https://ged.ofb.fr/share/s/sY4zG36QS1aDJ34fKNlrhw", "Protocole")</f>
+      </c>
+      <c r="N48" s="8"/>
+      <c r="O48" s="18"/>
+      <c r="P48" s="122" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="18"/>
+      <c r="U48" s="28"/>
+      <c r="V48" s="28"/>
+      <c r="W48" s="28"/>
+      <c r="X48" s="28"/>
+      <c r="Y48" s="28"/>
+      <c r="Z48" s="28"/>
+      <c r="AA48" s="28"/>
+      <c r="AB48" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="49">
+      <c r="A49" s="123">
+        <v>45743.0</v>
+      </c>
+      <c r="B49" s="18"/>
+      <c r="C49" s="137" t="str">
+        <f>=HYPERLINK("https://www.youtube.com/watch?v=UopppCJfUHA", "Vidéo MNHN")</f>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="122" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="23"/>
+      <c r="M49" s="137" t="str">
+        <f>=HYPERLINK("\\SVFCVIN1\DRIDF\05_CONNAISSANCE\PMC\Chat_Forestier%20", "Serveur DR")</f>
+      </c>
+      <c r="N49" s="8"/>
+      <c r="O49" s="18"/>
+      <c r="P49" s="116" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="18"/>
+      <c r="U49" s="28"/>
+      <c r="V49" s="28"/>
+      <c r="W49" s="28"/>
+      <c r="X49" s="28"/>
+      <c r="Y49" s="28"/>
+      <c r="Z49" s="28"/>
+      <c r="AA49" s="28"/>
+      <c r="AB49" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="50">
+      <c r="A50" s="28"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="28"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="28"/>
+      <c r="O50" s="28"/>
+      <c r="P50" s="28"/>
+      <c r="Q50" s="28"/>
+      <c r="R50" s="28"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="28"/>
+      <c r="U50" s="28"/>
+      <c r="V50" s="28"/>
+      <c r="W50" s="28"/>
+      <c r="X50" s="28"/>
+      <c r="Y50" s="28"/>
+      <c r="Z50" s="28"/>
+      <c r="AA50" s="28"/>
+      <c r="AB50" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="51">
+      <c r="A51" s="28"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="28"/>
+      <c r="M51" s="28"/>
+      <c r="N51" s="28"/>
+      <c r="O51" s="28"/>
+      <c r="P51" s="28"/>
+      <c r="Q51" s="28"/>
+      <c r="R51" s="28"/>
+      <c r="S51" s="28"/>
+      <c r="T51" s="28"/>
+      <c r="U51" s="28"/>
+      <c r="V51" s="28"/>
+      <c r="W51" s="28"/>
+      <c r="X51" s="28"/>
+      <c r="Y51" s="28"/>
+      <c r="Z51" s="28"/>
+      <c r="AA51" s="28"/>
+      <c r="AB51" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="52">
+      <c r="A52" s="28"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="28"/>
+      <c r="M52" s="28"/>
+      <c r="N52" s="28"/>
+      <c r="O52" s="28"/>
+      <c r="P52" s="28"/>
+      <c r="Q52" s="28"/>
+      <c r="R52" s="28"/>
+      <c r="S52" s="28"/>
+      <c r="T52" s="28"/>
+      <c r="U52" s="28"/>
+      <c r="V52" s="28"/>
+      <c r="W52" s="28"/>
+      <c r="X52" s="28"/>
+      <c r="Y52" s="28"/>
+      <c r="Z52" s="28"/>
+      <c r="AA52" s="28"/>
+      <c r="AB52" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="53">
+      <c r="A53" s="28"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="28"/>
+      <c r="M53" s="28"/>
+      <c r="N53" s="28"/>
+      <c r="O53" s="28"/>
+      <c r="P53" s="28"/>
+      <c r="Q53" s="28"/>
+      <c r="R53" s="28"/>
+      <c r="S53" s="28"/>
+      <c r="T53" s="28"/>
+      <c r="U53" s="28"/>
+      <c r="V53" s="28"/>
+      <c r="W53" s="28"/>
+      <c r="X53" s="28"/>
+      <c r="Y53" s="28"/>
+      <c r="Z53" s="28"/>
+      <c r="AA53" s="28"/>
+      <c r="AB53" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="54">
+      <c r="A54" s="28"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="28"/>
+      <c r="M54" s="28"/>
+      <c r="N54" s="28"/>
+      <c r="O54" s="28"/>
+      <c r="P54" s="28"/>
+      <c r="Q54" s="28"/>
+      <c r="R54" s="28"/>
+      <c r="S54" s="28"/>
+      <c r="T54" s="28"/>
+      <c r="U54" s="28"/>
+      <c r="V54" s="28"/>
+      <c r="W54" s="28"/>
+      <c r="X54" s="28"/>
+      <c r="Y54" s="28"/>
+      <c r="Z54" s="28"/>
+      <c r="AA54" s="28"/>
+      <c r="AB54" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="55">
+      <c r="A55" s="28"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="28"/>
+      <c r="M55" s="28"/>
+      <c r="N55" s="28"/>
+      <c r="O55" s="28"/>
+      <c r="P55" s="28"/>
+      <c r="Q55" s="28"/>
+      <c r="R55" s="28"/>
+      <c r="S55" s="28"/>
+      <c r="T55" s="28"/>
+      <c r="U55" s="28"/>
+      <c r="V55" s="28"/>
+      <c r="W55" s="28"/>
+      <c r="X55" s="28"/>
+      <c r="Y55" s="28"/>
+      <c r="Z55" s="28"/>
+      <c r="AA55" s="28"/>
+      <c r="AB55" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="56">
+      <c r="A56" s="28"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="28"/>
+      <c r="M56" s="28"/>
+      <c r="N56" s="28"/>
+      <c r="O56" s="28"/>
+      <c r="P56" s="28"/>
+      <c r="Q56" s="28"/>
+      <c r="R56" s="28"/>
+      <c r="S56" s="28"/>
+      <c r="T56" s="28"/>
+      <c r="U56" s="28"/>
+      <c r="V56" s="28"/>
+      <c r="W56" s="28"/>
+      <c r="X56" s="28"/>
+      <c r="Y56" s="28"/>
+      <c r="Z56" s="28"/>
+      <c r="AA56" s="28"/>
+      <c r="AB56" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="57">
+      <c r="A57" s="28"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="28"/>
+      <c r="L57" s="28"/>
+      <c r="M57" s="28"/>
+      <c r="N57" s="28"/>
+      <c r="O57" s="28"/>
+      <c r="P57" s="28"/>
+      <c r="Q57" s="28"/>
+      <c r="R57" s="28"/>
+      <c r="S57" s="28"/>
+      <c r="T57" s="28"/>
+      <c r="U57" s="28"/>
+      <c r="V57" s="28"/>
+      <c r="W57" s="28"/>
+      <c r="X57" s="28"/>
+      <c r="Y57" s="28"/>
+      <c r="Z57" s="28"/>
+      <c r="AA57" s="28"/>
+      <c r="AB57" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="58">
+      <c r="A58" s="28"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="28"/>
+      <c r="L58" s="28"/>
+      <c r="M58" s="28"/>
+      <c r="N58" s="28"/>
+      <c r="O58" s="28"/>
+      <c r="P58" s="28"/>
+      <c r="Q58" s="28"/>
+      <c r="R58" s="28"/>
+      <c r="S58" s="28"/>
+      <c r="T58" s="28"/>
+      <c r="U58" s="28"/>
+      <c r="V58" s="28"/>
+      <c r="W58" s="28"/>
+      <c r="X58" s="28"/>
+      <c r="Y58" s="28"/>
+      <c r="Z58" s="28"/>
+      <c r="AA58" s="28"/>
+      <c r="AB58" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="59">
+      <c r="A59" s="28"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="28"/>
+      <c r="K59" s="28"/>
+      <c r="L59" s="28"/>
+      <c r="M59" s="28"/>
+      <c r="N59" s="28"/>
+      <c r="O59" s="28"/>
+      <c r="P59" s="28"/>
+      <c r="Q59" s="28"/>
+      <c r="R59" s="28"/>
+      <c r="S59" s="28"/>
+      <c r="T59" s="28"/>
+      <c r="U59" s="28"/>
+      <c r="V59" s="28"/>
+      <c r="W59" s="28"/>
+      <c r="X59" s="28"/>
+      <c r="Y59" s="28"/>
+      <c r="Z59" s="28"/>
+      <c r="AA59" s="28"/>
+      <c r="AB59" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="60">
+      <c r="A60" s="28"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="28"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="28"/>
+      <c r="M60" s="28"/>
+      <c r="N60" s="28"/>
+      <c r="O60" s="28"/>
+      <c r="P60" s="28"/>
+      <c r="Q60" s="28"/>
+      <c r="R60" s="28"/>
+      <c r="S60" s="28"/>
+      <c r="T60" s="28"/>
+      <c r="U60" s="28"/>
+      <c r="V60" s="28"/>
+      <c r="W60" s="28"/>
+      <c r="X60" s="28"/>
+      <c r="Y60" s="28"/>
+      <c r="Z60" s="28"/>
+      <c r="AA60" s="28"/>
+      <c r="AB60" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="61">
+      <c r="A61" s="28"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="28"/>
+      <c r="J61" s="28"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="28"/>
+      <c r="M61" s="28"/>
+      <c r="N61" s="28"/>
+      <c r="O61" s="28"/>
+      <c r="P61" s="28"/>
+      <c r="Q61" s="28"/>
+      <c r="R61" s="28"/>
+      <c r="S61" s="28"/>
+      <c r="T61" s="28"/>
+      <c r="U61" s="28"/>
+      <c r="V61" s="28"/>
+      <c r="W61" s="28"/>
+      <c r="X61" s="28"/>
+      <c r="Y61" s="28"/>
+      <c r="Z61" s="28"/>
+      <c r="AA61" s="28"/>
+      <c r="AB61" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="62">
+      <c r="A62" s="28"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="28"/>
+      <c r="M62" s="28"/>
+      <c r="N62" s="28"/>
+      <c r="O62" s="28"/>
+      <c r="P62" s="28"/>
+      <c r="Q62" s="28"/>
+      <c r="R62" s="28"/>
+      <c r="S62" s="28"/>
+      <c r="T62" s="28"/>
+      <c r="U62" s="28"/>
+      <c r="V62" s="28"/>
+      <c r="W62" s="28"/>
+      <c r="X62" s="28"/>
+      <c r="Y62" s="28"/>
+      <c r="Z62" s="28"/>
+      <c r="AA62" s="28"/>
+      <c r="AB62" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="63">
+      <c r="A63" s="28"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="28"/>
+      <c r="J63" s="28"/>
+      <c r="K63" s="28"/>
+      <c r="L63" s="28"/>
+      <c r="M63" s="28"/>
+      <c r="N63" s="28"/>
+      <c r="O63" s="28"/>
+      <c r="P63" s="28"/>
+      <c r="Q63" s="28"/>
+      <c r="R63" s="28"/>
+      <c r="S63" s="28"/>
+      <c r="T63" s="28"/>
+      <c r="U63" s="28"/>
+      <c r="V63" s="28"/>
+      <c r="W63" s="28"/>
+      <c r="X63" s="28"/>
+      <c r="Y63" s="28"/>
+      <c r="Z63" s="28"/>
+      <c r="AA63" s="28"/>
+      <c r="AB63" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="64">
+      <c r="A64" s="28"/>
+      <c r="B64" s="28"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="28"/>
+      <c r="J64" s="28"/>
+      <c r="K64" s="28"/>
+      <c r="L64" s="28"/>
+      <c r="M64" s="28"/>
+      <c r="N64" s="28"/>
+      <c r="O64" s="28"/>
+      <c r="P64" s="28"/>
+      <c r="Q64" s="28"/>
+      <c r="R64" s="28"/>
+      <c r="S64" s="28"/>
+      <c r="T64" s="28"/>
+      <c r="U64" s="28"/>
+      <c r="V64" s="28"/>
+      <c r="W64" s="28"/>
+      <c r="X64" s="28"/>
+      <c r="Y64" s="28"/>
+      <c r="Z64" s="28"/>
+      <c r="AA64" s="28"/>
+      <c r="AB64" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="65">
+      <c r="A65" s="28"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="28"/>
+      <c r="J65" s="28"/>
+      <c r="K65" s="28"/>
+      <c r="L65" s="28"/>
+      <c r="M65" s="28"/>
+      <c r="N65" s="28"/>
+      <c r="O65" s="28"/>
+      <c r="P65" s="28"/>
+      <c r="Q65" s="28"/>
+      <c r="R65" s="28"/>
+      <c r="S65" s="28"/>
+      <c r="T65" s="28"/>
+      <c r="U65" s="28"/>
+      <c r="V65" s="28"/>
+      <c r="W65" s="28"/>
+      <c r="X65" s="28"/>
+      <c r="Y65" s="28"/>
+      <c r="Z65" s="28"/>
+      <c r="AA65" s="28"/>
+      <c r="AB65" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="66">
+      <c r="A66" s="28"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="28"/>
+      <c r="K66" s="28"/>
+      <c r="L66" s="28"/>
+      <c r="M66" s="28"/>
+      <c r="N66" s="28"/>
+      <c r="O66" s="28"/>
+      <c r="P66" s="28"/>
+      <c r="Q66" s="28"/>
+      <c r="R66" s="28"/>
+      <c r="S66" s="28"/>
+      <c r="T66" s="28"/>
+      <c r="U66" s="28"/>
+      <c r="V66" s="28"/>
+      <c r="W66" s="28"/>
+      <c r="X66" s="28"/>
+      <c r="Y66" s="28"/>
+      <c r="Z66" s="28"/>
+      <c r="AA66" s="28"/>
+      <c r="AB66" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="67">
+      <c r="A67" s="28"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="28"/>
+      <c r="J67" s="28"/>
+      <c r="K67" s="28"/>
+      <c r="L67" s="28"/>
+      <c r="M67" s="28"/>
+      <c r="N67" s="28"/>
+      <c r="O67" s="28"/>
+      <c r="P67" s="28"/>
+      <c r="Q67" s="28"/>
+      <c r="R67" s="28"/>
+      <c r="S67" s="28"/>
+      <c r="T67" s="28"/>
+      <c r="U67" s="28"/>
+      <c r="V67" s="28"/>
+      <c r="W67" s="28"/>
+      <c r="X67" s="28"/>
+      <c r="Y67" s="28"/>
+      <c r="Z67" s="28"/>
+      <c r="AA67" s="28"/>
+      <c r="AB67" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="68">
+      <c r="A68" s="28"/>
+      <c r="B68" s="28"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="28"/>
+      <c r="K68" s="28"/>
+      <c r="L68" s="28"/>
+      <c r="M68" s="28"/>
+      <c r="N68" s="28"/>
+      <c r="O68" s="28"/>
+      <c r="P68" s="28"/>
+      <c r="Q68" s="28"/>
+      <c r="R68" s="28"/>
+      <c r="S68" s="28"/>
+      <c r="T68" s="28"/>
+      <c r="U68" s="28"/>
+      <c r="V68" s="28"/>
+      <c r="W68" s="28"/>
+      <c r="X68" s="28"/>
+      <c r="Y68" s="28"/>
+      <c r="Z68" s="28"/>
+      <c r="AA68" s="28"/>
+      <c r="AB68" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="69">
+      <c r="A69" s="28"/>
+      <c r="B69" s="28"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="28"/>
+      <c r="I69" s="28"/>
+      <c r="J69" s="28"/>
+      <c r="K69" s="28"/>
+      <c r="L69" s="28"/>
+      <c r="M69" s="28"/>
+      <c r="N69" s="28"/>
+      <c r="O69" s="28"/>
+      <c r="P69" s="28"/>
+      <c r="Q69" s="28"/>
+      <c r="R69" s="28"/>
+      <c r="S69" s="28"/>
+      <c r="T69" s="28"/>
+      <c r="U69" s="28"/>
+      <c r="V69" s="28"/>
+      <c r="W69" s="28"/>
+      <c r="X69" s="28"/>
+      <c r="Y69" s="28"/>
+      <c r="Z69" s="28"/>
+      <c r="AA69" s="28"/>
+      <c r="AB69" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="70">
+      <c r="A70" s="28"/>
+      <c r="B70" s="28"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="28"/>
+      <c r="J70" s="28"/>
+      <c r="K70" s="28"/>
+      <c r="L70" s="28"/>
+      <c r="M70" s="28"/>
+      <c r="N70" s="28"/>
+      <c r="O70" s="28"/>
+      <c r="P70" s="28"/>
+      <c r="Q70" s="28"/>
+      <c r="R70" s="28"/>
+      <c r="S70" s="28"/>
+      <c r="T70" s="28"/>
+      <c r="U70" s="28"/>
+      <c r="V70" s="28"/>
+      <c r="W70" s="28"/>
+      <c r="X70" s="28"/>
+      <c r="Y70" s="28"/>
+      <c r="Z70" s="28"/>
+      <c r="AA70" s="28"/>
+      <c r="AB70" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="71">
+      <c r="A71" s="28"/>
+      <c r="B71" s="28"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="28"/>
+      <c r="K71" s="28"/>
+      <c r="L71" s="28"/>
+      <c r="M71" s="28"/>
+      <c r="N71" s="28"/>
+      <c r="O71" s="28"/>
+      <c r="P71" s="28"/>
+      <c r="Q71" s="28"/>
+      <c r="R71" s="28"/>
+      <c r="S71" s="28"/>
+      <c r="T71" s="28"/>
+      <c r="U71" s="28"/>
+      <c r="V71" s="28"/>
+      <c r="W71" s="28"/>
+      <c r="X71" s="28"/>
+      <c r="Y71" s="28"/>
+      <c r="Z71" s="28"/>
+      <c r="AA71" s="28"/>
+      <c r="AB71" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="72">
+      <c r="A72" s="28"/>
+      <c r="B72" s="28"/>
+      <c r="C72" s="28"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="28"/>
+      <c r="I72" s="28"/>
+      <c r="J72" s="28"/>
+      <c r="K72" s="28"/>
+      <c r="L72" s="28"/>
+      <c r="M72" s="28"/>
+      <c r="N72" s="28"/>
+      <c r="O72" s="28"/>
+      <c r="P72" s="28"/>
+      <c r="Q72" s="28"/>
+      <c r="R72" s="28"/>
+      <c r="S72" s="28"/>
+      <c r="T72" s="28"/>
+      <c r="U72" s="28"/>
+      <c r="V72" s="28"/>
+      <c r="W72" s="28"/>
+      <c r="X72" s="28"/>
+      <c r="Y72" s="28"/>
+      <c r="Z72" s="28"/>
+      <c r="AA72" s="28"/>
+      <c r="AB72" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="73">
+      <c r="A73" s="28"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="28"/>
+      <c r="I73" s="28"/>
+      <c r="J73" s="28"/>
+      <c r="K73" s="28"/>
+      <c r="L73" s="28"/>
+      <c r="M73" s="28"/>
+      <c r="N73" s="28"/>
+      <c r="O73" s="28"/>
+      <c r="P73" s="28"/>
+      <c r="Q73" s="28"/>
+      <c r="R73" s="28"/>
+      <c r="S73" s="28"/>
+      <c r="T73" s="28"/>
+      <c r="U73" s="28"/>
+      <c r="V73" s="28"/>
+      <c r="W73" s="28"/>
+      <c r="X73" s="28"/>
+      <c r="Y73" s="28"/>
+      <c r="Z73" s="28"/>
+      <c r="AA73" s="28"/>
+      <c r="AB73" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="74">
+      <c r="A74" s="28"/>
+      <c r="B74" s="28"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="28"/>
+      <c r="G74" s="28"/>
+      <c r="H74" s="28"/>
+      <c r="I74" s="28"/>
+      <c r="J74" s="28"/>
+      <c r="K74" s="28"/>
+      <c r="L74" s="28"/>
+      <c r="M74" s="28"/>
+      <c r="N74" s="28"/>
+      <c r="O74" s="28"/>
+      <c r="P74" s="28"/>
+      <c r="Q74" s="28"/>
+      <c r="R74" s="28"/>
+      <c r="S74" s="28"/>
+      <c r="T74" s="28"/>
+      <c r="U74" s="28"/>
+      <c r="V74" s="28"/>
+      <c r="W74" s="28"/>
+      <c r="X74" s="28"/>
+      <c r="Y74" s="28"/>
+      <c r="Z74" s="28"/>
+      <c r="AA74" s="28"/>
+      <c r="AB74" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="75">
+      <c r="A75" s="28"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="28"/>
+      <c r="H75" s="28"/>
+      <c r="I75" s="28"/>
+      <c r="J75" s="28"/>
+      <c r="K75" s="28"/>
+      <c r="L75" s="28"/>
+      <c r="M75" s="28"/>
+      <c r="N75" s="28"/>
+      <c r="O75" s="28"/>
+      <c r="P75" s="28"/>
+      <c r="Q75" s="28"/>
+      <c r="R75" s="28"/>
+      <c r="S75" s="28"/>
+      <c r="T75" s="28"/>
+      <c r="U75" s="28"/>
+      <c r="V75" s="28"/>
+      <c r="W75" s="28"/>
+      <c r="X75" s="28"/>
+      <c r="Y75" s="28"/>
+      <c r="Z75" s="28"/>
+      <c r="AA75" s="28"/>
+      <c r="AB75" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="76">
+      <c r="A76" s="28"/>
+      <c r="B76" s="28"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="28"/>
+      <c r="F76" s="28"/>
+      <c r="G76" s="28"/>
+      <c r="H76" s="28"/>
+      <c r="I76" s="28"/>
+      <c r="J76" s="28"/>
+      <c r="K76" s="28"/>
+      <c r="L76" s="28"/>
+      <c r="M76" s="28"/>
+      <c r="N76" s="28"/>
+      <c r="O76" s="28"/>
+      <c r="P76" s="28"/>
+      <c r="Q76" s="28"/>
+      <c r="R76" s="28"/>
+      <c r="S76" s="28"/>
+      <c r="T76" s="28"/>
+      <c r="U76" s="28"/>
+      <c r="V76" s="28"/>
+      <c r="W76" s="28"/>
+      <c r="X76" s="28"/>
+      <c r="Y76" s="28"/>
+      <c r="Z76" s="28"/>
+      <c r="AA76" s="28"/>
+      <c r="AB76" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="77">
+      <c r="A77" s="28"/>
+      <c r="B77" s="28"/>
+      <c r="C77" s="28"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="28"/>
+      <c r="K77" s="28"/>
+      <c r="L77" s="28"/>
+      <c r="M77" s="28"/>
+      <c r="N77" s="28"/>
+      <c r="O77" s="28"/>
+      <c r="P77" s="28"/>
+      <c r="Q77" s="28"/>
+      <c r="R77" s="28"/>
+      <c r="S77" s="28"/>
+      <c r="T77" s="28"/>
+      <c r="U77" s="28"/>
+      <c r="V77" s="28"/>
+      <c r="W77" s="28"/>
+      <c r="X77" s="28"/>
+      <c r="Y77" s="28"/>
+      <c r="Z77" s="28"/>
+      <c r="AA77" s="28"/>
+      <c r="AB77" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="78">
+      <c r="A78" s="28"/>
+      <c r="B78" s="28"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="28"/>
+      <c r="F78" s="28"/>
+      <c r="G78" s="28"/>
+      <c r="H78" s="28"/>
+      <c r="I78" s="28"/>
+      <c r="J78" s="28"/>
+      <c r="K78" s="28"/>
+      <c r="L78" s="28"/>
+      <c r="M78" s="28"/>
+      <c r="N78" s="28"/>
+      <c r="O78" s="28"/>
+      <c r="P78" s="28"/>
+      <c r="Q78" s="28"/>
+      <c r="R78" s="28"/>
+      <c r="S78" s="28"/>
+      <c r="T78" s="28"/>
+      <c r="U78" s="28"/>
+      <c r="V78" s="28"/>
+      <c r="W78" s="28"/>
+      <c r="X78" s="28"/>
+      <c r="Y78" s="28"/>
+      <c r="Z78" s="28"/>
+      <c r="AA78" s="28"/>
+      <c r="AB78" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="79">
+      <c r="A79" s="28"/>
+      <c r="B79" s="28"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="28"/>
+      <c r="E79" s="28"/>
+      <c r="F79" s="28"/>
+      <c r="G79" s="28"/>
+      <c r="H79" s="28"/>
+      <c r="I79" s="28"/>
+      <c r="J79" s="28"/>
+      <c r="K79" s="28"/>
+      <c r="L79" s="28"/>
+      <c r="M79" s="28"/>
+      <c r="N79" s="28"/>
+      <c r="O79" s="28"/>
+      <c r="P79" s="28"/>
+      <c r="Q79" s="28"/>
+      <c r="R79" s="28"/>
+      <c r="S79" s="28"/>
+      <c r="T79" s="28"/>
+      <c r="U79" s="28"/>
+      <c r="V79" s="28"/>
+      <c r="W79" s="28"/>
+      <c r="X79" s="28"/>
+      <c r="Y79" s="28"/>
+      <c r="Z79" s="28"/>
+      <c r="AA79" s="28"/>
+      <c r="AB79" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="80">
+      <c r="A80" s="28"/>
+      <c r="B80" s="28"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="28"/>
+      <c r="K80" s="28"/>
+      <c r="L80" s="28"/>
+      <c r="M80" s="28"/>
+      <c r="N80" s="28"/>
+      <c r="O80" s="28"/>
+      <c r="P80" s="28"/>
+      <c r="Q80" s="28"/>
+      <c r="R80" s="28"/>
+      <c r="S80" s="28"/>
+      <c r="T80" s="28"/>
+      <c r="U80" s="28"/>
+      <c r="V80" s="28"/>
+      <c r="W80" s="28"/>
+      <c r="X80" s="28"/>
+      <c r="Y80" s="28"/>
+      <c r="Z80" s="28"/>
+      <c r="AA80" s="28"/>
+      <c r="AB80" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="81">
+      <c r="A81" s="28"/>
+      <c r="B81" s="28"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="28"/>
+      <c r="E81" s="28"/>
+      <c r="F81" s="28"/>
+      <c r="G81" s="28"/>
+      <c r="H81" s="28"/>
+      <c r="I81" s="28"/>
+      <c r="J81" s="28"/>
+      <c r="K81" s="28"/>
+      <c r="L81" s="28"/>
+      <c r="M81" s="28"/>
+      <c r="N81" s="28"/>
+      <c r="O81" s="28"/>
+      <c r="P81" s="28"/>
+      <c r="Q81" s="28"/>
+      <c r="R81" s="28"/>
+      <c r="S81" s="28"/>
+      <c r="T81" s="28"/>
+      <c r="U81" s="28"/>
+      <c r="V81" s="28"/>
+      <c r="W81" s="28"/>
+      <c r="X81" s="28"/>
+      <c r="Y81" s="28"/>
+      <c r="Z81" s="28"/>
+      <c r="AA81" s="28"/>
+      <c r="AB81" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="82">
+      <c r="A82" s="28"/>
+      <c r="B82" s="28"/>
+      <c r="C82" s="28"/>
+      <c r="D82" s="28"/>
+      <c r="E82" s="28"/>
+      <c r="F82" s="28"/>
+      <c r="G82" s="28"/>
+      <c r="H82" s="28"/>
+      <c r="I82" s="28"/>
+      <c r="J82" s="28"/>
+      <c r="K82" s="28"/>
+      <c r="L82" s="28"/>
+      <c r="M82" s="28"/>
+      <c r="N82" s="28"/>
+      <c r="O82" s="28"/>
+      <c r="P82" s="28"/>
+      <c r="Q82" s="28"/>
+      <c r="R82" s="28"/>
+      <c r="S82" s="28"/>
+      <c r="T82" s="28"/>
+      <c r="U82" s="28"/>
+      <c r="V82" s="28"/>
+      <c r="W82" s="28"/>
+      <c r="X82" s="28"/>
+      <c r="Y82" s="28"/>
+      <c r="Z82" s="28"/>
+      <c r="AA82" s="28"/>
+      <c r="AB82" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="83">
+      <c r="A83" s="28"/>
+      <c r="B83" s="28"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="28"/>
+      <c r="F83" s="28"/>
+      <c r="G83" s="28"/>
+      <c r="H83" s="28"/>
+      <c r="I83" s="28"/>
+      <c r="J83" s="28"/>
+      <c r="K83" s="28"/>
+      <c r="L83" s="28"/>
+      <c r="M83" s="28"/>
+      <c r="N83" s="28"/>
+      <c r="O83" s="28"/>
+      <c r="P83" s="28"/>
+      <c r="Q83" s="28"/>
+      <c r="R83" s="28"/>
+      <c r="S83" s="28"/>
+      <c r="T83" s="28"/>
+      <c r="U83" s="28"/>
+      <c r="V83" s="28"/>
+      <c r="W83" s="28"/>
+      <c r="X83" s="28"/>
+      <c r="Y83" s="28"/>
+      <c r="Z83" s="28"/>
+      <c r="AA83" s="28"/>
+      <c r="AB83" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="84">
+      <c r="A84" s="28"/>
+      <c r="B84" s="28"/>
+      <c r="C84" s="28"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="28"/>
+      <c r="F84" s="28"/>
+      <c r="G84" s="28"/>
+      <c r="H84" s="28"/>
+      <c r="I84" s="28"/>
+      <c r="J84" s="28"/>
+      <c r="K84" s="28"/>
+      <c r="L84" s="28"/>
+      <c r="M84" s="28"/>
+      <c r="N84" s="28"/>
+      <c r="O84" s="28"/>
+      <c r="P84" s="28"/>
+      <c r="Q84" s="28"/>
+      <c r="R84" s="28"/>
+      <c r="S84" s="28"/>
+      <c r="T84" s="28"/>
+      <c r="U84" s="28"/>
+      <c r="V84" s="28"/>
+      <c r="W84" s="28"/>
+      <c r="X84" s="28"/>
+      <c r="Y84" s="28"/>
+      <c r="Z84" s="28"/>
+      <c r="AA84" s="28"/>
+      <c r="AB84" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="85">
+      <c r="A85" s="28"/>
+      <c r="B85" s="28"/>
+      <c r="C85" s="28"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="28"/>
+      <c r="F85" s="28"/>
+      <c r="G85" s="28"/>
+      <c r="H85" s="28"/>
+      <c r="I85" s="28"/>
+      <c r="J85" s="28"/>
+      <c r="K85" s="28"/>
+      <c r="L85" s="28"/>
+      <c r="M85" s="28"/>
+      <c r="N85" s="28"/>
+      <c r="O85" s="28"/>
+      <c r="P85" s="28"/>
+      <c r="Q85" s="28"/>
+      <c r="R85" s="28"/>
+      <c r="S85" s="28"/>
+      <c r="T85" s="28"/>
+      <c r="U85" s="28"/>
+      <c r="V85" s="28"/>
+      <c r="W85" s="28"/>
+      <c r="X85" s="28"/>
+      <c r="Y85" s="28"/>
+      <c r="Z85" s="28"/>
+      <c r="AA85" s="28"/>
+      <c r="AB85" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="86">
+      <c r="A86" s="28"/>
+      <c r="B86" s="28"/>
+      <c r="C86" s="28"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="28"/>
+      <c r="J86" s="28"/>
+      <c r="K86" s="28"/>
+      <c r="L86" s="28"/>
+      <c r="M86" s="28"/>
+      <c r="N86" s="28"/>
+      <c r="O86" s="28"/>
+      <c r="P86" s="28"/>
+      <c r="Q86" s="28"/>
+      <c r="R86" s="28"/>
+      <c r="S86" s="28"/>
+      <c r="T86" s="28"/>
+      <c r="U86" s="28"/>
+      <c r="V86" s="28"/>
+      <c r="W86" s="28"/>
+      <c r="X86" s="28"/>
+      <c r="Y86" s="28"/>
+      <c r="Z86" s="28"/>
+      <c r="AA86" s="28"/>
+      <c r="AB86" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="87">
+      <c r="A87" s="28"/>
+      <c r="B87" s="28"/>
+      <c r="C87" s="28"/>
+      <c r="D87" s="28"/>
+      <c r="E87" s="28"/>
+      <c r="F87" s="28"/>
+      <c r="G87" s="28"/>
+      <c r="H87" s="28"/>
+      <c r="I87" s="28"/>
+      <c r="J87" s="28"/>
+      <c r="K87" s="28"/>
+      <c r="L87" s="28"/>
+      <c r="M87" s="28"/>
+      <c r="N87" s="28"/>
+      <c r="O87" s="28"/>
+      <c r="P87" s="28"/>
+      <c r="Q87" s="28"/>
+      <c r="R87" s="28"/>
+      <c r="S87" s="28"/>
+      <c r="T87" s="28"/>
+      <c r="U87" s="28"/>
+      <c r="V87" s="28"/>
+      <c r="W87" s="28"/>
+      <c r="X87" s="28"/>
+      <c r="Y87" s="28"/>
+      <c r="Z87" s="28"/>
+      <c r="AA87" s="28"/>
+      <c r="AB87" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="88">
+      <c r="A88" s="28"/>
+      <c r="B88" s="28"/>
+      <c r="C88" s="28"/>
+      <c r="D88" s="28"/>
+      <c r="E88" s="28"/>
+      <c r="F88" s="28"/>
+      <c r="G88" s="28"/>
+      <c r="H88" s="28"/>
+      <c r="I88" s="28"/>
+      <c r="J88" s="28"/>
+      <c r="K88" s="28"/>
+      <c r="L88" s="28"/>
+      <c r="M88" s="28"/>
+      <c r="N88" s="28"/>
+      <c r="O88" s="28"/>
+      <c r="P88" s="28"/>
+      <c r="Q88" s="28"/>
+      <c r="R88" s="28"/>
+      <c r="S88" s="28"/>
+      <c r="T88" s="28"/>
+      <c r="U88" s="28"/>
+      <c r="V88" s="28"/>
+      <c r="W88" s="28"/>
+      <c r="X88" s="28"/>
+      <c r="Y88" s="28"/>
+      <c r="Z88" s="28"/>
+      <c r="AA88" s="28"/>
+      <c r="AB88" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="89">
+      <c r="A89" s="28"/>
+      <c r="B89" s="28"/>
+      <c r="C89" s="28"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="28"/>
+      <c r="J89" s="28"/>
+      <c r="K89" s="28"/>
+      <c r="L89" s="28"/>
+      <c r="M89" s="28"/>
+      <c r="N89" s="28"/>
+      <c r="O89" s="28"/>
+      <c r="P89" s="28"/>
+      <c r="Q89" s="28"/>
+      <c r="R89" s="28"/>
+      <c r="S89" s="28"/>
+      <c r="T89" s="28"/>
+      <c r="U89" s="28"/>
+      <c r="V89" s="28"/>
+      <c r="W89" s="28"/>
+      <c r="X89" s="28"/>
+      <c r="Y89" s="28"/>
+      <c r="Z89" s="28"/>
+      <c r="AA89" s="28"/>
+      <c r="AB89" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="90">
+      <c r="A90" s="28"/>
+      <c r="B90" s="28"/>
+      <c r="C90" s="28"/>
+      <c r="D90" s="28"/>
+      <c r="E90" s="28"/>
+      <c r="F90" s="28"/>
+      <c r="G90" s="28"/>
+      <c r="H90" s="28"/>
+      <c r="I90" s="28"/>
+      <c r="J90" s="28"/>
+      <c r="K90" s="28"/>
+      <c r="L90" s="28"/>
+      <c r="M90" s="28"/>
+      <c r="N90" s="28"/>
+      <c r="O90" s="28"/>
+      <c r="P90" s="28"/>
+      <c r="Q90" s="28"/>
+      <c r="R90" s="28"/>
+      <c r="S90" s="28"/>
+      <c r="T90" s="28"/>
+      <c r="U90" s="28"/>
+      <c r="V90" s="28"/>
+      <c r="W90" s="28"/>
+      <c r="X90" s="28"/>
+      <c r="Y90" s="28"/>
+      <c r="Z90" s="28"/>
+      <c r="AA90" s="28"/>
+      <c r="AB90" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="91">
+      <c r="A91" s="28"/>
+      <c r="B91" s="28"/>
+      <c r="C91" s="28"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="28"/>
+      <c r="F91" s="28"/>
+      <c r="G91" s="28"/>
+      <c r="H91" s="28"/>
+      <c r="I91" s="28"/>
+      <c r="J91" s="28"/>
+      <c r="K91" s="28"/>
+      <c r="L91" s="28"/>
+      <c r="M91" s="28"/>
+      <c r="N91" s="28"/>
+      <c r="O91" s="28"/>
+      <c r="P91" s="28"/>
+      <c r="Q91" s="28"/>
+      <c r="R91" s="28"/>
+      <c r="S91" s="28"/>
+      <c r="T91" s="28"/>
+      <c r="U91" s="28"/>
+      <c r="V91" s="28"/>
+      <c r="W91" s="28"/>
+      <c r="X91" s="28"/>
+      <c r="Y91" s="28"/>
+      <c r="Z91" s="28"/>
+      <c r="AA91" s="28"/>
+      <c r="AB91" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="92">
+      <c r="A92" s="28"/>
+      <c r="B92" s="28"/>
+      <c r="C92" s="28"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="28"/>
+      <c r="F92" s="28"/>
+      <c r="G92" s="28"/>
+      <c r="H92" s="28"/>
+      <c r="I92" s="28"/>
+      <c r="J92" s="28"/>
+      <c r="K92" s="28"/>
+      <c r="L92" s="28"/>
+      <c r="M92" s="28"/>
+      <c r="N92" s="28"/>
+      <c r="O92" s="28"/>
+      <c r="P92" s="28"/>
+      <c r="Q92" s="28"/>
+      <c r="R92" s="28"/>
+      <c r="S92" s="28"/>
+      <c r="T92" s="28"/>
+      <c r="U92" s="28"/>
+      <c r="V92" s="28"/>
+      <c r="W92" s="28"/>
+      <c r="X92" s="28"/>
+      <c r="Y92" s="28"/>
+      <c r="Z92" s="28"/>
+      <c r="AA92" s="28"/>
+      <c r="AB92" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="93">
+      <c r="A93" s="28"/>
+      <c r="B93" s="28"/>
+      <c r="C93" s="28"/>
+      <c r="D93" s="28"/>
+      <c r="E93" s="28"/>
+      <c r="F93" s="28"/>
+      <c r="G93" s="28"/>
+      <c r="H93" s="28"/>
+      <c r="I93" s="28"/>
+      <c r="J93" s="28"/>
+      <c r="K93" s="28"/>
+      <c r="L93" s="28"/>
+      <c r="M93" s="28"/>
+      <c r="N93" s="28"/>
+      <c r="O93" s="28"/>
+      <c r="P93" s="28"/>
+      <c r="Q93" s="28"/>
+      <c r="R93" s="28"/>
+      <c r="S93" s="28"/>
+      <c r="T93" s="28"/>
+      <c r="U93" s="28"/>
+      <c r="V93" s="28"/>
+      <c r="W93" s="28"/>
+      <c r="X93" s="28"/>
+      <c r="Y93" s="28"/>
+      <c r="Z93" s="28"/>
+      <c r="AA93" s="28"/>
+      <c r="AB93" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="94">
+      <c r="A94" s="28"/>
+      <c r="B94" s="28"/>
+      <c r="C94" s="28"/>
+      <c r="D94" s="28"/>
+      <c r="E94" s="28"/>
+      <c r="F94" s="28"/>
+      <c r="G94" s="28"/>
+      <c r="H94" s="28"/>
+      <c r="I94" s="28"/>
+      <c r="J94" s="28"/>
+      <c r="K94" s="28"/>
+      <c r="L94" s="28"/>
+      <c r="M94" s="28"/>
+      <c r="N94" s="28"/>
+      <c r="O94" s="28"/>
+      <c r="P94" s="28"/>
+      <c r="Q94" s="28"/>
+      <c r="R94" s="28"/>
+      <c r="S94" s="28"/>
+      <c r="T94" s="28"/>
+      <c r="U94" s="28"/>
+      <c r="V94" s="28"/>
+      <c r="W94" s="28"/>
+      <c r="X94" s="28"/>
+      <c r="Y94" s="28"/>
+      <c r="Z94" s="28"/>
+      <c r="AA94" s="28"/>
+      <c r="AB94" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="95">
+      <c r="A95" s="28"/>
+      <c r="B95" s="28"/>
+      <c r="C95" s="28"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="28"/>
+      <c r="I95" s="28"/>
+      <c r="J95" s="28"/>
+      <c r="K95" s="28"/>
+      <c r="L95" s="28"/>
+      <c r="M95" s="28"/>
+      <c r="N95" s="28"/>
+      <c r="O95" s="28"/>
+      <c r="P95" s="28"/>
+      <c r="Q95" s="28"/>
+      <c r="R95" s="28"/>
+      <c r="S95" s="28"/>
+      <c r="T95" s="28"/>
+      <c r="U95" s="28"/>
+      <c r="V95" s="28"/>
+      <c r="W95" s="28"/>
+      <c r="X95" s="28"/>
+      <c r="Y95" s="28"/>
+      <c r="Z95" s="28"/>
+      <c r="AA95" s="28"/>
+      <c r="AB95" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="96">
+      <c r="A96" s="28"/>
+      <c r="B96" s="28"/>
+      <c r="C96" s="28"/>
+      <c r="D96" s="28"/>
+      <c r="E96" s="28"/>
+      <c r="F96" s="28"/>
+      <c r="G96" s="28"/>
+      <c r="H96" s="28"/>
+      <c r="I96" s="28"/>
+      <c r="J96" s="28"/>
+      <c r="K96" s="28"/>
+      <c r="L96" s="28"/>
+      <c r="M96" s="28"/>
+      <c r="N96" s="28"/>
+      <c r="O96" s="28"/>
+      <c r="P96" s="28"/>
+      <c r="Q96" s="28"/>
+      <c r="R96" s="28"/>
+      <c r="S96" s="28"/>
+      <c r="T96" s="28"/>
+      <c r="U96" s="28"/>
+      <c r="V96" s="28"/>
+      <c r="W96" s="28"/>
+      <c r="X96" s="28"/>
+      <c r="Y96" s="28"/>
+      <c r="Z96" s="28"/>
+      <c r="AA96" s="28"/>
+      <c r="AB96" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="97">
+      <c r="A97" s="28"/>
+      <c r="B97" s="28"/>
+      <c r="C97" s="28"/>
+      <c r="D97" s="28"/>
+      <c r="E97" s="28"/>
+      <c r="F97" s="28"/>
+      <c r="G97" s="28"/>
+      <c r="H97" s="28"/>
+      <c r="I97" s="28"/>
+      <c r="J97" s="28"/>
+      <c r="K97" s="28"/>
+      <c r="L97" s="28"/>
+      <c r="M97" s="28"/>
+      <c r="N97" s="28"/>
+      <c r="O97" s="28"/>
+      <c r="P97" s="28"/>
+      <c r="Q97" s="28"/>
+      <c r="R97" s="28"/>
+      <c r="S97" s="28"/>
+      <c r="T97" s="28"/>
+      <c r="U97" s="28"/>
+      <c r="V97" s="28"/>
+      <c r="W97" s="28"/>
+      <c r="X97" s="28"/>
+      <c r="Y97" s="28"/>
+      <c r="Z97" s="28"/>
+      <c r="AA97" s="28"/>
+      <c r="AB97" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="98">
+      <c r="A98" s="28"/>
+      <c r="B98" s="28"/>
+      <c r="C98" s="28"/>
+      <c r="D98" s="28"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="28"/>
+      <c r="I98" s="28"/>
+      <c r="J98" s="28"/>
+      <c r="K98" s="28"/>
+      <c r="L98" s="28"/>
+      <c r="M98" s="28"/>
+      <c r="N98" s="28"/>
+      <c r="O98" s="28"/>
+      <c r="P98" s="28"/>
+      <c r="Q98" s="28"/>
+      <c r="R98" s="28"/>
+      <c r="S98" s="28"/>
+      <c r="T98" s="28"/>
+      <c r="U98" s="28"/>
+      <c r="V98" s="28"/>
+      <c r="W98" s="28"/>
+      <c r="X98" s="28"/>
+      <c r="Y98" s="28"/>
+      <c r="Z98" s="28"/>
+      <c r="AA98" s="28"/>
+      <c r="AB98" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="99">
+      <c r="A99" s="28"/>
+      <c r="B99" s="28"/>
+      <c r="C99" s="28"/>
+      <c r="D99" s="28"/>
+      <c r="E99" s="28"/>
+      <c r="F99" s="28"/>
+      <c r="G99" s="28"/>
+      <c r="H99" s="28"/>
+      <c r="I99" s="28"/>
+      <c r="J99" s="28"/>
+      <c r="K99" s="28"/>
+      <c r="L99" s="28"/>
+      <c r="M99" s="28"/>
+      <c r="N99" s="28"/>
+      <c r="O99" s="28"/>
+      <c r="P99" s="28"/>
+      <c r="Q99" s="28"/>
+      <c r="R99" s="28"/>
+      <c r="S99" s="28"/>
+      <c r="T99" s="28"/>
+      <c r="U99" s="28"/>
+      <c r="V99" s="28"/>
+      <c r="W99" s="28"/>
+      <c r="X99" s="28"/>
+      <c r="Y99" s="28"/>
+      <c r="Z99" s="28"/>
+      <c r="AA99" s="28"/>
+      <c r="AB99" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="100">
+      <c r="A100" s="28"/>
+      <c r="B100" s="28"/>
+      <c r="C100" s="28"/>
+      <c r="D100" s="28"/>
+      <c r="E100" s="28"/>
+      <c r="F100" s="28"/>
+      <c r="G100" s="28"/>
+      <c r="H100" s="28"/>
+      <c r="I100" s="28"/>
+      <c r="J100" s="28"/>
+      <c r="K100" s="28"/>
+      <c r="L100" s="28"/>
+      <c r="M100" s="28"/>
+      <c r="N100" s="28"/>
+      <c r="O100" s="28"/>
+      <c r="P100" s="28"/>
+      <c r="Q100" s="28"/>
+      <c r="R100" s="28"/>
+      <c r="S100" s="28"/>
+      <c r="T100" s="28"/>
+      <c r="U100" s="28"/>
+      <c r="V100" s="28"/>
+      <c r="W100" s="28"/>
+      <c r="X100" s="28"/>
+      <c r="Y100" s="28"/>
+      <c r="Z100" s="28"/>
+      <c r="AA100" s="28"/>
+      <c r="AB100" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="101">
+      <c r="A101" s="28"/>
+      <c r="B101" s="28"/>
+      <c r="C101" s="28"/>
+      <c r="D101" s="28"/>
+      <c r="E101" s="28"/>
+      <c r="F101" s="28"/>
+      <c r="G101" s="28"/>
+      <c r="H101" s="28"/>
+      <c r="I101" s="28"/>
+      <c r="J101" s="28"/>
+      <c r="K101" s="28"/>
+      <c r="L101" s="28"/>
+      <c r="M101" s="28"/>
+      <c r="N101" s="28"/>
+      <c r="O101" s="28"/>
+      <c r="P101" s="28"/>
+      <c r="Q101" s="28"/>
+      <c r="R101" s="28"/>
+      <c r="S101" s="28"/>
+      <c r="T101" s="28"/>
+      <c r="U101" s="28"/>
+      <c r="V101" s="28"/>
+      <c r="W101" s="28"/>
+      <c r="X101" s="28"/>
+      <c r="Y101" s="28"/>
+      <c r="Z101" s="28"/>
+      <c r="AA101" s="28"/>
+      <c r="AB101" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="102">
+      <c r="A102" s="28"/>
+      <c r="B102" s="28"/>
+      <c r="C102" s="28"/>
+      <c r="D102" s="28"/>
+      <c r="E102" s="28"/>
+      <c r="F102" s="28"/>
+      <c r="G102" s="28"/>
+      <c r="H102" s="28"/>
+      <c r="I102" s="28"/>
+      <c r="J102" s="28"/>
+      <c r="K102" s="28"/>
+      <c r="L102" s="28"/>
+      <c r="M102" s="28"/>
+      <c r="N102" s="28"/>
+      <c r="O102" s="28"/>
+      <c r="P102" s="28"/>
+      <c r="Q102" s="28"/>
+      <c r="R102" s="28"/>
+      <c r="S102" s="28"/>
+      <c r="T102" s="28"/>
+      <c r="U102" s="28"/>
+      <c r="V102" s="28"/>
+      <c r="W102" s="28"/>
+      <c r="X102" s="28"/>
+      <c r="Y102" s="28"/>
+      <c r="Z102" s="28"/>
+      <c r="AA102" s="28"/>
+      <c r="AB102" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="103">
+      <c r="A103" s="28"/>
+      <c r="B103" s="28"/>
+      <c r="C103" s="28"/>
+      <c r="D103" s="28"/>
+      <c r="E103" s="28"/>
+      <c r="F103" s="28"/>
+      <c r="G103" s="28"/>
+      <c r="H103" s="28"/>
+      <c r="I103" s="28"/>
+      <c r="J103" s="28"/>
+      <c r="K103" s="28"/>
+      <c r="L103" s="28"/>
+      <c r="M103" s="28"/>
+      <c r="N103" s="28"/>
+      <c r="O103" s="28"/>
+      <c r="P103" s="28"/>
+      <c r="Q103" s="28"/>
+      <c r="R103" s="28"/>
+      <c r="S103" s="28"/>
+      <c r="T103" s="28"/>
+      <c r="U103" s="28"/>
+      <c r="V103" s="28"/>
+      <c r="W103" s="28"/>
+      <c r="X103" s="28"/>
+      <c r="Y103" s="28"/>
+      <c r="Z103" s="28"/>
+      <c r="AA103" s="28"/>
+      <c r="AB103" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="104">
+      <c r="A104" s="28"/>
+      <c r="B104" s="28"/>
+      <c r="C104" s="28"/>
+      <c r="D104" s="28"/>
+      <c r="E104" s="28"/>
+      <c r="F104" s="28"/>
+      <c r="G104" s="28"/>
+      <c r="H104" s="28"/>
+      <c r="I104" s="28"/>
+      <c r="J104" s="28"/>
+      <c r="K104" s="28"/>
+      <c r="L104" s="28"/>
+      <c r="M104" s="28"/>
+      <c r="N104" s="28"/>
+      <c r="O104" s="28"/>
+      <c r="P104" s="28"/>
+      <c r="Q104" s="28"/>
+      <c r="R104" s="28"/>
+      <c r="S104" s="28"/>
+      <c r="T104" s="28"/>
+      <c r="U104" s="28"/>
+      <c r="V104" s="28"/>
+      <c r="W104" s="28"/>
+      <c r="X104" s="28"/>
+      <c r="Y104" s="28"/>
+      <c r="Z104" s="28"/>
+      <c r="AA104" s="28"/>
+      <c r="AB104" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="105">
+      <c r="A105" s="28"/>
+      <c r="B105" s="28"/>
+      <c r="C105" s="28"/>
+      <c r="D105" s="28"/>
+      <c r="E105" s="28"/>
+      <c r="F105" s="28"/>
+      <c r="G105" s="28"/>
+      <c r="H105" s="28"/>
+      <c r="I105" s="28"/>
+      <c r="J105" s="28"/>
+      <c r="K105" s="28"/>
+      <c r="L105" s="28"/>
+      <c r="M105" s="28"/>
+      <c r="N105" s="28"/>
+      <c r="O105" s="28"/>
+      <c r="P105" s="28"/>
+      <c r="Q105" s="28"/>
+      <c r="R105" s="28"/>
+      <c r="S105" s="28"/>
+      <c r="T105" s="28"/>
+      <c r="U105" s="28"/>
+      <c r="V105" s="28"/>
+      <c r="W105" s="28"/>
+      <c r="X105" s="28"/>
+      <c r="Y105" s="28"/>
+      <c r="Z105" s="28"/>
+      <c r="AA105" s="28"/>
+      <c r="AB105" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="106">
+      <c r="A106" s="28"/>
+      <c r="B106" s="28"/>
+      <c r="C106" s="28"/>
+      <c r="D106" s="28"/>
+      <c r="E106" s="28"/>
+      <c r="F106" s="28"/>
+      <c r="G106" s="28"/>
+      <c r="H106" s="28"/>
+      <c r="I106" s="28"/>
+      <c r="J106" s="28"/>
+      <c r="K106" s="28"/>
+      <c r="L106" s="28"/>
+      <c r="M106" s="28"/>
+      <c r="N106" s="28"/>
+      <c r="O106" s="28"/>
+      <c r="P106" s="28"/>
+      <c r="Q106" s="28"/>
+      <c r="R106" s="28"/>
+      <c r="S106" s="28"/>
+      <c r="T106" s="28"/>
+      <c r="U106" s="28"/>
+      <c r="V106" s="28"/>
+      <c r="W106" s="28"/>
+      <c r="X106" s="28"/>
+      <c r="Y106" s="28"/>
+      <c r="Z106" s="28"/>
+      <c r="AA106" s="28"/>
+      <c r="AB106" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="107">
+      <c r="A107" s="28"/>
+      <c r="B107" s="28"/>
+      <c r="C107" s="28"/>
+      <c r="D107" s="28"/>
+      <c r="E107" s="28"/>
+      <c r="F107" s="28"/>
+      <c r="G107" s="28"/>
+      <c r="H107" s="28"/>
+      <c r="I107" s="28"/>
+      <c r="J107" s="28"/>
+      <c r="K107" s="28"/>
+      <c r="L107" s="28"/>
+      <c r="M107" s="28"/>
+      <c r="N107" s="28"/>
+      <c r="O107" s="28"/>
+      <c r="P107" s="28"/>
+      <c r="Q107" s="28"/>
+      <c r="R107" s="28"/>
+      <c r="S107" s="28"/>
+      <c r="T107" s="28"/>
+      <c r="U107" s="28"/>
+      <c r="V107" s="28"/>
+      <c r="W107" s="28"/>
+      <c r="X107" s="28"/>
+      <c r="Y107" s="28"/>
+      <c r="Z107" s="28"/>
+      <c r="AA107" s="28"/>
+      <c r="AB107" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="108">
+      <c r="A108" s="28"/>
+      <c r="B108" s="28"/>
+      <c r="C108" s="28"/>
+      <c r="D108" s="28"/>
+      <c r="E108" s="28"/>
+      <c r="F108" s="28"/>
+      <c r="G108" s="28"/>
+      <c r="H108" s="28"/>
+      <c r="I108" s="28"/>
+      <c r="J108" s="28"/>
+      <c r="K108" s="28"/>
+      <c r="L108" s="28"/>
+      <c r="M108" s="28"/>
+      <c r="N108" s="28"/>
+      <c r="O108" s="28"/>
+      <c r="P108" s="28"/>
+      <c r="Q108" s="28"/>
+      <c r="R108" s="28"/>
+      <c r="S108" s="28"/>
+      <c r="T108" s="28"/>
+      <c r="U108" s="28"/>
+      <c r="V108" s="28"/>
+      <c r="W108" s="28"/>
+      <c r="X108" s="28"/>
+      <c r="Y108" s="28"/>
+      <c r="Z108" s="28"/>
+      <c r="AA108" s="28"/>
+      <c r="AB108" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="109">
+      <c r="A109" s="28"/>
+      <c r="B109" s="28"/>
+      <c r="C109" s="28"/>
+      <c r="D109" s="28"/>
+      <c r="E109" s="28"/>
+      <c r="F109" s="28"/>
+      <c r="G109" s="28"/>
+      <c r="H109" s="28"/>
+      <c r="I109" s="28"/>
+      <c r="J109" s="28"/>
+      <c r="K109" s="28"/>
+      <c r="L109" s="28"/>
+      <c r="M109" s="28"/>
+      <c r="N109" s="28"/>
+      <c r="O109" s="28"/>
+      <c r="P109" s="28"/>
+      <c r="Q109" s="28"/>
+      <c r="R109" s="28"/>
+      <c r="S109" s="28"/>
+      <c r="T109" s="28"/>
+      <c r="U109" s="28"/>
+      <c r="V109" s="28"/>
+      <c r="W109" s="28"/>
+      <c r="X109" s="28"/>
+      <c r="Y109" s="28"/>
+      <c r="Z109" s="28"/>
+      <c r="AA109" s="28"/>
+      <c r="AB109" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="110">
+      <c r="A110" s="28"/>
+      <c r="B110" s="28"/>
+      <c r="C110" s="28"/>
+      <c r="D110" s="28"/>
+      <c r="E110" s="28"/>
+      <c r="F110" s="28"/>
+      <c r="G110" s="28"/>
+      <c r="H110" s="28"/>
+      <c r="I110" s="28"/>
+      <c r="J110" s="28"/>
+      <c r="K110" s="28"/>
+      <c r="L110" s="28"/>
+      <c r="M110" s="28"/>
+      <c r="N110" s="28"/>
+      <c r="O110" s="28"/>
+      <c r="P110" s="28"/>
+      <c r="Q110" s="28"/>
+      <c r="R110" s="28"/>
+      <c r="S110" s="28"/>
+      <c r="T110" s="28"/>
+      <c r="U110" s="28"/>
+      <c r="V110" s="28"/>
+      <c r="W110" s="28"/>
+      <c r="X110" s="28"/>
+      <c r="Y110" s="28"/>
+      <c r="Z110" s="28"/>
+      <c r="AA110" s="28"/>
+      <c r="AB110" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="111">
+      <c r="A111" s="28"/>
+      <c r="B111" s="28"/>
+      <c r="C111" s="28"/>
+      <c r="D111" s="28"/>
+      <c r="E111" s="28"/>
+      <c r="F111" s="28"/>
+      <c r="G111" s="28"/>
+      <c r="H111" s="28"/>
+      <c r="I111" s="28"/>
+      <c r="J111" s="28"/>
+      <c r="K111" s="28"/>
+      <c r="L111" s="28"/>
+      <c r="M111" s="28"/>
+      <c r="N111" s="28"/>
+      <c r="O111" s="28"/>
+      <c r="P111" s="28"/>
+      <c r="Q111" s="28"/>
+      <c r="R111" s="28"/>
+      <c r="S111" s="28"/>
+      <c r="T111" s="28"/>
+      <c r="U111" s="28"/>
+      <c r="V111" s="28"/>
+      <c r="W111" s="28"/>
+      <c r="X111" s="28"/>
+      <c r="Y111" s="28"/>
+      <c r="Z111" s="28"/>
+      <c r="AA111" s="28"/>
+      <c r="AB111" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="112">
+      <c r="A112" s="28"/>
+      <c r="B112" s="28"/>
+      <c r="C112" s="28"/>
+      <c r="D112" s="28"/>
+      <c r="E112" s="28"/>
+      <c r="F112" s="28"/>
+      <c r="G112" s="28"/>
+      <c r="H112" s="28"/>
+      <c r="I112" s="28"/>
+      <c r="J112" s="28"/>
+      <c r="K112" s="28"/>
+      <c r="L112" s="28"/>
+      <c r="M112" s="28"/>
+      <c r="N112" s="28"/>
+      <c r="O112" s="28"/>
+      <c r="P112" s="28"/>
+      <c r="Q112" s="28"/>
+      <c r="R112" s="28"/>
+      <c r="S112" s="28"/>
+      <c r="T112" s="28"/>
+      <c r="U112" s="28"/>
+      <c r="V112" s="28"/>
+      <c r="W112" s="28"/>
+      <c r="X112" s="28"/>
+      <c r="Y112" s="28"/>
+      <c r="Z112" s="28"/>
+      <c r="AA112" s="28"/>
+      <c r="AB112" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="113">
+      <c r="A113" s="28"/>
+      <c r="B113" s="28"/>
+      <c r="C113" s="28"/>
+      <c r="D113" s="28"/>
+      <c r="E113" s="28"/>
+      <c r="F113" s="28"/>
+      <c r="G113" s="28"/>
+      <c r="H113" s="28"/>
+      <c r="I113" s="28"/>
+      <c r="J113" s="28"/>
+      <c r="K113" s="28"/>
+      <c r="L113" s="28"/>
+      <c r="M113" s="28"/>
+      <c r="N113" s="28"/>
+      <c r="O113" s="28"/>
+      <c r="P113" s="28"/>
+      <c r="Q113" s="28"/>
+      <c r="R113" s="28"/>
+      <c r="S113" s="28"/>
+      <c r="T113" s="28"/>
+      <c r="U113" s="28"/>
+      <c r="V113" s="28"/>
+      <c r="W113" s="28"/>
+      <c r="X113" s="28"/>
+      <c r="Y113" s="28"/>
+      <c r="Z113" s="28"/>
+      <c r="AA113" s="28"/>
+      <c r="AB113" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="114">
+      <c r="A114" s="28"/>
+      <c r="B114" s="28"/>
+      <c r="C114" s="28"/>
+      <c r="D114" s="28"/>
+      <c r="E114" s="28"/>
+      <c r="F114" s="28"/>
+      <c r="G114" s="28"/>
+      <c r="H114" s="28"/>
+      <c r="I114" s="28"/>
+      <c r="J114" s="28"/>
+      <c r="K114" s="28"/>
+      <c r="L114" s="28"/>
+      <c r="M114" s="28"/>
+      <c r="N114" s="28"/>
+      <c r="O114" s="28"/>
+      <c r="P114" s="28"/>
+      <c r="Q114" s="28"/>
+      <c r="R114" s="28"/>
+      <c r="S114" s="28"/>
+      <c r="T114" s="28"/>
+      <c r="U114" s="28"/>
+      <c r="V114" s="28"/>
+      <c r="W114" s="28"/>
+      <c r="X114" s="28"/>
+      <c r="Y114" s="28"/>
+      <c r="Z114" s="28"/>
+      <c r="AA114" s="28"/>
+      <c r="AB114" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="115">
+      <c r="A115" s="28"/>
+      <c r="B115" s="28"/>
+      <c r="C115" s="28"/>
+      <c r="D115" s="28"/>
+      <c r="E115" s="28"/>
+      <c r="F115" s="28"/>
+      <c r="G115" s="28"/>
+      <c r="H115" s="28"/>
+      <c r="I115" s="28"/>
+      <c r="J115" s="28"/>
+      <c r="K115" s="28"/>
+      <c r="L115" s="28"/>
+      <c r="M115" s="28"/>
+      <c r="N115" s="28"/>
+      <c r="O115" s="28"/>
+      <c r="P115" s="28"/>
+      <c r="Q115" s="28"/>
+      <c r="R115" s="28"/>
+      <c r="S115" s="28"/>
+      <c r="T115" s="28"/>
+      <c r="U115" s="28"/>
+      <c r="V115" s="28"/>
+      <c r="W115" s="28"/>
+      <c r="X115" s="28"/>
+      <c r="Y115" s="28"/>
+      <c r="Z115" s="28"/>
+      <c r="AA115" s="28"/>
+      <c r="AB115" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="116">
+      <c r="A116" s="28"/>
+      <c r="B116" s="28"/>
+      <c r="C116" s="28"/>
+      <c r="D116" s="28"/>
+      <c r="E116" s="28"/>
+      <c r="F116" s="28"/>
+      <c r="G116" s="28"/>
+      <c r="H116" s="28"/>
+      <c r="I116" s="28"/>
+      <c r="J116" s="28"/>
+      <c r="K116" s="28"/>
+      <c r="L116" s="28"/>
+      <c r="M116" s="28"/>
+      <c r="N116" s="28"/>
+      <c r="O116" s="28"/>
+      <c r="P116" s="28"/>
+      <c r="Q116" s="28"/>
+      <c r="R116" s="28"/>
+      <c r="S116" s="28"/>
+      <c r="T116" s="28"/>
+      <c r="U116" s="28"/>
+      <c r="V116" s="28"/>
+      <c r="W116" s="28"/>
+      <c r="X116" s="28"/>
+      <c r="Y116" s="28"/>
+      <c r="Z116" s="28"/>
+      <c r="AA116" s="28"/>
+      <c r="AB116" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="117">
+      <c r="A117" s="28"/>
+      <c r="B117" s="28"/>
+      <c r="C117" s="28"/>
+      <c r="D117" s="28"/>
+      <c r="E117" s="28"/>
+      <c r="F117" s="28"/>
+      <c r="G117" s="28"/>
+      <c r="H117" s="28"/>
+      <c r="I117" s="28"/>
+      <c r="J117" s="28"/>
+      <c r="K117" s="28"/>
+      <c r="L117" s="28"/>
+      <c r="M117" s="28"/>
+      <c r="N117" s="28"/>
+      <c r="O117" s="28"/>
+      <c r="P117" s="28"/>
+      <c r="Q117" s="28"/>
+      <c r="R117" s="28"/>
+      <c r="S117" s="28"/>
+      <c r="T117" s="28"/>
+      <c r="U117" s="28"/>
+      <c r="V117" s="28"/>
+      <c r="W117" s="28"/>
+      <c r="X117" s="28"/>
+      <c r="Y117" s="28"/>
+      <c r="Z117" s="28"/>
+      <c r="AA117" s="28"/>
+      <c r="AB117" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="118">
+      <c r="A118" s="28"/>
+      <c r="B118" s="28"/>
+      <c r="C118" s="28"/>
+      <c r="D118" s="28"/>
+      <c r="E118" s="28"/>
+      <c r="F118" s="28"/>
+      <c r="G118" s="28"/>
+      <c r="H118" s="28"/>
+      <c r="I118" s="28"/>
+      <c r="J118" s="28"/>
+      <c r="K118" s="28"/>
+      <c r="L118" s="28"/>
+      <c r="M118" s="28"/>
+      <c r="N118" s="28"/>
+      <c r="O118" s="28"/>
+      <c r="P118" s="28"/>
+      <c r="Q118" s="28"/>
+      <c r="R118" s="28"/>
+      <c r="S118" s="28"/>
+      <c r="T118" s="28"/>
+      <c r="U118" s="28"/>
+      <c r="V118" s="28"/>
+      <c r="W118" s="28"/>
+      <c r="X118" s="28"/>
+      <c r="Y118" s="28"/>
+      <c r="Z118" s="28"/>
+      <c r="AA118" s="28"/>
+      <c r="AB118" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="119">
+      <c r="A119" s="28"/>
+      <c r="B119" s="28"/>
+      <c r="C119" s="28"/>
+      <c r="D119" s="28"/>
+      <c r="E119" s="28"/>
+      <c r="F119" s="28"/>
+      <c r="G119" s="28"/>
+      <c r="H119" s="28"/>
+      <c r="I119" s="28"/>
+      <c r="J119" s="28"/>
+      <c r="K119" s="28"/>
+      <c r="L119" s="28"/>
+      <c r="M119" s="28"/>
+      <c r="N119" s="28"/>
+      <c r="O119" s="28"/>
+      <c r="P119" s="28"/>
+      <c r="Q119" s="28"/>
+      <c r="R119" s="28"/>
+      <c r="S119" s="28"/>
+      <c r="T119" s="28"/>
+      <c r="U119" s="28"/>
+      <c r="V119" s="28"/>
+      <c r="W119" s="28"/>
+      <c r="X119" s="28"/>
+      <c r="Y119" s="28"/>
+      <c r="Z119" s="28"/>
+      <c r="AA119" s="28"/>
+      <c r="AB119" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="120">
+      <c r="A120" s="28"/>
+      <c r="B120" s="28"/>
+      <c r="C120" s="28"/>
+      <c r="D120" s="28"/>
+      <c r="E120" s="28"/>
+      <c r="F120" s="28"/>
+      <c r="G120" s="28"/>
+      <c r="H120" s="28"/>
+      <c r="I120" s="28"/>
+      <c r="J120" s="28"/>
+      <c r="K120" s="28"/>
+      <c r="L120" s="28"/>
+      <c r="M120" s="28"/>
+      <c r="N120" s="28"/>
+      <c r="O120" s="28"/>
+      <c r="P120" s="28"/>
+      <c r="Q120" s="28"/>
+      <c r="R120" s="28"/>
+      <c r="S120" s="28"/>
+      <c r="T120" s="28"/>
+      <c r="U120" s="28"/>
+      <c r="V120" s="28"/>
+      <c r="W120" s="28"/>
+      <c r="X120" s="28"/>
+      <c r="Y120" s="28"/>
+      <c r="Z120" s="28"/>
+      <c r="AA120" s="28"/>
+      <c r="AB120" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="121">
+      <c r="A121" s="28"/>
+      <c r="B121" s="28"/>
+      <c r="C121" s="28"/>
+      <c r="D121" s="28"/>
+      <c r="E121" s="28"/>
+      <c r="F121" s="28"/>
+      <c r="G121" s="28"/>
+      <c r="H121" s="28"/>
+      <c r="I121" s="28"/>
+      <c r="J121" s="28"/>
+      <c r="K121" s="28"/>
+      <c r="L121" s="28"/>
+      <c r="M121" s="28"/>
+      <c r="N121" s="28"/>
+      <c r="O121" s="28"/>
+      <c r="P121" s="28"/>
+      <c r="Q121" s="28"/>
+      <c r="R121" s="28"/>
+      <c r="S121" s="28"/>
+      <c r="T121" s="28"/>
+      <c r="U121" s="28"/>
+      <c r="V121" s="28"/>
+      <c r="W121" s="28"/>
+      <c r="X121" s="28"/>
+      <c r="Y121" s="28"/>
+      <c r="Z121" s="28"/>
+      <c r="AA121" s="28"/>
+      <c r="AB121" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="122">
+      <c r="A122" s="28"/>
+      <c r="B122" s="28"/>
+      <c r="C122" s="28"/>
+      <c r="D122" s="28"/>
+      <c r="E122" s="28"/>
+      <c r="F122" s="28"/>
+      <c r="G122" s="28"/>
+      <c r="H122" s="28"/>
+      <c r="I122" s="28"/>
+      <c r="J122" s="28"/>
+      <c r="K122" s="28"/>
+      <c r="L122" s="28"/>
+      <c r="M122" s="28"/>
+      <c r="N122" s="28"/>
+      <c r="O122" s="28"/>
+      <c r="P122" s="28"/>
+      <c r="Q122" s="28"/>
+      <c r="R122" s="28"/>
+      <c r="S122" s="28"/>
+      <c r="T122" s="28"/>
+      <c r="U122" s="28"/>
+      <c r="V122" s="28"/>
+      <c r="W122" s="28"/>
+      <c r="X122" s="28"/>
+      <c r="Y122" s="28"/>
+      <c r="Z122" s="28"/>
+      <c r="AA122" s="28"/>
+      <c r="AB122" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="123">
+      <c r="A123" s="28"/>
+      <c r="B123" s="28"/>
+      <c r="C123" s="28"/>
+      <c r="D123" s="28"/>
+      <c r="E123" s="28"/>
+      <c r="F123" s="28"/>
+      <c r="G123" s="28"/>
+      <c r="H123" s="28"/>
+      <c r="I123" s="28"/>
+      <c r="J123" s="28"/>
+      <c r="K123" s="28"/>
+      <c r="L123" s="28"/>
+      <c r="M123" s="28"/>
+      <c r="N123" s="28"/>
+      <c r="O123" s="28"/>
+      <c r="P123" s="28"/>
+      <c r="Q123" s="28"/>
+      <c r="R123" s="28"/>
+      <c r="S123" s="28"/>
+      <c r="T123" s="28"/>
+      <c r="U123" s="28"/>
+      <c r="V123" s="28"/>
+      <c r="W123" s="28"/>
+      <c r="X123" s="28"/>
+      <c r="Y123" s="28"/>
+      <c r="Z123" s="28"/>
+      <c r="AA123" s="28"/>
+      <c r="AB123" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="124">
+      <c r="A124" s="28"/>
+      <c r="B124" s="28"/>
+      <c r="C124" s="28"/>
+      <c r="D124" s="28"/>
+      <c r="E124" s="28"/>
+      <c r="F124" s="28"/>
+      <c r="G124" s="28"/>
+      <c r="H124" s="28"/>
+      <c r="I124" s="28"/>
+      <c r="J124" s="28"/>
+      <c r="K124" s="28"/>
+      <c r="L124" s="28"/>
+      <c r="M124" s="28"/>
+      <c r="N124" s="28"/>
+      <c r="O124" s="28"/>
+      <c r="P124" s="28"/>
+      <c r="Q124" s="28"/>
+      <c r="R124" s="28"/>
+      <c r="S124" s="28"/>
+      <c r="T124" s="28"/>
+      <c r="U124" s="28"/>
+      <c r="V124" s="28"/>
+      <c r="W124" s="28"/>
+      <c r="X124" s="28"/>
+      <c r="Y124" s="28"/>
+      <c r="Z124" s="28"/>
+      <c r="AA124" s="28"/>
+      <c r="AB124" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="125">
+      <c r="A125" s="28"/>
+      <c r="B125" s="28"/>
+      <c r="C125" s="28"/>
+      <c r="D125" s="28"/>
+      <c r="E125" s="28"/>
+      <c r="F125" s="28"/>
+      <c r="G125" s="28"/>
+      <c r="H125" s="28"/>
+      <c r="I125" s="28"/>
+      <c r="J125" s="28"/>
+      <c r="K125" s="28"/>
+      <c r="L125" s="28"/>
+      <c r="M125" s="28"/>
+      <c r="N125" s="28"/>
+      <c r="O125" s="28"/>
+      <c r="P125" s="28"/>
+      <c r="Q125" s="28"/>
+      <c r="R125" s="28"/>
+      <c r="S125" s="28"/>
+      <c r="T125" s="28"/>
+      <c r="U125" s="28"/>
+      <c r="V125" s="28"/>
+      <c r="W125" s="28"/>
+      <c r="X125" s="28"/>
+      <c r="Y125" s="28"/>
+      <c r="Z125" s="28"/>
+      <c r="AA125" s="28"/>
+      <c r="AB125" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="126">
+      <c r="A126" s="28"/>
+      <c r="B126" s="28"/>
+      <c r="C126" s="28"/>
+      <c r="D126" s="28"/>
+      <c r="E126" s="28"/>
+      <c r="F126" s="28"/>
+      <c r="G126" s="28"/>
+      <c r="H126" s="28"/>
+      <c r="I126" s="28"/>
+      <c r="J126" s="28"/>
+      <c r="K126" s="28"/>
+      <c r="L126" s="28"/>
+      <c r="M126" s="28"/>
+      <c r="N126" s="28"/>
+      <c r="O126" s="28"/>
+      <c r="P126" s="28"/>
+      <c r="Q126" s="28"/>
+      <c r="R126" s="28"/>
+      <c r="S126" s="28"/>
+      <c r="T126" s="28"/>
+      <c r="U126" s="28"/>
+      <c r="V126" s="28"/>
+      <c r="W126" s="28"/>
+      <c r="X126" s="28"/>
+      <c r="Y126" s="28"/>
+      <c r="Z126" s="28"/>
+      <c r="AA126" s="28"/>
+      <c r="AB126" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="127">
+      <c r="A127" s="28"/>
+      <c r="B127" s="28"/>
+      <c r="C127" s="28"/>
+      <c r="D127" s="28"/>
+      <c r="E127" s="28"/>
+      <c r="F127" s="28"/>
+      <c r="G127" s="28"/>
+      <c r="H127" s="28"/>
+      <c r="I127" s="28"/>
+      <c r="J127" s="28"/>
+      <c r="K127" s="28"/>
+      <c r="L127" s="28"/>
+      <c r="M127" s="28"/>
+      <c r="N127" s="28"/>
+      <c r="O127" s="28"/>
+      <c r="P127" s="28"/>
+      <c r="Q127" s="28"/>
+      <c r="R127" s="28"/>
+      <c r="S127" s="28"/>
+      <c r="T127" s="28"/>
+      <c r="U127" s="28"/>
+      <c r="V127" s="28"/>
+      <c r="W127" s="28"/>
+      <c r="X127" s="28"/>
+      <c r="Y127" s="28"/>
+      <c r="Z127" s="28"/>
+      <c r="AA127" s="28"/>
+      <c r="AB127" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="128">
+      <c r="A128" s="28"/>
+      <c r="B128" s="28"/>
+      <c r="C128" s="28"/>
+      <c r="D128" s="28"/>
+      <c r="E128" s="28"/>
+      <c r="F128" s="28"/>
+      <c r="G128" s="28"/>
+      <c r="H128" s="28"/>
+      <c r="I128" s="28"/>
+      <c r="J128" s="28"/>
+      <c r="K128" s="28"/>
+      <c r="L128" s="28"/>
+      <c r="M128" s="28"/>
+      <c r="N128" s="28"/>
+      <c r="O128" s="28"/>
+      <c r="P128" s="28"/>
+      <c r="Q128" s="28"/>
+      <c r="R128" s="28"/>
+      <c r="S128" s="28"/>
+      <c r="T128" s="28"/>
+      <c r="U128" s="28"/>
+      <c r="V128" s="28"/>
+      <c r="W128" s="28"/>
+      <c r="X128" s="28"/>
+      <c r="Y128" s="28"/>
+      <c r="Z128" s="28"/>
+      <c r="AA128" s="28"/>
+      <c r="AB128" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="129">
+      <c r="A129" s="28"/>
+      <c r="B129" s="28"/>
+      <c r="C129" s="28"/>
+      <c r="D129" s="28"/>
+      <c r="E129" s="28"/>
+      <c r="F129" s="28"/>
+      <c r="G129" s="28"/>
+      <c r="H129" s="28"/>
+      <c r="I129" s="28"/>
+      <c r="J129" s="28"/>
+      <c r="K129" s="28"/>
+      <c r="L129" s="28"/>
+      <c r="M129" s="28"/>
+      <c r="N129" s="28"/>
+      <c r="O129" s="28"/>
+      <c r="P129" s="28"/>
+      <c r="Q129" s="28"/>
+      <c r="R129" s="28"/>
+      <c r="S129" s="28"/>
+      <c r="T129" s="28"/>
+      <c r="U129" s="28"/>
+      <c r="V129" s="28"/>
+      <c r="W129" s="28"/>
+      <c r="X129" s="28"/>
+      <c r="Y129" s="28"/>
+      <c r="Z129" s="28"/>
+      <c r="AA129" s="28"/>
+      <c r="AB129" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="130">
+      <c r="A130" s="28"/>
+      <c r="B130" s="28"/>
+      <c r="C130" s="28"/>
+      <c r="D130" s="28"/>
+      <c r="E130" s="28"/>
+      <c r="F130" s="28"/>
+      <c r="G130" s="28"/>
+      <c r="H130" s="28"/>
+      <c r="I130" s="28"/>
+      <c r="J130" s="28"/>
+      <c r="K130" s="28"/>
+      <c r="L130" s="28"/>
+      <c r="M130" s="28"/>
+      <c r="N130" s="28"/>
+      <c r="O130" s="28"/>
+      <c r="P130" s="28"/>
+      <c r="Q130" s="28"/>
+      <c r="R130" s="28"/>
+      <c r="S130" s="28"/>
+      <c r="T130" s="28"/>
+      <c r="U130" s="28"/>
+      <c r="V130" s="28"/>
+      <c r="W130" s="28"/>
+      <c r="X130" s="28"/>
+      <c r="Y130" s="28"/>
+      <c r="Z130" s="28"/>
+      <c r="AA130" s="28"/>
+      <c r="AB130" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="131">
+      <c r="A131" s="28"/>
+      <c r="B131" s="28"/>
+      <c r="C131" s="28"/>
+      <c r="D131" s="28"/>
+      <c r="E131" s="28"/>
+      <c r="F131" s="28"/>
+      <c r="G131" s="28"/>
+      <c r="H131" s="28"/>
+      <c r="I131" s="28"/>
+      <c r="J131" s="28"/>
+      <c r="K131" s="28"/>
+      <c r="L131" s="28"/>
+      <c r="M131" s="28"/>
+      <c r="N131" s="28"/>
+      <c r="O131" s="28"/>
+      <c r="P131" s="28"/>
+      <c r="Q131" s="28"/>
+      <c r="R131" s="28"/>
+      <c r="S131" s="28"/>
+      <c r="T131" s="28"/>
+      <c r="U131" s="28"/>
+      <c r="V131" s="28"/>
+      <c r="W131" s="28"/>
+      <c r="X131" s="28"/>
+      <c r="Y131" s="28"/>
+      <c r="Z131" s="28"/>
+      <c r="AA131" s="28"/>
+      <c r="AB131" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="132">
+      <c r="A132" s="28"/>
+      <c r="B132" s="28"/>
+      <c r="C132" s="28"/>
+      <c r="D132" s="28"/>
+      <c r="E132" s="28"/>
+      <c r="F132" s="28"/>
+      <c r="G132" s="28"/>
+      <c r="H132" s="28"/>
+      <c r="I132" s="28"/>
+      <c r="J132" s="28"/>
+      <c r="K132" s="28"/>
+      <c r="L132" s="28"/>
+      <c r="M132" s="28"/>
+      <c r="N132" s="28"/>
+      <c r="O132" s="28"/>
+      <c r="P132" s="28"/>
+      <c r="Q132" s="28"/>
+      <c r="R132" s="28"/>
+      <c r="S132" s="28"/>
+      <c r="T132" s="28"/>
+      <c r="U132" s="28"/>
+      <c r="V132" s="28"/>
+      <c r="W132" s="28"/>
+      <c r="X132" s="28"/>
+      <c r="Y132" s="28"/>
+      <c r="Z132" s="28"/>
+      <c r="AA132" s="28"/>
+      <c r="AB132" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="133">
+      <c r="A133" s="28"/>
+      <c r="B133" s="28"/>
+      <c r="C133" s="28"/>
+      <c r="D133" s="28"/>
+      <c r="E133" s="28"/>
+      <c r="F133" s="28"/>
+      <c r="G133" s="28"/>
+      <c r="H133" s="28"/>
+      <c r="I133" s="28"/>
+      <c r="J133" s="28"/>
+      <c r="K133" s="28"/>
+      <c r="L133" s="28"/>
+      <c r="M133" s="28"/>
+      <c r="N133" s="28"/>
+      <c r="O133" s="28"/>
+      <c r="P133" s="28"/>
+      <c r="Q133" s="28"/>
+      <c r="R133" s="28"/>
+      <c r="S133" s="28"/>
+      <c r="T133" s="28"/>
+      <c r="U133" s="28"/>
+      <c r="V133" s="28"/>
+      <c r="W133" s="28"/>
+      <c r="X133" s="28"/>
+      <c r="Y133" s="28"/>
+      <c r="Z133" s="28"/>
+      <c r="AA133" s="28"/>
+      <c r="AB133" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="134">
+      <c r="A134" s="28"/>
+      <c r="B134" s="28"/>
+      <c r="C134" s="28"/>
+      <c r="D134" s="28"/>
+      <c r="E134" s="28"/>
+      <c r="F134" s="28"/>
+      <c r="G134" s="28"/>
+      <c r="H134" s="28"/>
+      <c r="I134" s="28"/>
+      <c r="J134" s="28"/>
+      <c r="K134" s="28"/>
+      <c r="L134" s="28"/>
+      <c r="M134" s="28"/>
+      <c r="N134" s="28"/>
+      <c r="O134" s="28"/>
+      <c r="P134" s="28"/>
+      <c r="Q134" s="28"/>
+      <c r="R134" s="28"/>
+      <c r="S134" s="28"/>
+      <c r="T134" s="28"/>
+      <c r="U134" s="28"/>
+      <c r="V134" s="28"/>
+      <c r="W134" s="28"/>
+      <c r="X134" s="28"/>
+      <c r="Y134" s="28"/>
+      <c r="Z134" s="28"/>
+      <c r="AA134" s="28"/>
+      <c r="AB134" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="135">
+      <c r="A135" s="28"/>
+      <c r="B135" s="28"/>
+      <c r="C135" s="28"/>
+      <c r="D135" s="28"/>
+      <c r="E135" s="28"/>
+      <c r="F135" s="28"/>
+      <c r="G135" s="28"/>
+      <c r="H135" s="28"/>
+      <c r="I135" s="28"/>
+      <c r="J135" s="28"/>
+      <c r="K135" s="28"/>
+      <c r="L135" s="28"/>
+      <c r="M135" s="28"/>
+      <c r="N135" s="28"/>
+      <c r="O135" s="28"/>
+      <c r="P135" s="28"/>
+      <c r="Q135" s="28"/>
+      <c r="R135" s="28"/>
+      <c r="S135" s="28"/>
+      <c r="T135" s="28"/>
+      <c r="U135" s="28"/>
+      <c r="V135" s="28"/>
+      <c r="W135" s="28"/>
+      <c r="X135" s="28"/>
+      <c r="Y135" s="28"/>
+      <c r="Z135" s="28"/>
+      <c r="AA135" s="28"/>
+      <c r="AB135" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="136">
+      <c r="A136" s="28"/>
+      <c r="B136" s="28"/>
+      <c r="C136" s="28"/>
+      <c r="D136" s="28"/>
+      <c r="E136" s="28"/>
+      <c r="F136" s="28"/>
+      <c r="G136" s="28"/>
+      <c r="H136" s="28"/>
+      <c r="I136" s="28"/>
+      <c r="J136" s="28"/>
+      <c r="K136" s="28"/>
+      <c r="L136" s="28"/>
+      <c r="M136" s="28"/>
+      <c r="N136" s="28"/>
+      <c r="O136" s="28"/>
+      <c r="P136" s="28"/>
+      <c r="Q136" s="28"/>
+      <c r="R136" s="28"/>
+      <c r="S136" s="28"/>
+      <c r="T136" s="28"/>
+      <c r="U136" s="28"/>
+      <c r="V136" s="28"/>
+      <c r="W136" s="28"/>
+      <c r="X136" s="28"/>
+      <c r="Y136" s="28"/>
+      <c r="Z136" s="28"/>
+      <c r="AA136" s="28"/>
+      <c r="AB136" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="137">
+      <c r="A137" s="28"/>
+      <c r="B137" s="28"/>
+      <c r="C137" s="28"/>
+      <c r="D137" s="28"/>
+      <c r="E137" s="28"/>
+      <c r="F137" s="28"/>
+      <c r="G137" s="28"/>
+      <c r="H137" s="28"/>
+      <c r="I137" s="28"/>
+      <c r="J137" s="28"/>
+      <c r="K137" s="28"/>
+      <c r="L137" s="28"/>
+      <c r="M137" s="28"/>
+      <c r="N137" s="28"/>
+      <c r="O137" s="28"/>
+      <c r="P137" s="28"/>
+      <c r="Q137" s="28"/>
+      <c r="R137" s="28"/>
+      <c r="S137" s="28"/>
+      <c r="T137" s="28"/>
+      <c r="U137" s="28"/>
+      <c r="V137" s="28"/>
+      <c r="W137" s="28"/>
+      <c r="X137" s="28"/>
+      <c r="Y137" s="28"/>
+      <c r="Z137" s="28"/>
+      <c r="AA137" s="28"/>
+      <c r="AB137" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="138">
+      <c r="A138" s="28"/>
+      <c r="B138" s="28"/>
+      <c r="C138" s="28"/>
+      <c r="D138" s="28"/>
+      <c r="E138" s="28"/>
+      <c r="F138" s="28"/>
+      <c r="G138" s="28"/>
+      <c r="H138" s="28"/>
+      <c r="I138" s="28"/>
+      <c r="J138" s="28"/>
+      <c r="K138" s="28"/>
+      <c r="L138" s="28"/>
+      <c r="M138" s="28"/>
+      <c r="N138" s="28"/>
+      <c r="O138" s="28"/>
+      <c r="P138" s="28"/>
+      <c r="Q138" s="28"/>
+      <c r="R138" s="28"/>
+      <c r="S138" s="28"/>
+      <c r="T138" s="28"/>
+      <c r="U138" s="28"/>
+      <c r="V138" s="28"/>
+      <c r="W138" s="28"/>
+      <c r="X138" s="28"/>
+      <c r="Y138" s="28"/>
+      <c r="Z138" s="28"/>
+      <c r="AA138" s="28"/>
+      <c r="AB138" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="139">
+      <c r="A139" s="28"/>
+      <c r="B139" s="28"/>
+      <c r="C139" s="28"/>
+      <c r="D139" s="28"/>
+      <c r="E139" s="28"/>
+      <c r="F139" s="28"/>
+      <c r="G139" s="28"/>
+      <c r="H139" s="28"/>
+      <c r="I139" s="28"/>
+      <c r="J139" s="28"/>
+      <c r="K139" s="28"/>
+      <c r="L139" s="28"/>
+      <c r="M139" s="28"/>
+      <c r="N139" s="28"/>
+      <c r="O139" s="28"/>
+      <c r="P139" s="28"/>
+      <c r="Q139" s="28"/>
+      <c r="R139" s="28"/>
+      <c r="S139" s="28"/>
+      <c r="T139" s="28"/>
+      <c r="U139" s="28"/>
+      <c r="V139" s="28"/>
+      <c r="W139" s="28"/>
+      <c r="X139" s="28"/>
+      <c r="Y139" s="28"/>
+      <c r="Z139" s="28"/>
+      <c r="AA139" s="28"/>
+      <c r="AB139" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="140">
+      <c r="A140" s="28"/>
+      <c r="B140" s="28"/>
+      <c r="C140" s="28"/>
+      <c r="D140" s="28"/>
+      <c r="E140" s="28"/>
+      <c r="F140" s="28"/>
+      <c r="G140" s="28"/>
+      <c r="H140" s="28"/>
+      <c r="I140" s="28"/>
+      <c r="J140" s="28"/>
+      <c r="K140" s="28"/>
+      <c r="L140" s="28"/>
+      <c r="M140" s="28"/>
+      <c r="N140" s="28"/>
+      <c r="O140" s="28"/>
+      <c r="P140" s="28"/>
+      <c r="Q140" s="28"/>
+      <c r="R140" s="28"/>
+      <c r="S140" s="28"/>
+      <c r="T140" s="28"/>
+      <c r="U140" s="28"/>
+      <c r="V140" s="28"/>
+      <c r="W140" s="28"/>
+      <c r="X140" s="28"/>
+      <c r="Y140" s="28"/>
+      <c r="Z140" s="28"/>
+      <c r="AA140" s="28"/>
+      <c r="AB140" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="141">
+      <c r="A141" s="28"/>
+      <c r="B141" s="28"/>
+      <c r="C141" s="28"/>
+      <c r="D141" s="28"/>
+      <c r="E141" s="28"/>
+      <c r="F141" s="28"/>
+      <c r="G141" s="28"/>
+      <c r="H141" s="28"/>
+      <c r="I141" s="28"/>
+      <c r="J141" s="28"/>
+      <c r="K141" s="28"/>
+      <c r="L141" s="28"/>
+      <c r="M141" s="28"/>
+      <c r="N141" s="28"/>
+      <c r="O141" s="28"/>
+      <c r="P141" s="28"/>
+      <c r="Q141" s="28"/>
+      <c r="R141" s="28"/>
+      <c r="S141" s="28"/>
+      <c r="T141" s="28"/>
+      <c r="U141" s="28"/>
+      <c r="V141" s="28"/>
+      <c r="W141" s="28"/>
+      <c r="X141" s="28"/>
+      <c r="Y141" s="28"/>
+      <c r="Z141" s="28"/>
+      <c r="AA141" s="28"/>
+      <c r="AB141" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="142">
+      <c r="A142" s="28"/>
+      <c r="B142" s="28"/>
+      <c r="C142" s="28"/>
+      <c r="D142" s="28"/>
+      <c r="E142" s="28"/>
+      <c r="F142" s="28"/>
+      <c r="G142" s="28"/>
+      <c r="H142" s="28"/>
+      <c r="I142" s="28"/>
+      <c r="J142" s="28"/>
+      <c r="K142" s="28"/>
+      <c r="L142" s="28"/>
+      <c r="M142" s="28"/>
+      <c r="N142" s="28"/>
+      <c r="O142" s="28"/>
+      <c r="P142" s="28"/>
+      <c r="Q142" s="28"/>
+      <c r="R142" s="28"/>
+      <c r="S142" s="28"/>
+      <c r="T142" s="28"/>
+      <c r="U142" s="28"/>
+      <c r="V142" s="28"/>
+      <c r="W142" s="28"/>
+      <c r="X142" s="28"/>
+      <c r="Y142" s="28"/>
+      <c r="Z142" s="28"/>
+      <c r="AA142" s="28"/>
+      <c r="AB142" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="143">
+      <c r="A143" s="28"/>
+      <c r="B143" s="28"/>
+      <c r="C143" s="28"/>
+      <c r="D143" s="28"/>
+      <c r="E143" s="28"/>
+      <c r="F143" s="28"/>
+      <c r="G143" s="28"/>
+      <c r="H143" s="28"/>
+      <c r="I143" s="28"/>
+      <c r="J143" s="28"/>
+      <c r="K143" s="28"/>
+      <c r="L143" s="28"/>
+      <c r="M143" s="28"/>
+      <c r="N143" s="28"/>
+      <c r="O143" s="28"/>
+      <c r="P143" s="28"/>
+      <c r="Q143" s="28"/>
+      <c r="R143" s="28"/>
+      <c r="S143" s="28"/>
+      <c r="T143" s="28"/>
+      <c r="U143" s="28"/>
+      <c r="V143" s="28"/>
+      <c r="W143" s="28"/>
+      <c r="X143" s="28"/>
+      <c r="Y143" s="28"/>
+      <c r="Z143" s="28"/>
+      <c r="AA143" s="28"/>
+      <c r="AB143" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="144">
+      <c r="A144" s="28"/>
+      <c r="B144" s="28"/>
+      <c r="C144" s="28"/>
+      <c r="D144" s="28"/>
+      <c r="E144" s="28"/>
+      <c r="F144" s="28"/>
+      <c r="G144" s="28"/>
+      <c r="H144" s="28"/>
+      <c r="I144" s="28"/>
+      <c r="J144" s="28"/>
+      <c r="K144" s="28"/>
+      <c r="L144" s="28"/>
+      <c r="M144" s="28"/>
+      <c r="N144" s="28"/>
+      <c r="O144" s="28"/>
+      <c r="P144" s="28"/>
+      <c r="Q144" s="28"/>
+      <c r="R144" s="28"/>
+      <c r="S144" s="28"/>
+      <c r="T144" s="28"/>
+      <c r="U144" s="28"/>
+      <c r="V144" s="28"/>
+      <c r="W144" s="28"/>
+      <c r="X144" s="28"/>
+      <c r="Y144" s="28"/>
+      <c r="Z144" s="28"/>
+      <c r="AA144" s="28"/>
+      <c r="AB144" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="145">
+      <c r="A145" s="28"/>
+      <c r="B145" s="28"/>
+      <c r="C145" s="28"/>
+      <c r="D145" s="28"/>
+      <c r="E145" s="28"/>
+      <c r="F145" s="28"/>
+      <c r="G145" s="28"/>
+      <c r="H145" s="28"/>
+      <c r="I145" s="28"/>
+      <c r="J145" s="28"/>
+      <c r="K145" s="28"/>
+      <c r="L145" s="28"/>
+      <c r="M145" s="28"/>
+      <c r="N145" s="28"/>
+      <c r="O145" s="28"/>
+      <c r="P145" s="28"/>
+      <c r="Q145" s="28"/>
+      <c r="R145" s="28"/>
+      <c r="S145" s="28"/>
+      <c r="T145" s="28"/>
+      <c r="U145" s="28"/>
+      <c r="V145" s="28"/>
+      <c r="W145" s="28"/>
+      <c r="X145" s="28"/>
+      <c r="Y145" s="28"/>
+      <c r="Z145" s="28"/>
+      <c r="AA145" s="28"/>
+      <c r="AB145" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="146">
+      <c r="A146" s="28"/>
+      <c r="B146" s="28"/>
+      <c r="C146" s="28"/>
+      <c r="D146" s="28"/>
+      <c r="E146" s="28"/>
+      <c r="F146" s="28"/>
+      <c r="G146" s="28"/>
+      <c r="H146" s="28"/>
+      <c r="I146" s="28"/>
+      <c r="J146" s="28"/>
+      <c r="K146" s="28"/>
+      <c r="L146" s="28"/>
+      <c r="M146" s="28"/>
+      <c r="N146" s="28"/>
+      <c r="O146" s="28"/>
+      <c r="P146" s="28"/>
+      <c r="Q146" s="28"/>
+      <c r="R146" s="28"/>
+      <c r="S146" s="28"/>
+      <c r="T146" s="28"/>
+      <c r="U146" s="28"/>
+      <c r="V146" s="28"/>
+      <c r="W146" s="28"/>
+      <c r="X146" s="28"/>
+      <c r="Y146" s="28"/>
+      <c r="Z146" s="28"/>
+      <c r="AA146" s="28"/>
+      <c r="AB146" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="147">
+      <c r="A147" s="28"/>
+      <c r="B147" s="28"/>
+      <c r="C147" s="28"/>
+      <c r="D147" s="28"/>
+      <c r="E147" s="28"/>
+      <c r="F147" s="28"/>
+      <c r="G147" s="28"/>
+      <c r="H147" s="28"/>
+      <c r="I147" s="28"/>
+      <c r="J147" s="28"/>
+      <c r="K147" s="28"/>
+      <c r="L147" s="28"/>
+      <c r="M147" s="28"/>
+      <c r="N147" s="28"/>
+      <c r="O147" s="28"/>
+      <c r="P147" s="28"/>
+      <c r="Q147" s="28"/>
+      <c r="R147" s="28"/>
+      <c r="S147" s="28"/>
+      <c r="T147" s="28"/>
+      <c r="U147" s="28"/>
+      <c r="V147" s="28"/>
+      <c r="W147" s="28"/>
+      <c r="X147" s="28"/>
+      <c r="Y147" s="28"/>
+      <c r="Z147" s="28"/>
+      <c r="AA147" s="28"/>
+      <c r="AB147" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="148">
+      <c r="A148" s="28"/>
+      <c r="B148" s="28"/>
+      <c r="C148" s="28"/>
+      <c r="D148" s="28"/>
+      <c r="E148" s="28"/>
+      <c r="F148" s="28"/>
+      <c r="G148" s="28"/>
+      <c r="H148" s="28"/>
+      <c r="I148" s="28"/>
+      <c r="J148" s="28"/>
+      <c r="K148" s="28"/>
+      <c r="L148" s="28"/>
+      <c r="M148" s="28"/>
+      <c r="N148" s="28"/>
+      <c r="O148" s="28"/>
+      <c r="P148" s="28"/>
+      <c r="Q148" s="28"/>
+      <c r="R148" s="28"/>
+      <c r="S148" s="28"/>
+      <c r="T148" s="28"/>
+      <c r="U148" s="28"/>
+      <c r="V148" s="28"/>
+      <c r="W148" s="28"/>
+      <c r="X148" s="28"/>
+      <c r="Y148" s="28"/>
+      <c r="Z148" s="28"/>
+      <c r="AA148" s="28"/>
+      <c r="AB148" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="149">
+      <c r="A149" s="28"/>
+      <c r="B149" s="28"/>
+      <c r="C149" s="28"/>
+      <c r="D149" s="28"/>
+      <c r="E149" s="28"/>
+      <c r="F149" s="28"/>
+      <c r="G149" s="28"/>
+      <c r="H149" s="28"/>
+      <c r="I149" s="28"/>
+      <c r="J149" s="28"/>
+      <c r="K149" s="28"/>
+      <c r="L149" s="28"/>
+      <c r="M149" s="28"/>
+      <c r="N149" s="28"/>
+      <c r="O149" s="28"/>
+      <c r="P149" s="28"/>
+      <c r="Q149" s="28"/>
+      <c r="R149" s="28"/>
+      <c r="S149" s="28"/>
+      <c r="T149" s="28"/>
+      <c r="U149" s="28"/>
+      <c r="V149" s="28"/>
+      <c r="W149" s="28"/>
+      <c r="X149" s="28"/>
+      <c r="Y149" s="28"/>
+      <c r="Z149" s="28"/>
+      <c r="AA149" s="28"/>
+      <c r="AB149" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="150">
+      <c r="A150" s="28"/>
+      <c r="B150" s="28"/>
+      <c r="C150" s="28"/>
+      <c r="D150" s="28"/>
+      <c r="E150" s="28"/>
+      <c r="F150" s="28"/>
+      <c r="G150" s="28"/>
+      <c r="H150" s="28"/>
+      <c r="I150" s="28"/>
+      <c r="J150" s="28"/>
+      <c r="K150" s="28"/>
+      <c r="L150" s="28"/>
+      <c r="M150" s="28"/>
+      <c r="N150" s="28"/>
+      <c r="O150" s="28"/>
+      <c r="P150" s="28"/>
+      <c r="Q150" s="28"/>
+      <c r="R150" s="28"/>
+      <c r="S150" s="28"/>
+      <c r="T150" s="28"/>
+      <c r="U150" s="28"/>
+      <c r="V150" s="28"/>
+      <c r="W150" s="28"/>
+      <c r="X150" s="28"/>
+      <c r="Y150" s="28"/>
+      <c r="Z150" s="28"/>
+      <c r="AA150" s="28"/>
+      <c r="AB150" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="151">
+      <c r="A151" s="28"/>
+      <c r="B151" s="28"/>
+      <c r="C151" s="28"/>
+      <c r="D151" s="28"/>
+      <c r="E151" s="28"/>
+      <c r="F151" s="28"/>
+      <c r="G151" s="28"/>
+      <c r="H151" s="28"/>
+      <c r="I151" s="28"/>
+      <c r="J151" s="28"/>
+      <c r="K151" s="28"/>
+      <c r="L151" s="28"/>
+      <c r="M151" s="28"/>
+      <c r="N151" s="28"/>
+      <c r="O151" s="28"/>
+      <c r="P151" s="28"/>
+      <c r="Q151" s="28"/>
+      <c r="R151" s="28"/>
+      <c r="S151" s="28"/>
+      <c r="T151" s="28"/>
+      <c r="U151" s="28"/>
+      <c r="V151" s="28"/>
+      <c r="W151" s="28"/>
+      <c r="X151" s="28"/>
+      <c r="Y151" s="28"/>
+      <c r="Z151" s="28"/>
+      <c r="AA151" s="28"/>
+      <c r="AB151" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="152">
+      <c r="A152" s="28"/>
+      <c r="B152" s="28"/>
+      <c r="C152" s="28"/>
+      <c r="D152" s="28"/>
+      <c r="E152" s="28"/>
+      <c r="F152" s="28"/>
+      <c r="G152" s="28"/>
+      <c r="H152" s="28"/>
+      <c r="I152" s="28"/>
+      <c r="J152" s="28"/>
+      <c r="K152" s="28"/>
+      <c r="L152" s="28"/>
+      <c r="M152" s="28"/>
+      <c r="N152" s="28"/>
+      <c r="O152" s="28"/>
+      <c r="P152" s="28"/>
+      <c r="Q152" s="28"/>
+      <c r="R152" s="28"/>
+      <c r="S152" s="28"/>
+      <c r="T152" s="28"/>
+      <c r="U152" s="28"/>
+      <c r="V152" s="28"/>
+      <c r="W152" s="28"/>
+      <c r="X152" s="28"/>
+      <c r="Y152" s="28"/>
+      <c r="Z152" s="28"/>
+      <c r="AA152" s="28"/>
+      <c r="AB152" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="153">
+      <c r="A153" s="28"/>
+      <c r="B153" s="28"/>
+      <c r="C153" s="28"/>
+      <c r="D153" s="28"/>
+      <c r="E153" s="28"/>
+      <c r="F153" s="28"/>
+      <c r="G153" s="28"/>
+      <c r="H153" s="28"/>
+      <c r="I153" s="28"/>
+      <c r="J153" s="28"/>
+      <c r="K153" s="28"/>
+      <c r="L153" s="28"/>
+      <c r="M153" s="28"/>
+      <c r="N153" s="28"/>
+      <c r="O153" s="28"/>
+      <c r="P153" s="28"/>
+      <c r="Q153" s="28"/>
+      <c r="R153" s="28"/>
+      <c r="S153" s="28"/>
+      <c r="T153" s="28"/>
+      <c r="U153" s="28"/>
+      <c r="V153" s="28"/>
+      <c r="W153" s="28"/>
+      <c r="X153" s="28"/>
+      <c r="Y153" s="28"/>
+      <c r="Z153" s="28"/>
+      <c r="AA153" s="28"/>
+      <c r="AB153" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="154">
+      <c r="A154" s="28"/>
+      <c r="B154" s="28"/>
+      <c r="C154" s="28"/>
+      <c r="D154" s="28"/>
+      <c r="E154" s="28"/>
+      <c r="F154" s="28"/>
+      <c r="G154" s="28"/>
+      <c r="H154" s="28"/>
+      <c r="I154" s="28"/>
+      <c r="J154" s="28"/>
+      <c r="K154" s="28"/>
+      <c r="L154" s="28"/>
+      <c r="M154" s="28"/>
+      <c r="N154" s="28"/>
+      <c r="O154" s="28"/>
+      <c r="P154" s="28"/>
+      <c r="Q154" s="28"/>
+      <c r="R154" s="28"/>
+      <c r="S154" s="28"/>
+      <c r="T154" s="28"/>
+      <c r="U154" s="28"/>
+      <c r="V154" s="28"/>
+      <c r="W154" s="28"/>
+      <c r="X154" s="28"/>
+      <c r="Y154" s="28"/>
+      <c r="Z154" s="28"/>
+      <c r="AA154" s="28"/>
+      <c r="AB154" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="155">
+      <c r="A155" s="28"/>
+      <c r="B155" s="28"/>
+      <c r="C155" s="28"/>
+      <c r="D155" s="28"/>
+      <c r="E155" s="28"/>
+      <c r="F155" s="28"/>
+      <c r="G155" s="28"/>
+      <c r="H155" s="28"/>
+      <c r="I155" s="28"/>
+      <c r="J155" s="28"/>
+      <c r="K155" s="28"/>
+      <c r="L155" s="28"/>
+      <c r="M155" s="28"/>
+      <c r="N155" s="28"/>
+      <c r="O155" s="28"/>
+      <c r="P155" s="28"/>
+      <c r="Q155" s="28"/>
+      <c r="R155" s="28"/>
+      <c r="S155" s="28"/>
+      <c r="T155" s="28"/>
+      <c r="U155" s="28"/>
+      <c r="V155" s="28"/>
+      <c r="W155" s="28"/>
+      <c r="X155" s="28"/>
+      <c r="Y155" s="28"/>
+      <c r="Z155" s="28"/>
+      <c r="AA155" s="28"/>
+      <c r="AB155" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="156">
+      <c r="A156" s="28"/>
+      <c r="B156" s="28"/>
+      <c r="C156" s="28"/>
+      <c r="D156" s="28"/>
+      <c r="E156" s="28"/>
+      <c r="F156" s="28"/>
+      <c r="G156" s="28"/>
+      <c r="H156" s="28"/>
+      <c r="I156" s="28"/>
+      <c r="J156" s="28"/>
+      <c r="K156" s="28"/>
+      <c r="L156" s="28"/>
+      <c r="M156" s="28"/>
+      <c r="N156" s="28"/>
+      <c r="O156" s="28"/>
+      <c r="P156" s="28"/>
+      <c r="Q156" s="28"/>
+      <c r="R156" s="28"/>
+      <c r="S156" s="28"/>
+      <c r="T156" s="28"/>
+      <c r="U156" s="28"/>
+      <c r="V156" s="28"/>
+      <c r="W156" s="28"/>
+      <c r="X156" s="28"/>
+      <c r="Y156" s="28"/>
+      <c r="Z156" s="28"/>
+      <c r="AA156" s="28"/>
+      <c r="AB156" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="157">
+      <c r="A157" s="28"/>
+      <c r="B157" s="28"/>
+      <c r="C157" s="28"/>
+      <c r="D157" s="28"/>
+      <c r="E157" s="28"/>
+      <c r="F157" s="28"/>
+      <c r="G157" s="28"/>
+      <c r="H157" s="28"/>
+      <c r="I157" s="28"/>
+      <c r="J157" s="28"/>
+      <c r="K157" s="28"/>
+      <c r="L157" s="28"/>
+      <c r="M157" s="28"/>
+      <c r="N157" s="28"/>
+      <c r="O157" s="28"/>
+      <c r="P157" s="28"/>
+      <c r="Q157" s="28"/>
+      <c r="R157" s="28"/>
+      <c r="S157" s="28"/>
+      <c r="T157" s="28"/>
+      <c r="U157" s="28"/>
+      <c r="V157" s="28"/>
+      <c r="W157" s="28"/>
+      <c r="X157" s="28"/>
+      <c r="Y157" s="28"/>
+      <c r="Z157" s="28"/>
+      <c r="AA157" s="28"/>
+      <c r="AB157" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="158">
+      <c r="A158" s="28"/>
+      <c r="B158" s="28"/>
+      <c r="C158" s="28"/>
+      <c r="D158" s="28"/>
+      <c r="E158" s="28"/>
+      <c r="F158" s="28"/>
+      <c r="G158" s="28"/>
+      <c r="H158" s="28"/>
+      <c r="I158" s="28"/>
+      <c r="J158" s="28"/>
+      <c r="K158" s="28"/>
+      <c r="L158" s="28"/>
+      <c r="M158" s="28"/>
+      <c r="N158" s="28"/>
+      <c r="O158" s="28"/>
+      <c r="P158" s="28"/>
+      <c r="Q158" s="28"/>
+      <c r="R158" s="28"/>
+      <c r="S158" s="28"/>
+      <c r="T158" s="28"/>
+      <c r="U158" s="28"/>
+      <c r="V158" s="28"/>
+      <c r="W158" s="28"/>
+      <c r="X158" s="28"/>
+      <c r="Y158" s="28"/>
+      <c r="Z158" s="28"/>
+      <c r="AA158" s="28"/>
+      <c r="AB158" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="159">
+      <c r="A159" s="28"/>
+      <c r="B159" s="28"/>
+      <c r="C159" s="28"/>
+      <c r="D159" s="28"/>
+      <c r="E159" s="28"/>
+      <c r="F159" s="28"/>
+      <c r="G159" s="28"/>
+      <c r="H159" s="28"/>
+      <c r="I159" s="28"/>
+      <c r="J159" s="28"/>
+      <c r="K159" s="28"/>
+      <c r="L159" s="28"/>
+      <c r="M159" s="28"/>
+      <c r="N159" s="28"/>
+      <c r="O159" s="28"/>
+      <c r="P159" s="28"/>
+      <c r="Q159" s="28"/>
+      <c r="R159" s="28"/>
+      <c r="S159" s="28"/>
+      <c r="T159" s="28"/>
+      <c r="U159" s="28"/>
+      <c r="V159" s="28"/>
+      <c r="W159" s="28"/>
+      <c r="X159" s="28"/>
+      <c r="Y159" s="28"/>
+      <c r="Z159" s="28"/>
+      <c r="AA159" s="28"/>
+      <c r="AB159" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="160">
+      <c r="A160" s="28"/>
+      <c r="B160" s="28"/>
+      <c r="C160" s="28"/>
+      <c r="D160" s="28"/>
+      <c r="E160" s="28"/>
+      <c r="F160" s="28"/>
+      <c r="G160" s="28"/>
+      <c r="H160" s="28"/>
+      <c r="I160" s="28"/>
+      <c r="J160" s="28"/>
+      <c r="K160" s="28"/>
+      <c r="L160" s="28"/>
+      <c r="M160" s="28"/>
+      <c r="N160" s="28"/>
+      <c r="O160" s="28"/>
+      <c r="P160" s="28"/>
+      <c r="Q160" s="28"/>
+      <c r="R160" s="28"/>
+      <c r="S160" s="28"/>
+      <c r="T160" s="28"/>
+      <c r="U160" s="28"/>
+      <c r="V160" s="28"/>
+      <c r="W160" s="28"/>
+      <c r="X160" s="28"/>
+      <c r="Y160" s="28"/>
+      <c r="Z160" s="28"/>
+      <c r="AA160" s="28"/>
+      <c r="AB160" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="161">
+      <c r="A161" s="28"/>
+      <c r="B161" s="28"/>
+      <c r="C161" s="28"/>
+      <c r="D161" s="28"/>
+      <c r="E161" s="28"/>
+      <c r="F161" s="28"/>
+      <c r="G161" s="28"/>
+      <c r="H161" s="28"/>
+      <c r="I161" s="28"/>
+      <c r="J161" s="28"/>
+      <c r="K161" s="28"/>
+      <c r="L161" s="28"/>
+      <c r="M161" s="28"/>
+      <c r="N161" s="28"/>
+      <c r="O161" s="28"/>
+      <c r="P161" s="28"/>
+      <c r="Q161" s="28"/>
+      <c r="R161" s="28"/>
+      <c r="S161" s="28"/>
+      <c r="T161" s="28"/>
+      <c r="U161" s="28"/>
+      <c r="V161" s="28"/>
+      <c r="W161" s="28"/>
+      <c r="X161" s="28"/>
+      <c r="Y161" s="28"/>
+      <c r="Z161" s="28"/>
+      <c r="AA161" s="28"/>
+      <c r="AB161" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="162">
+      <c r="A162" s="28"/>
+      <c r="B162" s="28"/>
+      <c r="C162" s="28"/>
+      <c r="D162" s="28"/>
+      <c r="E162" s="28"/>
+      <c r="F162" s="28"/>
+      <c r="G162" s="28"/>
+      <c r="H162" s="28"/>
+      <c r="I162" s="28"/>
+      <c r="J162" s="28"/>
+      <c r="K162" s="28"/>
+      <c r="L162" s="28"/>
+      <c r="M162" s="28"/>
+      <c r="N162" s="28"/>
+      <c r="O162" s="28"/>
+      <c r="P162" s="28"/>
+      <c r="Q162" s="28"/>
+      <c r="R162" s="28"/>
+      <c r="S162" s="28"/>
+      <c r="T162" s="28"/>
+      <c r="U162" s="28"/>
+      <c r="V162" s="28"/>
+      <c r="W162" s="28"/>
+      <c r="X162" s="28"/>
+      <c r="Y162" s="28"/>
+      <c r="Z162" s="28"/>
+      <c r="AA162" s="28"/>
+      <c r="AB162" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="163">
+      <c r="A163" s="28"/>
+      <c r="B163" s="28"/>
+      <c r="C163" s="28"/>
+      <c r="D163" s="28"/>
+      <c r="E163" s="28"/>
+      <c r="F163" s="28"/>
+      <c r="G163" s="28"/>
+      <c r="H163" s="28"/>
+      <c r="I163" s="28"/>
+      <c r="J163" s="28"/>
+      <c r="K163" s="28"/>
+      <c r="L163" s="28"/>
+      <c r="M163" s="28"/>
+      <c r="N163" s="28"/>
+      <c r="O163" s="28"/>
+      <c r="P163" s="28"/>
+      <c r="Q163" s="28"/>
+      <c r="R163" s="28"/>
+      <c r="S163" s="28"/>
+      <c r="T163" s="28"/>
+      <c r="U163" s="28"/>
+      <c r="V163" s="28"/>
+      <c r="W163" s="28"/>
+      <c r="X163" s="28"/>
+      <c r="Y163" s="28"/>
+      <c r="Z163" s="28"/>
+      <c r="AA163" s="28"/>
+      <c r="AB163" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="164">
+      <c r="A164" s="28"/>
+      <c r="B164" s="28"/>
+      <c r="C164" s="28"/>
+      <c r="D164" s="28"/>
+      <c r="E164" s="28"/>
+      <c r="F164" s="28"/>
+      <c r="G164" s="28"/>
+      <c r="H164" s="28"/>
+      <c r="I164" s="28"/>
+      <c r="J164" s="28"/>
+      <c r="K164" s="28"/>
+      <c r="L164" s="28"/>
+      <c r="M164" s="28"/>
+      <c r="N164" s="28"/>
+      <c r="O164" s="28"/>
+      <c r="P164" s="28"/>
+      <c r="Q164" s="28"/>
+      <c r="R164" s="28"/>
+      <c r="S164" s="28"/>
+      <c r="T164" s="28"/>
+      <c r="U164" s="28"/>
+      <c r="V164" s="28"/>
+      <c r="W164" s="28"/>
+      <c r="X164" s="28"/>
+      <c r="Y164" s="28"/>
+      <c r="Z164" s="28"/>
+      <c r="AA164" s="28"/>
+      <c r="AB164" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="165">
+      <c r="A165" s="28"/>
+      <c r="B165" s="28"/>
+      <c r="C165" s="28"/>
+      <c r="D165" s="28"/>
+      <c r="E165" s="28"/>
+      <c r="F165" s="28"/>
+      <c r="G165" s="28"/>
+      <c r="H165" s="28"/>
+      <c r="I165" s="28"/>
+      <c r="J165" s="28"/>
+      <c r="K165" s="28"/>
+      <c r="L165" s="28"/>
+      <c r="M165" s="28"/>
+      <c r="N165" s="28"/>
+      <c r="O165" s="28"/>
+      <c r="P165" s="28"/>
+      <c r="Q165" s="28"/>
+      <c r="R165" s="28"/>
+      <c r="S165" s="28"/>
+      <c r="T165" s="28"/>
+      <c r="U165" s="28"/>
+      <c r="V165" s="28"/>
+      <c r="W165" s="28"/>
+      <c r="X165" s="28"/>
+      <c r="Y165" s="28"/>
+      <c r="Z165" s="28"/>
+      <c r="AA165" s="28"/>
+      <c r="AB165" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="166">
+      <c r="A166" s="28"/>
+      <c r="B166" s="28"/>
+      <c r="C166" s="28"/>
+      <c r="D166" s="28"/>
+      <c r="E166" s="28"/>
+      <c r="F166" s="28"/>
+      <c r="G166" s="28"/>
+      <c r="H166" s="28"/>
+      <c r="I166" s="28"/>
+      <c r="J166" s="28"/>
+      <c r="K166" s="28"/>
+      <c r="L166" s="28"/>
+      <c r="M166" s="28"/>
+      <c r="N166" s="28"/>
+      <c r="O166" s="28"/>
+      <c r="P166" s="28"/>
+      <c r="Q166" s="28"/>
+      <c r="R166" s="28"/>
+      <c r="S166" s="28"/>
+      <c r="T166" s="28"/>
+      <c r="U166" s="28"/>
+      <c r="V166" s="28"/>
+      <c r="W166" s="28"/>
+      <c r="X166" s="28"/>
+      <c r="Y166" s="28"/>
+      <c r="Z166" s="28"/>
+      <c r="AA166" s="28"/>
+      <c r="AB166" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="167">
+      <c r="A167" s="28"/>
+      <c r="B167" s="28"/>
+      <c r="C167" s="28"/>
+      <c r="D167" s="28"/>
+      <c r="E167" s="28"/>
+      <c r="F167" s="28"/>
+      <c r="G167" s="28"/>
+      <c r="H167" s="28"/>
+      <c r="I167" s="28"/>
+      <c r="J167" s="28"/>
+      <c r="K167" s="28"/>
+      <c r="L167" s="28"/>
+      <c r="M167" s="28"/>
+      <c r="N167" s="28"/>
+      <c r="O167" s="28"/>
+      <c r="P167" s="28"/>
+      <c r="Q167" s="28"/>
+      <c r="R167" s="28"/>
+      <c r="S167" s="28"/>
+      <c r="T167" s="28"/>
+      <c r="U167" s="28"/>
+      <c r="V167" s="28"/>
+      <c r="W167" s="28"/>
+      <c r="X167" s="28"/>
+      <c r="Y167" s="28"/>
+      <c r="Z167" s="28"/>
+      <c r="AA167" s="28"/>
+      <c r="AB167" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="168">
+      <c r="A168" s="28"/>
+      <c r="B168" s="28"/>
+      <c r="C168" s="28"/>
+      <c r="D168" s="28"/>
+      <c r="E168" s="28"/>
+      <c r="F168" s="28"/>
+      <c r="G168" s="28"/>
+      <c r="H168" s="28"/>
+      <c r="I168" s="28"/>
+      <c r="J168" s="28"/>
+      <c r="K168" s="28"/>
+      <c r="L168" s="28"/>
+      <c r="M168" s="28"/>
+      <c r="N168" s="28"/>
+      <c r="O168" s="28"/>
+      <c r="P168" s="28"/>
+      <c r="Q168" s="28"/>
+      <c r="R168" s="28"/>
+      <c r="S168" s="28"/>
+      <c r="T168" s="28"/>
+      <c r="U168" s="28"/>
+      <c r="V168" s="28"/>
+      <c r="W168" s="28"/>
+      <c r="X168" s="28"/>
+      <c r="Y168" s="28"/>
+      <c r="Z168" s="28"/>
+      <c r="AA168" s="28"/>
+      <c r="AB168" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="169">
+      <c r="A169" s="28"/>
+      <c r="B169" s="28"/>
+      <c r="C169" s="28"/>
+      <c r="D169" s="28"/>
+      <c r="E169" s="28"/>
+      <c r="F169" s="28"/>
+      <c r="G169" s="28"/>
+      <c r="H169" s="28"/>
+      <c r="I169" s="28"/>
+      <c r="J169" s="28"/>
+      <c r="K169" s="28"/>
+      <c r="L169" s="28"/>
+      <c r="M169" s="28"/>
+      <c r="N169" s="28"/>
+      <c r="O169" s="28"/>
+      <c r="P169" s="28"/>
+      <c r="Q169" s="28"/>
+      <c r="R169" s="28"/>
+      <c r="S169" s="28"/>
+      <c r="T169" s="28"/>
+      <c r="U169" s="28"/>
+      <c r="V169" s="28"/>
+      <c r="W169" s="28"/>
+      <c r="X169" s="28"/>
+      <c r="Y169" s="28"/>
+      <c r="Z169" s="28"/>
+      <c r="AA169" s="28"/>
+      <c r="AB169" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="170">
+      <c r="A170" s="28"/>
+      <c r="B170" s="28"/>
+      <c r="C170" s="28"/>
+      <c r="D170" s="28"/>
+      <c r="E170" s="28"/>
+      <c r="F170" s="28"/>
+      <c r="G170" s="28"/>
+      <c r="H170" s="28"/>
+      <c r="I170" s="28"/>
+      <c r="J170" s="28"/>
+      <c r="K170" s="28"/>
+      <c r="L170" s="28"/>
+      <c r="M170" s="28"/>
+      <c r="N170" s="28"/>
+      <c r="O170" s="28"/>
+      <c r="P170" s="28"/>
+      <c r="Q170" s="28"/>
+      <c r="R170" s="28"/>
+      <c r="S170" s="28"/>
+      <c r="T170" s="28"/>
+      <c r="U170" s="28"/>
+      <c r="V170" s="28"/>
+      <c r="W170" s="28"/>
+      <c r="X170" s="28"/>
+      <c r="Y170" s="28"/>
+      <c r="Z170" s="28"/>
+      <c r="AA170" s="28"/>
+      <c r="AB170" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="171">
+      <c r="A171" s="28"/>
+      <c r="B171" s="28"/>
+      <c r="C171" s="28"/>
+      <c r="D171" s="28"/>
+      <c r="E171" s="28"/>
+      <c r="F171" s="28"/>
+      <c r="G171" s="28"/>
+      <c r="H171" s="28"/>
+      <c r="I171" s="28"/>
+      <c r="J171" s="28"/>
+      <c r="K171" s="28"/>
+      <c r="L171" s="28"/>
+      <c r="M171" s="28"/>
+      <c r="N171" s="28"/>
+      <c r="O171" s="28"/>
+      <c r="P171" s="28"/>
+      <c r="Q171" s="28"/>
+      <c r="R171" s="28"/>
+      <c r="S171" s="28"/>
+      <c r="T171" s="28"/>
+      <c r="U171" s="28"/>
+      <c r="V171" s="28"/>
+      <c r="W171" s="28"/>
+      <c r="X171" s="28"/>
+      <c r="Y171" s="28"/>
+      <c r="Z171" s="28"/>
+      <c r="AA171" s="28"/>
+      <c r="AB171" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="172">
+      <c r="A172" s="28"/>
+      <c r="B172" s="28"/>
+      <c r="C172" s="28"/>
+      <c r="D172" s="28"/>
+      <c r="E172" s="28"/>
+      <c r="F172" s="28"/>
+      <c r="G172" s="28"/>
+      <c r="H172" s="28"/>
+      <c r="I172" s="28"/>
+      <c r="J172" s="28"/>
+      <c r="K172" s="28"/>
+      <c r="L172" s="28"/>
+      <c r="M172" s="28"/>
+      <c r="N172" s="28"/>
+      <c r="O172" s="28"/>
+      <c r="P172" s="28"/>
+      <c r="Q172" s="28"/>
+      <c r="R172" s="28"/>
+      <c r="S172" s="28"/>
+      <c r="T172" s="28"/>
+      <c r="U172" s="28"/>
+      <c r="V172" s="28"/>
+      <c r="W172" s="28"/>
+      <c r="X172" s="28"/>
+      <c r="Y172" s="28"/>
+      <c r="Z172" s="28"/>
+      <c r="AA172" s="28"/>
+      <c r="AB172" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="173">
+      <c r="A173" s="28"/>
+      <c r="B173" s="28"/>
+      <c r="C173" s="28"/>
+      <c r="D173" s="28"/>
+      <c r="E173" s="28"/>
+      <c r="F173" s="28"/>
+      <c r="G173" s="28"/>
+      <c r="H173" s="28"/>
+      <c r="I173" s="28"/>
+      <c r="J173" s="28"/>
+      <c r="K173" s="28"/>
+      <c r="L173" s="28"/>
+      <c r="M173" s="28"/>
+      <c r="N173" s="28"/>
+      <c r="O173" s="28"/>
+      <c r="P173" s="28"/>
+      <c r="Q173" s="28"/>
+      <c r="R173" s="28"/>
+      <c r="S173" s="28"/>
+      <c r="T173" s="28"/>
+      <c r="U173" s="28"/>
+      <c r="V173" s="28"/>
+      <c r="W173" s="28"/>
+      <c r="X173" s="28"/>
+      <c r="Y173" s="28"/>
+      <c r="Z173" s="28"/>
+      <c r="AA173" s="28"/>
+      <c r="AB173" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="174">
+      <c r="A174" s="28"/>
+      <c r="B174" s="28"/>
+      <c r="C174" s="28"/>
+      <c r="D174" s="28"/>
+      <c r="E174" s="28"/>
+      <c r="F174" s="28"/>
+      <c r="G174" s="28"/>
+      <c r="H174" s="28"/>
+      <c r="I174" s="28"/>
+      <c r="J174" s="28"/>
+      <c r="K174" s="28"/>
+      <c r="L174" s="28"/>
+      <c r="M174" s="28"/>
+      <c r="N174" s="28"/>
+      <c r="O174" s="28"/>
+      <c r="P174" s="28"/>
+      <c r="Q174" s="28"/>
+      <c r="R174" s="28"/>
+      <c r="S174" s="28"/>
+      <c r="T174" s="28"/>
+      <c r="U174" s="28"/>
+      <c r="V174" s="28"/>
+      <c r="W174" s="28"/>
+      <c r="X174" s="28"/>
+      <c r="Y174" s="28"/>
+      <c r="Z174" s="28"/>
+      <c r="AA174" s="28"/>
+      <c r="AB174" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="175">
+      <c r="A175" s="28"/>
+      <c r="B175" s="28"/>
+      <c r="C175" s="28"/>
+      <c r="D175" s="28"/>
+      <c r="E175" s="28"/>
+      <c r="F175" s="28"/>
+      <c r="G175" s="28"/>
+      <c r="H175" s="28"/>
+      <c r="I175" s="28"/>
+      <c r="J175" s="28"/>
+      <c r="K175" s="28"/>
+      <c r="L175" s="28"/>
+      <c r="M175" s="28"/>
+      <c r="N175" s="28"/>
+      <c r="O175" s="28"/>
+      <c r="P175" s="28"/>
+      <c r="Q175" s="28"/>
+      <c r="R175" s="28"/>
+      <c r="S175" s="28"/>
+      <c r="T175" s="28"/>
+      <c r="U175" s="28"/>
+      <c r="V175" s="28"/>
+      <c r="W175" s="28"/>
+      <c r="X175" s="28"/>
+      <c r="Y175" s="28"/>
+      <c r="Z175" s="28"/>
+      <c r="AA175" s="28"/>
+      <c r="AB175" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="176">
+      <c r="A176" s="28"/>
+      <c r="B176" s="28"/>
+      <c r="C176" s="28"/>
+      <c r="D176" s="28"/>
+      <c r="E176" s="28"/>
+      <c r="F176" s="28"/>
+      <c r="G176" s="28"/>
+      <c r="H176" s="28"/>
+      <c r="I176" s="28"/>
+      <c r="J176" s="28"/>
+      <c r="K176" s="28"/>
+      <c r="L176" s="28"/>
+      <c r="M176" s="28"/>
+      <c r="N176" s="28"/>
+      <c r="O176" s="28"/>
+      <c r="P176" s="28"/>
+      <c r="Q176" s="28"/>
+      <c r="R176" s="28"/>
+      <c r="S176" s="28"/>
+      <c r="T176" s="28"/>
+      <c r="U176" s="28"/>
+      <c r="V176" s="28"/>
+      <c r="W176" s="28"/>
+      <c r="X176" s="28"/>
+      <c r="Y176" s="28"/>
+      <c r="Z176" s="28"/>
+      <c r="AA176" s="28"/>
+      <c r="AB176" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="177">
+      <c r="A177" s="28"/>
+      <c r="B177" s="28"/>
+      <c r="C177" s="28"/>
+      <c r="D177" s="28"/>
+      <c r="E177" s="28"/>
+      <c r="F177" s="28"/>
+      <c r="G177" s="28"/>
+      <c r="H177" s="28"/>
+      <c r="I177" s="28"/>
+      <c r="J177" s="28"/>
+      <c r="K177" s="28"/>
+      <c r="L177" s="28"/>
+      <c r="M177" s="28"/>
+      <c r="N177" s="28"/>
+      <c r="O177" s="28"/>
+      <c r="P177" s="28"/>
+      <c r="Q177" s="28"/>
+      <c r="R177" s="28"/>
+      <c r="S177" s="28"/>
+      <c r="T177" s="28"/>
+      <c r="U177" s="28"/>
+      <c r="V177" s="28"/>
+      <c r="W177" s="28"/>
+      <c r="X177" s="28"/>
+      <c r="Y177" s="28"/>
+      <c r="Z177" s="28"/>
+      <c r="AA177" s="28"/>
+      <c r="AB177" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="178">
+      <c r="A178" s="28"/>
+      <c r="B178" s="28"/>
+      <c r="C178" s="28"/>
+      <c r="D178" s="28"/>
+      <c r="E178" s="28"/>
+      <c r="F178" s="28"/>
+      <c r="G178" s="28"/>
+      <c r="H178" s="28"/>
+      <c r="I178" s="28"/>
+      <c r="J178" s="28"/>
+      <c r="K178" s="28"/>
+      <c r="L178" s="28"/>
+      <c r="M178" s="28"/>
+      <c r="N178" s="28"/>
+      <c r="O178" s="28"/>
+      <c r="P178" s="28"/>
+      <c r="Q178" s="28"/>
+      <c r="R178" s="28"/>
+      <c r="S178" s="28"/>
+      <c r="T178" s="28"/>
+      <c r="U178" s="28"/>
+      <c r="V178" s="28"/>
+      <c r="W178" s="28"/>
+      <c r="X178" s="28"/>
+      <c r="Y178" s="28"/>
+      <c r="Z178" s="28"/>
+      <c r="AA178" s="28"/>
+      <c r="AB178" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="179">
+      <c r="A179" s="28"/>
+      <c r="B179" s="28"/>
+      <c r="C179" s="28"/>
+      <c r="D179" s="28"/>
+      <c r="E179" s="28"/>
+      <c r="F179" s="28"/>
+      <c r="G179" s="28"/>
+      <c r="H179" s="28"/>
+      <c r="I179" s="28"/>
+      <c r="J179" s="28"/>
+      <c r="K179" s="28"/>
+      <c r="L179" s="28"/>
+      <c r="M179" s="28"/>
+      <c r="N179" s="28"/>
+      <c r="O179" s="28"/>
+      <c r="P179" s="28"/>
+      <c r="Q179" s="28"/>
+      <c r="R179" s="28"/>
+      <c r="S179" s="28"/>
+      <c r="T179" s="28"/>
+      <c r="U179" s="28"/>
+      <c r="V179" s="28"/>
+      <c r="W179" s="28"/>
+      <c r="X179" s="28"/>
+      <c r="Y179" s="28"/>
+      <c r="Z179" s="28"/>
+      <c r="AA179" s="28"/>
+      <c r="AB179" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="180">
+      <c r="A180" s="28"/>
+      <c r="B180" s="28"/>
+      <c r="C180" s="28"/>
+      <c r="D180" s="28"/>
+      <c r="E180" s="28"/>
+      <c r="F180" s="28"/>
+      <c r="G180" s="28"/>
+      <c r="H180" s="28"/>
+      <c r="I180" s="28"/>
+      <c r="J180" s="28"/>
+      <c r="K180" s="28"/>
+      <c r="L180" s="28"/>
+      <c r="M180" s="28"/>
+      <c r="N180" s="28"/>
+      <c r="O180" s="28"/>
+      <c r="P180" s="28"/>
+      <c r="Q180" s="28"/>
+      <c r="R180" s="28"/>
+      <c r="S180" s="28"/>
+      <c r="T180" s="28"/>
+      <c r="U180" s="28"/>
+      <c r="V180" s="28"/>
+      <c r="W180" s="28"/>
+      <c r="X180" s="28"/>
+      <c r="Y180" s="28"/>
+      <c r="Z180" s="28"/>
+      <c r="AA180" s="28"/>
+      <c r="AB180" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="181">
+      <c r="A181" s="28"/>
+      <c r="B181" s="28"/>
+      <c r="C181" s="28"/>
+      <c r="D181" s="28"/>
+      <c r="E181" s="28"/>
+      <c r="F181" s="28"/>
+      <c r="G181" s="28"/>
+      <c r="H181" s="28"/>
+      <c r="I181" s="28"/>
+      <c r="J181" s="28"/>
+      <c r="K181" s="28"/>
+      <c r="L181" s="28"/>
+      <c r="M181" s="28"/>
+      <c r="N181" s="28"/>
+      <c r="O181" s="28"/>
+      <c r="P181" s="28"/>
+      <c r="Q181" s="28"/>
+      <c r="R181" s="28"/>
+      <c r="S181" s="28"/>
+      <c r="T181" s="28"/>
+      <c r="U181" s="28"/>
+      <c r="V181" s="28"/>
+      <c r="W181" s="28"/>
+      <c r="X181" s="28"/>
+      <c r="Y181" s="28"/>
+      <c r="Z181" s="28"/>
+      <c r="AA181" s="28"/>
+      <c r="AB181" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="182">
+      <c r="A182" s="28"/>
+      <c r="B182" s="28"/>
+      <c r="C182" s="28"/>
+      <c r="D182" s="28"/>
+      <c r="E182" s="28"/>
+      <c r="F182" s="28"/>
+      <c r="G182" s="28"/>
+      <c r="H182" s="28"/>
+      <c r="I182" s="28"/>
+      <c r="J182" s="28"/>
+      <c r="K182" s="28"/>
+      <c r="L182" s="28"/>
+      <c r="M182" s="28"/>
+      <c r="N182" s="28"/>
+      <c r="O182" s="28"/>
+      <c r="P182" s="28"/>
+      <c r="Q182" s="28"/>
+      <c r="R182" s="28"/>
+      <c r="S182" s="28"/>
+      <c r="T182" s="28"/>
+      <c r="U182" s="28"/>
+      <c r="V182" s="28"/>
+      <c r="W182" s="28"/>
+      <c r="X182" s="28"/>
+      <c r="Y182" s="28"/>
+      <c r="Z182" s="28"/>
+      <c r="AA182" s="28"/>
+      <c r="AB182" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="183">
+      <c r="A183" s="28"/>
+      <c r="B183" s="28"/>
+      <c r="C183" s="28"/>
+      <c r="D183" s="28"/>
+      <c r="E183" s="28"/>
+      <c r="F183" s="28"/>
+      <c r="G183" s="28"/>
+      <c r="H183" s="28"/>
+      <c r="I183" s="28"/>
+      <c r="J183" s="28"/>
+      <c r="K183" s="28"/>
+      <c r="L183" s="28"/>
+      <c r="M183" s="28"/>
+      <c r="N183" s="28"/>
+      <c r="O183" s="28"/>
+      <c r="P183" s="28"/>
+      <c r="Q183" s="28"/>
+      <c r="R183" s="28"/>
+      <c r="S183" s="28"/>
+      <c r="T183" s="28"/>
+      <c r="U183" s="28"/>
+      <c r="V183" s="28"/>
+      <c r="W183" s="28"/>
+      <c r="X183" s="28"/>
+      <c r="Y183" s="28"/>
+      <c r="Z183" s="28"/>
+      <c r="AA183" s="28"/>
+      <c r="AB183" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="184">
+      <c r="A184" s="28"/>
+      <c r="B184" s="28"/>
+      <c r="C184" s="28"/>
+      <c r="D184" s="28"/>
+      <c r="E184" s="28"/>
+      <c r="F184" s="28"/>
+      <c r="G184" s="28"/>
+      <c r="H184" s="28"/>
+      <c r="I184" s="28"/>
+      <c r="J184" s="28"/>
+      <c r="K184" s="28"/>
+      <c r="L184" s="28"/>
+      <c r="M184" s="28"/>
+      <c r="N184" s="28"/>
+      <c r="O184" s="28"/>
+      <c r="P184" s="28"/>
+      <c r="Q184" s="28"/>
+      <c r="R184" s="28"/>
+      <c r="S184" s="28"/>
+      <c r="T184" s="28"/>
+      <c r="U184" s="28"/>
+      <c r="V184" s="28"/>
+      <c r="W184" s="28"/>
+      <c r="X184" s="28"/>
+      <c r="Y184" s="28"/>
+      <c r="Z184" s="28"/>
+      <c r="AA184" s="28"/>
+      <c r="AB184" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="185">
+      <c r="A185" s="28"/>
+      <c r="B185" s="28"/>
+      <c r="C185" s="28"/>
+      <c r="D185" s="28"/>
+      <c r="E185" s="28"/>
+      <c r="F185" s="28"/>
+      <c r="G185" s="28"/>
+      <c r="H185" s="28"/>
+      <c r="I185" s="28"/>
+      <c r="J185" s="28"/>
+      <c r="K185" s="28"/>
+      <c r="L185" s="28"/>
+      <c r="M185" s="28"/>
+      <c r="N185" s="28"/>
+      <c r="O185" s="28"/>
+      <c r="P185" s="28"/>
+      <c r="Q185" s="28"/>
+      <c r="R185" s="28"/>
+      <c r="S185" s="28"/>
+      <c r="T185" s="28"/>
+      <c r="U185" s="28"/>
+      <c r="V185" s="28"/>
+      <c r="W185" s="28"/>
+      <c r="X185" s="28"/>
+      <c r="Y185" s="28"/>
+      <c r="Z185" s="28"/>
+      <c r="AA185" s="28"/>
+      <c r="AB185" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="186">
+      <c r="A186" s="28"/>
+      <c r="B186" s="28"/>
+      <c r="C186" s="28"/>
+      <c r="D186" s="28"/>
+      <c r="E186" s="28"/>
+      <c r="F186" s="28"/>
+      <c r="G186" s="28"/>
+      <c r="H186" s="28"/>
+      <c r="I186" s="28"/>
+      <c r="J186" s="28"/>
+      <c r="K186" s="28"/>
+      <c r="L186" s="28"/>
+      <c r="M186" s="28"/>
+      <c r="N186" s="28"/>
+      <c r="O186" s="28"/>
+      <c r="P186" s="28"/>
+      <c r="Q186" s="28"/>
+      <c r="R186" s="28"/>
+      <c r="S186" s="28"/>
+      <c r="T186" s="28"/>
+      <c r="U186" s="28"/>
+      <c r="V186" s="28"/>
+      <c r="W186" s="28"/>
+      <c r="X186" s="28"/>
+      <c r="Y186" s="28"/>
+      <c r="Z186" s="28"/>
+      <c r="AA186" s="28"/>
+      <c r="AB186" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="187">
+      <c r="A187" s="28"/>
+      <c r="B187" s="28"/>
+      <c r="C187" s="28"/>
+      <c r="D187" s="28"/>
+      <c r="E187" s="28"/>
+      <c r="F187" s="28"/>
+      <c r="G187" s="28"/>
+      <c r="H187" s="28"/>
+      <c r="I187" s="28"/>
+      <c r="J187" s="28"/>
+      <c r="K187" s="28"/>
+      <c r="L187" s="28"/>
+      <c r="M187" s="28"/>
+      <c r="N187" s="28"/>
+      <c r="O187" s="28"/>
+      <c r="P187" s="28"/>
+      <c r="Q187" s="28"/>
+      <c r="R187" s="28"/>
+      <c r="S187" s="28"/>
+      <c r="T187" s="28"/>
+      <c r="U187" s="28"/>
+      <c r="V187" s="28"/>
+      <c r="W187" s="28"/>
+      <c r="X187" s="28"/>
+      <c r="Y187" s="28"/>
+      <c r="Z187" s="28"/>
+      <c r="AA187" s="28"/>
+      <c r="AB187" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="188">
+      <c r="A188" s="28"/>
+      <c r="B188" s="28"/>
+      <c r="C188" s="28"/>
+      <c r="D188" s="28"/>
+      <c r="E188" s="28"/>
+      <c r="F188" s="28"/>
+      <c r="G188" s="28"/>
+      <c r="H188" s="28"/>
+      <c r="I188" s="28"/>
+      <c r="J188" s="28"/>
+      <c r="K188" s="28"/>
+      <c r="L188" s="28"/>
+      <c r="M188" s="28"/>
+      <c r="N188" s="28"/>
+      <c r="O188" s="28"/>
+      <c r="P188" s="28"/>
+      <c r="Q188" s="28"/>
+      <c r="R188" s="28"/>
+      <c r="S188" s="28"/>
+      <c r="T188" s="28"/>
+      <c r="U188" s="28"/>
+      <c r="V188" s="28"/>
+      <c r="W188" s="28"/>
+      <c r="X188" s="28"/>
+      <c r="Y188" s="28"/>
+      <c r="Z188" s="28"/>
+      <c r="AA188" s="28"/>
+      <c r="AB188" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="189">
+      <c r="A189" s="28"/>
+      <c r="B189" s="28"/>
+      <c r="C189" s="28"/>
+      <c r="D189" s="28"/>
+      <c r="E189" s="28"/>
+      <c r="F189" s="28"/>
+      <c r="G189" s="28"/>
+      <c r="H189" s="28"/>
+      <c r="I189" s="28"/>
+      <c r="J189" s="28"/>
+      <c r="K189" s="28"/>
+      <c r="L189" s="28"/>
+      <c r="M189" s="28"/>
+      <c r="N189" s="28"/>
+      <c r="O189" s="28"/>
+      <c r="P189" s="28"/>
+      <c r="Q189" s="28"/>
+      <c r="R189" s="28"/>
+      <c r="S189" s="28"/>
+      <c r="T189" s="28"/>
+      <c r="U189" s="28"/>
+      <c r="V189" s="28"/>
+      <c r="W189" s="28"/>
+      <c r="X189" s="28"/>
+      <c r="Y189" s="28"/>
+      <c r="Z189" s="28"/>
+      <c r="AA189" s="28"/>
+      <c r="AB189" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="190">
+      <c r="A190" s="28"/>
+      <c r="B190" s="28"/>
+      <c r="C190" s="28"/>
+      <c r="D190" s="28"/>
+      <c r="E190" s="28"/>
+      <c r="F190" s="28"/>
+      <c r="G190" s="28"/>
+      <c r="H190" s="28"/>
+      <c r="I190" s="28"/>
+      <c r="J190" s="28"/>
+      <c r="K190" s="28"/>
+      <c r="L190" s="28"/>
+      <c r="M190" s="28"/>
+      <c r="N190" s="28"/>
+      <c r="O190" s="28"/>
+      <c r="P190" s="28"/>
+      <c r="Q190" s="28"/>
+      <c r="R190" s="28"/>
+      <c r="S190" s="28"/>
+      <c r="T190" s="28"/>
+      <c r="U190" s="28"/>
+      <c r="V190" s="28"/>
+      <c r="W190" s="28"/>
+      <c r="X190" s="28"/>
+      <c r="Y190" s="28"/>
+      <c r="Z190" s="28"/>
+      <c r="AA190" s="28"/>
+      <c r="AB190" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="191">
+      <c r="A191" s="28"/>
+      <c r="B191" s="28"/>
+      <c r="C191" s="28"/>
+      <c r="D191" s="28"/>
+      <c r="E191" s="28"/>
+      <c r="F191" s="28"/>
+      <c r="G191" s="28"/>
+      <c r="H191" s="28"/>
+      <c r="I191" s="28"/>
+      <c r="J191" s="28"/>
+      <c r="K191" s="28"/>
+      <c r="L191" s="28"/>
+      <c r="M191" s="28"/>
+      <c r="N191" s="28"/>
+      <c r="O191" s="28"/>
+      <c r="P191" s="28"/>
+      <c r="Q191" s="28"/>
+      <c r="R191" s="28"/>
+      <c r="S191" s="28"/>
+      <c r="T191" s="28"/>
+      <c r="U191" s="28"/>
+      <c r="V191" s="28"/>
+      <c r="W191" s="28"/>
+      <c r="X191" s="28"/>
+      <c r="Y191" s="28"/>
+      <c r="Z191" s="28"/>
+      <c r="AA191" s="28"/>
+      <c r="AB191" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="192">
+      <c r="A192" s="28"/>
+      <c r="B192" s="28"/>
+      <c r="C192" s="28"/>
+      <c r="D192" s="28"/>
+      <c r="E192" s="28"/>
+      <c r="F192" s="28"/>
+      <c r="G192" s="28"/>
+      <c r="H192" s="28"/>
+      <c r="I192" s="28"/>
+      <c r="J192" s="28"/>
+      <c r="K192" s="28"/>
+      <c r="L192" s="28"/>
+      <c r="M192" s="28"/>
+      <c r="N192" s="28"/>
+      <c r="O192" s="28"/>
+      <c r="P192" s="28"/>
+      <c r="Q192" s="28"/>
+      <c r="R192" s="28"/>
+      <c r="S192" s="28"/>
+      <c r="T192" s="28"/>
+      <c r="U192" s="28"/>
+      <c r="V192" s="28"/>
+      <c r="W192" s="28"/>
+      <c r="X192" s="28"/>
+      <c r="Y192" s="28"/>
+      <c r="Z192" s="28"/>
+      <c r="AA192" s="28"/>
+      <c r="AB192" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="193">
+      <c r="A193" s="28"/>
+      <c r="B193" s="28"/>
+      <c r="C193" s="28"/>
+      <c r="D193" s="28"/>
+      <c r="E193" s="28"/>
+      <c r="F193" s="28"/>
+      <c r="G193" s="28"/>
+      <c r="H193" s="28"/>
+      <c r="I193" s="28"/>
+      <c r="J193" s="28"/>
+      <c r="K193" s="28"/>
+      <c r="L193" s="28"/>
+      <c r="M193" s="28"/>
+      <c r="N193" s="28"/>
+      <c r="O193" s="28"/>
+      <c r="P193" s="28"/>
+      <c r="Q193" s="28"/>
+      <c r="R193" s="28"/>
+      <c r="S193" s="28"/>
+      <c r="T193" s="28"/>
+      <c r="U193" s="28"/>
+      <c r="V193" s="28"/>
+      <c r="W193" s="28"/>
+      <c r="X193" s="28"/>
+      <c r="Y193" s="28"/>
+      <c r="Z193" s="28"/>
+      <c r="AA193" s="28"/>
+      <c r="AB193" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="194">
+      <c r="A194" s="28"/>
+      <c r="B194" s="28"/>
+      <c r="C194" s="28"/>
+      <c r="D194" s="28"/>
+      <c r="E194" s="28"/>
+      <c r="F194" s="28"/>
+      <c r="G194" s="28"/>
+      <c r="H194" s="28"/>
+      <c r="I194" s="28"/>
+      <c r="J194" s="28"/>
+      <c r="K194" s="28"/>
+      <c r="L194" s="28"/>
+      <c r="M194" s="28"/>
+      <c r="N194" s="28"/>
+      <c r="O194" s="28"/>
+      <c r="P194" s="28"/>
+      <c r="Q194" s="28"/>
+      <c r="R194" s="28"/>
+      <c r="S194" s="28"/>
+      <c r="T194" s="28"/>
+      <c r="U194" s="28"/>
+      <c r="V194" s="28"/>
+      <c r="W194" s="28"/>
+      <c r="X194" s="28"/>
+      <c r="Y194" s="28"/>
+      <c r="Z194" s="28"/>
+      <c r="AA194" s="28"/>
+      <c r="AB194" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="195">
+      <c r="A195" s="28"/>
+      <c r="B195" s="28"/>
+      <c r="C195" s="28"/>
+      <c r="D195" s="28"/>
+      <c r="E195" s="28"/>
+      <c r="F195" s="28"/>
+      <c r="G195" s="28"/>
+      <c r="H195" s="28"/>
+      <c r="I195" s="28"/>
+      <c r="J195" s="28"/>
+      <c r="K195" s="28"/>
+      <c r="L195" s="28"/>
+      <c r="M195" s="28"/>
+      <c r="N195" s="28"/>
+      <c r="O195" s="28"/>
+      <c r="P195" s="28"/>
+      <c r="Q195" s="28"/>
+      <c r="R195" s="28"/>
+      <c r="S195" s="28"/>
+      <c r="T195" s="28"/>
+      <c r="U195" s="28"/>
+      <c r="V195" s="28"/>
+      <c r="W195" s="28"/>
+      <c r="X195" s="28"/>
+      <c r="Y195" s="28"/>
+      <c r="Z195" s="28"/>
+      <c r="AA195" s="28"/>
+      <c r="AB195" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="196">
+      <c r="A196" s="28"/>
+      <c r="B196" s="28"/>
+      <c r="C196" s="28"/>
+      <c r="D196" s="28"/>
+      <c r="E196" s="28"/>
+      <c r="F196" s="28"/>
+      <c r="G196" s="28"/>
+      <c r="H196" s="28"/>
+      <c r="I196" s="28"/>
+      <c r="J196" s="28"/>
+      <c r="K196" s="28"/>
+      <c r="L196" s="28"/>
+      <c r="M196" s="28"/>
+      <c r="N196" s="28"/>
+      <c r="O196" s="28"/>
+      <c r="P196" s="28"/>
+      <c r="Q196" s="28"/>
+      <c r="R196" s="28"/>
+      <c r="S196" s="28"/>
+      <c r="T196" s="28"/>
+      <c r="U196" s="28"/>
+      <c r="V196" s="28"/>
+      <c r="W196" s="28"/>
+      <c r="X196" s="28"/>
+      <c r="Y196" s="28"/>
+      <c r="Z196" s="28"/>
+      <c r="AA196" s="28"/>
+      <c r="AB196" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="197">
+      <c r="A197" s="28"/>
+      <c r="B197" s="28"/>
+      <c r="C197" s="28"/>
+      <c r="D197" s="28"/>
+      <c r="E197" s="28"/>
+      <c r="F197" s="28"/>
+      <c r="G197" s="28"/>
+      <c r="H197" s="28"/>
+      <c r="I197" s="28"/>
+      <c r="J197" s="28"/>
+      <c r="K197" s="28"/>
+      <c r="L197" s="28"/>
+      <c r="M197" s="28"/>
+      <c r="N197" s="28"/>
+      <c r="O197" s="28"/>
+      <c r="P197" s="28"/>
+      <c r="Q197" s="28"/>
+      <c r="R197" s="28"/>
+      <c r="S197" s="28"/>
+      <c r="T197" s="28"/>
+      <c r="U197" s="28"/>
+      <c r="V197" s="28"/>
+      <c r="W197" s="28"/>
+      <c r="X197" s="28"/>
+      <c r="Y197" s="28"/>
+      <c r="Z197" s="28"/>
+      <c r="AA197" s="28"/>
+      <c r="AB197" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="198">
+      <c r="A198" s="28"/>
+      <c r="B198" s="28"/>
+      <c r="C198" s="28"/>
+      <c r="D198" s="28"/>
+      <c r="E198" s="28"/>
+      <c r="F198" s="28"/>
+      <c r="G198" s="28"/>
+      <c r="H198" s="28"/>
+      <c r="I198" s="28"/>
+      <c r="J198" s="28"/>
+      <c r="K198" s="28"/>
+      <c r="L198" s="28"/>
+      <c r="M198" s="28"/>
+      <c r="N198" s="28"/>
+      <c r="O198" s="28"/>
+      <c r="P198" s="28"/>
+      <c r="Q198" s="28"/>
+      <c r="R198" s="28"/>
+      <c r="S198" s="28"/>
+      <c r="T198" s="28"/>
+      <c r="U198" s="28"/>
+      <c r="V198" s="28"/>
+      <c r="W198" s="28"/>
+      <c r="X198" s="28"/>
+      <c r="Y198" s="28"/>
+      <c r="Z198" s="28"/>
+      <c r="AA198" s="28"/>
+      <c r="AB198" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="199">
+      <c r="A199" s="28"/>
+      <c r="B199" s="28"/>
+      <c r="C199" s="28"/>
+      <c r="D199" s="28"/>
+      <c r="E199" s="28"/>
+      <c r="F199" s="28"/>
+      <c r="G199" s="28"/>
+      <c r="H199" s="28"/>
+      <c r="I199" s="28"/>
+      <c r="J199" s="28"/>
+      <c r="K199" s="28"/>
+      <c r="L199" s="28"/>
+      <c r="M199" s="28"/>
+      <c r="N199" s="28"/>
+      <c r="O199" s="28"/>
+      <c r="P199" s="28"/>
+      <c r="Q199" s="28"/>
+      <c r="R199" s="28"/>
+      <c r="S199" s="28"/>
+      <c r="T199" s="28"/>
+      <c r="U199" s="28"/>
+      <c r="V199" s="28"/>
+      <c r="W199" s="28"/>
+      <c r="X199" s="28"/>
+      <c r="Y199" s="28"/>
+      <c r="Z199" s="28"/>
+      <c r="AA199" s="28"/>
+      <c r="AB199" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="200">
+      <c r="A200" s="28"/>
+      <c r="B200" s="28"/>
+      <c r="C200" s="28"/>
+      <c r="D200" s="28"/>
+      <c r="E200" s="28"/>
+      <c r="F200" s="28"/>
+      <c r="G200" s="28"/>
+      <c r="H200" s="28"/>
+      <c r="I200" s="28"/>
+      <c r="J200" s="28"/>
+      <c r="K200" s="28"/>
+      <c r="L200" s="28"/>
+      <c r="M200" s="28"/>
+      <c r="N200" s="28"/>
+      <c r="O200" s="28"/>
+      <c r="P200" s="28"/>
+      <c r="Q200" s="28"/>
+      <c r="R200" s="28"/>
+      <c r="S200" s="28"/>
+      <c r="T200" s="28"/>
+      <c r="U200" s="28"/>
+      <c r="V200" s="28"/>
+      <c r="W200" s="28"/>
+      <c r="X200" s="28"/>
+      <c r="Y200" s="28"/>
+      <c r="Z200" s="28"/>
+      <c r="AA200" s="28"/>
+      <c r="AB200" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="201">
+      <c r="A201" s="28"/>
+      <c r="B201" s="28"/>
+      <c r="C201" s="28"/>
+      <c r="D201" s="28"/>
+      <c r="E201" s="28"/>
+      <c r="F201" s="28"/>
+      <c r="G201" s="28"/>
+      <c r="H201" s="28"/>
+      <c r="I201" s="28"/>
+      <c r="J201" s="28"/>
+      <c r="K201" s="28"/>
+      <c r="L201" s="28"/>
+      <c r="M201" s="28"/>
+      <c r="N201" s="28"/>
+      <c r="O201" s="28"/>
+      <c r="P201" s="28"/>
+      <c r="Q201" s="28"/>
+      <c r="R201" s="28"/>
+      <c r="S201" s="28"/>
+      <c r="T201" s="28"/>
+      <c r="U201" s="28"/>
+      <c r="V201" s="28"/>
+      <c r="W201" s="28"/>
+      <c r="X201" s="28"/>
+      <c r="Y201" s="28"/>
+      <c r="Z201" s="28"/>
+      <c r="AA201" s="28"/>
+      <c r="AB201" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="202">
+      <c r="A202" s="28"/>
+      <c r="B202" s="28"/>
+      <c r="C202" s="28"/>
+      <c r="D202" s="28"/>
+      <c r="E202" s="28"/>
+      <c r="F202" s="28"/>
+      <c r="G202" s="28"/>
+      <c r="H202" s="28"/>
+      <c r="I202" s="28"/>
+      <c r="J202" s="28"/>
+      <c r="K202" s="28"/>
+      <c r="L202" s="28"/>
+      <c r="M202" s="28"/>
+      <c r="N202" s="28"/>
+      <c r="O202" s="28"/>
+      <c r="P202" s="28"/>
+      <c r="Q202" s="28"/>
+      <c r="R202" s="28"/>
+      <c r="S202" s="28"/>
+      <c r="T202" s="28"/>
+      <c r="U202" s="28"/>
+      <c r="V202" s="28"/>
+      <c r="W202" s="28"/>
+      <c r="X202" s="28"/>
+      <c r="Y202" s="28"/>
+      <c r="Z202" s="28"/>
+      <c r="AA202" s="28"/>
+      <c r="AB202" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="203">
+      <c r="A203" s="28"/>
+      <c r="B203" s="28"/>
+      <c r="C203" s="28"/>
+      <c r="D203" s="28"/>
+      <c r="E203" s="28"/>
+      <c r="F203" s="28"/>
+      <c r="G203" s="28"/>
+      <c r="H203" s="28"/>
+      <c r="I203" s="28"/>
+      <c r="J203" s="28"/>
+      <c r="K203" s="28"/>
+      <c r="L203" s="28"/>
+      <c r="M203" s="28"/>
+      <c r="N203" s="28"/>
+      <c r="O203" s="28"/>
+      <c r="P203" s="28"/>
+      <c r="Q203" s="28"/>
+      <c r="R203" s="28"/>
+      <c r="S203" s="28"/>
+      <c r="T203" s="28"/>
+      <c r="U203" s="28"/>
+      <c r="V203" s="28"/>
+      <c r="W203" s="28"/>
+      <c r="X203" s="28"/>
+      <c r="Y203" s="28"/>
+      <c r="Z203" s="28"/>
+      <c r="AA203" s="28"/>
+      <c r="AB203" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="204">
+      <c r="A204" s="28"/>
+      <c r="B204" s="28"/>
+      <c r="C204" s="28"/>
+      <c r="D204" s="28"/>
+      <c r="E204" s="28"/>
+      <c r="F204" s="28"/>
+      <c r="G204" s="28"/>
+      <c r="H204" s="28"/>
+      <c r="I204" s="28"/>
+      <c r="J204" s="28"/>
+      <c r="K204" s="28"/>
+      <c r="L204" s="28"/>
+      <c r="M204" s="28"/>
+      <c r="N204" s="28"/>
+      <c r="O204" s="28"/>
+      <c r="P204" s="28"/>
+      <c r="Q204" s="28"/>
+      <c r="R204" s="28"/>
+      <c r="S204" s="28"/>
+      <c r="T204" s="28"/>
+      <c r="U204" s="28"/>
+      <c r="V204" s="28"/>
+      <c r="W204" s="28"/>
+      <c r="X204" s="28"/>
+      <c r="Y204" s="28"/>
+      <c r="Z204" s="28"/>
+      <c r="AA204" s="28"/>
+      <c r="AB204" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="205">
+      <c r="A205" s="28"/>
+      <c r="B205" s="28"/>
+      <c r="C205" s="28"/>
+      <c r="D205" s="28"/>
+      <c r="E205" s="28"/>
+      <c r="F205" s="28"/>
+      <c r="G205" s="28"/>
+      <c r="H205" s="28"/>
+      <c r="I205" s="28"/>
+      <c r="J205" s="28"/>
+      <c r="K205" s="28"/>
+      <c r="L205" s="28"/>
+      <c r="M205" s="28"/>
+      <c r="N205" s="28"/>
+      <c r="O205" s="28"/>
+      <c r="P205" s="28"/>
+      <c r="Q205" s="28"/>
+      <c r="R205" s="28"/>
+      <c r="S205" s="28"/>
+      <c r="T205" s="28"/>
+      <c r="U205" s="28"/>
+      <c r="V205" s="28"/>
+      <c r="W205" s="28"/>
+      <c r="X205" s="28"/>
+      <c r="Y205" s="28"/>
+      <c r="Z205" s="28"/>
+      <c r="AA205" s="28"/>
+      <c r="AB205" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="206">
+      <c r="A206" s="28"/>
+      <c r="B206" s="28"/>
+      <c r="C206" s="28"/>
+      <c r="D206" s="28"/>
+      <c r="E206" s="28"/>
+      <c r="F206" s="28"/>
+      <c r="G206" s="28"/>
+      <c r="H206" s="28"/>
+      <c r="I206" s="28"/>
+      <c r="J206" s="28"/>
+      <c r="K206" s="28"/>
+      <c r="L206" s="28"/>
+      <c r="M206" s="28"/>
+      <c r="N206" s="28"/>
+      <c r="O206" s="28"/>
+      <c r="P206" s="28"/>
+      <c r="Q206" s="28"/>
+      <c r="R206" s="28"/>
+      <c r="S206" s="28"/>
+      <c r="T206" s="28"/>
+      <c r="U206" s="28"/>
+      <c r="V206" s="28"/>
+      <c r="W206" s="28"/>
+      <c r="X206" s="28"/>
+      <c r="Y206" s="28"/>
+      <c r="Z206" s="28"/>
+      <c r="AA206" s="28"/>
+      <c r="AB206" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="207">
+      <c r="A207" s="28"/>
+      <c r="B207" s="28"/>
+      <c r="C207" s="28"/>
+      <c r="D207" s="28"/>
+      <c r="E207" s="28"/>
+      <c r="F207" s="28"/>
+      <c r="G207" s="28"/>
+      <c r="H207" s="28"/>
+      <c r="I207" s="28"/>
+      <c r="J207" s="28"/>
+      <c r="K207" s="28"/>
+      <c r="L207" s="28"/>
+      <c r="M207" s="28"/>
+      <c r="N207" s="28"/>
+      <c r="O207" s="28"/>
+      <c r="P207" s="28"/>
+      <c r="Q207" s="28"/>
+      <c r="R207" s="28"/>
+      <c r="S207" s="28"/>
+      <c r="T207" s="28"/>
+      <c r="U207" s="28"/>
+      <c r="V207" s="28"/>
+      <c r="W207" s="28"/>
+      <c r="X207" s="28"/>
+      <c r="Y207" s="28"/>
+      <c r="Z207" s="28"/>
+      <c r="AA207" s="28"/>
+      <c r="AB207" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="208">
+      <c r="A208" s="28"/>
+      <c r="B208" s="28"/>
+      <c r="C208" s="28"/>
+      <c r="D208" s="28"/>
+      <c r="E208" s="28"/>
+      <c r="F208" s="28"/>
+      <c r="G208" s="28"/>
+      <c r="H208" s="28"/>
+      <c r="I208" s="28"/>
+      <c r="J208" s="28"/>
+      <c r="K208" s="28"/>
+      <c r="L208" s="28"/>
+      <c r="M208" s="28"/>
+      <c r="N208" s="28"/>
+      <c r="O208" s="28"/>
+      <c r="P208" s="28"/>
+      <c r="Q208" s="28"/>
+      <c r="R208" s="28"/>
+      <c r="S208" s="28"/>
+      <c r="T208" s="28"/>
+      <c r="U208" s="28"/>
+      <c r="V208" s="28"/>
+      <c r="W208" s="28"/>
+      <c r="X208" s="28"/>
+      <c r="Y208" s="28"/>
+      <c r="Z208" s="28"/>
+      <c r="AA208" s="28"/>
+      <c r="AB208" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="209">
+      <c r="A209" s="28"/>
+      <c r="B209" s="28"/>
+      <c r="C209" s="28"/>
+      <c r="D209" s="28"/>
+      <c r="E209" s="28"/>
+      <c r="F209" s="28"/>
+      <c r="G209" s="28"/>
+      <c r="H209" s="28"/>
+      <c r="I209" s="28"/>
+      <c r="J209" s="28"/>
+      <c r="K209" s="28"/>
+      <c r="L209" s="28"/>
+      <c r="M209" s="28"/>
+      <c r="N209" s="28"/>
+      <c r="O209" s="28"/>
+      <c r="P209" s="28"/>
+      <c r="Q209" s="28"/>
+      <c r="R209" s="28"/>
+      <c r="S209" s="28"/>
+      <c r="T209" s="28"/>
+      <c r="U209" s="28"/>
+      <c r="V209" s="28"/>
+      <c r="W209" s="28"/>
+      <c r="X209" s="28"/>
+      <c r="Y209" s="28"/>
+      <c r="Z209" s="28"/>
+      <c r="AA209" s="28"/>
+      <c r="AB209" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="210">
+      <c r="A210" s="28"/>
+      <c r="B210" s="28"/>
+      <c r="C210" s="28"/>
+      <c r="D210" s="28"/>
+      <c r="E210" s="28"/>
+      <c r="F210" s="28"/>
+      <c r="G210" s="28"/>
+      <c r="H210" s="28"/>
+      <c r="I210" s="28"/>
+      <c r="J210" s="28"/>
+      <c r="K210" s="28"/>
+      <c r="L210" s="28"/>
+      <c r="M210" s="28"/>
+      <c r="N210" s="28"/>
+      <c r="O210" s="28"/>
+      <c r="P210" s="28"/>
+      <c r="Q210" s="28"/>
+      <c r="R210" s="28"/>
+      <c r="S210" s="28"/>
+      <c r="T210" s="28"/>
+      <c r="U210" s="28"/>
+      <c r="V210" s="28"/>
+      <c r="W210" s="28"/>
+      <c r="X210" s="28"/>
+      <c r="Y210" s="28"/>
+      <c r="Z210" s="28"/>
+      <c r="AA210" s="28"/>
+      <c r="AB210" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="211">
+      <c r="A211" s="28"/>
+      <c r="B211" s="28"/>
+      <c r="C211" s="28"/>
+      <c r="D211" s="28"/>
+      <c r="E211" s="28"/>
+      <c r="F211" s="28"/>
+      <c r="G211" s="28"/>
+      <c r="H211" s="28"/>
+      <c r="I211" s="28"/>
+      <c r="J211" s="28"/>
+      <c r="K211" s="28"/>
+      <c r="L211" s="28"/>
+      <c r="M211" s="28"/>
+      <c r="N211" s="28"/>
+      <c r="O211" s="28"/>
+      <c r="P211" s="28"/>
+      <c r="Q211" s="28"/>
+      <c r="R211" s="28"/>
+      <c r="S211" s="28"/>
+      <c r="T211" s="28"/>
+      <c r="U211" s="28"/>
+      <c r="V211" s="28"/>
+      <c r="W211" s="28"/>
+      <c r="X211" s="28"/>
+      <c r="Y211" s="28"/>
+      <c r="Z211" s="28"/>
+      <c r="AA211" s="28"/>
+      <c r="AB211" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="212">
+      <c r="A212" s="28"/>
+      <c r="B212" s="28"/>
+      <c r="C212" s="28"/>
+      <c r="D212" s="28"/>
+      <c r="E212" s="28"/>
+      <c r="F212" s="28"/>
+      <c r="G212" s="28"/>
+      <c r="H212" s="28"/>
+      <c r="I212" s="28"/>
+      <c r="J212" s="28"/>
+      <c r="K212" s="28"/>
+      <c r="L212" s="28"/>
+      <c r="M212" s="28"/>
+      <c r="N212" s="28"/>
+      <c r="O212" s="28"/>
+      <c r="P212" s="28"/>
+      <c r="Q212" s="28"/>
+      <c r="R212" s="28"/>
+      <c r="S212" s="28"/>
+      <c r="T212" s="28"/>
+      <c r="U212" s="28"/>
+      <c r="V212" s="28"/>
+      <c r="W212" s="28"/>
+      <c r="X212" s="28"/>
+      <c r="Y212" s="28"/>
+      <c r="Z212" s="28"/>
+      <c r="AA212" s="28"/>
+      <c r="AB212" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="213">
+      <c r="A213" s="28"/>
+      <c r="B213" s="28"/>
+      <c r="C213" s="28"/>
+      <c r="D213" s="28"/>
+      <c r="E213" s="28"/>
+      <c r="F213" s="28"/>
+      <c r="G213" s="28"/>
+      <c r="H213" s="28"/>
+      <c r="I213" s="28"/>
+      <c r="J213" s="28"/>
+      <c r="K213" s="28"/>
+      <c r="L213" s="28"/>
+      <c r="M213" s="28"/>
+      <c r="N213" s="28"/>
+      <c r="O213" s="28"/>
+      <c r="P213" s="28"/>
+      <c r="Q213" s="28"/>
+      <c r="R213" s="28"/>
+      <c r="S213" s="28"/>
+      <c r="T213" s="28"/>
+      <c r="U213" s="28"/>
+      <c r="V213" s="28"/>
+      <c r="W213" s="28"/>
+      <c r="X213" s="28"/>
+      <c r="Y213" s="28"/>
+      <c r="Z213" s="28"/>
+      <c r="AA213" s="28"/>
+      <c r="AB213" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="214">
+      <c r="A214" s="28"/>
+      <c r="B214" s="28"/>
+      <c r="C214" s="28"/>
+      <c r="D214" s="28"/>
+      <c r="E214" s="28"/>
+      <c r="F214" s="28"/>
+      <c r="G214" s="28"/>
+      <c r="H214" s="28"/>
+      <c r="I214" s="28"/>
+      <c r="J214" s="28"/>
+      <c r="K214" s="28"/>
+      <c r="L214" s="28"/>
+      <c r="M214" s="28"/>
+      <c r="N214" s="28"/>
+      <c r="O214" s="28"/>
+      <c r="P214" s="28"/>
+      <c r="Q214" s="28"/>
+      <c r="R214" s="28"/>
+      <c r="S214" s="28"/>
+      <c r="T214" s="28"/>
+      <c r="U214" s="28"/>
+      <c r="V214" s="28"/>
+      <c r="W214" s="28"/>
+      <c r="X214" s="28"/>
+      <c r="Y214" s="28"/>
+      <c r="Z214" s="28"/>
+      <c r="AA214" s="28"/>
+      <c r="AB214" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="215">
+      <c r="A215" s="28"/>
+      <c r="B215" s="28"/>
+      <c r="C215" s="28"/>
+      <c r="D215" s="28"/>
+      <c r="E215" s="28"/>
+      <c r="F215" s="28"/>
+      <c r="G215" s="28"/>
+      <c r="H215" s="28"/>
+      <c r="I215" s="28"/>
+      <c r="J215" s="28"/>
+      <c r="K215" s="28"/>
+      <c r="L215" s="28"/>
+      <c r="M215" s="28"/>
+      <c r="N215" s="28"/>
+      <c r="O215" s="28"/>
+      <c r="P215" s="28"/>
+      <c r="Q215" s="28"/>
+      <c r="R215" s="28"/>
+      <c r="S215" s="28"/>
+      <c r="T215" s="28"/>
+      <c r="U215" s="28"/>
+      <c r="V215" s="28"/>
+      <c r="W215" s="28"/>
+      <c r="X215" s="28"/>
+      <c r="Y215" s="28"/>
+      <c r="Z215" s="28"/>
+      <c r="AA215" s="28"/>
+      <c r="AB215" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="216">
+      <c r="A216" s="28"/>
+      <c r="B216" s="28"/>
+      <c r="C216" s="28"/>
+      <c r="D216" s="28"/>
+      <c r="E216" s="28"/>
+      <c r="F216" s="28"/>
+      <c r="G216" s="28"/>
+      <c r="H216" s="28"/>
+      <c r="I216" s="28"/>
+      <c r="J216" s="28"/>
+      <c r="K216" s="28"/>
+      <c r="L216" s="28"/>
+      <c r="M216" s="28"/>
+      <c r="N216" s="28"/>
+      <c r="O216" s="28"/>
+      <c r="P216" s="28"/>
+      <c r="Q216" s="28"/>
+      <c r="R216" s="28"/>
+      <c r="S216" s="28"/>
+      <c r="T216" s="28"/>
+      <c r="U216" s="28"/>
+      <c r="V216" s="28"/>
+      <c r="W216" s="28"/>
+      <c r="X216" s="28"/>
+      <c r="Y216" s="28"/>
+      <c r="Z216" s="28"/>
+      <c r="AA216" s="28"/>
+      <c r="AB216" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="217">
+      <c r="A217" s="28"/>
+      <c r="B217" s="28"/>
+      <c r="C217" s="28"/>
+      <c r="D217" s="28"/>
+      <c r="E217" s="28"/>
+      <c r="F217" s="28"/>
+      <c r="G217" s="28"/>
+      <c r="H217" s="28"/>
+      <c r="I217" s="28"/>
+      <c r="J217" s="28"/>
+      <c r="K217" s="28"/>
+      <c r="L217" s="28"/>
+      <c r="M217" s="28"/>
+      <c r="N217" s="28"/>
+      <c r="O217" s="28"/>
+      <c r="P217" s="28"/>
+      <c r="Q217" s="28"/>
+      <c r="R217" s="28"/>
+      <c r="S217" s="28"/>
+      <c r="T217" s="28"/>
+      <c r="U217" s="28"/>
+      <c r="V217" s="28"/>
+      <c r="W217" s="28"/>
+      <c r="X217" s="28"/>
+      <c r="Y217" s="28"/>
+      <c r="Z217" s="28"/>
+      <c r="AA217" s="28"/>
+      <c r="AB217" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="218">
+      <c r="A218" s="28"/>
+      <c r="B218" s="28"/>
+      <c r="C218" s="28"/>
+      <c r="D218" s="28"/>
+      <c r="E218" s="28"/>
+      <c r="F218" s="28"/>
+      <c r="G218" s="28"/>
+      <c r="H218" s="28"/>
+      <c r="I218" s="28"/>
+      <c r="J218" s="28"/>
+      <c r="K218" s="28"/>
+      <c r="L218" s="28"/>
+      <c r="M218" s="28"/>
+      <c r="N218" s="28"/>
+      <c r="O218" s="28"/>
+      <c r="P218" s="28"/>
+      <c r="Q218" s="28"/>
+      <c r="R218" s="28"/>
+      <c r="S218" s="28"/>
+      <c r="T218" s="28"/>
+      <c r="U218" s="28"/>
+      <c r="V218" s="28"/>
+      <c r="W218" s="28"/>
+      <c r="X218" s="28"/>
+      <c r="Y218" s="28"/>
+      <c r="Z218" s="28"/>
+      <c r="AA218" s="28"/>
+      <c r="AB218" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="219">
+      <c r="A219" s="28"/>
+      <c r="B219" s="28"/>
+      <c r="C219" s="28"/>
+      <c r="D219" s="28"/>
+      <c r="E219" s="28"/>
+      <c r="F219" s="28"/>
+      <c r="G219" s="28"/>
+      <c r="H219" s="28"/>
+      <c r="I219" s="28"/>
+      <c r="J219" s="28"/>
+      <c r="K219" s="28"/>
+      <c r="L219" s="28"/>
+      <c r="M219" s="28"/>
+      <c r="N219" s="28"/>
+      <c r="O219" s="28"/>
+      <c r="P219" s="28"/>
+      <c r="Q219" s="28"/>
+      <c r="R219" s="28"/>
+      <c r="S219" s="28"/>
+      <c r="T219" s="28"/>
+      <c r="U219" s="28"/>
+      <c r="V219" s="28"/>
+      <c r="W219" s="28"/>
+      <c r="X219" s="28"/>
+      <c r="Y219" s="28"/>
+      <c r="Z219" s="28"/>
+      <c r="AA219" s="28"/>
+      <c r="AB219" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="220">
+      <c r="A220" s="28"/>
+      <c r="B220" s="28"/>
+      <c r="C220" s="28"/>
+      <c r="D220" s="28"/>
+      <c r="E220" s="28"/>
+      <c r="F220" s="28"/>
+      <c r="G220" s="28"/>
+      <c r="H220" s="28"/>
+      <c r="I220" s="28"/>
+      <c r="J220" s="28"/>
+      <c r="K220" s="28"/>
+      <c r="L220" s="28"/>
+      <c r="M220" s="28"/>
+      <c r="N220" s="28"/>
+      <c r="O220" s="28"/>
+      <c r="P220" s="28"/>
+      <c r="Q220" s="28"/>
+      <c r="R220" s="28"/>
+      <c r="S220" s="28"/>
+      <c r="T220" s="28"/>
+      <c r="U220" s="28"/>
+      <c r="V220" s="28"/>
+      <c r="W220" s="28"/>
+      <c r="X220" s="28"/>
+      <c r="Y220" s="28"/>
+      <c r="Z220" s="28"/>
+      <c r="AA220" s="28"/>
+      <c r="AB220" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="221">
+      <c r="A221" s="28"/>
+      <c r="B221" s="28"/>
+      <c r="C221" s="28"/>
+      <c r="D221" s="28"/>
+      <c r="E221" s="28"/>
+      <c r="F221" s="28"/>
+      <c r="G221" s="28"/>
+      <c r="H221" s="28"/>
+      <c r="I221" s="28"/>
+      <c r="J221" s="28"/>
+      <c r="K221" s="28"/>
+      <c r="L221" s="28"/>
+      <c r="M221" s="28"/>
+      <c r="N221" s="28"/>
+      <c r="O221" s="28"/>
+      <c r="P221" s="28"/>
+      <c r="Q221" s="28"/>
+      <c r="R221" s="28"/>
+      <c r="S221" s="28"/>
+      <c r="T221" s="28"/>
+      <c r="U221" s="28"/>
+      <c r="V221" s="28"/>
+      <c r="W221" s="28"/>
+      <c r="X221" s="28"/>
+      <c r="Y221" s="28"/>
+      <c r="Z221" s="28"/>
+      <c r="AA221" s="28"/>
+      <c r="AB221" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="222">
+      <c r="A222" s="28"/>
+      <c r="B222" s="28"/>
+      <c r="C222" s="28"/>
+      <c r="D222" s="28"/>
+      <c r="E222" s="28"/>
+      <c r="F222" s="28"/>
+      <c r="G222" s="28"/>
+      <c r="H222" s="28"/>
+      <c r="I222" s="28"/>
+      <c r="J222" s="28"/>
+      <c r="K222" s="28"/>
+      <c r="L222" s="28"/>
+      <c r="M222" s="28"/>
+      <c r="N222" s="28"/>
+      <c r="O222" s="28"/>
+      <c r="P222" s="28"/>
+      <c r="Q222" s="28"/>
+      <c r="R222" s="28"/>
+      <c r="S222" s="28"/>
+      <c r="T222" s="28"/>
+      <c r="U222" s="28"/>
+      <c r="V222" s="28"/>
+      <c r="W222" s="28"/>
+      <c r="X222" s="28"/>
+      <c r="Y222" s="28"/>
+      <c r="Z222" s="28"/>
+      <c r="AA222" s="28"/>
+      <c r="AB222" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="223">
+      <c r="A223" s="28"/>
+      <c r="B223" s="28"/>
+      <c r="C223" s="28"/>
+      <c r="D223" s="28"/>
+      <c r="E223" s="28"/>
+      <c r="F223" s="28"/>
+      <c r="G223" s="28"/>
+      <c r="H223" s="28"/>
+      <c r="I223" s="28"/>
+      <c r="J223" s="28"/>
+      <c r="K223" s="28"/>
+      <c r="L223" s="28"/>
+      <c r="M223" s="28"/>
+      <c r="N223" s="28"/>
+      <c r="O223" s="28"/>
+      <c r="P223" s="28"/>
+      <c r="Q223" s="28"/>
+      <c r="R223" s="28"/>
+      <c r="S223" s="28"/>
+      <c r="T223" s="28"/>
+      <c r="U223" s="28"/>
+      <c r="V223" s="28"/>
+      <c r="W223" s="28"/>
+      <c r="X223" s="28"/>
+      <c r="Y223" s="28"/>
+      <c r="Z223" s="28"/>
+      <c r="AA223" s="28"/>
+      <c r="AB223" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="224">
+      <c r="A224" s="28"/>
+      <c r="B224" s="28"/>
+      <c r="C224" s="28"/>
+      <c r="D224" s="28"/>
+      <c r="E224" s="28"/>
+      <c r="F224" s="28"/>
+      <c r="G224" s="28"/>
+      <c r="H224" s="28"/>
+      <c r="I224" s="28"/>
+      <c r="J224" s="28"/>
+      <c r="K224" s="28"/>
+      <c r="L224" s="28"/>
+      <c r="M224" s="28"/>
+      <c r="N224" s="28"/>
+      <c r="O224" s="28"/>
+      <c r="P224" s="28"/>
+      <c r="Q224" s="28"/>
+      <c r="R224" s="28"/>
+      <c r="S224" s="28"/>
+      <c r="T224" s="28"/>
+      <c r="U224" s="28"/>
+      <c r="V224" s="28"/>
+      <c r="W224" s="28"/>
+      <c r="X224" s="28"/>
+      <c r="Y224" s="28"/>
+      <c r="Z224" s="28"/>
+      <c r="AA224" s="28"/>
+      <c r="AB224" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="225">
+      <c r="A225" s="28"/>
+      <c r="B225" s="28"/>
+      <c r="C225" s="28"/>
+      <c r="D225" s="28"/>
+      <c r="E225" s="28"/>
+      <c r="F225" s="28"/>
+      <c r="G225" s="28"/>
+      <c r="H225" s="28"/>
+      <c r="I225" s="28"/>
+      <c r="J225" s="28"/>
+      <c r="K225" s="28"/>
+      <c r="L225" s="28"/>
+      <c r="M225" s="28"/>
+      <c r="N225" s="28"/>
+      <c r="O225" s="28"/>
+      <c r="P225" s="28"/>
+      <c r="Q225" s="28"/>
+      <c r="R225" s="28"/>
+      <c r="S225" s="28"/>
+      <c r="T225" s="28"/>
+      <c r="U225" s="28"/>
+      <c r="V225" s="28"/>
+      <c r="W225" s="28"/>
+      <c r="X225" s="28"/>
+      <c r="Y225" s="28"/>
+      <c r="Z225" s="28"/>
+      <c r="AA225" s="28"/>
+      <c r="AB225" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="226">
+      <c r="A226" s="28"/>
+      <c r="B226" s="28"/>
+      <c r="C226" s="28"/>
+      <c r="D226" s="28"/>
+      <c r="E226" s="28"/>
+      <c r="F226" s="28"/>
+      <c r="G226" s="28"/>
+      <c r="H226" s="28"/>
+      <c r="I226" s="28"/>
+      <c r="J226" s="28"/>
+      <c r="K226" s="28"/>
+      <c r="L226" s="28"/>
+      <c r="M226" s="28"/>
+      <c r="N226" s="28"/>
+      <c r="O226" s="28"/>
+      <c r="P226" s="28"/>
+      <c r="Q226" s="28"/>
+      <c r="R226" s="28"/>
+      <c r="S226" s="28"/>
+      <c r="T226" s="28"/>
+      <c r="U226" s="28"/>
+      <c r="V226" s="28"/>
+      <c r="W226" s="28"/>
+      <c r="X226" s="28"/>
+      <c r="Y226" s="28"/>
+      <c r="Z226" s="28"/>
+      <c r="AA226" s="28"/>
+      <c r="AB226" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="227">
+      <c r="A227" s="28"/>
+      <c r="B227" s="28"/>
+      <c r="C227" s="28"/>
+      <c r="D227" s="28"/>
+      <c r="E227" s="28"/>
+      <c r="F227" s="28"/>
+      <c r="G227" s="28"/>
+      <c r="H227" s="28"/>
+      <c r="I227" s="28"/>
+      <c r="J227" s="28"/>
+      <c r="K227" s="28"/>
+      <c r="L227" s="28"/>
+      <c r="M227" s="28"/>
+      <c r="N227" s="28"/>
+      <c r="O227" s="28"/>
+      <c r="P227" s="28"/>
+      <c r="Q227" s="28"/>
+      <c r="R227" s="28"/>
+      <c r="S227" s="28"/>
+      <c r="T227" s="28"/>
+      <c r="U227" s="28"/>
+      <c r="V227" s="28"/>
+      <c r="W227" s="28"/>
+      <c r="X227" s="28"/>
+      <c r="Y227" s="28"/>
+      <c r="Z227" s="28"/>
+      <c r="AA227" s="28"/>
+      <c r="AB227" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="228">
+      <c r="A228" s="28"/>
+      <c r="B228" s="28"/>
+      <c r="C228" s="28"/>
+      <c r="D228" s="28"/>
+      <c r="E228" s="28"/>
+      <c r="F228" s="28"/>
+      <c r="G228" s="28"/>
+      <c r="H228" s="28"/>
+      <c r="I228" s="28"/>
+      <c r="J228" s="28"/>
+      <c r="K228" s="28"/>
+      <c r="L228" s="28"/>
+      <c r="M228" s="28"/>
+      <c r="N228" s="28"/>
+      <c r="O228" s="28"/>
+      <c r="P228" s="28"/>
+      <c r="Q228" s="28"/>
+      <c r="R228" s="28"/>
+      <c r="S228" s="28"/>
+      <c r="T228" s="28"/>
+      <c r="U228" s="28"/>
+      <c r="V228" s="28"/>
+      <c r="W228" s="28"/>
+      <c r="X228" s="28"/>
+      <c r="Y228" s="28"/>
+      <c r="Z228" s="28"/>
+      <c r="AA228" s="28"/>
+      <c r="AB228" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="229">
+      <c r="A229" s="28"/>
+      <c r="B229" s="28"/>
+      <c r="C229" s="28"/>
+      <c r="D229" s="28"/>
+      <c r="E229" s="28"/>
+      <c r="F229" s="28"/>
+      <c r="G229" s="28"/>
+      <c r="H229" s="28"/>
+      <c r="I229" s="28"/>
+      <c r="J229" s="28"/>
+      <c r="K229" s="28"/>
+      <c r="L229" s="28"/>
+      <c r="M229" s="28"/>
+      <c r="N229" s="28"/>
+      <c r="O229" s="28"/>
+      <c r="P229" s="28"/>
+      <c r="Q229" s="28"/>
+      <c r="R229" s="28"/>
+      <c r="S229" s="28"/>
+      <c r="T229" s="28"/>
+      <c r="U229" s="28"/>
+      <c r="V229" s="28"/>
+      <c r="W229" s="28"/>
+      <c r="X229" s="28"/>
+      <c r="Y229" s="28"/>
+      <c r="Z229" s="28"/>
+      <c r="AA229" s="28"/>
+      <c r="AB229" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="230">
+      <c r="A230" s="28"/>
+      <c r="B230" s="28"/>
+      <c r="C230" s="28"/>
+      <c r="D230" s="28"/>
+      <c r="E230" s="28"/>
+      <c r="F230" s="28"/>
+      <c r="G230" s="28"/>
+      <c r="H230" s="28"/>
+      <c r="I230" s="28"/>
+      <c r="J230" s="28"/>
+      <c r="K230" s="28"/>
+      <c r="L230" s="28"/>
+      <c r="M230" s="28"/>
+      <c r="N230" s="28"/>
+      <c r="O230" s="28"/>
+      <c r="P230" s="28"/>
+      <c r="Q230" s="28"/>
+      <c r="R230" s="28"/>
+      <c r="S230" s="28"/>
+      <c r="T230" s="28"/>
+      <c r="U230" s="28"/>
+      <c r="V230" s="28"/>
+      <c r="W230" s="28"/>
+      <c r="X230" s="28"/>
+      <c r="Y230" s="28"/>
+      <c r="Z230" s="28"/>
+      <c r="AA230" s="28"/>
+      <c r="AB230" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="231">
+      <c r="A231" s="28"/>
+      <c r="B231" s="28"/>
+      <c r="C231" s="28"/>
+      <c r="D231" s="28"/>
+      <c r="E231" s="28"/>
+      <c r="F231" s="28"/>
+      <c r="G231" s="28"/>
+      <c r="H231" s="28"/>
+      <c r="I231" s="28"/>
+      <c r="J231" s="28"/>
+      <c r="K231" s="28"/>
+      <c r="L231" s="28"/>
+      <c r="M231" s="28"/>
+      <c r="N231" s="28"/>
+      <c r="O231" s="28"/>
+      <c r="P231" s="28"/>
+      <c r="Q231" s="28"/>
+      <c r="R231" s="28"/>
+      <c r="S231" s="28"/>
+      <c r="T231" s="28"/>
+      <c r="U231" s="28"/>
+      <c r="V231" s="28"/>
+      <c r="W231" s="28"/>
+      <c r="X231" s="28"/>
+      <c r="Y231" s="28"/>
+      <c r="Z231" s="28"/>
+      <c r="AA231" s="28"/>
+      <c r="AB231" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="232">
+      <c r="A232" s="28"/>
+      <c r="B232" s="28"/>
+      <c r="C232" s="28"/>
+      <c r="D232" s="28"/>
+      <c r="E232" s="28"/>
+      <c r="F232" s="28"/>
+      <c r="G232" s="28"/>
+      <c r="H232" s="28"/>
+      <c r="I232" s="28"/>
+      <c r="J232" s="28"/>
+      <c r="K232" s="28"/>
+      <c r="L232" s="28"/>
+      <c r="M232" s="28"/>
+      <c r="N232" s="28"/>
+      <c r="O232" s="28"/>
+      <c r="P232" s="28"/>
+      <c r="Q232" s="28"/>
+      <c r="R232" s="28"/>
+      <c r="S232" s="28"/>
+      <c r="T232" s="28"/>
+      <c r="U232" s="28"/>
+      <c r="V232" s="28"/>
+      <c r="W232" s="28"/>
+      <c r="X232" s="28"/>
+      <c r="Y232" s="28"/>
+      <c r="Z232" s="28"/>
+      <c r="AA232" s="28"/>
+      <c r="AB232" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="233">
+      <c r="A233" s="28"/>
+      <c r="B233" s="28"/>
+      <c r="C233" s="28"/>
+      <c r="D233" s="28"/>
+      <c r="E233" s="28"/>
+      <c r="F233" s="28"/>
+      <c r="G233" s="28"/>
+      <c r="H233" s="28"/>
+      <c r="I233" s="28"/>
+      <c r="J233" s="28"/>
+      <c r="K233" s="28"/>
+      <c r="L233" s="28"/>
+      <c r="M233" s="28"/>
+      <c r="N233" s="28"/>
+      <c r="O233" s="28"/>
+      <c r="P233" s="28"/>
+      <c r="Q233" s="28"/>
+      <c r="R233" s="28"/>
+      <c r="S233" s="28"/>
+      <c r="T233" s="28"/>
+      <c r="U233" s="28"/>
+      <c r="V233" s="28"/>
+      <c r="W233" s="28"/>
+      <c r="X233" s="28"/>
+      <c r="Y233" s="28"/>
+      <c r="Z233" s="28"/>
+      <c r="AA233" s="28"/>
+      <c r="AB233" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="234">
+      <c r="A234" s="28"/>
+      <c r="B234" s="28"/>
+      <c r="C234" s="28"/>
+      <c r="D234" s="28"/>
+      <c r="E234" s="28"/>
+      <c r="F234" s="28"/>
+      <c r="G234" s="28"/>
+      <c r="H234" s="28"/>
+      <c r="I234" s="28"/>
+      <c r="J234" s="28"/>
+      <c r="K234" s="28"/>
+      <c r="L234" s="28"/>
+      <c r="M234" s="28"/>
+      <c r="N234" s="28"/>
+      <c r="O234" s="28"/>
+      <c r="P234" s="28"/>
+      <c r="Q234" s="28"/>
+      <c r="R234" s="28"/>
+      <c r="S234" s="28"/>
+      <c r="T234" s="28"/>
+      <c r="U234" s="28"/>
+      <c r="V234" s="28"/>
+      <c r="W234" s="28"/>
+      <c r="X234" s="28"/>
+      <c r="Y234" s="28"/>
+      <c r="Z234" s="28"/>
+      <c r="AA234" s="28"/>
+      <c r="AB234" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="235">
+      <c r="A235" s="28"/>
+      <c r="B235" s="28"/>
+      <c r="C235" s="28"/>
+      <c r="D235" s="28"/>
+      <c r="E235" s="28"/>
+      <c r="F235" s="28"/>
+      <c r="G235" s="28"/>
+      <c r="H235" s="28"/>
+      <c r="I235" s="28"/>
+      <c r="J235" s="28"/>
+      <c r="K235" s="28"/>
+      <c r="L235" s="28"/>
+      <c r="M235" s="28"/>
+      <c r="N235" s="28"/>
+      <c r="O235" s="28"/>
+      <c r="P235" s="28"/>
+      <c r="Q235" s="28"/>
+      <c r="R235" s="28"/>
+      <c r="S235" s="28"/>
+      <c r="T235" s="28"/>
+      <c r="U235" s="28"/>
+      <c r="V235" s="28"/>
+      <c r="W235" s="28"/>
+      <c r="X235" s="28"/>
+      <c r="Y235" s="28"/>
+      <c r="Z235" s="28"/>
+      <c r="AA235" s="28"/>
+      <c r="AB235" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="236">
+      <c r="A236" s="28"/>
+      <c r="B236" s="28"/>
+      <c r="C236" s="28"/>
+      <c r="D236" s="28"/>
+      <c r="E236" s="28"/>
+      <c r="F236" s="28"/>
+      <c r="G236" s="28"/>
+      <c r="H236" s="28"/>
+      <c r="I236" s="28"/>
+      <c r="J236" s="28"/>
+      <c r="K236" s="28"/>
+      <c r="L236" s="28"/>
+      <c r="M236" s="28"/>
+      <c r="N236" s="28"/>
+      <c r="O236" s="28"/>
+      <c r="P236" s="28"/>
+      <c r="Q236" s="28"/>
+      <c r="R236" s="28"/>
+      <c r="S236" s="28"/>
+      <c r="T236" s="28"/>
+      <c r="U236" s="28"/>
+      <c r="V236" s="28"/>
+      <c r="W236" s="28"/>
+      <c r="X236" s="28"/>
+      <c r="Y236" s="28"/>
+      <c r="Z236" s="28"/>
+      <c r="AA236" s="28"/>
+      <c r="AB236" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="237">
+      <c r="A237" s="28"/>
+      <c r="B237" s="28"/>
+      <c r="C237" s="28"/>
+      <c r="D237" s="28"/>
+      <c r="E237" s="28"/>
+      <c r="F237" s="28"/>
+      <c r="G237" s="28"/>
+      <c r="H237" s="28"/>
+      <c r="I237" s="28"/>
+      <c r="J237" s="28"/>
+      <c r="K237" s="28"/>
+      <c r="L237" s="28"/>
+      <c r="M237" s="28"/>
+      <c r="N237" s="28"/>
+      <c r="O237" s="28"/>
+      <c r="P237" s="28"/>
+      <c r="Q237" s="28"/>
+      <c r="R237" s="28"/>
+      <c r="S237" s="28"/>
+      <c r="T237" s="28"/>
+      <c r="U237" s="28"/>
+      <c r="V237" s="28"/>
+      <c r="W237" s="28"/>
+      <c r="X237" s="28"/>
+      <c r="Y237" s="28"/>
+      <c r="Z237" s="28"/>
+      <c r="AA237" s="28"/>
+      <c r="AB237" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="238">
+      <c r="A238" s="28"/>
+      <c r="B238" s="28"/>
+      <c r="C238" s="28"/>
+      <c r="D238" s="28"/>
+      <c r="E238" s="28"/>
+      <c r="F238" s="28"/>
+      <c r="G238" s="28"/>
+      <c r="H238" s="28"/>
+      <c r="I238" s="28"/>
+      <c r="J238" s="28"/>
+      <c r="K238" s="28"/>
+      <c r="L238" s="28"/>
+      <c r="M238" s="28"/>
+      <c r="N238" s="28"/>
+      <c r="O238" s="28"/>
+      <c r="P238" s="28"/>
+      <c r="Q238" s="28"/>
+      <c r="R238" s="28"/>
+      <c r="S238" s="28"/>
+      <c r="T238" s="28"/>
+      <c r="U238" s="28"/>
+      <c r="V238" s="28"/>
+      <c r="W238" s="28"/>
+      <c r="X238" s="28"/>
+      <c r="Y238" s="28"/>
+      <c r="Z238" s="28"/>
+      <c r="AA238" s="28"/>
+      <c r="AB238" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="239">
+      <c r="A239" s="28"/>
+      <c r="B239" s="28"/>
+      <c r="C239" s="28"/>
+      <c r="D239" s="28"/>
+      <c r="E239" s="28"/>
+      <c r="F239" s="28"/>
+      <c r="G239" s="28"/>
+      <c r="H239" s="28"/>
+      <c r="I239" s="28"/>
+      <c r="J239" s="28"/>
+      <c r="K239" s="28"/>
+      <c r="L239" s="28"/>
+      <c r="M239" s="28"/>
+      <c r="N239" s="28"/>
+      <c r="O239" s="28"/>
+      <c r="P239" s="28"/>
+      <c r="Q239" s="28"/>
+      <c r="R239" s="28"/>
+      <c r="S239" s="28"/>
+      <c r="T239" s="28"/>
+      <c r="U239" s="28"/>
+      <c r="V239" s="28"/>
+      <c r="W239" s="28"/>
+      <c r="X239" s="28"/>
+      <c r="Y239" s="28"/>
+      <c r="Z239" s="28"/>
+      <c r="AA239" s="28"/>
+      <c r="AB239" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="240">
+      <c r="A240" s="28"/>
+      <c r="B240" s="28"/>
+      <c r="C240" s="28"/>
+      <c r="D240" s="28"/>
+      <c r="E240" s="28"/>
+      <c r="F240" s="28"/>
+      <c r="G240" s="28"/>
+      <c r="H240" s="28"/>
+      <c r="I240" s="28"/>
+      <c r="J240" s="28"/>
+      <c r="K240" s="28"/>
+      <c r="L240" s="28"/>
+      <c r="M240" s="28"/>
+      <c r="N240" s="28"/>
+      <c r="O240" s="28"/>
+      <c r="P240" s="28"/>
+      <c r="Q240" s="28"/>
+      <c r="R240" s="28"/>
+      <c r="S240" s="28"/>
+      <c r="T240" s="28"/>
+      <c r="U240" s="28"/>
+      <c r="V240" s="28"/>
+      <c r="W240" s="28"/>
+      <c r="X240" s="28"/>
+      <c r="Y240" s="28"/>
+      <c r="Z240" s="28"/>
+      <c r="AA240" s="28"/>
+      <c r="AB240" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="241">
+      <c r="A241" s="28"/>
+      <c r="B241" s="28"/>
+      <c r="C241" s="28"/>
+      <c r="D241" s="28"/>
+      <c r="E241" s="28"/>
+      <c r="F241" s="28"/>
+      <c r="G241" s="28"/>
+      <c r="H241" s="28"/>
+      <c r="I241" s="28"/>
+      <c r="J241" s="28"/>
+      <c r="K241" s="28"/>
+      <c r="L241" s="28"/>
+      <c r="M241" s="28"/>
+      <c r="N241" s="28"/>
+      <c r="O241" s="28"/>
+      <c r="P241" s="28"/>
+      <c r="Q241" s="28"/>
+      <c r="R241" s="28"/>
+      <c r="S241" s="28"/>
+      <c r="T241" s="28"/>
+      <c r="U241" s="28"/>
+      <c r="V241" s="28"/>
+      <c r="W241" s="28"/>
+      <c r="X241" s="28"/>
+      <c r="Y241" s="28"/>
+      <c r="Z241" s="28"/>
+      <c r="AA241" s="28"/>
+      <c r="AB241" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="242">
+      <c r="A242" s="28"/>
+      <c r="B242" s="28"/>
+      <c r="C242" s="28"/>
+      <c r="D242" s="28"/>
+      <c r="E242" s="28"/>
+      <c r="F242" s="28"/>
+      <c r="G242" s="28"/>
+      <c r="H242" s="28"/>
+      <c r="I242" s="28"/>
+      <c r="J242" s="28"/>
+      <c r="K242" s="28"/>
+      <c r="L242" s="28"/>
+      <c r="M242" s="28"/>
+      <c r="N242" s="28"/>
+      <c r="O242" s="28"/>
+      <c r="P242" s="28"/>
+      <c r="Q242" s="28"/>
+      <c r="R242" s="28"/>
+      <c r="S242" s="28"/>
+      <c r="T242" s="28"/>
+      <c r="U242" s="28"/>
+      <c r="V242" s="28"/>
+      <c r="W242" s="28"/>
+      <c r="X242" s="28"/>
+      <c r="Y242" s="28"/>
+      <c r="Z242" s="28"/>
+      <c r="AA242" s="28"/>
+      <c r="AB242" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="243">
+      <c r="A243" s="28"/>
+      <c r="B243" s="28"/>
+      <c r="C243" s="28"/>
+      <c r="D243" s="28"/>
+      <c r="E243" s="28"/>
+      <c r="F243" s="28"/>
+      <c r="G243" s="28"/>
+      <c r="H243" s="28"/>
+      <c r="I243" s="28"/>
+      <c r="J243" s="28"/>
+      <c r="K243" s="28"/>
+      <c r="L243" s="28"/>
+      <c r="M243" s="28"/>
+      <c r="N243" s="28"/>
+      <c r="O243" s="28"/>
+      <c r="P243" s="28"/>
+      <c r="Q243" s="28"/>
+      <c r="R243" s="28"/>
+      <c r="S243" s="28"/>
+      <c r="T243" s="28"/>
+      <c r="U243" s="28"/>
+      <c r="V243" s="28"/>
+      <c r="W243" s="28"/>
+      <c r="X243" s="28"/>
+      <c r="Y243" s="28"/>
+      <c r="Z243" s="28"/>
+      <c r="AA243" s="28"/>
+      <c r="AB243" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="244">
+      <c r="A244" s="28"/>
+      <c r="B244" s="28"/>
+      <c r="C244" s="28"/>
+      <c r="D244" s="28"/>
+      <c r="E244" s="28"/>
+      <c r="F244" s="28"/>
+      <c r="G244" s="28"/>
+      <c r="H244" s="28"/>
+      <c r="I244" s="28"/>
+      <c r="J244" s="28"/>
+      <c r="K244" s="28"/>
+      <c r="L244" s="28"/>
+      <c r="M244" s="28"/>
+      <c r="N244" s="28"/>
+      <c r="O244" s="28"/>
+      <c r="P244" s="28"/>
+      <c r="Q244" s="28"/>
+      <c r="R244" s="28"/>
+      <c r="S244" s="28"/>
+      <c r="T244" s="28"/>
+      <c r="U244" s="28"/>
+      <c r="V244" s="28"/>
+      <c r="W244" s="28"/>
+      <c r="X244" s="28"/>
+      <c r="Y244" s="28"/>
+      <c r="Z244" s="28"/>
+      <c r="AA244" s="28"/>
+      <c r="AB244" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="245">
+      <c r="A245" s="28"/>
+      <c r="B245" s="28"/>
+      <c r="C245" s="28"/>
+      <c r="D245" s="28"/>
+      <c r="E245" s="28"/>
+      <c r="F245" s="28"/>
+      <c r="G245" s="28"/>
+      <c r="H245" s="28"/>
+      <c r="I245" s="28"/>
+      <c r="J245" s="28"/>
+      <c r="K245" s="28"/>
+      <c r="L245" s="28"/>
+      <c r="M245" s="28"/>
+      <c r="N245" s="28"/>
+      <c r="O245" s="28"/>
+      <c r="P245" s="28"/>
+      <c r="Q245" s="28"/>
+      <c r="R245" s="28"/>
+      <c r="S245" s="28"/>
+      <c r="T245" s="28"/>
+      <c r="U245" s="28"/>
+      <c r="V245" s="28"/>
+      <c r="W245" s="28"/>
+      <c r="X245" s="28"/>
+      <c r="Y245" s="28"/>
+      <c r="Z245" s="28"/>
+      <c r="AA245" s="28"/>
+      <c r="AB245" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="246">
+      <c r="A246" s="28"/>
+      <c r="B246" s="28"/>
+      <c r="C246" s="28"/>
+      <c r="D246" s="28"/>
+      <c r="E246" s="28"/>
+      <c r="F246" s="28"/>
+      <c r="G246" s="28"/>
+      <c r="H246" s="28"/>
+      <c r="I246" s="28"/>
+      <c r="J246" s="28"/>
+      <c r="K246" s="28"/>
+      <c r="L246" s="28"/>
+      <c r="M246" s="28"/>
+      <c r="N246" s="28"/>
+      <c r="O246" s="28"/>
+      <c r="P246" s="28"/>
+      <c r="Q246" s="28"/>
+      <c r="R246" s="28"/>
+      <c r="S246" s="28"/>
+      <c r="T246" s="28"/>
+      <c r="U246" s="28"/>
+      <c r="V246" s="28"/>
+      <c r="W246" s="28"/>
+      <c r="X246" s="28"/>
+      <c r="Y246" s="28"/>
+      <c r="Z246" s="28"/>
+      <c r="AA246" s="28"/>
+      <c r="AB246" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="247">
+      <c r="A247" s="28"/>
+      <c r="B247" s="28"/>
+      <c r="C247" s="28"/>
+      <c r="D247" s="28"/>
+      <c r="E247" s="28"/>
+      <c r="F247" s="28"/>
+      <c r="G247" s="28"/>
+      <c r="H247" s="28"/>
+      <c r="I247" s="28"/>
+      <c r="J247" s="28"/>
+      <c r="K247" s="28"/>
+      <c r="L247" s="28"/>
+      <c r="M247" s="28"/>
+      <c r="N247" s="28"/>
+      <c r="O247" s="28"/>
+      <c r="P247" s="28"/>
+      <c r="Q247" s="28"/>
+      <c r="R247" s="28"/>
+      <c r="S247" s="28"/>
+      <c r="T247" s="28"/>
+      <c r="U247" s="28"/>
+      <c r="V247" s="28"/>
+      <c r="W247" s="28"/>
+      <c r="X247" s="28"/>
+      <c r="Y247" s="28"/>
+      <c r="Z247" s="28"/>
+      <c r="AA247" s="28"/>
+      <c r="AB247" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="248">
+      <c r="A248" s="28"/>
+      <c r="B248" s="28"/>
+      <c r="C248" s="28"/>
+      <c r="D248" s="28"/>
+      <c r="E248" s="28"/>
+      <c r="F248" s="28"/>
+      <c r="G248" s="28"/>
+      <c r="H248" s="28"/>
+      <c r="I248" s="28"/>
+      <c r="J248" s="28"/>
+      <c r="K248" s="28"/>
+      <c r="L248" s="28"/>
+      <c r="M248" s="28"/>
+      <c r="N248" s="28"/>
+      <c r="O248" s="28"/>
+      <c r="P248" s="28"/>
+      <c r="Q248" s="28"/>
+      <c r="R248" s="28"/>
+      <c r="S248" s="28"/>
+      <c r="T248" s="28"/>
+      <c r="U248" s="28"/>
+      <c r="V248" s="28"/>
+      <c r="W248" s="28"/>
+      <c r="X248" s="28"/>
+      <c r="Y248" s="28"/>
+      <c r="Z248" s="28"/>
+      <c r="AA248" s="28"/>
+      <c r="AB248" s="28"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="249">
+      <c r="A249" s="28"/>
+      <c r="B249" s="28"/>
+      <c r="C249" s="28"/>
+      <c r="D249" s="28"/>
+      <c r="E249" s="28"/>
+      <c r="F249" s="28"/>
+      <c r="G249" s="28"/>
+      <c r="H249" s="28"/>
+      <c r="I249" s="28"/>
+      <c r="J249" s="28"/>
+      <c r="K249" s="28"/>
+      <c r="L249" s="28"/>
+      <c r="M249" s="28"/>
+      <c r="N249" s="28"/>
+      <c r="O249" s="28"/>
+      <c r="P249" s="28"/>
+      <c r="Q249" s="28"/>
+      <c r="R249" s="28"/>
+      <c r="S249" s="28"/>
+      <c r="T249" s="28"/>
+      <c r="U249" s="28"/>
+      <c r="V249" s="28"/>
+      <c r="W249" s="28"/>
+      <c r="X249" s="28"/>
+      <c r="Y249" s="28"/>
+      <c r="Z249" s="28"/>
+      <c r="AA249" s="28"/>
+      <c r="AB249" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="48">
+    <mergeCell ref="L44:T46"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="B45:H46"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="C1:I3"/>
+    <mergeCell ref="M1:S3"/>
+    <mergeCell ref="I6:J11"/>
+    <mergeCell ref="N6:O7"/>
+    <mergeCell ref="P9:T14"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O14"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="L11:L14"/>
+    <mergeCell ref="M11:M14"/>
+    <mergeCell ref="I13:J29"/>
+    <mergeCell ref="L16:O27"/>
+    <mergeCell ref="M29:O42"/>
+    <mergeCell ref="I31:J46"/>
+    <mergeCell ref="B23:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="P16:T27"/>
+    <mergeCell ref="C8:H11"/>
+    <mergeCell ref="C12:H15"/>
+    <mergeCell ref="C16:H20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H35"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="M47:T47"/>
+    <mergeCell ref="M48:T48"/>
+    <mergeCell ref="M49:T49"/>
+    <mergeCell ref="P29:T29"/>
+    <mergeCell ref="P30:T30"/>
+    <mergeCell ref="P31:T31"/>
+    <mergeCell ref="P32:T32"/>
+    <mergeCell ref="P33:T33"/>
+    <mergeCell ref="P34:T34"/>
+    <mergeCell ref="P35:T35"/>
+    <mergeCell ref="P36:T36"/>
+    <mergeCell ref="P37:T37"/>
+    <mergeCell ref="P38:T38"/>
+    <mergeCell ref="P39:T39"/>
+    <mergeCell ref="P40:T40"/>
+    <mergeCell ref="P41:T41"/>
+    <mergeCell ref="P42:T42"/>
+  </mergeCells>
+  <conditionalFormatting sqref="Q6">
+    <cfRule type="containsBlanks" dxfId="5" priority="1">
+      <formula>LEN(TRIM(Q6))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R6">
+    <cfRule type="containsBlanks" dxfId="6" priority="2">
+      <formula>LEN(TRIM(R6))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S6">
+    <cfRule type="containsBlanks" dxfId="7" priority="3">
+      <formula>LEN(TRIM(S6))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T6">
+    <cfRule type="containsBlanks" dxfId="8" priority="4">
+      <formula>LEN(TRIM(T6))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P6">
+    <cfRule type="containsBlanks" dxfId="9" priority="5">
+      <formula>LEN(TRIM(P6))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38:H40 C42:H44">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="6">
+      <formula>LEN(TRIM(C38))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P7">
+    <cfRule type="expression" dxfId="11" priority="7">
+      <formula>ISBLANK(P6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q7">
+    <cfRule type="expression" dxfId="12" priority="8">
+      <formula>ISBLANK(Q6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R7">
+    <cfRule type="expression" dxfId="12" priority="9">
+      <formula>ISBLANK(R6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S7">
+    <cfRule type="expression" dxfId="12" priority="10">
+      <formula>ISBLANK(S6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T7">
+    <cfRule type="expression" dxfId="12" priority="11">
+      <formula>ISBLANK(T6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="S29" r:id="rId1h"/>
+    <hyperlink ref="S30" r:id="rId2h" location="/synthese"/>
+    <hyperlink ref="G47" r:id="rId3h"/>
+    <hyperlink ref="P47" r:id="rId4h"/>
+    <hyperlink ref="G48" r:id="rId5h"/>
+    <hyperlink ref="P48" r:id="rId6h"/>
+    <hyperlink ref="G49" r:id="rId7h"/>
+  </hyperlinks>
+  <printOptions/>
+  <pageMargins bottom="0.07874015748031496" footer="0.0" header="0.0" left="0.07874015748031496" right="0.07874015748031496" top="0.07874015748031496"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId8"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="2.71"/>
+    <col customWidth="1" min="2" max="2" width="13.29"/>
+    <col customWidth="1" min="3" max="8" width="9.71"/>
+    <col customWidth="1" min="9" max="9" width="12.71"/>
+    <col customWidth="1" min="10" max="10" width="13.0"/>
+    <col customWidth="1" min="11" max="11" width="2.71"/>
+    <col customWidth="1" min="12" max="13" width="20.71"/>
+    <col customWidth="1" min="14" max="15" width="10.71"/>
+    <col customWidth="1" min="16" max="20" width="7.0"/>
+    <col customWidth="1" min="21" max="28" width="10.71"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="15.0" r="1">
+      <c r="A1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="24" t="s">
         <v>268</v>
       </c>
       <c r="D1" s="25"/>

--- a/suivis_connaissance.xlsx
+++ b/suivis_connaissance.xlsx
@@ -3240,7 +3240,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3268,7 +3268,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3324,7 +3324,7 @@
     <xdr:ext cx="2695575" cy="2695575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image12.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image11.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3352,7 +3352,7 @@
     <xdr:ext cx="1676400" cy="1038225"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image11.jpg" title="Image"/>
+        <xdr:cNvPr id="0" name="image10.jpg" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3476,7 +3476,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3504,7 +3504,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3560,7 +3560,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3684,7 +3684,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3712,7 +3712,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3768,7 +3768,7 @@
     <xdr:ext cx="1143000" cy="1143000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image7.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3796,7 +3796,7 @@
     <xdr:ext cx="2790825" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image4.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3920,7 +3920,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3948,7 +3948,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4004,7 +4004,7 @@
     <xdr:ext cx="1685925" cy="1181100"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image9.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image8.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4032,7 +4032,7 @@
     <xdr:ext cx="2800350" cy="2447925"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4156,7 +4156,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4184,7 +4184,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4240,7 +4240,7 @@
     <xdr:ext cx="1628775" cy="1143000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image8.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image9.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4268,7 +4268,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4392,7 +4392,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4420,7 +4420,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4476,7 +4476,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4600,7 +4600,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4628,7 +4628,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4684,7 +4684,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image10.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image12.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>

--- a/suivis_connaissance.xlsx
+++ b/suivis_connaissance.xlsx
@@ -3212,7 +3212,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3268,7 +3268,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3296,7 +3296,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3324,7 +3324,7 @@
     <xdr:ext cx="2695575" cy="2695575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image11.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image12.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3352,7 +3352,7 @@
     <xdr:ext cx="1676400" cy="1038225"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image10.jpg" title="Image"/>
+        <xdr:cNvPr id="0" name="image11.jpg" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3448,7 +3448,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3504,7 +3504,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3532,7 +3532,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3560,7 +3560,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image4.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3656,7 +3656,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3712,7 +3712,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3740,7 +3740,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3768,7 +3768,7 @@
     <xdr:ext cx="1143000" cy="1143000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3796,7 +3796,7 @@
     <xdr:ext cx="2790825" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image7.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3892,7 +3892,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3948,7 +3948,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3976,7 +3976,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4004,7 +4004,7 @@
     <xdr:ext cx="1685925" cy="1181100"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image8.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image9.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4032,7 +4032,7 @@
     <xdr:ext cx="2800350" cy="2447925"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4128,7 +4128,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4184,7 +4184,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4212,7 +4212,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4240,7 +4240,7 @@
     <xdr:ext cx="1628775" cy="1143000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image9.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image8.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4268,7 +4268,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image4.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4364,7 +4364,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4420,7 +4420,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4448,7 +4448,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4476,7 +4476,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image4.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4572,7 +4572,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4628,7 +4628,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4656,7 +4656,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4684,7 +4684,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image12.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image10.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>

--- a/suivis_connaissance.xlsx
+++ b/suivis_connaissance.xlsx
@@ -2201,7 +2201,7 @@
     <t>Dispositif de suivi du bocage - Protocole</t>
   </si>
   <si>
-    <t>"\\ad.intra\dfs\COMMUNS\REGIONS\IDF\DR\05_CONNAISSANCE\HABITATS\Bocage\03_DSB\DNSB_TEST2021-NATIONAL.pdf"</t>
+    <t>file://ad.intra/dfs/COMMUNS/REGIONS/IDF/DR/05_CONNAISSANCE/HABITATS/Bocage/03_DSB/DNSB_TEST2021-NATIONAL.pdf</t>
   </si>
   <si>
     <t>Haies et bocages (Portail technique)</t>
@@ -2213,7 +2213,7 @@
     <t>Atlas cartographique des densités de haies en Ile-de-France</t>
   </si>
   <si>
-    <t>\\ad.intra\dfs\COMMUNS\REGIONS\IDF\DR\05_CONNAISSANCE\HABITATS\Bocage\02_ATLAS</t>
+    <t>file://ad.intra/dfs/COMMUNS/REGIONS/IDF/DR/05_CONNAISSANCE/HABITATS/Bocage/02_ATLAS</t>
   </si>
 </sst>
 </file>
@@ -3665,7 +3665,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3693,7 +3693,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3721,7 +3721,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3749,7 +3749,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3873,7 +3873,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3901,7 +3901,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3929,7 +3929,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3957,7 +3957,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4109,7 +4109,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4137,7 +4137,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4165,7 +4165,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4193,7 +4193,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4317,7 +4317,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4345,7 +4345,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4373,7 +4373,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4401,7 +4401,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4553,7 +4553,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4581,7 +4581,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4609,7 +4609,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4637,7 +4637,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4761,7 +4761,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4789,7 +4789,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4817,7 +4817,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4845,7 +4845,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4997,7 +4997,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5025,7 +5025,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5053,7 +5053,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5081,7 +5081,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5109,7 +5109,7 @@
     <xdr:ext cx="1685925" cy="1181100"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image10.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image9.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5137,7 +5137,7 @@
     <xdr:ext cx="2800350" cy="2447925"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image9.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image10.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5233,7 +5233,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5261,7 +5261,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5289,7 +5289,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5317,7 +5317,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -60597,7 +60597,7 @@
       <c r="K48" s="33"/>
       <c r="L48" s="33"/>
       <c r="M48" s="172" t="str">
-        <f>=HYPERLINK(""\\ad.intra\dfs\COMMUNS\REGIONS\IDF\DR\05_CONNAISSANCE\HABITATS\Bocage\03_DSB\DNSB_TEST2021-NATIONAL.pdf"", "Dispositif de suivi du bocage - Protocole")</f>
+        <f>=HYPERLINK("file://ad.intra/dfs/COMMUNS/REGIONS/IDF/DR/05_CONNAISSANCE/HABITATS/Bocage/03_DSB/DNSB_TEST2021-NATIONAL.pdf", "Dispositif de suivi du bocage - Protocole")</f>
       </c>
       <c r="N48" s="8"/>
       <c r="O48" s="18"/>
@@ -60641,7 +60641,7 @@
       <c r="K49" s="33"/>
       <c r="L49" s="33"/>
       <c r="M49" s="172" t="str">
-        <f>=HYPERLINK("\\ad.intra\dfs\COMMUNS\REGIONS\IDF\DR\05_CONNAISSANCE\HABITATS\Bocage\02_ATLAS", "Atlas cartographique des densités de haies en Ile-de-France")</f>
+        <f>=HYPERLINK("file://ad.intra/dfs/COMMUNS/REGIONS/IDF/DR/05_CONNAISSANCE/HABITATS/Bocage/02_ATLAS", "Atlas cartographique des densités de haies en Ile-de-France")</f>
       </c>
       <c r="N49" s="8"/>
       <c r="O49" s="18"/>

--- a/suivis_connaissance.xlsx
+++ b/suivis_connaissance.xlsx
@@ -1664,7 +1664,7 @@
     <t>https://professionnels.ofb.fr/fr/reseau-becasse</t>
   </si>
   <si>
-    <t>file://ad.intra/dfs/COMMUNS/REGIONS/IDF/DR/05_CONNAISSANCE/Bécasse/</t>
+    <t>file://ad.intra/dfs/COMMUNS/REGIONS/IDF/DR/05_CONNAISSANCE/Becasse/</t>
   </si>
   <si>
     <t>https://professionnels.ofb.fr/fr/doc-fiches-especes/becasse-bois-scolopax-rusticola</t>
@@ -3665,7 +3665,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3693,7 +3693,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3749,7 +3749,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3873,7 +3873,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3901,7 +3901,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3957,7 +3957,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3985,7 +3985,7 @@
     <xdr:ext cx="1409700" cy="790575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image14.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image13.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4013,7 +4013,7 @@
     <xdr:ext cx="2743200" cy="2743200"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image13.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image14.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4109,7 +4109,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4137,7 +4137,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4193,7 +4193,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4317,7 +4317,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4345,7 +4345,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4401,7 +4401,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4553,7 +4553,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4581,7 +4581,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4637,7 +4637,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4761,7 +4761,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4789,7 +4789,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4845,7 +4845,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4997,7 +4997,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5025,7 +5025,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5081,7 +5081,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5233,7 +5233,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5261,7 +5261,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5317,7 +5317,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -37550,7 +37550,7 @@
       </c>
       <c r="L47" s="18"/>
       <c r="M47" s="170" t="str">
-        <f>=HYPERLINK("file://ad.intra/dfs/COMMUNS/REGIONS/IDF/DR/05_CONNAISSANCE/Bécasse/", "Serveur DR")</f>
+        <f>=HYPERLINK("file://ad.intra/dfs/COMMUNS/REGIONS/IDF/DR/05_CONNAISSANCE/Becasse/", "Serveur DR")</f>
       </c>
       <c r="N47" s="8"/>
       <c r="O47" s="18"/>

--- a/suivis_connaissance.xlsx
+++ b/suivis_connaissance.xlsx
@@ -945,7 +945,7 @@
     <t>Serveur DR</t>
   </si>
   <si>
-    <t xml:space="preserve">\\SVFCVIN1\DRIDF\05_CONNAISSANCE\PMC\Chat_Forestier
+    <t xml:space="preserve">file://ad.intra/dfs/COMMUNS/REGIONS/IDF/DR/05_CONNAISSANCE/PMC/Chat_Forestier
 </t>
   </si>
   <si>
@@ -3342,6 +3342,9 @@
     <xf borderId="13" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf borderId="13" fillId="3" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="27" fillId="4" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -3371,9 +3374,6 @@
     </xf>
     <xf borderId="52" fillId="2" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="3" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="13" fillId="3" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -3665,7 +3665,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3721,7 +3721,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3749,7 +3749,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3873,7 +3873,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3929,7 +3929,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3957,7 +3957,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3985,7 +3985,7 @@
     <xdr:ext cx="1409700" cy="790575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image13.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image14.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4013,7 +4013,7 @@
     <xdr:ext cx="2743200" cy="2743200"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image14.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image13.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4109,7 +4109,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4165,7 +4165,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4193,7 +4193,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4317,7 +4317,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4373,7 +4373,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4401,7 +4401,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4553,7 +4553,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4609,7 +4609,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4637,7 +4637,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4761,7 +4761,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4817,7 +4817,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4845,7 +4845,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4873,7 +4873,7 @@
     <xdr:ext cx="1628775" cy="1143000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image8.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image9.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4997,7 +4997,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5053,7 +5053,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5081,7 +5081,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5109,7 +5109,7 @@
     <xdr:ext cx="1685925" cy="1181100"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image9.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image10.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5137,7 +5137,7 @@
     <xdr:ext cx="2800350" cy="2447925"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image10.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image8.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5233,7 +5233,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5289,7 +5289,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5317,7 +5317,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -7083,11 +7083,11 @@
       <c r="K49" s="33"/>
       <c r="L49" s="33"/>
       <c r="M49" s="170" t="str">
-        <f>=HYPERLINK("\\SVFCVIN1\DRIDF\05_CONNAISSANCE\PMC\Chat_Forestier%20", "Serveur DR")</f>
+        <f>=HYPERLINK("file://ad.intra/dfs/COMMUNS/REGIONS/IDF/DR/05_CONNAISSANCE/PMC/Chat_Forestier%20", "Serveur DR")</f>
       </c>
       <c r="N49" s="8"/>
       <c r="O49" s="18"/>
-      <c r="P49" s="126" t="inlineStr">
+      <c r="P49" s="136" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -13416,7 +13416,7 @@
       <c r="M6" s="128" t="s">
         <v>98</v>
       </c>
-      <c r="N6" s="136">
+      <c r="N6" s="137">
         <v>45689.0</v>
       </c>
       <c r="O6" s="36"/>
@@ -13604,7 +13604,7 @@
       <c r="B12" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="137" t="s">
+      <c r="C12" s="138" t="s">
         <v>135</v>
       </c>
       <c r="D12" s="63"/>
@@ -13722,7 +13722,7 @@
       <c r="B16" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="137" t="s">
+      <c r="C16" s="138" t="s">
         <v>137</v>
       </c>
       <c r="D16" s="63"/>
@@ -14063,7 +14063,7 @@
       <c r="J29" s="77"/>
       <c r="K29" s="45"/>
       <c r="L29" s="65"/>
-      <c r="M29" s="138" t="s">
+      <c r="M29" s="139" t="s">
         <v>141</v>
       </c>
       <c r="N29" s="35"/>
@@ -21234,7 +21234,7 @@
       <c r="B12" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="139" t="s">
+      <c r="C12" s="140" t="s">
         <v>161</v>
       </c>
       <c r="D12" s="63"/>
@@ -21267,7 +21267,7 @@
       <c r="B13" s="85"/>
       <c r="C13" s="39"/>
       <c r="H13" s="67"/>
-      <c r="I13" s="140" t="s">
+      <c r="I13" s="141" t="s">
         <v>162</v>
       </c>
       <c r="J13" s="87"/>
@@ -21352,7 +21352,7 @@
       <c r="B16" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="137" t="s">
+      <c r="C16" s="138" t="s">
         <v>163</v>
       </c>
       <c r="D16" s="63"/>
@@ -28894,7 +28894,7 @@
       <c r="B13" s="85"/>
       <c r="C13" s="39"/>
       <c r="H13" s="67"/>
-      <c r="I13" s="140" t="s">
+      <c r="I13" s="141" t="s">
         <v>181</v>
       </c>
       <c r="J13" s="87"/>
@@ -28979,7 +28979,7 @@
       <c r="B16" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="141" t="s">
+      <c r="C16" s="142" t="s">
         <v>182</v>
       </c>
       <c r="D16" s="63"/>
@@ -36308,7 +36308,7 @@
       <c r="M6" s="128" t="s">
         <v>199</v>
       </c>
-      <c r="N6" s="142" t="s">
+      <c r="N6" s="143" t="s">
         <v>200</v>
       </c>
       <c r="O6" s="36"/>
@@ -36529,7 +36529,7 @@
       <c r="B13" s="85"/>
       <c r="C13" s="39"/>
       <c r="H13" s="67"/>
-      <c r="I13" s="140" t="s">
+      <c r="I13" s="141" t="s">
         <v>207</v>
       </c>
       <c r="J13" s="87"/>
@@ -36822,7 +36822,7 @@
       <c r="A24" s="45"/>
       <c r="B24" s="73"/>
       <c r="E24" s="40"/>
-      <c r="F24" s="143" t="s">
+      <c r="F24" s="144" t="s">
         <v>212</v>
       </c>
       <c r="G24" s="35"/>
@@ -36965,7 +36965,7 @@
       </c>
       <c r="Q29" s="8"/>
       <c r="R29" s="18"/>
-      <c r="S29" s="144" t="inlineStr">
+      <c r="S29" s="145" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -37473,7 +37473,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="45">
       <c r="A45" s="45"/>
-      <c r="B45" s="145" t="s">
+      <c r="B45" s="146" t="s">
         <v>222</v>
       </c>
       <c r="C45" s="35"/>
@@ -37554,7 +37554,7 @@
       </c>
       <c r="N47" s="8"/>
       <c r="O47" s="18"/>
-      <c r="P47" s="146" t="inlineStr">
+      <c r="P47" s="136" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -44267,7 +44267,7 @@
       <c r="B16" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="141" t="s">
+      <c r="C16" s="142" t="s">
         <v>239</v>
       </c>
       <c r="D16" s="63"/>
@@ -51871,7 +51871,7 @@
       <c r="B13" s="85"/>
       <c r="C13" s="39"/>
       <c r="H13" s="67"/>
-      <c r="I13" s="140" t="s">
+      <c r="I13" s="141" t="s">
         <v>276</v>
       </c>
       <c r="J13" s="87"/>
@@ -59493,7 +59493,7 @@
       <c r="B12" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="137" t="s">
+      <c r="C12" s="138" t="s">
         <v>299</v>
       </c>
       <c r="D12" s="63"/>
@@ -59526,7 +59526,7 @@
       <c r="B13" s="85"/>
       <c r="C13" s="39"/>
       <c r="H13" s="67"/>
-      <c r="I13" s="140" t="s">
+      <c r="I13" s="141" t="s">
         <v>300</v>
       </c>
       <c r="J13" s="87"/>
@@ -59611,7 +59611,7 @@
       <c r="B16" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="139" t="s">
+      <c r="C16" s="140" t="s">
         <v>301</v>
       </c>
       <c r="D16" s="63"/>
@@ -60011,7 +60011,7 @@
       <c r="E31" s="40"/>
       <c r="F31" s="39"/>
       <c r="H31" s="67"/>
-      <c r="I31" s="140" t="s">
+      <c r="I31" s="141" t="s">
         <v>308</v>
       </c>
       <c r="J31" s="87"/>
@@ -60601,7 +60601,7 @@
       </c>
       <c r="N48" s="8"/>
       <c r="O48" s="18"/>
-      <c r="P48" s="146" t="inlineStr">
+      <c r="P48" s="136" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -60645,7 +60645,7 @@
       </c>
       <c r="N49" s="8"/>
       <c r="O49" s="18"/>
-      <c r="P49" s="146" t="inlineStr">
+      <c r="P49" s="136" t="inlineStr">
         <is>
           <t/>
         </is>

--- a/suivis_connaissance.xlsx
+++ b/suivis_connaissance.xlsx
@@ -3693,7 +3693,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3721,7 +3721,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3901,7 +3901,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3929,7 +3929,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3985,7 +3985,7 @@
     <xdr:ext cx="1409700" cy="790575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image14.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image13.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4013,7 +4013,7 @@
     <xdr:ext cx="2743200" cy="2743200"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image13.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image14.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4137,7 +4137,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4165,7 +4165,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4345,7 +4345,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4373,7 +4373,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4581,7 +4581,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4609,7 +4609,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4789,7 +4789,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4817,7 +4817,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4873,7 +4873,7 @@
     <xdr:ext cx="1628775" cy="1143000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image9.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image8.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5025,7 +5025,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5053,7 +5053,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5137,7 +5137,7 @@
     <xdr:ext cx="2800350" cy="2447925"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image8.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image9.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5261,7 +5261,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5289,7 +5289,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5345,7 +5345,7 @@
     <xdr:ext cx="1143000" cy="1143000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image11.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image12.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5373,7 +5373,7 @@
     <xdr:ext cx="2790825" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image12.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image11.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>

--- a/suivis_connaissance.xlsx
+++ b/suivis_connaissance.xlsx
@@ -3665,7 +3665,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3721,7 +3721,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3749,7 +3749,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3873,7 +3873,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3929,7 +3929,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3957,7 +3957,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3985,7 +3985,7 @@
     <xdr:ext cx="1409700" cy="790575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image13.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image14.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4013,7 +4013,7 @@
     <xdr:ext cx="2743200" cy="2743200"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image14.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image13.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4109,7 +4109,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4165,7 +4165,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4193,7 +4193,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4221,7 +4221,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4317,7 +4317,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4373,7 +4373,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4401,7 +4401,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4429,7 +4429,7 @@
     <xdr:ext cx="2695575" cy="2695575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image4.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4553,7 +4553,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4609,7 +4609,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4637,7 +4637,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4761,7 +4761,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4817,7 +4817,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4845,7 +4845,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4997,7 +4997,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5053,7 +5053,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5081,7 +5081,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5233,7 +5233,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5289,7 +5289,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5317,7 +5317,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>

--- a/suivis_connaissance.xlsx
+++ b/suivis_connaissance.xlsx
@@ -3665,7 +3665,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3721,7 +3721,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3749,7 +3749,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3873,7 +3873,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3929,7 +3929,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3957,7 +3957,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4109,7 +4109,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4165,7 +4165,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4193,7 +4193,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4221,7 +4221,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image4.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4317,7 +4317,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4373,7 +4373,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4401,7 +4401,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4429,7 +4429,7 @@
     <xdr:ext cx="2695575" cy="2695575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4457,7 +4457,7 @@
     <xdr:ext cx="1676400" cy="1038225"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.jpg" title="Image"/>
+        <xdr:cNvPr id="0" name="image5.jpg" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4553,7 +4553,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4609,7 +4609,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4637,7 +4637,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4761,7 +4761,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4817,7 +4817,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4845,7 +4845,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4997,7 +4997,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5053,7 +5053,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5081,7 +5081,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5109,7 +5109,7 @@
     <xdr:ext cx="1685925" cy="1181100"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image10.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image11.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5233,7 +5233,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5289,7 +5289,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5317,7 +5317,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5373,7 +5373,7 @@
     <xdr:ext cx="2790825" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image11.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image10.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>

--- a/suivis_connaissance.xlsx
+++ b/suivis_connaissance.xlsx
@@ -3665,7 +3665,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3693,7 +3693,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3721,7 +3721,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3749,7 +3749,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3777,7 +3777,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3873,7 +3873,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3901,7 +3901,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3929,7 +3929,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3957,7 +3957,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3985,7 +3985,7 @@
     <xdr:ext cx="1409700" cy="790575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image14.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image12.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4109,7 +4109,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4137,7 +4137,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4165,7 +4165,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4193,7 +4193,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4221,7 +4221,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4317,7 +4317,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4345,7 +4345,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4373,7 +4373,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4401,7 +4401,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4429,7 +4429,7 @@
     <xdr:ext cx="2695575" cy="2695575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image4.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4457,7 +4457,7 @@
     <xdr:ext cx="1676400" cy="1038225"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.jpg" title="Image"/>
+        <xdr:cNvPr id="0" name="image7.jpg" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4553,7 +4553,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4581,7 +4581,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4609,7 +4609,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4637,7 +4637,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4665,7 +4665,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4761,7 +4761,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4789,7 +4789,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4817,7 +4817,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4845,7 +4845,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4873,7 +4873,7 @@
     <xdr:ext cx="1628775" cy="1143000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image8.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image9.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4901,7 +4901,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4997,7 +4997,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5025,7 +5025,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5053,7 +5053,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5081,7 +5081,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5109,7 +5109,7 @@
     <xdr:ext cx="1685925" cy="1181100"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image11.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image10.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5137,7 +5137,7 @@
     <xdr:ext cx="2800350" cy="2447925"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image9.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image8.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5233,7 +5233,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5261,7 +5261,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5289,7 +5289,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5317,7 +5317,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5345,7 +5345,7 @@
     <xdr:ext cx="1143000" cy="1143000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image12.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image11.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5373,7 +5373,7 @@
     <xdr:ext cx="2790825" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image10.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image14.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>

--- a/suivis_connaissance.xlsx
+++ b/suivis_connaissance.xlsx
@@ -3665,7 +3665,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image4.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3693,7 +3693,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3721,7 +3721,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3749,7 +3749,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image4.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3777,7 +3777,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image7.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3873,7 +3873,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image4.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3901,7 +3901,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3929,7 +3929,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3957,7 +3957,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image4.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3985,7 +3985,7 @@
     <xdr:ext cx="1409700" cy="790575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image12.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image13.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4013,7 +4013,7 @@
     <xdr:ext cx="2743200" cy="2743200"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image13.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image14.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4109,7 +4109,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image4.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4137,7 +4137,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4165,7 +4165,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4193,7 +4193,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image4.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4221,7 +4221,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4317,7 +4317,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image4.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4345,7 +4345,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4373,7 +4373,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4401,7 +4401,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image4.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4429,7 +4429,7 @@
     <xdr:ext cx="2695575" cy="2695575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4457,7 +4457,7 @@
     <xdr:ext cx="1676400" cy="1038225"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.jpg" title="Image"/>
+        <xdr:cNvPr id="0" name="image6.jpg" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4553,7 +4553,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image4.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4581,7 +4581,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4609,7 +4609,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4637,7 +4637,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image4.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4665,7 +4665,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image7.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4761,7 +4761,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image4.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4789,7 +4789,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4817,7 +4817,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4845,7 +4845,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image4.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4873,7 +4873,7 @@
     <xdr:ext cx="1628775" cy="1143000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image9.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image8.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4901,7 +4901,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image7.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4997,7 +4997,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image4.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5025,7 +5025,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5053,7 +5053,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5081,7 +5081,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image4.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5109,7 +5109,7 @@
     <xdr:ext cx="1685925" cy="1181100"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image10.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image12.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5137,7 +5137,7 @@
     <xdr:ext cx="2800350" cy="2447925"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image8.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image9.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5233,7 +5233,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image4.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5261,7 +5261,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5289,7 +5289,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5317,7 +5317,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image4.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5373,7 +5373,7 @@
     <xdr:ext cx="2790825" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image14.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image10.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>

--- a/suivis_connaissance.xlsx
+++ b/suivis_connaissance.xlsx
@@ -3665,7 +3665,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3749,7 +3749,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3777,7 +3777,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3873,7 +3873,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3957,7 +3957,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3985,7 +3985,7 @@
     <xdr:ext cx="1409700" cy="790575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image13.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image12.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4109,7 +4109,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4193,7 +4193,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4221,7 +4221,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image4.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4317,7 +4317,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4401,7 +4401,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4429,7 +4429,7 @@
     <xdr:ext cx="2695575" cy="2695575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image7.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4457,7 +4457,7 @@
     <xdr:ext cx="1676400" cy="1038225"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.jpg" title="Image"/>
+        <xdr:cNvPr id="0" name="image5.jpg" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4553,7 +4553,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4637,7 +4637,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4665,7 +4665,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4761,7 +4761,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4845,7 +4845,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4901,7 +4901,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4997,7 +4997,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5081,7 +5081,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5109,7 +5109,7 @@
     <xdr:ext cx="1685925" cy="1181100"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image12.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image10.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5233,7 +5233,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5317,7 +5317,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5345,7 +5345,7 @@
     <xdr:ext cx="1143000" cy="1143000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image11.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image13.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5373,7 +5373,7 @@
     <xdr:ext cx="2790825" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image10.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image11.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>

--- a/suivis_connaissance.xlsx
+++ b/suivis_connaissance.xlsx
@@ -3693,7 +3693,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3721,7 +3721,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3777,7 +3777,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image7.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3901,7 +3901,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3929,7 +3929,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3985,7 +3985,7 @@
     <xdr:ext cx="1409700" cy="790575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image12.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image14.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4013,7 +4013,7 @@
     <xdr:ext cx="2743200" cy="2743200"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image14.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image13.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4137,7 +4137,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4165,7 +4165,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4345,7 +4345,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4373,7 +4373,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4429,7 +4429,7 @@
     <xdr:ext cx="2695575" cy="2695575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4457,7 +4457,7 @@
     <xdr:ext cx="1676400" cy="1038225"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.jpg" title="Image"/>
+        <xdr:cNvPr id="0" name="image6.jpg" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4581,7 +4581,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4609,7 +4609,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4665,7 +4665,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image7.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4789,7 +4789,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4817,7 +4817,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4901,7 +4901,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image7.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5025,7 +5025,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5053,7 +5053,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5261,7 +5261,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5289,7 +5289,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5345,7 +5345,7 @@
     <xdr:ext cx="1143000" cy="1143000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image13.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image11.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5373,7 +5373,7 @@
     <xdr:ext cx="2790825" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image11.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image12.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>

--- a/suivis_connaissance.xlsx
+++ b/suivis_connaissance.xlsx
@@ -3665,7 +3665,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3693,7 +3693,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3721,7 +3721,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3749,7 +3749,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3777,7 +3777,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image9.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3873,7 +3873,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3901,7 +3901,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3929,7 +3929,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3957,7 +3957,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3985,7 +3985,7 @@
     <xdr:ext cx="1409700" cy="790575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image14.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image13.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4013,7 +4013,7 @@
     <xdr:ext cx="2743200" cy="2743200"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image13.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image14.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4109,7 +4109,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4137,7 +4137,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4165,7 +4165,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4193,7 +4193,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4317,7 +4317,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4345,7 +4345,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4373,7 +4373,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4401,7 +4401,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4457,7 +4457,7 @@
     <xdr:ext cx="1676400" cy="1038225"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.jpg" title="Image"/>
+        <xdr:cNvPr id="0" name="image7.jpg" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4553,7 +4553,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4581,7 +4581,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4609,7 +4609,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4637,7 +4637,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4665,7 +4665,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image9.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4761,7 +4761,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4789,7 +4789,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4817,7 +4817,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4845,7 +4845,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4873,7 +4873,7 @@
     <xdr:ext cx="1628775" cy="1143000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image8.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4901,7 +4901,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image9.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4997,7 +4997,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5025,7 +5025,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5053,7 +5053,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5081,7 +5081,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5137,7 +5137,7 @@
     <xdr:ext cx="2800350" cy="2447925"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image9.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image8.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5233,7 +5233,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5261,7 +5261,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5289,7 +5289,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5317,7 +5317,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>

--- a/suivis_connaissance.xlsx
+++ b/suivis_connaissance.xlsx
@@ -3665,7 +3665,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3693,7 +3693,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3721,7 +3721,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3749,7 +3749,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3777,7 +3777,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image9.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image7.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3873,7 +3873,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3901,7 +3901,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3929,7 +3929,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3957,7 +3957,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3985,7 +3985,7 @@
     <xdr:ext cx="1409700" cy="790575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image13.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image12.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4013,7 +4013,7 @@
     <xdr:ext cx="2743200" cy="2743200"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image14.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image13.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4109,7 +4109,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4137,7 +4137,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4165,7 +4165,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4193,7 +4193,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4221,7 +4221,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4317,7 +4317,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4345,7 +4345,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4373,7 +4373,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4401,7 +4401,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4429,7 +4429,7 @@
     <xdr:ext cx="2695575" cy="2695575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image4.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4457,7 +4457,7 @@
     <xdr:ext cx="1676400" cy="1038225"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.jpg" title="Image"/>
+        <xdr:cNvPr id="0" name="image5.jpg" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4553,7 +4553,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4581,7 +4581,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4609,7 +4609,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4637,7 +4637,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4665,7 +4665,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image9.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image7.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4761,7 +4761,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4789,7 +4789,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4817,7 +4817,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4845,7 +4845,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4873,7 +4873,7 @@
     <xdr:ext cx="1628775" cy="1143000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image8.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4901,7 +4901,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image9.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image7.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4997,7 +4997,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5025,7 +5025,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5053,7 +5053,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5081,7 +5081,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5137,7 +5137,7 @@
     <xdr:ext cx="2800350" cy="2447925"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image8.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image9.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5233,7 +5233,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5261,7 +5261,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5289,7 +5289,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5317,7 +5317,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5345,7 +5345,7 @@
     <xdr:ext cx="1143000" cy="1143000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image11.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image14.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5373,7 +5373,7 @@
     <xdr:ext cx="2790825" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image12.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image11.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>

--- a/suivis_connaissance.xlsx
+++ b/suivis_connaissance.xlsx
@@ -3693,7 +3693,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3721,7 +3721,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3777,7 +3777,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3901,7 +3901,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3929,7 +3929,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3985,7 +3985,7 @@
     <xdr:ext cx="1409700" cy="790575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image12.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image13.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4013,7 +4013,7 @@
     <xdr:ext cx="2743200" cy="2743200"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image13.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image14.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4137,7 +4137,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4165,7 +4165,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4221,7 +4221,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image4.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4345,7 +4345,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4373,7 +4373,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4429,7 +4429,7 @@
     <xdr:ext cx="2695575" cy="2695575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4457,7 +4457,7 @@
     <xdr:ext cx="1676400" cy="1038225"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.jpg" title="Image"/>
+        <xdr:cNvPr id="0" name="image7.jpg" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4581,7 +4581,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4609,7 +4609,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4665,7 +4665,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4789,7 +4789,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4817,7 +4817,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4873,7 +4873,7 @@
     <xdr:ext cx="1628775" cy="1143000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image8.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image9.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4901,7 +4901,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5025,7 +5025,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5053,7 +5053,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5109,7 +5109,7 @@
     <xdr:ext cx="1685925" cy="1181100"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image10.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image12.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5137,7 +5137,7 @@
     <xdr:ext cx="2800350" cy="2447925"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image9.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image8.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5261,7 +5261,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5289,7 +5289,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5345,7 +5345,7 @@
     <xdr:ext cx="1143000" cy="1143000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image14.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image10.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>

--- a/suivis_connaissance.xlsx
+++ b/suivis_connaissance.xlsx
@@ -3665,7 +3665,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3693,7 +3693,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3721,7 +3721,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3749,7 +3749,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3777,7 +3777,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image7.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3873,7 +3873,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3901,7 +3901,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3929,7 +3929,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3957,7 +3957,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4109,7 +4109,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4137,7 +4137,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4165,7 +4165,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4193,7 +4193,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4317,7 +4317,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4345,7 +4345,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4373,7 +4373,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4401,7 +4401,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4457,7 +4457,7 @@
     <xdr:ext cx="1676400" cy="1038225"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.jpg" title="Image"/>
+        <xdr:cNvPr id="0" name="image6.jpg" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4553,7 +4553,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4581,7 +4581,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4609,7 +4609,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4637,7 +4637,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4665,7 +4665,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image7.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4761,7 +4761,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4789,7 +4789,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4817,7 +4817,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4845,7 +4845,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4873,7 +4873,7 @@
     <xdr:ext cx="1628775" cy="1143000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image9.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image8.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4901,7 +4901,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image7.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4997,7 +4997,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5025,7 +5025,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5053,7 +5053,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5081,7 +5081,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5109,7 +5109,7 @@
     <xdr:ext cx="1685925" cy="1181100"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image12.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image10.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5137,7 +5137,7 @@
     <xdr:ext cx="2800350" cy="2447925"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image8.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image9.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5233,7 +5233,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5261,7 +5261,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5289,7 +5289,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5317,7 +5317,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5345,7 +5345,7 @@
     <xdr:ext cx="1143000" cy="1143000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image10.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image12.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>

--- a/suivis_connaissance.xlsx
+++ b/suivis_connaissance.xlsx
@@ -3665,7 +3665,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3693,7 +3693,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3749,7 +3749,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3873,7 +3873,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3901,7 +3901,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3957,7 +3957,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3985,7 +3985,7 @@
     <xdr:ext cx="1409700" cy="790575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image13.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image14.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4013,7 +4013,7 @@
     <xdr:ext cx="2743200" cy="2743200"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image14.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image13.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4109,7 +4109,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4137,7 +4137,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4193,7 +4193,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4317,7 +4317,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4345,7 +4345,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4401,7 +4401,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4553,7 +4553,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4581,7 +4581,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4637,7 +4637,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4761,7 +4761,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4789,7 +4789,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4845,7 +4845,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4997,7 +4997,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5025,7 +5025,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5081,7 +5081,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5233,7 +5233,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5261,7 +5261,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5317,7 +5317,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5345,7 +5345,7 @@
     <xdr:ext cx="1143000" cy="1143000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image12.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image11.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5373,7 +5373,7 @@
     <xdr:ext cx="2790825" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image11.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image12.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>

--- a/suivis_connaissance.xlsx
+++ b/suivis_connaissance.xlsx
@@ -3665,7 +3665,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3693,7 +3693,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3749,7 +3749,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3873,7 +3873,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3901,7 +3901,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3957,7 +3957,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4109,7 +4109,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4137,7 +4137,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4193,7 +4193,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4317,7 +4317,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4345,7 +4345,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4401,7 +4401,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4553,7 +4553,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4581,7 +4581,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4637,7 +4637,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4761,7 +4761,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4789,7 +4789,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4845,7 +4845,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4997,7 +4997,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5025,7 +5025,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5081,7 +5081,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5233,7 +5233,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5261,7 +5261,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5317,7 +5317,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>

--- a/suivis_connaissance.xlsx
+++ b/suivis_connaissance.xlsx
@@ -3693,7 +3693,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3721,7 +3721,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3901,7 +3901,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3929,7 +3929,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4137,7 +4137,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4165,7 +4165,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4345,7 +4345,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4373,7 +4373,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4581,7 +4581,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4609,7 +4609,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4789,7 +4789,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4817,7 +4817,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5025,7 +5025,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5053,7 +5053,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5261,7 +5261,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5289,7 +5289,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5345,7 +5345,7 @@
     <xdr:ext cx="1143000" cy="1143000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image11.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image12.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5373,7 +5373,7 @@
     <xdr:ext cx="2790825" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image12.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image11.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>

--- a/suivis_connaissance.xlsx
+++ b/suivis_connaissance.xlsx
@@ -3665,7 +3665,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3721,7 +3721,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3749,7 +3749,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3777,7 +3777,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3873,7 +3873,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3929,7 +3929,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3957,7 +3957,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3985,7 +3985,7 @@
     <xdr:ext cx="1409700" cy="790575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image14.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image13.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4013,7 +4013,7 @@
     <xdr:ext cx="2743200" cy="2743200"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image13.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image14.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4109,7 +4109,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4165,7 +4165,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4193,7 +4193,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4221,7 +4221,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4317,7 +4317,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4373,7 +4373,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4401,7 +4401,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4429,7 +4429,7 @@
     <xdr:ext cx="2695575" cy="2695575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image4.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4457,7 +4457,7 @@
     <xdr:ext cx="1676400" cy="1038225"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.jpg" title="Image"/>
+        <xdr:cNvPr id="0" name="image7.jpg" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4553,7 +4553,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4609,7 +4609,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4637,7 +4637,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4665,7 +4665,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4761,7 +4761,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4817,7 +4817,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4845,7 +4845,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4873,7 +4873,7 @@
     <xdr:ext cx="1628775" cy="1143000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image8.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image10.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4901,7 +4901,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4997,7 +4997,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5053,7 +5053,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5081,7 +5081,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5109,7 +5109,7 @@
     <xdr:ext cx="1685925" cy="1181100"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image10.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image9.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5137,7 +5137,7 @@
     <xdr:ext cx="2800350" cy="2447925"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image9.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image8.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5233,7 +5233,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5289,7 +5289,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5317,7 +5317,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5345,7 +5345,7 @@
     <xdr:ext cx="1143000" cy="1143000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image12.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image11.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5373,7 +5373,7 @@
     <xdr:ext cx="2790825" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image11.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image12.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>

--- a/suivis_connaissance.xlsx
+++ b/suivis_connaissance.xlsx
@@ -3665,7 +3665,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image6.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3693,7 +3693,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image7.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3721,7 +3721,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3749,7 +3749,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image6.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3777,7 +3777,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3873,7 +3873,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image6.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3901,7 +3901,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image7.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3929,7 +3929,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3957,7 +3957,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image6.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3985,7 +3985,7 @@
     <xdr:ext cx="1409700" cy="790575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image13.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image10.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4013,7 +4013,7 @@
     <xdr:ext cx="2743200" cy="2743200"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image14.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image12.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4109,7 +4109,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image6.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4137,7 +4137,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image7.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4165,7 +4165,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4193,7 +4193,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image6.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4317,7 +4317,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image6.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4345,7 +4345,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image7.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4373,7 +4373,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4401,7 +4401,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image6.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4429,7 +4429,7 @@
     <xdr:ext cx="2695575" cy="2695575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image8.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4457,7 +4457,7 @@
     <xdr:ext cx="1676400" cy="1038225"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.jpg" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.jpg" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4553,7 +4553,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image6.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4581,7 +4581,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image7.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4609,7 +4609,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4637,7 +4637,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image6.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4665,7 +4665,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4761,7 +4761,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image6.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4789,7 +4789,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image7.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4817,7 +4817,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4845,7 +4845,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image6.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4873,7 +4873,7 @@
     <xdr:ext cx="1628775" cy="1143000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image10.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image4.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4901,7 +4901,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4997,7 +4997,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image6.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5025,7 +5025,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image7.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5053,7 +5053,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5081,7 +5081,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image6.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5109,7 +5109,7 @@
     <xdr:ext cx="1685925" cy="1181100"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image9.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image13.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5137,7 +5137,7 @@
     <xdr:ext cx="2800350" cy="2447925"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image8.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image9.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5233,7 +5233,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image6.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5261,7 +5261,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image7.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5289,7 +5289,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5317,7 +5317,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image6.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5345,7 +5345,7 @@
     <xdr:ext cx="1143000" cy="1143000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image11.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image14.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5373,7 +5373,7 @@
     <xdr:ext cx="2790825" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image12.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image11.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>

--- a/suivis_connaissance.xlsx
+++ b/suivis_connaissance.xlsx
@@ -3665,7 +3665,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3693,7 +3693,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3721,7 +3721,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3749,7 +3749,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3777,7 +3777,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image7.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3873,7 +3873,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3901,7 +3901,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3929,7 +3929,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3957,7 +3957,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3985,7 +3985,7 @@
     <xdr:ext cx="1409700" cy="790575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image10.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image14.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4013,7 +4013,7 @@
     <xdr:ext cx="2743200" cy="2743200"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image12.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image13.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4109,7 +4109,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4137,7 +4137,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4165,7 +4165,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4193,7 +4193,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4221,7 +4221,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image4.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4317,7 +4317,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4345,7 +4345,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4373,7 +4373,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4401,7 +4401,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4429,7 +4429,7 @@
     <xdr:ext cx="2695575" cy="2695575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image8.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4457,7 +4457,7 @@
     <xdr:ext cx="1676400" cy="1038225"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg" title="Image"/>
+        <xdr:cNvPr id="0" name="image6.jpg" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4553,7 +4553,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4581,7 +4581,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4609,7 +4609,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4637,7 +4637,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4665,7 +4665,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image7.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4761,7 +4761,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4789,7 +4789,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4817,7 +4817,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4845,7 +4845,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4873,7 +4873,7 @@
     <xdr:ext cx="1628775" cy="1143000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image8.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4901,7 +4901,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image7.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4997,7 +4997,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5025,7 +5025,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5053,7 +5053,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5081,7 +5081,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5109,7 +5109,7 @@
     <xdr:ext cx="1685925" cy="1181100"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image13.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image9.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5137,7 +5137,7 @@
     <xdr:ext cx="2800350" cy="2447925"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image9.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image10.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5233,7 +5233,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5261,7 +5261,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5289,7 +5289,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5317,7 +5317,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5345,7 +5345,7 @@
     <xdr:ext cx="1143000" cy="1143000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image14.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image11.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5373,7 +5373,7 @@
     <xdr:ext cx="2790825" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image11.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image12.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>

--- a/suivis_connaissance.xlsx
+++ b/suivis_connaissance.xlsx
@@ -790,7 +790,8 @@
   </si>
   <si>
     <t>Suivi de l'évolution de la répartition et précision des limites de l'aire de répartition en Île-de-France.
-Etude de l'hybridation avec le chat domestique.</t>
+Etude de l'hybridation avec le chat domestique.
+Evaluation des continuité écologiques pour l'espèce</t>
   </si>
   <si>
     <r>
@@ -3330,6 +3331,9 @@
     <xf borderId="45" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="41" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
     <xf borderId="13" fillId="2" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
@@ -3347,9 +3351,6 @@
     </xf>
     <xf borderId="27" fillId="4" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="41" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="27" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -3665,7 +3666,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3721,7 +3722,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3749,7 +3750,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3873,7 +3874,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3929,7 +3930,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3957,7 +3958,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3985,7 +3986,7 @@
     <xdr:ext cx="1409700" cy="790575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image14.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image12.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4109,7 +4110,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4165,7 +4166,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4193,7 +4194,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4317,7 +4318,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4373,7 +4374,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4401,7 +4402,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4553,7 +4554,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4609,7 +4610,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4637,7 +4638,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4761,7 +4762,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4817,7 +4818,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4845,7 +4846,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4873,7 +4874,7 @@
     <xdr:ext cx="1628775" cy="1143000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image8.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image14.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4997,7 +4998,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5053,7 +5054,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5081,7 +5082,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5109,7 +5110,7 @@
     <xdr:ext cx="1685925" cy="1181100"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image9.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image11.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5137,7 +5138,7 @@
     <xdr:ext cx="2800350" cy="2447925"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image10.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image8.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5233,7 +5234,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5289,7 +5290,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5317,7 +5318,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5345,7 +5346,7 @@
     <xdr:ext cx="1143000" cy="1143000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image11.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image10.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5373,7 +5374,7 @@
     <xdr:ext cx="2790825" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image12.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image9.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5965,7 +5966,7 @@
       <c r="B12" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="81" t="s">
+      <c r="C12" s="132" t="s">
         <v>104</v>
       </c>
       <c r="D12" s="63"/>
@@ -6434,7 +6435,7 @@
       </c>
       <c r="Q29" s="8"/>
       <c r="R29" s="18"/>
-      <c r="S29" s="132" t="inlineStr">
+      <c r="S29" s="133" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -6468,7 +6469,7 @@
       </c>
       <c r="Q30" s="8"/>
       <c r="R30" s="18"/>
-      <c r="S30" s="132" t="inlineStr">
+      <c r="S30" s="133" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -6984,7 +6985,7 @@
       <c r="D47" s="96"/>
       <c r="E47" s="96"/>
       <c r="F47" s="97"/>
-      <c r="G47" s="133" t="inlineStr">
+      <c r="G47" s="134" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -7001,7 +7002,7 @@
       </c>
       <c r="N47" s="8"/>
       <c r="O47" s="18"/>
-      <c r="P47" s="134" t="inlineStr">
+      <c r="P47" s="135" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -7028,7 +7029,7 @@
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="18"/>
-      <c r="G48" s="134" t="inlineStr">
+      <c r="G48" s="135" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -7043,7 +7044,7 @@
       </c>
       <c r="N48" s="8"/>
       <c r="O48" s="18"/>
-      <c r="P48" s="134" t="inlineStr">
+      <c r="P48" s="135" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -7062,7 +7063,7 @@
       <c r="AB48" s="38"/>
     </row>
     <row customHeight="1" ht="15.75" r="49">
-      <c r="A49" s="135">
+      <c r="A49" s="136">
         <v>45743.0</v>
       </c>
       <c r="B49" s="18"/>
@@ -7072,7 +7073,7 @@
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="18"/>
-      <c r="G49" s="134" t="inlineStr">
+      <c r="G49" s="135" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -7087,7 +7088,7 @@
       </c>
       <c r="N49" s="8"/>
       <c r="O49" s="18"/>
-      <c r="P49" s="136" t="inlineStr">
+      <c r="P49" s="137" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -13416,7 +13417,7 @@
       <c r="M6" s="128" t="s">
         <v>98</v>
       </c>
-      <c r="N6" s="137">
+      <c r="N6" s="138">
         <v>45689.0</v>
       </c>
       <c r="O6" s="36"/>
@@ -13604,7 +13605,7 @@
       <c r="B12" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="138" t="s">
+      <c r="C12" s="132" t="s">
         <v>135</v>
       </c>
       <c r="D12" s="63"/>
@@ -13722,7 +13723,7 @@
       <c r="B16" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="138" t="s">
+      <c r="C16" s="132" t="s">
         <v>137</v>
       </c>
       <c r="D16" s="63"/>
@@ -14073,7 +14074,7 @@
       </c>
       <c r="Q29" s="8"/>
       <c r="R29" s="18"/>
-      <c r="S29" s="132" t="inlineStr">
+      <c r="S29" s="133" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -14621,7 +14622,7 @@
       <c r="D47" s="96"/>
       <c r="E47" s="96"/>
       <c r="F47" s="97"/>
-      <c r="G47" s="133" t="inlineStr">
+      <c r="G47" s="134" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -14638,7 +14639,7 @@
       </c>
       <c r="N47" s="8"/>
       <c r="O47" s="18"/>
-      <c r="P47" s="134" t="inlineStr">
+      <c r="P47" s="135" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -14665,7 +14666,7 @@
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="18"/>
-      <c r="G48" s="134" t="inlineStr">
+      <c r="G48" s="135" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -14680,7 +14681,7 @@
       </c>
       <c r="N48" s="8"/>
       <c r="O48" s="18"/>
-      <c r="P48" s="134" t="inlineStr">
+      <c r="P48" s="135" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -14699,7 +14700,7 @@
       <c r="AB48" s="38"/>
     </row>
     <row customHeight="1" ht="15.75" r="49">
-      <c r="A49" s="135">
+      <c r="A49" s="136">
         <v>45743.0</v>
       </c>
       <c r="B49" s="18"/>
@@ -14718,7 +14719,7 @@
       </c>
       <c r="N49" s="8"/>
       <c r="O49" s="18"/>
-      <c r="P49" s="134" t="inlineStr">
+      <c r="P49" s="135" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -21352,7 +21353,7 @@
       <c r="B16" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="138" t="s">
+      <c r="C16" s="132" t="s">
         <v>163</v>
       </c>
       <c r="D16" s="63"/>
@@ -21733,7 +21734,7 @@
       </c>
       <c r="Q30" s="8"/>
       <c r="R30" s="18"/>
-      <c r="S30" s="132" t="inlineStr">
+      <c r="S30" s="133" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -22263,7 +22264,7 @@
       <c r="D47" s="96"/>
       <c r="E47" s="96"/>
       <c r="F47" s="97"/>
-      <c r="G47" s="133" t="inlineStr">
+      <c r="G47" s="134" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -22280,7 +22281,7 @@
       </c>
       <c r="N47" s="8"/>
       <c r="O47" s="18"/>
-      <c r="P47" s="134" t="inlineStr">
+      <c r="P47" s="135" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -22335,7 +22336,7 @@
       <c r="AB48" s="38"/>
     </row>
     <row customHeight="1" ht="15.75" r="49">
-      <c r="A49" s="135">
+      <c r="A49" s="136">
         <v>45743.0</v>
       </c>
       <c r="B49" s="18"/>
@@ -29330,7 +29331,7 @@
       </c>
       <c r="Q29" s="8"/>
       <c r="R29" s="18"/>
-      <c r="S29" s="132" t="inlineStr">
+      <c r="S29" s="133" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -29892,7 +29893,7 @@
       <c r="D47" s="96"/>
       <c r="E47" s="96"/>
       <c r="F47" s="97"/>
-      <c r="G47" s="133" t="inlineStr">
+      <c r="G47" s="134" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -29936,7 +29937,7 @@
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="18"/>
-      <c r="G48" s="134" t="inlineStr">
+      <c r="G48" s="135" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -29970,7 +29971,7 @@
       <c r="AB48" s="38"/>
     </row>
     <row customHeight="1" ht="15.75" r="49">
-      <c r="A49" s="135">
+      <c r="A49" s="136">
         <v>45743.0</v>
       </c>
       <c r="B49" s="18"/>
@@ -37537,7 +37538,7 @@
       <c r="D47" s="96"/>
       <c r="E47" s="96"/>
       <c r="F47" s="97"/>
-      <c r="G47" s="133" t="inlineStr">
+      <c r="G47" s="134" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -37554,7 +37555,7 @@
       </c>
       <c r="N47" s="8"/>
       <c r="O47" s="18"/>
-      <c r="P47" s="136" t="inlineStr">
+      <c r="P47" s="137" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -37581,7 +37582,7 @@
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="18"/>
-      <c r="G48" s="134" t="inlineStr">
+      <c r="G48" s="135" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -37615,7 +37616,7 @@
       <c r="AB48" s="38"/>
     </row>
     <row customHeight="1" ht="15.75" r="49">
-      <c r="A49" s="135">
+      <c r="A49" s="136">
         <v>45743.0</v>
       </c>
       <c r="B49" s="18"/>
@@ -44618,7 +44619,7 @@
       </c>
       <c r="Q29" s="8"/>
       <c r="R29" s="18"/>
-      <c r="S29" s="132" t="inlineStr">
+      <c r="S29" s="133" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -44652,7 +44653,7 @@
       </c>
       <c r="Q30" s="8"/>
       <c r="R30" s="18"/>
-      <c r="S30" s="132" t="inlineStr">
+      <c r="S30" s="133" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -44686,7 +44687,7 @@
       </c>
       <c r="Q31" s="8"/>
       <c r="R31" s="18"/>
-      <c r="S31" s="132" t="inlineStr">
+      <c r="S31" s="133" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -44744,7 +44745,7 @@
       </c>
       <c r="Q33" s="8"/>
       <c r="R33" s="18"/>
-      <c r="S33" s="132" t="inlineStr">
+      <c r="S33" s="133" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -45233,7 +45234,7 @@
       </c>
       <c r="N47" s="8"/>
       <c r="O47" s="18"/>
-      <c r="P47" s="134" t="inlineStr">
+      <c r="P47" s="135" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -45260,7 +45261,7 @@
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="18"/>
-      <c r="G48" s="134" t="inlineStr">
+      <c r="G48" s="135" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -45275,7 +45276,7 @@
       </c>
       <c r="N48" s="8"/>
       <c r="O48" s="18"/>
-      <c r="P48" s="134" t="inlineStr">
+      <c r="P48" s="135" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -45294,7 +45295,7 @@
       <c r="AB48" s="38"/>
     </row>
     <row customHeight="1" ht="15.75" r="49">
-      <c r="A49" s="135">
+      <c r="A49" s="136">
         <v>45743.0</v>
       </c>
       <c r="B49" s="18"/>
@@ -45304,7 +45305,7 @@
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="18"/>
-      <c r="G49" s="134" t="inlineStr">
+      <c r="G49" s="135" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -45319,7 +45320,7 @@
       </c>
       <c r="N49" s="8"/>
       <c r="O49" s="18"/>
-      <c r="P49" s="134" t="inlineStr">
+      <c r="P49" s="135" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -52307,7 +52308,7 @@
       </c>
       <c r="Q29" s="8"/>
       <c r="R29" s="18"/>
-      <c r="S29" s="132" t="inlineStr">
+      <c r="S29" s="133" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -52887,7 +52888,7 @@
       <c r="D47" s="96"/>
       <c r="E47" s="96"/>
       <c r="F47" s="97"/>
-      <c r="G47" s="133" t="inlineStr">
+      <c r="G47" s="134" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -52931,7 +52932,7 @@
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="18"/>
-      <c r="G48" s="134" t="inlineStr">
+      <c r="G48" s="135" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -52946,7 +52947,7 @@
       </c>
       <c r="N48" s="8"/>
       <c r="O48" s="18"/>
-      <c r="P48" s="134" t="inlineStr">
+      <c r="P48" s="135" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -52965,7 +52966,7 @@
       <c r="AB48" s="38"/>
     </row>
     <row customHeight="1" ht="15.75" r="49">
-      <c r="A49" s="135">
+      <c r="A49" s="136">
         <v>45743.0</v>
       </c>
       <c r="B49" s="18"/>
@@ -59493,7 +59494,7 @@
       <c r="B12" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="138" t="s">
+      <c r="C12" s="132" t="s">
         <v>299</v>
       </c>
       <c r="D12" s="63"/>
@@ -60601,7 +60602,7 @@
       </c>
       <c r="N48" s="8"/>
       <c r="O48" s="18"/>
-      <c r="P48" s="136" t="inlineStr">
+      <c r="P48" s="137" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -60645,7 +60646,7 @@
       </c>
       <c r="N49" s="8"/>
       <c r="O49" s="18"/>
-      <c r="P49" s="136" t="inlineStr">
+      <c r="P49" s="137" t="inlineStr">
         <is>
           <t/>
         </is>

--- a/suivis_connaissance.xlsx
+++ b/suivis_connaissance.xlsx
@@ -1166,7 +1166,7 @@
 Saisie des données</t>
   </si>
   <si>
-    <t>Suivre l’évolution de l’aire de répartitions des 14 espèces, la dynamique de certaines populations et améliorer les connaissances sur leur écologie.
+    <t>Suivre l’évolution de l’aire de répartitions des espèces, la dynamique de certaines populations et améliorer les connaissances sur leur écologie.
 Former et partager les connaissances sur l’écologie de ces espèces.
 Apporter une expertise technique et des conseils pour la gestion des espèces, évaluer la mise en œuvre des règlementations.</t>
   </si>
@@ -3666,7 +3666,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image4.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3694,7 +3694,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3722,7 +3722,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3750,7 +3750,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image4.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3874,7 +3874,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image4.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3902,7 +3902,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3930,7 +3930,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3958,7 +3958,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image4.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3986,7 +3986,7 @@
     <xdr:ext cx="1409700" cy="790575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image12.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image14.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4110,7 +4110,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image4.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4138,7 +4138,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4166,7 +4166,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4194,7 +4194,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image4.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4222,7 +4222,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4318,7 +4318,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image4.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4346,7 +4346,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4374,7 +4374,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4402,7 +4402,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image4.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4554,7 +4554,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image4.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4582,7 +4582,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4610,7 +4610,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4638,7 +4638,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image4.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4762,7 +4762,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image4.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4790,7 +4790,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4818,7 +4818,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4846,7 +4846,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image4.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4874,7 +4874,7 @@
     <xdr:ext cx="1628775" cy="1143000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image14.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image8.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4998,7 +4998,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image4.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5026,7 +5026,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5054,7 +5054,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5082,7 +5082,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image4.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5110,7 +5110,7 @@
     <xdr:ext cx="1685925" cy="1181100"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image11.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image10.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5138,7 +5138,7 @@
     <xdr:ext cx="2800350" cy="2447925"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image8.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image9.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5234,7 +5234,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image4.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5262,7 +5262,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5290,7 +5290,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5318,7 +5318,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image4.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5346,7 +5346,7 @@
     <xdr:ext cx="1143000" cy="1143000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image10.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image12.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5374,7 +5374,7 @@
     <xdr:ext cx="2790825" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image9.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image11.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>

--- a/suivis_connaissance.xlsx
+++ b/suivis_connaissance.xlsx
@@ -3666,7 +3666,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3694,7 +3694,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3722,7 +3722,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3750,7 +3750,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3874,7 +3874,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3902,7 +3902,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3930,7 +3930,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3958,7 +3958,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4110,7 +4110,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4138,7 +4138,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4166,7 +4166,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4194,7 +4194,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4222,7 +4222,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image4.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4318,7 +4318,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4346,7 +4346,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4374,7 +4374,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4402,7 +4402,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4554,7 +4554,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4582,7 +4582,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4610,7 +4610,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4638,7 +4638,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4762,7 +4762,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4790,7 +4790,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4818,7 +4818,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4846,7 +4846,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4998,7 +4998,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5026,7 +5026,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5054,7 +5054,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5082,7 +5082,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5234,7 +5234,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5262,7 +5262,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5290,7 +5290,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5318,7 +5318,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5346,7 +5346,7 @@
     <xdr:ext cx="1143000" cy="1143000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image12.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image11.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5374,7 +5374,7 @@
     <xdr:ext cx="2790825" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image11.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image12.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>

--- a/suivis_connaissance.xlsx
+++ b/suivis_connaissance.xlsx
@@ -3666,7 +3666,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3694,7 +3694,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3750,7 +3750,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3874,7 +3874,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3902,7 +3902,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3958,7 +3958,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4110,7 +4110,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4138,7 +4138,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4194,7 +4194,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4318,7 +4318,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4346,7 +4346,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4402,7 +4402,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4554,7 +4554,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4582,7 +4582,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4638,7 +4638,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4762,7 +4762,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4790,7 +4790,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4846,7 +4846,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4998,7 +4998,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5026,7 +5026,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5082,7 +5082,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5234,7 +5234,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5262,7 +5262,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5318,7 +5318,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5346,7 +5346,7 @@
     <xdr:ext cx="1143000" cy="1143000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image11.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image12.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5374,7 +5374,7 @@
     <xdr:ext cx="2790825" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image12.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image11.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>

--- a/suivis_connaissance.xlsx
+++ b/suivis_connaissance.xlsx
@@ -3666,7 +3666,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3694,7 +3694,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3722,7 +3722,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3750,7 +3750,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3874,7 +3874,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3902,7 +3902,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3930,7 +3930,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3958,7 +3958,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4110,7 +4110,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4138,7 +4138,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4166,7 +4166,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4194,7 +4194,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4318,7 +4318,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4346,7 +4346,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4374,7 +4374,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4402,7 +4402,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4554,7 +4554,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4582,7 +4582,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4610,7 +4610,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4638,7 +4638,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4762,7 +4762,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4790,7 +4790,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4818,7 +4818,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4846,7 +4846,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4998,7 +4998,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5026,7 +5026,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5054,7 +5054,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5082,7 +5082,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5234,7 +5234,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5262,7 +5262,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5290,7 +5290,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5318,7 +5318,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>

--- a/suivis_connaissance.xlsx
+++ b/suivis_connaissance.xlsx
@@ -1900,7 +1900,7 @@
     <t>Caractérisation des obstacles à l'écoulement</t>
   </si>
   <si>
-    <t>Le ROE permet d’avoir une information spatialisée sur les obstacles à l’écoulement des cours d’eau d’origine humaine (caractéristiques, usages, gestion). Cette information peut être complétée dans la BDOE.</t>
+    <t>Le ROE permet d’avoir une information spatialisée et standardisée sur les obstacles à l’écoulement des cours d’eau d’origine humaine (caractéristiques, usages, gestion). Cette information peut être complétée dans la BDOE.</t>
   </si>
   <si>
     <t>Outil Géobs:
@@ -1918,7 +1918,7 @@
 Validation</t>
   </si>
   <si>
-    <t>Collecter et animer la collecte d’informations objectives sur le nombre, la localisation et les caractéristiques des obstacles à l’écoulement sur les cours d’eau</t>
+    <t>Collecter des informations objectives sur le nombre, la localisation et les caractéristiques des obstacles à l’écoulement sur les cours d’eau</t>
   </si>
   <si>
     <r>
@@ -3056,7 +3056,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="176">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3391,6 +3391,9 @@
     <xf borderId="52" fillId="2" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="41" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
     <xf borderId="51" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
@@ -3694,7 +3697,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3722,7 +3725,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3778,7 +3781,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image12.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3902,7 +3905,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3930,7 +3933,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4014,7 +4017,7 @@
     <xdr:ext cx="2743200" cy="2743200"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image13.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image11.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4138,7 +4141,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4166,7 +4169,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4222,7 +4225,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4346,7 +4349,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4374,7 +4377,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4430,7 +4433,7 @@
     <xdr:ext cx="2695575" cy="2695575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image4.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4582,7 +4585,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4610,7 +4613,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4666,7 +4669,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image12.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4790,7 +4793,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4818,7 +4821,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4874,7 +4877,7 @@
     <xdr:ext cx="1628775" cy="1143000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image8.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image10.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4902,7 +4905,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image12.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5026,7 +5029,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5054,7 +5057,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5110,7 +5113,7 @@
     <xdr:ext cx="1685925" cy="1181100"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image10.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image13.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5138,7 +5141,7 @@
     <xdr:ext cx="2800350" cy="2447925"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image9.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image7.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5262,7 +5265,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5290,7 +5293,7 @@
     <xdr:ext cx="504825" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5346,7 +5349,7 @@
     <xdr:ext cx="1143000" cy="1143000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image12.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image9.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5374,7 +5377,7 @@
     <xdr:ext cx="2790825" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image11.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image8.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -6430,7 +6433,7 @@
       </c>
       <c r="N29" s="35"/>
       <c r="O29" s="87"/>
-      <c r="P29" s="171" t="str">
+      <c r="P29" s="172" t="str">
         <f>=HYPERLINK("https://openobs.mnhn.fr/", "SINP national")</f>
       </c>
       <c r="Q29" s="8"/>
@@ -6464,7 +6467,7 @@
       <c r="L30" s="65"/>
       <c r="M30" s="39"/>
       <c r="O30" s="67"/>
-      <c r="P30" s="171" t="str">
+      <c r="P30" s="172" t="str">
         <f>=HYPERLINK("https://geonature.arb-idf.fr/geonature/%23/synthese", "Géonat'IdF (CA: Etude Chat forestier) ")</f>
       </c>
       <c r="Q30" s="8"/>
@@ -6979,7 +6982,7 @@
         <v>93</v>
       </c>
       <c r="B47" s="33"/>
-      <c r="C47" s="169" t="str">
+      <c r="C47" s="170" t="str">
         <f>=HYPERLINK("https://professionnels.ofb.fr/fr/doc-fiches-especes/chat-forestier-felis-silvestris-silvestris", "Fiche espèce")</f>
       </c>
       <c r="D47" s="96"/>
@@ -6997,7 +7000,7 @@
         <v>93</v>
       </c>
       <c r="L47" s="18"/>
-      <c r="M47" s="170" t="str">
+      <c r="M47" s="171" t="str">
         <f>=HYPERLINK("https://ged.ofb.fr/share/page/site/etude-chat-forestier-idf/dashboard", "SiteAlfresco de l'étude IdF")</f>
       </c>
       <c r="N47" s="8"/>
@@ -7023,7 +7026,7 @@
     <row customHeight="1" ht="15.75" r="48">
       <c r="A48" s="33"/>
       <c r="B48" s="33"/>
-      <c r="C48" s="170" t="str">
+      <c r="C48" s="171" t="str">
         <f>=HYPERLINK("https://oai-gem.ofb.fr/exl-php/document-affiche/ofb_recherche_oai/OUVRE_DOC/49974?fic=doc00073302.pdf", "Livret de présentation de l'étude IdF")</f>
       </c>
       <c r="D48" s="8"/>
@@ -7039,7 +7042,7 @@
       <c r="J48" s="18"/>
       <c r="K48" s="33"/>
       <c r="L48" s="33"/>
-      <c r="M48" s="170" t="str">
+      <c r="M48" s="171" t="str">
         <f>=HYPERLINK("https://ged.ofb.fr/share/s/sY4zG36QS1aDJ34fKNlrhw", "Protocole")</f>
       </c>
       <c r="N48" s="8"/>
@@ -7067,7 +7070,7 @@
         <v>45743.0</v>
       </c>
       <c r="B49" s="18"/>
-      <c r="C49" s="170" t="str">
+      <c r="C49" s="171" t="str">
         <f>=HYPERLINK("https://www.youtube.com/watch?v=UopppCJfUHA", "Vidéo MNHN")</f>
       </c>
       <c r="D49" s="8"/>
@@ -7083,7 +7086,7 @@
       <c r="J49" s="18"/>
       <c r="K49" s="33"/>
       <c r="L49" s="33"/>
-      <c r="M49" s="170" t="str">
+      <c r="M49" s="171" t="str">
         <f>=HYPERLINK("file://ad.intra/dfs/COMMUNS/REGIONS/IDF/DR/05_CONNAISSANCE/PMC/Chat_Forestier%20", "Serveur DR")</f>
       </c>
       <c r="N49" s="8"/>
@@ -14069,7 +14072,7 @@
       </c>
       <c r="N29" s="35"/>
       <c r="O29" s="87"/>
-      <c r="P29" s="171" t="str">
+      <c r="P29" s="172" t="str">
         <f>=HYPERLINK("https://carmen.carmencarto.fr/38/Castor.map", "Carte nationale de présence")</f>
       </c>
       <c r="Q29" s="8"/>
@@ -14616,7 +14619,7 @@
         <v>93</v>
       </c>
       <c r="B47" s="33"/>
-      <c r="C47" s="169" t="str">
+      <c r="C47" s="170" t="str">
         <f>=HYPERLINK("https://professionnels.ofb.fr/fr/reseau-castor", "Le réseau Castor")</f>
       </c>
       <c r="D47" s="96"/>
@@ -14634,7 +14637,7 @@
         <v>93</v>
       </c>
       <c r="L47" s="18"/>
-      <c r="M47" s="170" t="str">
+      <c r="M47" s="171" t="str">
         <f>=HYPERLINK("https://ged.ofb.fr/share/page/site/dridf-rseau-partenarial-castor/dashboard", "Site du réseau castor IdF")</f>
       </c>
       <c r="N47" s="8"/>
@@ -14660,7 +14663,7 @@
     <row customHeight="1" ht="15.75" r="48">
       <c r="A48" s="33"/>
       <c r="B48" s="33"/>
-      <c r="C48" s="170" t="str">
+      <c r="C48" s="171" t="str">
         <f>=HYPERLINK("https://professionnels.ofb.fr/fr/doc-fiches-especes/castor-deurope-castor-fiber", "Fiche espèce")</f>
       </c>
       <c r="D48" s="8"/>
@@ -14676,7 +14679,7 @@
       <c r="J48" s="18"/>
       <c r="K48" s="33"/>
       <c r="L48" s="33"/>
-      <c r="M48" s="170" t="str">
+      <c r="M48" s="171" t="str">
         <f>=HYPERLINK("https://ged.ofb.fr/share/s/giB4EPFIRPmsQZiGFeYY0A", "Protocole")</f>
       </c>
       <c r="N48" s="8"/>
@@ -14714,7 +14717,7 @@
       <c r="J49" s="18"/>
       <c r="K49" s="33"/>
       <c r="L49" s="33"/>
-      <c r="M49" s="170" t="str">
+      <c r="M49" s="171" t="str">
         <f>=HYPERLINK("http://geo.ofb.fr/rezopmcc", "Rezo PMCC")</f>
       </c>
       <c r="N49" s="8"/>
@@ -21729,7 +21732,7 @@
       <c r="L30" s="65"/>
       <c r="M30" s="39"/>
       <c r="O30" s="67"/>
-      <c r="P30" s="171" t="str">
+      <c r="P30" s="172" t="str">
         <f>=HYPERLINK("https://professionnels.ofb.fr/fr/node/1089", "Portail cartographique")</f>
       </c>
       <c r="Q30" s="8"/>
@@ -22258,7 +22261,7 @@
         <v>93</v>
       </c>
       <c r="B47" s="33"/>
-      <c r="C47" s="169" t="str">
+      <c r="C47" s="170" t="str">
         <f>=HYPERLINK("https://professionnels.ofb.fr/fr/reseau-petits-meso-carnivores", "Réseau PMCC")</f>
       </c>
       <c r="D47" s="96"/>
@@ -22276,7 +22279,7 @@
         <v>93</v>
       </c>
       <c r="L47" s="18"/>
-      <c r="M47" s="170" t="str">
+      <c r="M47" s="171" t="str">
         <f>=HYPERLINK("http://geo.ofb.fr/rezopmcc", "Rezo PMCC")</f>
       </c>
       <c r="N47" s="8"/>
@@ -22312,7 +22315,7 @@
       <c r="J48" s="18"/>
       <c r="K48" s="33"/>
       <c r="L48" s="33"/>
-      <c r="M48" s="170" t="str">
+      <c r="M48" s="171" t="str">
         <f>=HYPERLINK("file://ad.intra/dfs/COMMUNS/REGIONS/IDF/DR/05_CONNAISSANCE/PMC", "Serveur DR")</f>
       </c>
       <c r="N48" s="8"/>
@@ -29326,7 +29329,7 @@
       </c>
       <c r="N29" s="35"/>
       <c r="O29" s="87"/>
-      <c r="P29" s="171" t="str">
+      <c r="P29" s="172" t="str">
         <f>=HYPERLINK("https://www.loupfrance.fr/carte-des-indices-de-presence-transmis-au-reseau-loup-lynx/", "Carte des indices de présence")</f>
       </c>
       <c r="Q29" s="8"/>
@@ -29887,7 +29890,7 @@
         <v>93</v>
       </c>
       <c r="B47" s="33"/>
-      <c r="C47" s="169" t="str">
+      <c r="C47" s="170" t="str">
         <f>=HYPERLINK("https://www.loupfrance.fr/", "Site d'information")</f>
       </c>
       <c r="D47" s="96"/>
@@ -29905,7 +29908,7 @@
         <v>93</v>
       </c>
       <c r="L47" s="18"/>
-      <c r="M47" s="170" t="str">
+      <c r="M47" s="171" t="str">
         <f>=HYPERLINK("file://ad.intra/dfs/COMMUNS/REGIONS/IDF/DR/05_CONNAISSANCE/Loup", "Serveur DR")</f>
       </c>
       <c r="N47" s="8"/>
@@ -29931,7 +29934,7 @@
     <row customHeight="1" ht="15.75" r="48">
       <c r="A48" s="33"/>
       <c r="B48" s="33"/>
-      <c r="C48" s="170" t="str">
+      <c r="C48" s="171" t="str">
         <f>=HYPERLINK("https://agriculture.gouv.fr/plan-loup-un-nouveau-cadre-national-dactions-pour-renforcer-la-coexistence-du-loup-et-des-activites", "Plan loup")</f>
       </c>
       <c r="D48" s="8"/>
@@ -29947,7 +29950,7 @@
       <c r="J48" s="18"/>
       <c r="K48" s="33"/>
       <c r="L48" s="33"/>
-      <c r="M48" s="170" t="str">
+      <c r="M48" s="171" t="str">
         <f>=HYPERLINK("file://ad.intra/dfs/COMMUNS/REGIONS/IDF/DR/05_CONNAISSANCE/Loup/Guide%20r%C3%A9flexe%20r%C3%A9seau%20Loup%20Lynx_DRIDF_v2.4.pdf", "Guide réflexe (serveur DR)")</f>
       </c>
       <c r="N48" s="8"/>
@@ -36961,7 +36964,7 @@
       </c>
       <c r="N29" s="35"/>
       <c r="O29" s="87"/>
-      <c r="P29" s="171" t="str">
+      <c r="P29" s="172" t="str">
         <f>=HYPERLINK("https://professionnels.ofb.fr/fr/node/1273", "Lettres d'information")</f>
       </c>
       <c r="Q29" s="8"/>
@@ -37532,7 +37535,7 @@
         <v>93</v>
       </c>
       <c r="B47" s="33"/>
-      <c r="C47" s="169" t="str">
+      <c r="C47" s="170" t="str">
         <f>=HYPERLINK("https://professionnels.ofb.fr/fr/reseau-becasse", "Réseau Bécasse")</f>
       </c>
       <c r="D47" s="96"/>
@@ -37550,7 +37553,7 @@
         <v>93</v>
       </c>
       <c r="L47" s="18"/>
-      <c r="M47" s="170" t="str">
+      <c r="M47" s="171" t="str">
         <f>=HYPERLINK("file://ad.intra/dfs/COMMUNS/REGIONS/IDF/DR/05_CONNAISSANCE/Becasse/", "Serveur DR")</f>
       </c>
       <c r="N47" s="8"/>
@@ -37576,7 +37579,7 @@
     <row customHeight="1" ht="15.75" r="48">
       <c r="A48" s="33"/>
       <c r="B48" s="33"/>
-      <c r="C48" s="170" t="str">
+      <c r="C48" s="171" t="str">
         <f>=HYPERLINK("https://professionnels.ofb.fr/fr/doc-fiches-especes/becasse-bois-scolopax-rusticola", "Fiche espèce")</f>
       </c>
       <c r="D48" s="8"/>
@@ -37592,7 +37595,7 @@
       <c r="J48" s="18"/>
       <c r="K48" s="33"/>
       <c r="L48" s="33"/>
-      <c r="M48" s="170" t="str">
+      <c r="M48" s="171" t="str">
         <f>=HYPERLINK("https://drive.google.com/file/d/1PqClJnFQb2zpZGFF9P2s93YpivuMclmu/view", "Protocole de suivi Hivernage (capture et baguage)")</f>
       </c>
       <c r="N48" s="8"/>
@@ -37620,7 +37623,7 @@
         <v>45743.0</v>
       </c>
       <c r="B49" s="18"/>
-      <c r="C49" s="172" t="str">
+      <c r="C49" s="173" t="str">
         <f>=HYPERLINK("https://inpn.mnhn.fr/docs/cahab/fiches/Becasse-desbois.pdf", "Cahiers d'Habitat Oiseaux")</f>
       </c>
       <c r="D49" s="8"/>
@@ -44614,7 +44617,7 @@
       </c>
       <c r="N29" s="35"/>
       <c r="O29" s="87"/>
-      <c r="P29" s="171" t="str">
+      <c r="P29" s="172" t="str">
         <f>=HYPERLINK("http://www.onde.eaufrance.fr/", "Site officiel")</f>
       </c>
       <c r="Q29" s="8"/>
@@ -44648,7 +44651,7 @@
       <c r="L30" s="65"/>
       <c r="M30" s="39"/>
       <c r="O30" s="67"/>
-      <c r="P30" s="171" t="str">
+      <c r="P30" s="172" t="str">
         <f>=HYPERLINK("https://hubeau.eaufrance.fr/page/api-ecoulement", "API Hubeau")</f>
       </c>
       <c r="Q30" s="8"/>
@@ -44682,7 +44685,7 @@
       <c r="L31" s="65"/>
       <c r="M31" s="39"/>
       <c r="O31" s="67"/>
-      <c r="P31" s="171" t="str">
+      <c r="P31" s="172" t="str">
         <f>=HYPERLINK("https://data.ofb.fr/catalogue/data-eaufrance/fre/catalog.search%23/metadata/1006fb89-6dfe-4063-b601-0c510ad31077", "Catalogue de données OFB")</f>
       </c>
       <c r="Q31" s="8"/>
@@ -44740,7 +44743,7 @@
       <c r="L33" s="65"/>
       <c r="M33" s="39"/>
       <c r="O33" s="67"/>
-      <c r="P33" s="171" t="str">
+      <c r="P33" s="172" t="str">
         <f>=HYPERLINK("https://ofb-idf.github.io/PRR_ONDE/", "Tableau de bord interne (NE PAS DIFFUSER)")</f>
       </c>
       <c r="Q33" s="8"/>
@@ -45211,7 +45214,7 @@
         <v>93</v>
       </c>
       <c r="B47" s="33"/>
-      <c r="C47" s="169" t="str">
+      <c r="C47" s="170" t="str">
         <f>=HYPERLINK("file://ad.intra/dfs/COMMUNS/REGIONS/IDF/DR/05_CONNAISSANCE/ONDE/01_Documentation/ONDE_fiche%20technique.pdf", "Plaquette de présentation (Serveur DR)")</f>
       </c>
       <c r="D47" s="96"/>
@@ -45229,7 +45232,7 @@
         <v>93</v>
       </c>
       <c r="L47" s="18"/>
-      <c r="M47" s="170" t="str">
+      <c r="M47" s="171" t="str">
         <f>=HYPERLINK("https://intranet.ofb.fr/gestion-quantitative-de-leau-et-des-secheresses", "Gestion quantitative de l'eau et sécheresses (intranet)")</f>
       </c>
       <c r="N47" s="8"/>
@@ -45255,7 +45258,7 @@
     <row customHeight="1" ht="15.75" r="48">
       <c r="A48" s="33"/>
       <c r="B48" s="33"/>
-      <c r="C48" s="170" t="str">
+      <c r="C48" s="171" t="str">
         <f>=HYPERLINK("https://www.ofb.gouv.fr/la-gestion-de-la-secheresse-en-8-questions-reponses", "La gestion de la sécheresse en 8 questions-réponses")</f>
       </c>
       <c r="D48" s="8"/>
@@ -45271,7 +45274,7 @@
       <c r="J48" s="18"/>
       <c r="K48" s="33"/>
       <c r="L48" s="33"/>
-      <c r="M48" s="170" t="str">
+      <c r="M48" s="171" t="str">
         <f>=HYPERLINK("https://intranet.ofb.fr/sites/default/files/Ressources/Th%C3%A9matiques/s%C3%A9cheresse/Fiches%20techniques_manquedeau_faune%20aquatique.pdf", "Fiches de synthèse de l'impact du manque d'eau sur la biodiversité (intranet)")</f>
       </c>
       <c r="N48" s="8"/>
@@ -45299,7 +45302,7 @@
         <v>45743.0</v>
       </c>
       <c r="B49" s="18"/>
-      <c r="C49" s="170" t="str">
+      <c r="C49" s="171" t="str">
         <f>=HYPERLINK("https://professionnels.ofb.fr/fr/doc-dataviz/dataviz-lassechement-estival-cours-deau-metropole-2012-2022", "Dataviz nationale")</f>
       </c>
       <c r="D49" s="8"/>
@@ -45315,7 +45318,7 @@
       <c r="J49" s="18"/>
       <c r="K49" s="33"/>
       <c r="L49" s="33"/>
-      <c r="M49" s="170" t="str">
+      <c r="M49" s="171" t="str">
         <f>=HYPERLINK("https://www.drieat.ile-de-france.developpement-durable.gouv.fr/bulletin-de-suivi-hydrologique-d-ile-de-france-r4864.html", "Bulletin de suivi hydrologique d'Île-de-France")</f>
       </c>
       <c r="N49" s="8"/>
@@ -51716,7 +51719,7 @@
       <c r="B8" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="152" t="s">
         <v>271</v>
       </c>
       <c r="D8" s="63"/>
@@ -51816,7 +51819,7 @@
       <c r="L11" s="78" t="s">
         <v>273</v>
       </c>
-      <c r="M11" s="152" t="s">
+      <c r="M11" s="153" t="s">
         <v>132</v>
       </c>
       <c r="N11" s="79" t="s">
@@ -51839,7 +51842,7 @@
       <c r="B12" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="81" t="s">
+      <c r="C12" s="132" t="s">
         <v>275</v>
       </c>
       <c r="D12" s="63"/>
@@ -52298,12 +52301,12 @@
       <c r="J29" s="77"/>
       <c r="K29" s="45"/>
       <c r="L29" s="65"/>
-      <c r="M29" s="153" t="s">
+      <c r="M29" s="154" t="s">
         <v>281</v>
       </c>
       <c r="N29" s="35"/>
       <c r="O29" s="87"/>
-      <c r="P29" s="171" t="str">
+      <c r="P29" s="172" t="str">
         <f>=HYPERLINK("https://www.sandre.eaufrance.fr/atlas/srv/fre/catalog.search%23/metadata/59057026-b40c-4cf9-9e3e-7296e0aa1a78", "Catalogue de données du Sandre")</f>
       </c>
       <c r="Q29" s="8"/>
@@ -52802,7 +52805,7 @@
       <c r="I44" s="73"/>
       <c r="J44" s="67"/>
       <c r="K44" s="45"/>
-      <c r="L44" s="154" t="s">
+      <c r="L44" s="155" t="s">
         <v>117</v>
       </c>
       <c r="M44" s="35"/>
@@ -52882,7 +52885,7 @@
         <v>93</v>
       </c>
       <c r="B47" s="33"/>
-      <c r="C47" s="169" t="str">
+      <c r="C47" s="170" t="str">
         <f>=HYPERLINK("https://www.ofb.gouv.fr/la-continuite-ecologique-des-cours-deau", "La continuité écologique des cours d'eau")</f>
       </c>
       <c r="D47" s="96"/>
@@ -52900,7 +52903,7 @@
         <v>93</v>
       </c>
       <c r="L47" s="18"/>
-      <c r="M47" s="170" t="str">
+      <c r="M47" s="171" t="str">
         <f>=HYPERLINK("file://ad.intra/dfs/COMMUNS/REGIONS/IDF/DR/05_CONNAISSANCE/ROE/04_Bilans", "Bilans (serveur DR)")</f>
       </c>
       <c r="N47" s="8"/>
@@ -52926,7 +52929,7 @@
     <row customHeight="1" ht="15.75" r="48">
       <c r="A48" s="33"/>
       <c r="B48" s="33"/>
-      <c r="C48" s="170" t="str">
+      <c r="C48" s="171" t="str">
         <f>=HYPERLINK("https://professionnels.ofb.fr/fr/doc-dataviz/dataviz-mieux-connaitre-ouvrages-qui-jalonnent-nos-cours-deau", "Dataviz nationale")</f>
       </c>
       <c r="D48" s="8"/>
@@ -52942,7 +52945,7 @@
       <c r="J48" s="18"/>
       <c r="K48" s="33"/>
       <c r="L48" s="33"/>
-      <c r="M48" s="170" t="str">
+      <c r="M48" s="171" t="str">
         <f>=HYPERLINK("https://professionnels.ofb.fr/fr/node/387", "La méthode ICE")</f>
       </c>
       <c r="N48" s="8"/>
@@ -59142,7 +59145,7 @@
     <row customHeight="1" ht="15.0" r="1">
       <c r="A1" s="33"/>
       <c r="B1" s="33"/>
-      <c r="C1" s="155" t="s">
+      <c r="C1" s="156" t="s">
         <v>295</v>
       </c>
       <c r="D1" s="35"/>
@@ -59312,7 +59315,7 @@
       <c r="O6" s="36"/>
       <c r="P6" s="51"/>
       <c r="Q6" s="52"/>
-      <c r="R6" s="156" t="s">
+      <c r="R6" s="157" t="s">
         <v>85</v>
       </c>
       <c r="S6" s="54"/>
@@ -59371,7 +59374,7 @@
       <c r="B8" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="157" t="s">
+      <c r="C8" s="158" t="s">
         <v>296</v>
       </c>
       <c r="D8" s="63"/>
@@ -59468,13 +59471,13 @@
       <c r="I11" s="41"/>
       <c r="J11" s="43"/>
       <c r="K11" s="68"/>
-      <c r="L11" s="152" t="s">
+      <c r="L11" s="153" t="s">
         <v>203</v>
       </c>
-      <c r="M11" s="152" t="s">
+      <c r="M11" s="153" t="s">
         <v>204</v>
       </c>
-      <c r="N11" s="154" t="s">
+      <c r="N11" s="155" t="s">
         <v>298</v>
       </c>
       <c r="O11" s="36"/>
@@ -59623,13 +59626,13 @@
       <c r="I16" s="73"/>
       <c r="J16" s="67"/>
       <c r="K16" s="45"/>
-      <c r="L16" s="154" t="s">
+      <c r="L16" s="155" t="s">
         <v>302</v>
       </c>
       <c r="M16" s="35"/>
       <c r="N16" s="35"/>
       <c r="O16" s="87"/>
-      <c r="P16" s="158" t="s">
+      <c r="P16" s="159" t="s">
         <v>303</v>
       </c>
       <c r="Q16" s="35"/>
@@ -59765,7 +59768,7 @@
       <c r="B22" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="159" t="s">
+      <c r="C22" s="160" t="s">
         <v>211</v>
       </c>
       <c r="D22" s="8"/>
@@ -59820,7 +59823,7 @@
       <c r="A24" s="45"/>
       <c r="B24" s="73"/>
       <c r="E24" s="40"/>
-      <c r="F24" s="160" t="s">
+      <c r="F24" s="161" t="s">
         <v>304</v>
       </c>
       <c r="G24" s="35"/>
@@ -59953,17 +59956,17 @@
       <c r="J29" s="77"/>
       <c r="K29" s="45"/>
       <c r="L29" s="65"/>
-      <c r="M29" s="161" t="s">
+      <c r="M29" s="162" t="s">
         <v>305</v>
       </c>
       <c r="N29" s="35"/>
       <c r="O29" s="87"/>
-      <c r="P29" s="174" t="str">
+      <c r="P29" s="175" t="str">
         <f>=HYPERLINK("https://geoservices.ign.fr/bdhaie", "BD Haie")</f>
       </c>
       <c r="Q29" s="8"/>
       <c r="R29" s="18"/>
-      <c r="S29" s="163" t="inlineStr">
+      <c r="S29" s="164" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -60215,7 +60218,7 @@
     </row>
     <row customHeight="1" ht="12.75" r="38">
       <c r="A38" s="45"/>
-      <c r="B38" s="164" t="s">
+      <c r="B38" s="165" t="s">
         <v>309</v>
       </c>
       <c r="C38" s="113" t="s">
@@ -60258,7 +60261,7 @@
     </row>
     <row customHeight="1" ht="12.75" r="39">
       <c r="A39" s="45"/>
-      <c r="B39" s="164" t="s">
+      <c r="B39" s="165" t="s">
         <v>310</v>
       </c>
       <c r="C39" s="114"/>
@@ -60363,7 +60366,7 @@
     </row>
     <row customHeight="1" ht="12.75" r="42">
       <c r="A42" s="45"/>
-      <c r="B42" s="164" t="s">
+      <c r="B42" s="165" t="s">
         <v>309</v>
       </c>
       <c r="C42" s="113" t="s">
@@ -60407,7 +60410,7 @@
     </row>
     <row customHeight="1" ht="12.75" r="43">
       <c r="A43" s="45"/>
-      <c r="B43" s="164" t="s">
+      <c r="B43" s="165" t="s">
         <v>310</v>
       </c>
       <c r="C43" s="113" t="s">
@@ -60457,7 +60460,7 @@
       <c r="I44" s="73"/>
       <c r="J44" s="67"/>
       <c r="K44" s="45"/>
-      <c r="L44" s="154" t="s">
+      <c r="L44" s="155" t="s">
         <v>311</v>
       </c>
       <c r="M44" s="35"/>
@@ -60479,7 +60482,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="45">
       <c r="A45" s="45"/>
-      <c r="B45" s="165" t="s">
+      <c r="B45" s="166" t="s">
         <v>312</v>
       </c>
       <c r="C45" s="35"/>
@@ -60537,13 +60540,13 @@
         <v>93</v>
       </c>
       <c r="B47" s="33"/>
-      <c r="C47" s="173" t="str">
+      <c r="C47" s="174" t="str">
         <f>=HYPERLINK("https://www.ofb.gouv.fr/haies-et-bocages-des-reservoirs-de-biodiversite", "Haies et bocages (Site OFB)")</f>
       </c>
       <c r="D47" s="96"/>
       <c r="E47" s="96"/>
       <c r="F47" s="97"/>
-      <c r="G47" s="167" t="inlineStr">
+      <c r="G47" s="168" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -60555,7 +60558,7 @@
         <v>93</v>
       </c>
       <c r="L47" s="18"/>
-      <c r="M47" s="172" t="str">
+      <c r="M47" s="173" t="str">
         <f>=HYPERLINK("https://professionnels.ofb.fr/fr/node/852", "Connaître la haie et le bocage")</f>
       </c>
       <c r="N47" s="8"/>
@@ -60581,7 +60584,7 @@
     <row customHeight="1" ht="15.75" r="48">
       <c r="A48" s="33"/>
       <c r="B48" s="33"/>
-      <c r="C48" s="172" t="str">
+      <c r="C48" s="173" t="str">
         <f>=HYPERLINK("https://professionnels.ofb.fr/index.php/fr/doc-comprendre-agir/lessentiel-haie", "L'essentiel sur la haie")</f>
       </c>
       <c r="D48" s="8"/>
@@ -60597,7 +60600,7 @@
       <c r="J48" s="18"/>
       <c r="K48" s="33"/>
       <c r="L48" s="33"/>
-      <c r="M48" s="172" t="str">
+      <c r="M48" s="173" t="str">
         <f>=HYPERLINK("file://ad.intra/dfs/COMMUNS/REGIONS/IDF/DR/05_CONNAISSANCE/HABITATS/Bocage/03_DSB/DNSB_TEST2021-NATIONAL.pdf", "Dispositif de suivi du bocage - Protocole")</f>
       </c>
       <c r="N48" s="8"/>
@@ -60621,11 +60624,11 @@
       <c r="AB48" s="38"/>
     </row>
     <row customHeight="1" ht="15.75" r="49">
-      <c r="A49" s="168">
+      <c r="A49" s="169">
         <v>45756.0</v>
       </c>
       <c r="B49" s="18"/>
-      <c r="C49" s="172" t="str">
+      <c r="C49" s="173" t="str">
         <f>=HYPERLINK("https://professionnels.ofb.fr/index.php/fr/haies-bocage", "Haies et bocages (Portail technique)")</f>
       </c>
       <c r="D49" s="8"/>
@@ -60641,7 +60644,7 @@
       <c r="J49" s="18"/>
       <c r="K49" s="33"/>
       <c r="L49" s="33"/>
-      <c r="M49" s="172" t="str">
+      <c r="M49" s="173" t="str">
         <f>=HYPERLINK("file://ad.intra/dfs/COMMUNS/REGIONS/IDF/DR/05_CONNAISSANCE/HABITATS/Bocage/02_ATLAS", "Atlas cartographique des densités de haies en Ile-de-France")</f>
       </c>
       <c r="N49" s="8"/>

--- a/suivis_connaissance.xlsx
+++ b/suivis_connaissance.xlsx
@@ -3669,7 +3669,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3697,7 +3697,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3753,7 +3753,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3781,7 +3781,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image12.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3877,7 +3877,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3905,7 +3905,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3961,7 +3961,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3989,7 +3989,7 @@
     <xdr:ext cx="1409700" cy="790575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image14.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image13.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4017,7 +4017,7 @@
     <xdr:ext cx="2743200" cy="2743200"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image11.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image14.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4113,7 +4113,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4141,7 +4141,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4197,7 +4197,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4225,7 +4225,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image4.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4321,7 +4321,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4349,7 +4349,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4405,7 +4405,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4433,7 +4433,7 @@
     <xdr:ext cx="2695575" cy="2695575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4461,7 +4461,7 @@
     <xdr:ext cx="1676400" cy="1038225"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.jpg" title="Image"/>
+        <xdr:cNvPr id="0" name="image7.jpg" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4557,7 +4557,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4585,7 +4585,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4641,7 +4641,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4669,7 +4669,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image12.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4765,7 +4765,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4793,7 +4793,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4849,7 +4849,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4877,7 +4877,7 @@
     <xdr:ext cx="1628775" cy="1143000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image10.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image8.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4905,7 +4905,7 @@
     <xdr:ext cx="2762250" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image12.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5001,7 +5001,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5029,7 +5029,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5085,7 +5085,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5113,7 +5113,7 @@
     <xdr:ext cx="1685925" cy="1181100"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image13.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image9.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5141,7 +5141,7 @@
     <xdr:ext cx="2800350" cy="2447925"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image11.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5237,7 +5237,7 @@
     <xdr:ext cx="1276350" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5265,7 +5265,7 @@
     <xdr:ext cx="390525" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5321,7 +5321,7 @@
     <xdr:ext cx="1257300" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5349,7 +5349,7 @@
     <xdr:ext cx="1143000" cy="1143000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image9.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image12.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5377,7 +5377,7 @@
     <xdr:ext cx="2790825" cy="2400300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image8.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image10.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
